--- a/Carga_por_aerolinea_inter.xlsx
+++ b/Carga_por_aerolinea_inter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37767DF3-0545-46F8-A325-C98A690190C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C9E32-750D-462D-B36C-0E2B15194A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
-  <si>
-    <t>Periodo</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
     <t>Canadienses</t>
   </si>
   <si>
-    <t>Centro y Sudamerica</t>
-  </si>
-  <si>
     <t>EE.UU.</t>
   </si>
   <si>
@@ -81,6 +69,18 @@
   </si>
   <si>
     <t>Carga transportada en el servicio regular internacional</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Centro y Sudamérica</t>
   </si>
 </sst>
 </file>
@@ -165,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -237,6 +237,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -259,46 +270,50 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,7 +322,7 @@
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -345,8 +360,12 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -392,7 +411,7 @@
           <bgColor theme="7"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -418,23 +437,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I82" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="B5:I82" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J85" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="B5:J85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+        <filter val="2023"/>
+        <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Periodo" dataDxfId="7"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{FA48EF7B-F12A-46F8-8CC1-BAAA08181E12}" name="Mes" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="6">
-      <calculatedColumnFormula>SUM(D6:I6)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(E6:J6)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Africanas" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Asiáticas" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{F9140D29-C7E4-4D31-B7AE-8EE26419CAD1}" name="Canadienses" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{91FE24AB-9044-4B4D-AFB5-421D9D5419B0}" name="Centro y Sudamerica" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{91FE24AB-9044-4B4D-AFB5-421D9D5419B0}" name="Centro y Sudamérica" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{5F27ADD4-283D-4D9E-93E7-161DE8FD8403}" name="EE.UU." dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{7C8EB062-BB7F-4FF9-A20A-1E02CEC6D64C}" name="Europeas" dataDxfId="0"/>
   </tableColumns>
@@ -665,2172 +686,2500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I86"/>
+  <dimension ref="B2:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="26"/>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="J5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
-        <v>45413</v>
-      </c>
-      <c r="C6" s="21">
-        <f t="shared" ref="C6:C37" si="0">SUM(D6:I6)</f>
-        <v>41698.980720699998</v>
-      </c>
-      <c r="D6" s="22">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="19">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ref="D6:D40" si="0">SUM(E6:J6)</f>
+        <v>39433.388310299997</v>
+      </c>
+      <c r="E6" s="7">
+        <v>784.92399999999998</v>
+      </c>
+      <c r="F6" s="7">
+        <v>12296.267870000001</v>
+      </c>
+      <c r="G6" s="7">
+        <v>99.649000000000001</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2503.4024399999998</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9761.9496002999986</v>
+      </c>
+      <c r="J6" s="7">
+        <v>13987.195400000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="21">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:D9" si="1">SUM(E7:J7)</f>
+        <v>40801.963929400001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>699.11900000000003</v>
+      </c>
+      <c r="F7" s="4">
+        <v>12543.787289999998</v>
+      </c>
+      <c r="G7" s="4">
+        <v>84.063999999999993</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2098.4537700000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>11053.483869400001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>14323.056</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="19">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="1"/>
+        <v>39620.932216600006</v>
+      </c>
+      <c r="E8" s="7">
+        <v>519.66999999999996</v>
+      </c>
+      <c r="F8" s="7">
+        <v>12641.439460000001</v>
+      </c>
+      <c r="G8" s="7">
+        <v>77.063999999999993</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2216.25135</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9750.3944666000007</v>
+      </c>
+      <c r="J8" s="7">
+        <v>14416.112940000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="21">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>41707.502720700002</v>
+      </c>
+      <c r="E9" s="4">
         <v>666.51599999999996</v>
       </c>
-      <c r="E6" s="22">
+      <c r="F9" s="4">
         <v>12929.211710000001</v>
       </c>
-      <c r="F6" s="22">
+      <c r="G9" s="4">
         <v>67.73</v>
       </c>
-      <c r="G6" s="22">
+      <c r="H9" s="4">
         <v>2272.335</v>
       </c>
-      <c r="H6" s="22">
+      <c r="I9" s="4">
         <v>11736.1480207</v>
       </c>
-      <c r="I6" s="22">
-        <v>14027.039990000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="9">
-        <v>45383</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="J9" s="4">
+        <v>14035.56199</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="19">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>41262.668572400005</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E10" s="7">
         <v>688.25300000000004</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F10" s="7">
         <v>12315.68958</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G10" s="7">
         <v>41.54</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H10" s="7">
         <v>2009.3571000000002</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I10" s="7">
         <v>11684.1584924</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J10" s="7">
         <v>14523.670400000001</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="8">
-        <v>45352</v>
-      </c>
-      <c r="C8" s="15">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="21">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>41329.960187400007</v>
-      </c>
-      <c r="D8" s="4">
+        <v>42983.103187400004</v>
+      </c>
+      <c r="E11" s="4">
         <v>794.28</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F11" s="4">
         <v>13886.640620000002</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G11" s="4">
         <v>59.076999999999998</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H11" s="4">
         <v>2339.2438500000003</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I11" s="4">
         <v>10445.917705400001</v>
       </c>
-      <c r="I8" s="4">
-        <v>13804.801012</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="9">
-        <v>45323</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="J11" s="4">
+        <v>15457.944012</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>40423.179039299997</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E12" s="7">
         <v>664.82100000000003</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F12" s="7">
         <v>12004.929049999999</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G12" s="7">
         <v>45.631999999999998</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H12" s="7">
         <v>1860.7841100000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I12" s="7">
         <v>11883.265289299999</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J12" s="7">
         <v>13963.747589999999</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="11">
-        <v>45292</v>
-      </c>
-      <c r="C10" s="17">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>41353.6868091</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E13" s="6">
         <v>680.31799999999998</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F13" s="6">
         <v>12601.32713</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G13" s="6">
         <v>44.356000000000002</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H13" s="6">
         <v>1755.9950999999999</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I13" s="6">
         <v>12111.205109099999</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J13" s="6">
         <v>14160.48547</v>
       </c>
     </row>
-    <row r="11" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="23">
-        <v>45261</v>
-      </c>
-      <c r="C11" s="24">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="24">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="25">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>41305.9751617</v>
       </c>
-      <c r="D11" s="25">
+      <c r="E14" s="13">
         <v>772.82399999999996</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F14" s="7">
         <v>13837.61614</v>
       </c>
-      <c r="F11" s="25">
+      <c r="G14" s="13">
         <v>74.738</v>
       </c>
-      <c r="G11" s="25">
+      <c r="H14" s="13">
         <v>2170.9023299999999</v>
       </c>
-      <c r="H11" s="25">
+      <c r="I14" s="13">
         <v>9069.6951917000006</v>
       </c>
-      <c r="I11" s="25">
+      <c r="J14" s="13">
         <v>15380.199500000001</v>
       </c>
     </row>
-    <row r="12" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C12" s="15">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="20">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="21">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>40392.089828199998</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E15" s="4">
         <v>779.80799999999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F15" s="4">
         <v>11039.539530000002</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G15" s="4">
         <v>95.251000000000005</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H15" s="4">
         <v>2158.6788999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I15" s="4">
         <v>9817.7052921999984</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J15" s="4">
         <v>16501.107105999999</v>
       </c>
     </row>
-    <row r="13" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
-        <v>45200</v>
-      </c>
-      <c r="C13" s="16">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="19">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>44801.968924000001</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E16" s="7">
         <v>778.178</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F16" s="7">
         <v>10705.033520000001</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G16" s="7">
         <v>62.91</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H16" s="7">
         <v>2322.5757999999996</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I16" s="7">
         <v>11604.903104000001</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J16" s="7">
         <v>19328.3685</v>
       </c>
     </row>
-    <row r="14" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8">
-        <v>45170</v>
-      </c>
-      <c r="C14" s="15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="20">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="21">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>37081.792656999998</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E17" s="4">
         <v>622.02300000000002</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F17" s="4">
         <v>9376.2873299999992</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G17" s="4">
         <v>85.058000000000007</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H17" s="4">
         <v>2340.9119999999998</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I17" s="4">
         <v>9719.7349270000013</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J17" s="4">
         <v>14937.777400000001</v>
       </c>
     </row>
-    <row r="15" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
-        <v>45139</v>
-      </c>
-      <c r="C15" s="16">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="19">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>40017.679605799996</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E18" s="7">
         <v>757.96799999999996</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F18" s="7">
         <v>10215.824409999999</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G18" s="7">
         <v>52.222000000000001</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H18" s="7">
         <v>2329.6565299999997</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I18" s="7">
         <v>10678.306165799999</v>
       </c>
-      <c r="I15" s="7">
+      <c r="J18" s="7">
         <v>15983.702499999999</v>
       </c>
     </row>
-    <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="8">
-        <v>45108</v>
-      </c>
-      <c r="C16" s="15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="20">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="21">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8">
         <f t="shared" si="0"/>
         <v>40319.464599799998</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E19" s="4">
         <v>788.85</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F19" s="4">
         <v>10358.445689999999</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G19" s="4">
         <v>48.895000000000003</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H19" s="4">
         <v>2259.8667999999998</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I19" s="4">
         <v>10176.835459800001</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J19" s="4">
         <v>16686.571649999998</v>
       </c>
     </row>
-    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
-        <v>45078</v>
-      </c>
-      <c r="C17" s="16">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="19">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>40587.1373762</v>
       </c>
-      <c r="D17" s="7">
+      <c r="E20" s="7">
         <v>645.45299999999997</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F20" s="7">
         <v>10949.239149999998</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G20" s="7">
         <v>36.125</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H20" s="7">
         <v>2276.2485000000001</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I20" s="7">
         <v>10352.348026199999</v>
       </c>
-      <c r="I17" s="7">
+      <c r="J20" s="7">
         <v>16327.723699999999</v>
       </c>
     </row>
-    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
-        <v>45047</v>
-      </c>
-      <c r="C18" s="15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="20">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8">
         <f t="shared" si="0"/>
         <v>38973.9993865</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E21" s="4">
         <v>640.97299999999996</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F21" s="4">
         <v>10514.624800000001</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G21" s="4">
         <v>48.081000000000003</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H21" s="4">
         <v>2950.8580000000002</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I21" s="4">
         <v>10310.050886500001</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J21" s="4">
         <v>14509.411699999999</v>
       </c>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
-        <v>45017</v>
-      </c>
-      <c r="C19" s="16">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="19">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9">
         <f t="shared" si="0"/>
         <v>36860.751413800004</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E22" s="7">
         <v>640.28800000000001</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F22" s="7">
         <v>10179.089970000001</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G22" s="7">
         <v>36.615000000000002</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H22" s="7">
         <v>2873.6055999999999</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I22" s="7">
         <v>9745.8580438000008</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J22" s="7">
         <v>13385.294800000001</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="8">
-        <v>44986</v>
-      </c>
-      <c r="C20" s="15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="20">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="21">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8">
         <f t="shared" si="0"/>
         <v>40964.524065800004</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E23" s="4">
         <v>786.44299999999998</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F23" s="4">
         <v>10964.67835</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G23" s="4">
         <v>29.545999999999999</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H23" s="4">
         <v>2982.933</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I23" s="4">
         <v>11630.4319158</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J23" s="4">
         <v>14570.491800000002</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9">
-        <v>44958</v>
-      </c>
-      <c r="C21" s="16">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="19">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
         <f t="shared" si="0"/>
         <v>34787.3181482</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E24" s="7">
         <v>578.94399999999996</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F24" s="7">
         <v>8934.8815099999993</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G24" s="7">
         <v>75.331999999999994</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H24" s="7">
         <v>2327.9451500000005</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I24" s="7">
         <v>10297.7028882</v>
       </c>
-      <c r="I21" s="7">
+      <c r="J24" s="7">
         <v>12572.5126</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="11">
-        <v>44927</v>
-      </c>
-      <c r="C22" s="17">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="22">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>34339.076626599999</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E25" s="6">
         <v>536.072</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F25" s="6">
         <v>8186.4879100000007</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G25" s="6">
         <v>36.253</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H25" s="6">
         <v>2646.0401599999996</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I25" s="6">
         <v>10631.4606566</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J25" s="6">
         <v>12302.7629</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23">
-        <v>44896</v>
-      </c>
-      <c r="C23" s="24">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="24">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="25">
+        <v>12</v>
+      </c>
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>38746.066610000002</v>
       </c>
-      <c r="D23" s="25">
+      <c r="E26" s="13">
         <v>378.79500000000002</v>
       </c>
-      <c r="E23" s="25">
+      <c r="F26" s="13">
         <v>9252.3727799999997</v>
       </c>
-      <c r="F23" s="25">
+      <c r="G26" s="13">
         <v>106.069</v>
       </c>
-      <c r="G23" s="25">
+      <c r="H26" s="13">
         <v>2824.3177999999998</v>
       </c>
-      <c r="H23" s="25">
+      <c r="I26" s="13">
         <v>11614.168230000001</v>
       </c>
-      <c r="I23" s="25">
+      <c r="J26" s="13">
         <v>14570.343800000001</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="8">
-        <v>44866</v>
-      </c>
-      <c r="C24" s="15">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="20">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="21">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8">
         <f t="shared" si="0"/>
         <v>38505.180007499999</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E27" s="4">
         <v>516.43899999999996</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F27" s="4">
         <v>9489.5803000000014</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G27" s="4">
         <v>75.007999999999996</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H27" s="4">
         <v>2658.9839999999999</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I27" s="4">
         <v>11148.7151075</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J27" s="4">
         <v>14616.453599999999</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9">
-        <v>44835</v>
-      </c>
-      <c r="C25" s="16">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="18">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="19">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9">
         <f t="shared" si="0"/>
         <v>41053.772325500002</v>
       </c>
-      <c r="D25" s="7">
+      <c r="E28" s="7">
         <v>741.95500000000004</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F28" s="7">
         <v>9730.2727100000011</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G28" s="7">
         <v>97.396000000000001</v>
       </c>
-      <c r="G25" s="7">
+      <c r="H28" s="7">
         <v>2904.4928999999997</v>
       </c>
-      <c r="H25" s="7">
+      <c r="I28" s="7">
         <v>11820.6849155</v>
       </c>
-      <c r="I25" s="7">
+      <c r="J28" s="7">
         <v>15758.970800000001</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8">
-        <v>44805</v>
-      </c>
-      <c r="C26" s="15">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="20">
+        <v>2022</v>
+      </c>
+      <c r="C29" s="21">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8">
         <f t="shared" si="0"/>
         <v>37277.511123060001</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E29" s="4">
         <v>663.58500000000004</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F29" s="4">
         <v>8746.3328199999996</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G29" s="4">
         <v>20.056000000000001</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H29" s="4">
         <v>3093.55527936</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I29" s="4">
         <v>11160.508123699999</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J29" s="4">
         <v>13593.473900000001</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="9">
-        <v>44774</v>
-      </c>
-      <c r="C27" s="16">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="18">
+        <v>2022</v>
+      </c>
+      <c r="C30" s="19">
+        <v>8</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
         <v>39368.723200799999</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E30" s="7">
         <v>591.01800000000003</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F30" s="7">
         <v>8719.4067500000001</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G30" s="7">
         <v>25.675000000000001</v>
       </c>
-      <c r="G27" s="7">
+      <c r="H30" s="7">
         <v>3267.5057999999999</v>
       </c>
-      <c r="H27" s="7">
+      <c r="I30" s="7">
         <v>12298.3654508</v>
       </c>
-      <c r="I27" s="7">
+      <c r="J30" s="7">
         <v>14466.752199999999</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="8">
-        <v>44743</v>
-      </c>
-      <c r="C28" s="15">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="20">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="21">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8">
         <f t="shared" si="0"/>
         <v>40438.258232399996</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E31" s="4">
         <v>530.70500000000004</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F31" s="4">
         <v>9093.8344099999995</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G31" s="4">
         <v>34.826000000000001</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H31" s="4">
         <v>3252.6017000000002</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I31" s="4">
         <v>11449.207622400001</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J31" s="4">
         <v>16077.083500000001</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
-        <v>44713</v>
-      </c>
-      <c r="C29" s="16">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="18">
+        <v>2022</v>
+      </c>
+      <c r="C32" s="19">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
         <f t="shared" si="0"/>
         <v>40705.379663200001</v>
       </c>
-      <c r="D29" s="7">
+      <c r="E32" s="7">
         <v>512.66099999999994</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F32" s="7">
         <v>8969.2943100000011</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G32" s="7">
         <v>26.021000000000001</v>
       </c>
-      <c r="G29" s="7">
+      <c r="H32" s="7">
         <v>3225.5032000000001</v>
       </c>
-      <c r="H29" s="7">
+      <c r="I32" s="7">
         <v>12235.6416532</v>
       </c>
-      <c r="I29" s="7">
+      <c r="J32" s="7">
         <v>15736.2585</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="8">
-        <v>44682</v>
-      </c>
-      <c r="C30" s="15">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="20">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="21">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8">
         <f t="shared" si="0"/>
         <v>38385.635270600003</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E33" s="4">
         <v>646.77499999999998</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F33" s="4">
         <v>5887.1319999999996</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G33" s="4">
         <v>121.18</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H33" s="4">
         <v>3119.6742000000004</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I33" s="4">
         <v>12724.7170706</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J33" s="4">
         <v>15886.156999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="9">
-        <v>44652</v>
-      </c>
-      <c r="C31" s="16">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="18">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="19">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9">
         <f t="shared" si="0"/>
         <v>37880.648666100002</v>
       </c>
-      <c r="D31" s="7">
+      <c r="E34" s="7">
         <v>658.78499999999997</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F34" s="7">
         <v>5153.4015099999997</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G34" s="7">
         <v>198.077</v>
       </c>
-      <c r="G31" s="7">
+      <c r="H34" s="7">
         <v>2884.4317999999998</v>
       </c>
-      <c r="H31" s="7">
+      <c r="I34" s="7">
         <v>13095.553956100001</v>
       </c>
-      <c r="I31" s="7">
+      <c r="J34" s="7">
         <v>15890.3994</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="8">
-        <v>44621</v>
-      </c>
-      <c r="C32" s="15">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="20">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="21">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
         <f t="shared" si="0"/>
         <v>39804.246607199995</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E35" s="4">
         <v>701.476</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F35" s="4">
         <v>5848.9565830000001</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G35" s="4">
         <v>68.724999999999994</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H35" s="4">
         <v>3277.5267000000003</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I35" s="4">
         <v>13626.1151242</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J35" s="4">
         <v>16281.447199999999</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9">
-        <v>44593</v>
-      </c>
-      <c r="C33" s="16">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="18">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="19">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9">
         <f t="shared" si="0"/>
         <v>35391.386208299999</v>
       </c>
-      <c r="D33" s="7">
+      <c r="E36" s="7">
         <v>638.51099999999997</v>
       </c>
-      <c r="E33" s="7">
+      <c r="F36" s="7">
         <v>5672.3767400000006</v>
       </c>
-      <c r="F33" s="7">
+      <c r="G36" s="7">
         <v>17.033999999999999</v>
       </c>
-      <c r="G33" s="7">
+      <c r="H36" s="7">
         <v>2882.4872999999998</v>
       </c>
-      <c r="H33" s="7">
+      <c r="I36" s="7">
         <v>10909.8495683</v>
       </c>
-      <c r="I33" s="7">
+      <c r="J36" s="7">
         <v>15271.1276</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="11">
-        <v>44562</v>
-      </c>
-      <c r="C34" s="17">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="22">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="23">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
         <f t="shared" si="0"/>
         <v>32469.8484493</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E37" s="6">
         <v>482.12099999999998</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F37" s="6">
         <v>6245.38976</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G37" s="6">
         <v>259.46800000000002</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H37" s="6">
         <v>2435.1074600000002</v>
       </c>
-      <c r="H34" s="6">
+      <c r="I37" s="6">
         <v>9916.5125293000001</v>
       </c>
-      <c r="I34" s="6">
+      <c r="J37" s="6">
         <v>13131.249699999998</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="23">
-        <v>44531</v>
-      </c>
-      <c r="C35" s="24">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="24">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="25">
+        <v>12</v>
+      </c>
+      <c r="D38" s="12">
         <f t="shared" si="0"/>
         <v>39492.366382700005</v>
       </c>
-      <c r="D35" s="25">
+      <c r="E38" s="13">
         <v>458.77499999999998</v>
       </c>
-      <c r="E35" s="25">
+      <c r="F38" s="13">
         <v>10098.12268</v>
       </c>
-      <c r="F35" s="25">
+      <c r="G38" s="13">
         <v>133.10599999999999</v>
       </c>
-      <c r="G35" s="25">
+      <c r="H38" s="13">
         <v>3136.06873</v>
       </c>
-      <c r="H35" s="25">
+      <c r="I38" s="13">
         <v>12005.7867427</v>
       </c>
-      <c r="I35" s="25">
+      <c r="J38" s="13">
         <v>13660.507230000001</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="8">
-        <v>44501</v>
-      </c>
-      <c r="C36" s="15">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="21">
+        <v>11</v>
+      </c>
+      <c r="D39" s="8">
         <f t="shared" si="0"/>
         <v>40331.827408900004</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E39" s="4">
         <v>490.10599999999999</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F39" s="4">
         <v>10062.285780000002</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G39" s="4">
         <v>336.76799999999997</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H39" s="4">
         <v>3288.1294800000001</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I39" s="4">
         <v>12280.809678899999</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J39" s="4">
         <v>13873.728469999998</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="9">
-        <v>44470</v>
-      </c>
-      <c r="C37" s="16">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="18">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="19">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9">
         <f t="shared" si="0"/>
         <v>41580.666843700004</v>
       </c>
-      <c r="D37" s="7">
+      <c r="E40" s="7">
         <v>586.94299999999998</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F40" s="7">
         <v>10735.457050000001</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G40" s="7">
         <v>619.62599999999998</v>
       </c>
-      <c r="G37" s="7">
+      <c r="H40" s="7">
         <v>2722.0764900000004</v>
       </c>
-      <c r="H37" s="7">
+      <c r="I40" s="7">
         <v>11237.549403700001</v>
       </c>
-      <c r="I37" s="7">
+      <c r="J40" s="7">
         <v>15679.0149</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="8">
-        <v>44440</v>
-      </c>
-      <c r="C38" s="15">
-        <f t="shared" ref="C38:C69" si="1">SUM(D38:I38)</f>
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="21">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" ref="D41:D72" si="2">SUM(E41:J41)</f>
         <v>38165.8196035</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E41" s="4">
         <v>696.17100000000005</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F41" s="4">
         <v>10134.700359999999</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G41" s="4">
         <v>487.45499999999998</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H41" s="4">
         <v>2548.2033000000001</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I41" s="4">
         <v>11597.826043499999</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J41" s="4">
         <v>12701.463900000001</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="9">
-        <v>44409</v>
-      </c>
-      <c r="C39" s="16">
-        <f t="shared" si="1"/>
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="18">
+        <v>2021</v>
+      </c>
+      <c r="C42" s="19">
+        <v>8</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" si="2"/>
         <v>37424.307471799999</v>
       </c>
-      <c r="D39" s="7">
+      <c r="E42" s="7">
         <v>396.84</v>
       </c>
-      <c r="E39" s="7">
+      <c r="F42" s="7">
         <v>9954.2116800000003</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G42" s="7">
         <v>550.08500000000004</v>
       </c>
-      <c r="G39" s="7">
+      <c r="H42" s="7">
         <v>2444.3667</v>
       </c>
-      <c r="H39" s="7">
+      <c r="I42" s="7">
         <v>11310.234991799998</v>
       </c>
-      <c r="I39" s="7">
+      <c r="J42" s="7">
         <v>12768.569099999999</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="8">
-        <v>44378</v>
-      </c>
-      <c r="C40" s="15">
-        <f t="shared" si="1"/>
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C43" s="21">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="2"/>
         <v>39029.204718000001</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E43" s="4">
         <v>501.01900000000001</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F43" s="4">
         <v>10968.570522</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G43" s="4">
         <v>546.27499999999998</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H43" s="4">
         <v>2313.2728999999999</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I43" s="4">
         <v>11426.955696000001</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J43" s="4">
         <v>13273.1116</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="9">
-        <v>44348</v>
-      </c>
-      <c r="C41" s="16">
-        <f t="shared" si="1"/>
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="18">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="19">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="2"/>
         <v>37745.558432400001</v>
       </c>
-      <c r="D41" s="7">
+      <c r="E44" s="7">
         <v>463.83300000000003</v>
       </c>
-      <c r="E41" s="7">
+      <c r="F44" s="7">
         <v>10031.152749999999</v>
       </c>
-      <c r="F41" s="7">
+      <c r="G44" s="7">
         <v>463.92500000000001</v>
       </c>
-      <c r="G41" s="7">
+      <c r="H44" s="7">
         <v>1743.7754</v>
       </c>
-      <c r="H41" s="7">
+      <c r="I44" s="7">
         <v>11018.1134824</v>
       </c>
-      <c r="I41" s="7">
+      <c r="J44" s="7">
         <v>14024.758800000001</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="8">
-        <v>44317</v>
-      </c>
-      <c r="C42" s="15">
-        <f t="shared" si="1"/>
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="21">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="2"/>
         <v>38457.492379999996</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E45" s="4">
         <v>554.96</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F45" s="4">
         <v>9638.9807799999999</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G45" s="4">
         <v>289.39</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H45" s="4">
         <v>1666.4480000000001</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I45" s="4">
         <v>11157.246999999999</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J45" s="4">
         <v>15150.4666</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="9">
-        <v>44287</v>
-      </c>
-      <c r="C43" s="16">
-        <f t="shared" si="1"/>
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="18">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="19">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" si="2"/>
         <v>37112.560168100004</v>
       </c>
-      <c r="D43" s="7">
+      <c r="E46" s="7">
         <v>590.50099999999998</v>
       </c>
-      <c r="E43" s="7">
+      <c r="F46" s="7">
         <v>9277.434830000002</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G46" s="7">
         <v>331.7</v>
       </c>
-      <c r="G43" s="7">
+      <c r="H46" s="7">
         <v>1472.3352</v>
       </c>
-      <c r="H43" s="7">
+      <c r="I46" s="7">
         <v>11167.4790381</v>
       </c>
-      <c r="I43" s="7">
+      <c r="J46" s="7">
         <v>14273.1101</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="8">
-        <v>44256</v>
-      </c>
-      <c r="C44" s="15">
-        <f t="shared" si="1"/>
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="21">
+        <v>3</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="2"/>
         <v>41269.452216999998</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E47" s="4">
         <v>386.11599999999999</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F47" s="4">
         <v>10042.040590000001</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G47" s="4">
         <v>536.54600000000005</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H47" s="4">
         <v>1531.1469999999999</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I47" s="4">
         <v>13111.292127000001</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J47" s="4">
         <v>15662.3105</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="9">
-        <v>44228</v>
-      </c>
-      <c r="C45" s="16">
-        <f t="shared" si="1"/>
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="18">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="19">
+        <v>2</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" si="2"/>
         <v>34648.807876000006</v>
       </c>
-      <c r="D45" s="7">
+      <c r="E48" s="7">
         <v>219.61199999999999</v>
       </c>
-      <c r="E45" s="7">
+      <c r="F48" s="7">
         <v>8953.9622800000016</v>
       </c>
-      <c r="F45" s="7">
+      <c r="G48" s="7">
         <v>228.47900000000001</v>
       </c>
-      <c r="G45" s="7">
+      <c r="H48" s="7">
         <v>1342.146</v>
       </c>
-      <c r="H45" s="7">
+      <c r="I48" s="7">
         <v>9816.7840960000012</v>
       </c>
-      <c r="I45" s="7">
+      <c r="J48" s="7">
         <v>14087.824500000001</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="11">
-        <v>44197</v>
-      </c>
-      <c r="C46" s="17">
-        <f t="shared" si="1"/>
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="22">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="23">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="2"/>
         <v>36982.816146000005</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E49" s="6">
         <v>129.93199999999999</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F49" s="6">
         <v>10106.45505</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G49" s="6">
         <v>156.72999999999999</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H49" s="6">
         <v>1370.9369999999999</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I49" s="6">
         <v>11214.778596</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J49" s="6">
         <v>14003.9835</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="23">
-        <v>44166</v>
-      </c>
-      <c r="C47" s="24">
-        <f t="shared" si="1"/>
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="24">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="25">
+        <v>12</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="2"/>
         <v>36967.920087999999</v>
       </c>
-      <c r="D47" s="25">
-        <v>0</v>
-      </c>
-      <c r="E47" s="25">
+      <c r="E50" s="13">
+        <v>0</v>
+      </c>
+      <c r="F50" s="13">
         <v>10567.67765</v>
       </c>
-      <c r="F47" s="25">
+      <c r="G50" s="13">
         <v>247.25800000000001</v>
       </c>
-      <c r="G47" s="25">
+      <c r="H50" s="13">
         <v>1325.12</v>
       </c>
-      <c r="H47" s="25">
+      <c r="I50" s="13">
         <v>11836.856238</v>
       </c>
-      <c r="I47" s="25">
+      <c r="J50" s="13">
         <v>12991.008199999998</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="8">
-        <v>44136</v>
-      </c>
-      <c r="C48" s="15">
-        <f t="shared" si="1"/>
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="20">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="21">
+        <v>11</v>
+      </c>
+      <c r="D51" s="8">
+        <f t="shared" si="2"/>
         <v>36852.864462999998</v>
       </c>
-      <c r="D48" s="4">
-        <v>0</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
         <v>10376.03788</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G51" s="4">
         <v>137.81200000000001</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H51" s="4">
         <v>1566.683</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I51" s="4">
         <v>11120.986982999999</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J51" s="4">
         <v>13651.3446</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="9">
-        <v>44105</v>
-      </c>
-      <c r="C49" s="16">
-        <f t="shared" si="1"/>
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="19">
+        <v>10</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" si="2"/>
         <v>37111.751327400001</v>
       </c>
-      <c r="D49" s="7">
-        <v>0</v>
-      </c>
-      <c r="E49" s="7">
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
         <v>10139.1556</v>
       </c>
-      <c r="F49" s="7">
+      <c r="G52" s="7">
         <v>42.646000000000001</v>
       </c>
-      <c r="G49" s="7">
+      <c r="H52" s="7">
         <v>1292.682</v>
       </c>
-      <c r="H49" s="7">
+      <c r="I52" s="7">
         <v>10863.6815274</v>
       </c>
-      <c r="I49" s="7">
+      <c r="J52" s="7">
         <v>14773.5862</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="8">
-        <v>44075</v>
-      </c>
-      <c r="C50" s="15">
-        <f t="shared" si="1"/>
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="20">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="21">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8">
+        <f t="shared" si="2"/>
         <v>31289.118952199999</v>
       </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
         <v>8729.1361899999993</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G53" s="4">
         <v>35.866999999999997</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H53" s="4">
         <v>987.66099999999994</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I53" s="4">
         <v>9399.9986922000007</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J53" s="4">
         <v>12136.45607</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="9">
-        <v>44044</v>
-      </c>
-      <c r="C51" s="16">
-        <f t="shared" si="1"/>
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="19">
+        <v>8</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="2"/>
         <v>28794.378688499997</v>
       </c>
-      <c r="D51" s="7">
-        <v>0</v>
-      </c>
-      <c r="E51" s="7">
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
         <v>8471.0650299999998</v>
       </c>
-      <c r="F51" s="7">
+      <c r="G54" s="7">
         <v>42.926000000000002</v>
       </c>
-      <c r="G51" s="7">
+      <c r="H54" s="7">
         <v>1074.0519999999999</v>
       </c>
-      <c r="H51" s="7">
+      <c r="I54" s="7">
         <v>8606.7041585000006</v>
       </c>
-      <c r="I51" s="7">
+      <c r="J54" s="7">
         <v>10599.6315</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="8">
-        <v>44013</v>
-      </c>
-      <c r="C52" s="15">
-        <f t="shared" si="1"/>
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="20">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="21">
+        <v>7</v>
+      </c>
+      <c r="D55" s="8">
+        <f t="shared" si="2"/>
         <v>27431.279484500003</v>
       </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4">
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
         <v>8226.0579799999996</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G55" s="4">
         <v>36.588000000000001</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H55" s="4">
         <v>1040.3589999999999</v>
       </c>
-      <c r="H52" s="4">
+      <c r="I55" s="4">
         <v>8177.4266045000004</v>
       </c>
-      <c r="I52" s="4">
+      <c r="J55" s="4">
         <v>9950.8479000000007</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="9">
-        <v>43983</v>
-      </c>
-      <c r="C53" s="16">
-        <f t="shared" si="1"/>
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="19">
+        <v>6</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" si="2"/>
         <v>25926.471812200001</v>
       </c>
-      <c r="D53" s="7">
-        <v>0</v>
-      </c>
-      <c r="E53" s="7">
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
         <v>7134.2837199999994</v>
       </c>
-      <c r="F53" s="7">
+      <c r="G56" s="7">
         <v>63.805</v>
       </c>
-      <c r="G53" s="7">
+      <c r="H56" s="7">
         <v>855.82899999999995</v>
       </c>
-      <c r="H53" s="7">
+      <c r="I56" s="7">
         <v>7779.0341922000007</v>
       </c>
-      <c r="I53" s="7">
+      <c r="J56" s="7">
         <v>10093.519900000001</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="8">
-        <v>43952</v>
-      </c>
-      <c r="C54" s="15">
-        <f t="shared" si="1"/>
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="20">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="21">
+        <v>5</v>
+      </c>
+      <c r="D57" s="8">
+        <f t="shared" si="2"/>
         <v>23168.212673900001</v>
       </c>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
-      <c r="E54" s="4">
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
         <v>6023.6581899999992</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G57" s="4">
         <v>187.08600000000001</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H57" s="4">
         <v>832.03399999999999</v>
       </c>
-      <c r="H54" s="4">
+      <c r="I57" s="4">
         <v>7072.7845839000001</v>
       </c>
-      <c r="I54" s="4">
+      <c r="J57" s="4">
         <v>9052.6499000000003</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="9">
-        <v>43922</v>
-      </c>
-      <c r="C55" s="16">
-        <f t="shared" si="1"/>
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="19">
+        <v>4</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" si="2"/>
         <v>20427.959275100002</v>
       </c>
-      <c r="D55" s="7">
-        <v>0</v>
-      </c>
-      <c r="E55" s="7">
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
         <v>5209.0807000000004</v>
       </c>
-      <c r="F55" s="7">
+      <c r="G58" s="7">
         <v>24.07</v>
       </c>
-      <c r="G55" s="7">
+      <c r="H58" s="7">
         <v>739.351</v>
       </c>
-      <c r="H55" s="7">
+      <c r="I58" s="7">
         <v>6596.5606751000005</v>
       </c>
-      <c r="I55" s="7">
+      <c r="J58" s="7">
         <v>7858.8969000000006</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="8">
-        <v>43891</v>
-      </c>
-      <c r="C56" s="15">
-        <f t="shared" si="1"/>
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="20">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="21">
+        <v>3</v>
+      </c>
+      <c r="D59" s="8">
+        <f t="shared" si="2"/>
         <v>33140.735087100002</v>
       </c>
-      <c r="D56" s="4">
-        <v>0</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
         <v>8644.8665579999997</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G59" s="4">
         <v>50.677999999999997</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H59" s="4">
         <v>2214.377</v>
       </c>
-      <c r="H56" s="4">
+      <c r="I59" s="4">
         <v>10403.6180291</v>
       </c>
-      <c r="I56" s="4">
+      <c r="J59" s="4">
         <v>11827.1955</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="9">
-        <v>43862</v>
-      </c>
-      <c r="C57" s="16">
-        <f t="shared" si="1"/>
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="19">
+        <v>2</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="2"/>
         <v>31595.295708999998</v>
       </c>
-      <c r="D57" s="7">
-        <v>0</v>
-      </c>
-      <c r="E57" s="7">
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
         <v>8503.3772899999985</v>
       </c>
-      <c r="F57" s="7">
+      <c r="G60" s="7">
         <v>71.156000000000006</v>
       </c>
-      <c r="G57" s="7">
+      <c r="H60" s="7">
         <v>2496.2399999999998</v>
       </c>
-      <c r="H57" s="7">
+      <c r="I60" s="7">
         <v>9914.0471189999989</v>
       </c>
-      <c r="I57" s="7">
+      <c r="J60" s="7">
         <v>10610.4753</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="11">
-        <v>43831</v>
-      </c>
-      <c r="C58" s="17">
-        <f t="shared" si="1"/>
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="22">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="23">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="2"/>
         <v>31902.586373000002</v>
       </c>
-      <c r="D58" s="6">
-        <v>0</v>
-      </c>
-      <c r="E58" s="6">
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
         <v>8365.6301700000004</v>
       </c>
-      <c r="F58" s="6">
+      <c r="G61" s="6">
         <v>80.352000000000004</v>
       </c>
-      <c r="G58" s="6">
+      <c r="H61" s="6">
         <v>2759.7359999999999</v>
       </c>
-      <c r="H58" s="6">
+      <c r="I61" s="6">
         <v>11337.052103</v>
       </c>
-      <c r="I58" s="6">
+      <c r="J61" s="6">
         <v>9359.8161</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="23">
-        <v>43800</v>
-      </c>
-      <c r="C59" s="24">
-        <f t="shared" si="1"/>
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C62" s="25">
+        <v>12</v>
+      </c>
+      <c r="D62" s="12">
+        <f t="shared" si="2"/>
         <v>34834.055678999997</v>
       </c>
-      <c r="D59" s="25">
-        <v>0</v>
-      </c>
-      <c r="E59" s="25">
+      <c r="E62" s="13">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
         <v>9580.7296500000011</v>
       </c>
-      <c r="F59" s="25">
-        <v>0</v>
-      </c>
-      <c r="G59" s="25">
+      <c r="G62" s="13">
+        <v>0</v>
+      </c>
+      <c r="H62" s="13">
         <v>2707.5740000000001</v>
       </c>
-      <c r="H59" s="25">
+      <c r="I62" s="13">
         <v>11491.813929</v>
       </c>
-      <c r="I59" s="25">
+      <c r="J62" s="13">
         <v>11053.938099999999</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="8">
-        <v>43770</v>
-      </c>
-      <c r="C60" s="15">
-        <f t="shared" si="1"/>
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="21">
+        <v>11</v>
+      </c>
+      <c r="D63" s="8">
+        <f t="shared" si="2"/>
         <v>36842.30025</v>
       </c>
-      <c r="D60" s="4">
-        <v>0</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
         <v>9295.5269499999995</v>
       </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
         <v>2968.0250000000001</v>
       </c>
-      <c r="H60" s="4">
+      <c r="I63" s="4">
         <v>12197.1018</v>
       </c>
-      <c r="I60" s="4">
+      <c r="J63" s="4">
         <v>12381.646500000001</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="9">
-        <v>43739</v>
-      </c>
-      <c r="C61" s="16">
-        <f t="shared" si="1"/>
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="19">
+        <v>10</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" si="2"/>
         <v>37499.549509000004</v>
       </c>
-      <c r="D61" s="7">
-        <v>0</v>
-      </c>
-      <c r="E61" s="7">
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
         <v>8717.2473399999999</v>
       </c>
-      <c r="F61" s="7">
-        <v>0</v>
-      </c>
-      <c r="G61" s="7">
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
         <v>2772.4720000000002</v>
       </c>
-      <c r="H61" s="7">
+      <c r="I64" s="7">
         <v>12460.489269000002</v>
       </c>
-      <c r="I61" s="7">
+      <c r="J64" s="7">
         <v>13549.340900000001</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="8">
-        <v>43709</v>
-      </c>
-      <c r="C62" s="15">
-        <f t="shared" si="1"/>
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="21">
+        <v>9</v>
+      </c>
+      <c r="D65" s="8">
+        <f t="shared" si="2"/>
         <v>34780.897574999995</v>
       </c>
-      <c r="D62" s="4">
-        <v>0</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
         <v>8235.0453999999991</v>
       </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4">
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
         <v>3011.7339999999999</v>
       </c>
-      <c r="H62" s="4">
+      <c r="I65" s="4">
         <v>11347.632975</v>
       </c>
-      <c r="I62" s="4">
+      <c r="J65" s="4">
         <v>12186.485199999999</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="9">
-        <v>43678</v>
-      </c>
-      <c r="C63" s="16">
-        <f t="shared" si="1"/>
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="19">
+        <v>8</v>
+      </c>
+      <c r="D66" s="9">
+        <f t="shared" si="2"/>
         <v>36123.947636999997</v>
       </c>
-      <c r="D63" s="7">
-        <v>0</v>
-      </c>
-      <c r="E63" s="7">
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7">
         <v>8047.0139099999997</v>
       </c>
-      <c r="F63" s="7">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7">
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
         <v>2861.5230000000001</v>
       </c>
-      <c r="H63" s="7">
+      <c r="I66" s="7">
         <v>13553.171926999999</v>
       </c>
-      <c r="I63" s="7">
+      <c r="J66" s="7">
         <v>11662.238800000001</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="8">
-        <v>43647</v>
-      </c>
-      <c r="C64" s="15">
-        <f t="shared" si="1"/>
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="21">
+        <v>7</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" si="2"/>
         <v>36989.020386999997</v>
       </c>
-      <c r="D64" s="4">
-        <v>0</v>
-      </c>
-      <c r="E64" s="4">
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
         <v>8253.6834899999994</v>
       </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4">
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
         <v>2588.3980000000001</v>
       </c>
-      <c r="H64" s="4">
+      <c r="I67" s="4">
         <v>13481.634697000001</v>
       </c>
-      <c r="I64" s="4">
+      <c r="J67" s="4">
         <v>12665.304199999999</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="9">
-        <v>43617</v>
-      </c>
-      <c r="C65" s="16">
-        <f t="shared" si="1"/>
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="19">
+        <v>6</v>
+      </c>
+      <c r="D68" s="9">
+        <f t="shared" si="2"/>
         <v>36253.700530000002</v>
       </c>
-      <c r="D65" s="7">
-        <v>0</v>
-      </c>
-      <c r="E65" s="7">
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
         <v>7444.2109199999995</v>
       </c>
-      <c r="F65" s="7">
-        <v>0</v>
-      </c>
-      <c r="G65" s="7">
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
         <v>2726.3809999999999</v>
       </c>
-      <c r="H65" s="7">
+      <c r="I68" s="7">
         <v>14226.39911</v>
       </c>
-      <c r="I65" s="7">
+      <c r="J68" s="7">
         <v>11856.709500000001</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="8">
-        <v>43586</v>
-      </c>
-      <c r="C66" s="15">
-        <f t="shared" si="1"/>
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="21">
+        <v>5</v>
+      </c>
+      <c r="D69" s="8">
+        <f t="shared" si="2"/>
         <v>36841.123875999998</v>
       </c>
-      <c r="D66" s="4">
-        <v>0</v>
-      </c>
-      <c r="E66" s="4">
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
         <v>8213.8209500000012</v>
       </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
         <v>2822.8220000000001</v>
       </c>
-      <c r="H66" s="4">
+      <c r="I69" s="4">
         <v>14573.453925999998</v>
       </c>
-      <c r="I66" s="4">
+      <c r="J69" s="4">
         <v>11231.027</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="9">
-        <v>43556</v>
-      </c>
-      <c r="C67" s="16">
-        <f t="shared" si="1"/>
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="19">
+        <v>4</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="2"/>
         <v>34774.654051999998</v>
       </c>
-      <c r="D67" s="7">
-        <v>0</v>
-      </c>
-      <c r="E67" s="7">
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
         <v>7045.8119100000004</v>
       </c>
-      <c r="F67" s="7">
-        <v>0</v>
-      </c>
-      <c r="G67" s="7">
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
         <v>2281.2820000000002</v>
       </c>
-      <c r="H67" s="7">
+      <c r="I70" s="7">
         <v>14819.089841999999</v>
       </c>
-      <c r="I67" s="7">
+      <c r="J70" s="7">
         <v>10628.470300000001</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="8">
-        <v>43525</v>
-      </c>
-      <c r="C68" s="15">
-        <f t="shared" si="1"/>
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="21">
+        <v>3</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" si="2"/>
         <v>41597.635473399998</v>
       </c>
-      <c r="D68" s="4">
-        <v>0</v>
-      </c>
-      <c r="E68" s="4">
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
         <v>8978.2172699999992</v>
       </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4">
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
         <v>2665.5234</v>
       </c>
-      <c r="H68" s="4">
+      <c r="I71" s="4">
         <v>16057.1642034</v>
       </c>
-      <c r="I68" s="4">
+      <c r="J71" s="4">
         <v>13896.730599999999</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="9">
-        <v>43497</v>
-      </c>
-      <c r="C69" s="16">
-        <f t="shared" si="1"/>
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="19">
+        <v>2</v>
+      </c>
+      <c r="D72" s="9">
+        <f t="shared" si="2"/>
         <v>34403.574224000004</v>
       </c>
-      <c r="D69" s="7">
-        <v>0</v>
-      </c>
-      <c r="E69" s="7">
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
         <v>7372.8365000000003</v>
       </c>
-      <c r="F69" s="7">
-        <v>0</v>
-      </c>
-      <c r="G69" s="7">
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
         <v>2041.7819999999999</v>
       </c>
-      <c r="H69" s="7">
+      <c r="I72" s="7">
         <v>14155.565524</v>
       </c>
-      <c r="I69" s="7">
+      <c r="J72" s="7">
         <v>10833.3902</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="11">
-        <v>43466</v>
-      </c>
-      <c r="C70" s="17">
-        <f t="shared" ref="C70:C82" si="2">SUM(D70:I70)</f>
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="22">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="23">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" ref="D73:D85" si="3">SUM(E73:J73)</f>
         <v>34340.204129700003</v>
       </c>
-      <c r="D70" s="6">
-        <v>0</v>
-      </c>
-      <c r="E70" s="6">
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6">
         <v>7805.6810100000012</v>
       </c>
-      <c r="F70" s="6">
-        <v>0</v>
-      </c>
-      <c r="G70" s="6">
+      <c r="G73" s="6">
+        <v>0</v>
+      </c>
+      <c r="H73" s="6">
         <v>2447.4140000000002</v>
       </c>
-      <c r="H70" s="6">
+      <c r="I73" s="6">
         <v>13462.407319700002</v>
       </c>
-      <c r="I70" s="6">
+      <c r="J73" s="6">
         <v>10624.701800000001</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="10">
-        <v>43435</v>
-      </c>
-      <c r="C71" s="16">
-        <f t="shared" si="2"/>
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="19">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="19">
+        <v>12</v>
+      </c>
+      <c r="D74" s="9">
+        <f t="shared" si="3"/>
         <v>39107.630482000008</v>
       </c>
-      <c r="D71" s="7">
-        <v>0</v>
-      </c>
-      <c r="E71" s="7">
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
         <v>9016.9082100000014</v>
       </c>
-      <c r="F71" s="7">
+      <c r="G74" s="7">
         <v>604.548</v>
       </c>
-      <c r="G71" s="7">
+      <c r="H74" s="7">
         <v>2518.2449999999999</v>
       </c>
-      <c r="H71" s="7">
+      <c r="I74" s="7">
         <v>14153.156971999999</v>
       </c>
-      <c r="I71" s="7">
+      <c r="J74" s="7">
         <v>12814.772300000001</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="14">
-        <v>43405</v>
-      </c>
-      <c r="C72" s="15">
-        <f t="shared" si="2"/>
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="21">
+        <v>11</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" si="3"/>
         <v>40739.449042</v>
       </c>
-      <c r="D72" s="4">
-        <v>0</v>
-      </c>
-      <c r="E72" s="4">
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
         <v>10171.974600000001</v>
       </c>
-      <c r="F72" s="4">
+      <c r="G75" s="4">
         <v>543.64599999999996</v>
       </c>
-      <c r="G72" s="4">
+      <c r="H75" s="4">
         <v>3271.4839999999999</v>
       </c>
-      <c r="H72" s="4">
+      <c r="I75" s="4">
         <v>14774.019941999999</v>
       </c>
-      <c r="I72" s="4">
+      <c r="J75" s="4">
         <v>11978.324500000001</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="10">
-        <v>43374</v>
-      </c>
-      <c r="C73" s="16">
-        <f t="shared" si="2"/>
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="19">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="19">
+        <v>10</v>
+      </c>
+      <c r="D76" s="9">
+        <f t="shared" si="3"/>
         <v>41232.318012000003</v>
       </c>
-      <c r="D73" s="7">
-        <v>0</v>
-      </c>
-      <c r="E73" s="7">
+      <c r="E76" s="7">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
         <v>9028.4674500000001</v>
       </c>
-      <c r="F73" s="7">
+      <c r="G76" s="7">
         <v>556.69100000000003</v>
       </c>
-      <c r="G73" s="7">
+      <c r="H76" s="7">
         <v>3183.5309999999999</v>
       </c>
-      <c r="H73" s="7">
+      <c r="I76" s="7">
         <v>15699.443762000001</v>
       </c>
-      <c r="I73" s="7">
+      <c r="J76" s="7">
         <v>12764.184800000001</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="14">
-        <v>43344</v>
-      </c>
-      <c r="C74" s="15">
-        <f t="shared" si="2"/>
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="21">
+        <v>9</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" si="3"/>
         <v>39190.964049599999</v>
       </c>
-      <c r="D74" s="4">
-        <v>0</v>
-      </c>
-      <c r="E74" s="4">
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
         <v>9327.9771700000001</v>
       </c>
-      <c r="F74" s="4">
+      <c r="G77" s="4">
         <v>646.58299999999997</v>
       </c>
-      <c r="G74" s="4">
+      <c r="H77" s="4">
         <v>3104.5279999999998</v>
       </c>
-      <c r="H74" s="4">
+      <c r="I77" s="4">
         <v>13338.916489599998</v>
       </c>
-      <c r="I74" s="4">
+      <c r="J77" s="4">
         <v>12772.95939</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="10">
-        <v>43313</v>
-      </c>
-      <c r="C75" s="16">
-        <f t="shared" si="2"/>
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="19">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="19">
+        <v>8</v>
+      </c>
+      <c r="D78" s="9">
+        <f t="shared" si="3"/>
         <v>37812.709869799997</v>
       </c>
-      <c r="D75" s="7">
-        <v>0</v>
-      </c>
-      <c r="E75" s="7">
+      <c r="E78" s="7">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
         <v>8414.4507599999997</v>
       </c>
-      <c r="F75" s="7">
+      <c r="G78" s="7">
         <v>730.47900000000004</v>
       </c>
-      <c r="G75" s="7">
+      <c r="H78" s="7">
         <v>3062.973</v>
       </c>
-      <c r="H75" s="7">
+      <c r="I78" s="7">
         <v>14063.5628698</v>
       </c>
-      <c r="I75" s="7">
+      <c r="J78" s="7">
         <v>11541.24424</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="14">
-        <v>43282</v>
-      </c>
-      <c r="C76" s="15">
-        <f t="shared" si="2"/>
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="21">
+        <v>7</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" si="3"/>
         <v>39965.855546999999</v>
       </c>
-      <c r="D76" s="4">
-        <v>0</v>
-      </c>
-      <c r="E76" s="4">
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
         <v>8683.6723199999997</v>
       </c>
-      <c r="F76" s="4">
+      <c r="G79" s="4">
         <v>687.87199999999996</v>
       </c>
-      <c r="G76" s="4">
+      <c r="H79" s="4">
         <v>2884.9024869999998</v>
       </c>
-      <c r="H76" s="4">
+      <c r="I79" s="4">
         <v>14803.904460000002</v>
       </c>
-      <c r="I76" s="4">
+      <c r="J79" s="4">
         <v>12905.504279999999</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="10">
-        <v>43252</v>
-      </c>
-      <c r="C77" s="16">
-        <f t="shared" si="2"/>
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="19">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="19">
+        <v>6</v>
+      </c>
+      <c r="D80" s="9">
+        <f t="shared" si="3"/>
         <v>41066.873502000002</v>
       </c>
-      <c r="D77" s="7">
-        <v>0</v>
-      </c>
-      <c r="E77" s="7">
+      <c r="E80" s="7">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
         <v>8739.8234700000012</v>
       </c>
-      <c r="F77" s="7">
+      <c r="G80" s="7">
         <v>775.90599999999995</v>
       </c>
-      <c r="G77" s="7">
+      <c r="H80" s="7">
         <v>3132.7950000000001</v>
       </c>
-      <c r="H77" s="7">
+      <c r="I80" s="7">
         <v>15348.913632</v>
       </c>
-      <c r="I77" s="7">
+      <c r="J80" s="7">
         <v>13069.4354</v>
       </c>
     </row>
-    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="14">
-        <v>43221</v>
-      </c>
-      <c r="C78" s="15">
-        <f t="shared" si="2"/>
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="21">
+        <v>5</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="3"/>
         <v>39330.274949999999</v>
       </c>
-      <c r="D78" s="4">
-        <v>0</v>
-      </c>
-      <c r="E78" s="4">
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
         <v>8459.8314499999997</v>
       </c>
-      <c r="F78" s="4">
+      <c r="G81" s="4">
         <v>741.85500000000002</v>
       </c>
-      <c r="G78" s="4">
+      <c r="H81" s="4">
         <v>3243.9609999999998</v>
       </c>
-      <c r="H78" s="4">
+      <c r="I81" s="4">
         <v>15389.468199999999</v>
       </c>
-      <c r="I78" s="4">
+      <c r="J81" s="4">
         <v>11495.159300000001</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="10">
-        <v>43191</v>
-      </c>
-      <c r="C79" s="16">
-        <f t="shared" si="2"/>
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="19">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="19">
+        <v>4</v>
+      </c>
+      <c r="D82" s="9">
+        <f t="shared" si="3"/>
         <v>42190.912314999994</v>
       </c>
-      <c r="D79" s="7">
-        <v>0</v>
-      </c>
-      <c r="E79" s="7">
+      <c r="E82" s="7">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
         <v>9138.4659200000006</v>
       </c>
-      <c r="F79" s="7">
+      <c r="G82" s="7">
         <v>763.33</v>
       </c>
-      <c r="G79" s="7">
+      <c r="H82" s="7">
         <v>2695.9059999999999</v>
       </c>
-      <c r="H79" s="7">
+      <c r="I82" s="7">
         <v>17318.287694999999</v>
       </c>
-      <c r="I79" s="7">
+      <c r="J82" s="7">
         <v>12274.922699999999</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="14">
-        <v>43160</v>
-      </c>
-      <c r="C80" s="15">
-        <f t="shared" si="2"/>
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="21">
+        <v>3</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="3"/>
         <v>42310.135434999997</v>
       </c>
-      <c r="D80" s="4">
-        <v>0</v>
-      </c>
-      <c r="E80" s="4">
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
         <v>9362.9394400000001</v>
       </c>
-      <c r="F80" s="4">
+      <c r="G83" s="4">
         <v>388.47899999999998</v>
       </c>
-      <c r="G80" s="4">
+      <c r="H83" s="4">
         <v>3041.660961</v>
       </c>
-      <c r="H80" s="4">
+      <c r="I83" s="4">
         <v>15644.620234</v>
       </c>
-      <c r="I80" s="4">
+      <c r="J83" s="4">
         <v>13872.435800000001</v>
       </c>
     </row>
-    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="10">
-        <v>43132</v>
-      </c>
-      <c r="C81" s="16">
-        <f t="shared" si="2"/>
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="19">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="19">
+        <v>2</v>
+      </c>
+      <c r="D84" s="9">
+        <f t="shared" si="3"/>
         <v>34826.467999300003</v>
       </c>
-      <c r="D81" s="7">
-        <v>0</v>
-      </c>
-      <c r="E81" s="7">
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
         <v>7302.8320700000004</v>
       </c>
-      <c r="F81" s="7">
+      <c r="G84" s="7">
         <v>356.733</v>
       </c>
-      <c r="G81" s="7">
+      <c r="H84" s="7">
         <v>2616.0599083000002</v>
       </c>
-      <c r="H81" s="7">
+      <c r="I84" s="7">
         <v>13679.491221</v>
       </c>
-      <c r="I81" s="7">
+      <c r="J84" s="7">
         <v>10871.3518</v>
       </c>
     </row>
-    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="14">
-        <v>43101</v>
-      </c>
-      <c r="C82" s="15">
-        <f t="shared" si="2"/>
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="21">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" si="3"/>
         <v>34940.797042999999</v>
       </c>
-      <c r="D82" s="4">
-        <v>0</v>
-      </c>
-      <c r="E82" s="4">
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
         <v>7741.241140000001</v>
       </c>
-      <c r="F82" s="4">
+      <c r="G85" s="4">
         <v>295.541</v>
       </c>
-      <c r="G82" s="4">
+      <c r="H85" s="4">
         <v>2365.5157000000004</v>
       </c>
-      <c r="H82" s="4">
+      <c r="I85" s="4">
         <v>14151.311802999999</v>
       </c>
-      <c r="I82" s="4">
+      <c r="J85" s="4">
         <v>10387.187400000001</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E85" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E86" s="3" t="s">
-        <v>1</v>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D4:J4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Carga_por_aerolinea_inter.xlsx
+++ b/Carga_por_aerolinea_inter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C9E32-750D-462D-B36C-0E2B15194A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB99A08-21A2-4B75-8D5A-C0BBCE1637D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
   <si>
     <t>Total</t>
   </si>
@@ -81,6 +81,42 @@
   </si>
   <si>
     <t>Centro y Sudamérica</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -764,8 +800,8 @@
       <c r="B6" s="18">
         <v>2024</v>
       </c>
-      <c r="C6" s="19">
-        <v>8</v>
+      <c r="C6" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D40" si="0">SUM(E6:J6)</f>
@@ -794,8 +830,8 @@
       <c r="B7" s="20">
         <v>2024</v>
       </c>
-      <c r="C7" s="21">
-        <v>7</v>
+      <c r="C7" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="1">SUM(E7:J7)</f>
@@ -824,8 +860,8 @@
       <c r="B8" s="18">
         <v>2024</v>
       </c>
-      <c r="C8" s="19">
-        <v>6</v>
+      <c r="C8" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="1"/>
@@ -854,8 +890,8 @@
       <c r="B9" s="20">
         <v>2024</v>
       </c>
-      <c r="C9" s="21">
-        <v>5</v>
+      <c r="C9" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
@@ -884,8 +920,8 @@
       <c r="B10" s="18">
         <v>2024</v>
       </c>
-      <c r="C10" s="19">
-        <v>4</v>
+      <c r="C10" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -914,8 +950,8 @@
       <c r="B11" s="20">
         <v>2024</v>
       </c>
-      <c r="C11" s="21">
-        <v>3</v>
+      <c r="C11" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
@@ -944,8 +980,8 @@
       <c r="B12" s="18">
         <v>2024</v>
       </c>
-      <c r="C12" s="19">
-        <v>2</v>
+      <c r="C12" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -974,8 +1010,8 @@
       <c r="B13" s="22">
         <v>2024</v>
       </c>
-      <c r="C13" s="23">
-        <v>1</v>
+      <c r="C13" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
@@ -1004,8 +1040,8 @@
       <c r="B14" s="24">
         <v>2023</v>
       </c>
-      <c r="C14" s="25">
-        <v>12</v>
+      <c r="C14" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -1034,8 +1070,8 @@
       <c r="B15" s="20">
         <v>2023</v>
       </c>
-      <c r="C15" s="21">
-        <v>11</v>
+      <c r="C15" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
@@ -1064,8 +1100,8 @@
       <c r="B16" s="18">
         <v>2023</v>
       </c>
-      <c r="C16" s="19">
-        <v>10</v>
+      <c r="C16" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
@@ -1094,8 +1130,8 @@
       <c r="B17" s="20">
         <v>2023</v>
       </c>
-      <c r="C17" s="21">
-        <v>9</v>
+      <c r="C17" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
@@ -1124,8 +1160,8 @@
       <c r="B18" s="18">
         <v>2023</v>
       </c>
-      <c r="C18" s="19">
-        <v>8</v>
+      <c r="C18" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
@@ -1154,8 +1190,8 @@
       <c r="B19" s="20">
         <v>2023</v>
       </c>
-      <c r="C19" s="21">
-        <v>7</v>
+      <c r="C19" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="0"/>
@@ -1184,8 +1220,8 @@
       <c r="B20" s="18">
         <v>2023</v>
       </c>
-      <c r="C20" s="19">
-        <v>6</v>
+      <c r="C20" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
@@ -1214,8 +1250,8 @@
       <c r="B21" s="20">
         <v>2023</v>
       </c>
-      <c r="C21" s="21">
-        <v>5</v>
+      <c r="C21" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
@@ -1244,8 +1280,8 @@
       <c r="B22" s="18">
         <v>2023</v>
       </c>
-      <c r="C22" s="19">
-        <v>4</v>
+      <c r="C22" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
@@ -1274,8 +1310,8 @@
       <c r="B23" s="20">
         <v>2023</v>
       </c>
-      <c r="C23" s="21">
-        <v>3</v>
+      <c r="C23" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="0"/>
@@ -1304,8 +1340,8 @@
       <c r="B24" s="18">
         <v>2023</v>
       </c>
-      <c r="C24" s="19">
-        <v>2</v>
+      <c r="C24" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="0"/>
@@ -1334,8 +1370,8 @@
       <c r="B25" s="22">
         <v>2023</v>
       </c>
-      <c r="C25" s="23">
-        <v>1</v>
+      <c r="C25" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
@@ -1364,8 +1400,8 @@
       <c r="B26" s="24">
         <v>2022</v>
       </c>
-      <c r="C26" s="25">
-        <v>12</v>
+      <c r="C26" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
@@ -1394,8 +1430,8 @@
       <c r="B27" s="20">
         <v>2022</v>
       </c>
-      <c r="C27" s="21">
-        <v>11</v>
+      <c r="C27" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" si="0"/>
@@ -1424,8 +1460,8 @@
       <c r="B28" s="18">
         <v>2022</v>
       </c>
-      <c r="C28" s="19">
-        <v>10</v>
+      <c r="C28" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="0"/>
@@ -1454,8 +1490,8 @@
       <c r="B29" s="20">
         <v>2022</v>
       </c>
-      <c r="C29" s="21">
-        <v>9</v>
+      <c r="C29" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="0"/>
@@ -1484,8 +1520,8 @@
       <c r="B30" s="18">
         <v>2022</v>
       </c>
-      <c r="C30" s="19">
-        <v>8</v>
+      <c r="C30" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="0"/>
@@ -1514,8 +1550,8 @@
       <c r="B31" s="20">
         <v>2022</v>
       </c>
-      <c r="C31" s="21">
-        <v>7</v>
+      <c r="C31" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="0"/>
@@ -1544,8 +1580,8 @@
       <c r="B32" s="18">
         <v>2022</v>
       </c>
-      <c r="C32" s="19">
-        <v>6</v>
+      <c r="C32" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="0"/>
@@ -1574,8 +1610,8 @@
       <c r="B33" s="20">
         <v>2022</v>
       </c>
-      <c r="C33" s="21">
-        <v>5</v>
+      <c r="C33" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="0"/>
@@ -1604,8 +1640,8 @@
       <c r="B34" s="18">
         <v>2022</v>
       </c>
-      <c r="C34" s="19">
-        <v>4</v>
+      <c r="C34" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" si="0"/>
@@ -1634,8 +1670,8 @@
       <c r="B35" s="20">
         <v>2022</v>
       </c>
-      <c r="C35" s="21">
-        <v>3</v>
+      <c r="C35" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="0"/>
@@ -1664,8 +1700,8 @@
       <c r="B36" s="18">
         <v>2022</v>
       </c>
-      <c r="C36" s="19">
-        <v>2</v>
+      <c r="C36" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="0"/>
@@ -1694,8 +1730,8 @@
       <c r="B37" s="22">
         <v>2022</v>
       </c>
-      <c r="C37" s="23">
-        <v>1</v>
+      <c r="C37" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
@@ -1724,8 +1760,8 @@
       <c r="B38" s="24">
         <v>2021</v>
       </c>
-      <c r="C38" s="25">
-        <v>12</v>
+      <c r="C38" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D38" s="12">
         <f t="shared" si="0"/>
@@ -1754,8 +1790,8 @@
       <c r="B39" s="20">
         <v>2021</v>
       </c>
-      <c r="C39" s="21">
-        <v>11</v>
+      <c r="C39" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="0"/>
@@ -1784,8 +1820,8 @@
       <c r="B40" s="18">
         <v>2021</v>
       </c>
-      <c r="C40" s="19">
-        <v>10</v>
+      <c r="C40" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="0"/>
@@ -1814,8 +1850,8 @@
       <c r="B41" s="20">
         <v>2021</v>
       </c>
-      <c r="C41" s="21">
-        <v>9</v>
+      <c r="C41" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" ref="D41:D72" si="2">SUM(E41:J41)</f>
@@ -1844,8 +1880,8 @@
       <c r="B42" s="18">
         <v>2021</v>
       </c>
-      <c r="C42" s="19">
-        <v>8</v>
+      <c r="C42" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="2"/>
@@ -1874,8 +1910,8 @@
       <c r="B43" s="20">
         <v>2021</v>
       </c>
-      <c r="C43" s="21">
-        <v>7</v>
+      <c r="C43" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" si="2"/>
@@ -1904,8 +1940,8 @@
       <c r="B44" s="18">
         <v>2021</v>
       </c>
-      <c r="C44" s="19">
-        <v>6</v>
+      <c r="C44" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="2"/>
@@ -1934,8 +1970,8 @@
       <c r="B45" s="20">
         <v>2021</v>
       </c>
-      <c r="C45" s="21">
-        <v>5</v>
+      <c r="C45" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" si="2"/>
@@ -1964,8 +2000,8 @@
       <c r="B46" s="18">
         <v>2021</v>
       </c>
-      <c r="C46" s="19">
-        <v>4</v>
+      <c r="C46" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" si="2"/>
@@ -1994,8 +2030,8 @@
       <c r="B47" s="20">
         <v>2021</v>
       </c>
-      <c r="C47" s="21">
-        <v>3</v>
+      <c r="C47" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D47" s="8">
         <f t="shared" si="2"/>
@@ -2024,8 +2060,8 @@
       <c r="B48" s="18">
         <v>2021</v>
       </c>
-      <c r="C48" s="19">
-        <v>2</v>
+      <c r="C48" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" si="2"/>
@@ -2054,8 +2090,8 @@
       <c r="B49" s="22">
         <v>2021</v>
       </c>
-      <c r="C49" s="23">
-        <v>1</v>
+      <c r="C49" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="D49" s="10">
         <f t="shared" si="2"/>
@@ -2084,8 +2120,8 @@
       <c r="B50" s="24">
         <v>2020</v>
       </c>
-      <c r="C50" s="25">
-        <v>12</v>
+      <c r="C50" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D50" s="12">
         <f t="shared" si="2"/>
@@ -2114,8 +2150,8 @@
       <c r="B51" s="20">
         <v>2020</v>
       </c>
-      <c r="C51" s="21">
-        <v>11</v>
+      <c r="C51" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D51" s="8">
         <f t="shared" si="2"/>
@@ -2144,8 +2180,8 @@
       <c r="B52" s="18">
         <v>2020</v>
       </c>
-      <c r="C52" s="19">
-        <v>10</v>
+      <c r="C52" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" si="2"/>
@@ -2174,8 +2210,8 @@
       <c r="B53" s="20">
         <v>2020</v>
       </c>
-      <c r="C53" s="21">
-        <v>9</v>
+      <c r="C53" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D53" s="8">
         <f t="shared" si="2"/>
@@ -2204,8 +2240,8 @@
       <c r="B54" s="18">
         <v>2020</v>
       </c>
-      <c r="C54" s="19">
-        <v>8</v>
+      <c r="C54" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" si="2"/>
@@ -2234,8 +2270,8 @@
       <c r="B55" s="20">
         <v>2020</v>
       </c>
-      <c r="C55" s="21">
-        <v>7</v>
+      <c r="C55" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D55" s="8">
         <f t="shared" si="2"/>
@@ -2264,8 +2300,8 @@
       <c r="B56" s="18">
         <v>2020</v>
       </c>
-      <c r="C56" s="19">
-        <v>6</v>
+      <c r="C56" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="2"/>
@@ -2294,8 +2330,8 @@
       <c r="B57" s="20">
         <v>2020</v>
       </c>
-      <c r="C57" s="21">
-        <v>5</v>
+      <c r="C57" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D57" s="8">
         <f t="shared" si="2"/>
@@ -2324,8 +2360,8 @@
       <c r="B58" s="18">
         <v>2020</v>
       </c>
-      <c r="C58" s="19">
-        <v>4</v>
+      <c r="C58" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="2"/>
@@ -2354,8 +2390,8 @@
       <c r="B59" s="20">
         <v>2020</v>
       </c>
-      <c r="C59" s="21">
-        <v>3</v>
+      <c r="C59" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D59" s="8">
         <f t="shared" si="2"/>
@@ -2384,8 +2420,8 @@
       <c r="B60" s="18">
         <v>2020</v>
       </c>
-      <c r="C60" s="19">
-        <v>2</v>
+      <c r="C60" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="2"/>
@@ -2414,8 +2450,8 @@
       <c r="B61" s="22">
         <v>2020</v>
       </c>
-      <c r="C61" s="23">
-        <v>1</v>
+      <c r="C61" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="D61" s="10">
         <f t="shared" si="2"/>
@@ -2444,8 +2480,8 @@
       <c r="B62" s="24">
         <v>2019</v>
       </c>
-      <c r="C62" s="25">
-        <v>12</v>
+      <c r="C62" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D62" s="12">
         <f t="shared" si="2"/>
@@ -2474,8 +2510,8 @@
       <c r="B63" s="20">
         <v>2019</v>
       </c>
-      <c r="C63" s="21">
-        <v>11</v>
+      <c r="C63" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D63" s="8">
         <f t="shared" si="2"/>
@@ -2504,8 +2540,8 @@
       <c r="B64" s="18">
         <v>2019</v>
       </c>
-      <c r="C64" s="19">
-        <v>10</v>
+      <c r="C64" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" si="2"/>
@@ -2534,8 +2570,8 @@
       <c r="B65" s="20">
         <v>2019</v>
       </c>
-      <c r="C65" s="21">
-        <v>9</v>
+      <c r="C65" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D65" s="8">
         <f t="shared" si="2"/>
@@ -2564,8 +2600,8 @@
       <c r="B66" s="18">
         <v>2019</v>
       </c>
-      <c r="C66" s="19">
-        <v>8</v>
+      <c r="C66" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="2"/>
@@ -2594,8 +2630,8 @@
       <c r="B67" s="20">
         <v>2019</v>
       </c>
-      <c r="C67" s="21">
-        <v>7</v>
+      <c r="C67" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D67" s="8">
         <f t="shared" si="2"/>
@@ -2624,8 +2660,8 @@
       <c r="B68" s="18">
         <v>2019</v>
       </c>
-      <c r="C68" s="19">
-        <v>6</v>
+      <c r="C68" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="2"/>
@@ -2654,8 +2690,8 @@
       <c r="B69" s="20">
         <v>2019</v>
       </c>
-      <c r="C69" s="21">
-        <v>5</v>
+      <c r="C69" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D69" s="8">
         <f t="shared" si="2"/>
@@ -2684,8 +2720,8 @@
       <c r="B70" s="18">
         <v>2019</v>
       </c>
-      <c r="C70" s="19">
-        <v>4</v>
+      <c r="C70" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" si="2"/>
@@ -2714,8 +2750,8 @@
       <c r="B71" s="20">
         <v>2019</v>
       </c>
-      <c r="C71" s="21">
-        <v>3</v>
+      <c r="C71" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" si="2"/>
@@ -2744,8 +2780,8 @@
       <c r="B72" s="18">
         <v>2019</v>
       </c>
-      <c r="C72" s="19">
-        <v>2</v>
+      <c r="C72" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="2"/>
@@ -2774,8 +2810,8 @@
       <c r="B73" s="22">
         <v>2019</v>
       </c>
-      <c r="C73" s="23">
-        <v>1</v>
+      <c r="C73" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="D73" s="10">
         <f t="shared" ref="D73:D85" si="3">SUM(E73:J73)</f>
@@ -2804,8 +2840,8 @@
       <c r="B74" s="19">
         <v>2018</v>
       </c>
-      <c r="C74" s="19">
-        <v>12</v>
+      <c r="C74" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" si="3"/>
@@ -2834,8 +2870,8 @@
       <c r="B75" s="21">
         <v>2018</v>
       </c>
-      <c r="C75" s="21">
-        <v>11</v>
+      <c r="C75" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D75" s="8">
         <f t="shared" si="3"/>
@@ -2864,8 +2900,8 @@
       <c r="B76" s="19">
         <v>2018</v>
       </c>
-      <c r="C76" s="19">
-        <v>10</v>
+      <c r="C76" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" si="3"/>
@@ -2894,8 +2930,8 @@
       <c r="B77" s="21">
         <v>2018</v>
       </c>
-      <c r="C77" s="21">
-        <v>9</v>
+      <c r="C77" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D77" s="8">
         <f t="shared" si="3"/>
@@ -2924,8 +2960,8 @@
       <c r="B78" s="19">
         <v>2018</v>
       </c>
-      <c r="C78" s="19">
-        <v>8</v>
+      <c r="C78" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" si="3"/>
@@ -2954,8 +2990,8 @@
       <c r="B79" s="21">
         <v>2018</v>
       </c>
-      <c r="C79" s="21">
-        <v>7</v>
+      <c r="C79" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D79" s="8">
         <f t="shared" si="3"/>
@@ -2984,8 +3020,8 @@
       <c r="B80" s="19">
         <v>2018</v>
       </c>
-      <c r="C80" s="19">
-        <v>6</v>
+      <c r="C80" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
@@ -3014,8 +3050,8 @@
       <c r="B81" s="21">
         <v>2018</v>
       </c>
-      <c r="C81" s="21">
-        <v>5</v>
+      <c r="C81" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D81" s="8">
         <f t="shared" si="3"/>
@@ -3044,8 +3080,8 @@
       <c r="B82" s="19">
         <v>2018</v>
       </c>
-      <c r="C82" s="19">
-        <v>4</v>
+      <c r="C82" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="3"/>
@@ -3074,8 +3110,8 @@
       <c r="B83" s="21">
         <v>2018</v>
       </c>
-      <c r="C83" s="21">
-        <v>3</v>
+      <c r="C83" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D83" s="8">
         <f t="shared" si="3"/>
@@ -3104,8 +3140,8 @@
       <c r="B84" s="19">
         <v>2018</v>
       </c>
-      <c r="C84" s="19">
-        <v>2</v>
+      <c r="C84" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" si="3"/>
@@ -3134,8 +3170,8 @@
       <c r="B85" s="21">
         <v>2018</v>
       </c>
-      <c r="C85" s="21">
-        <v>1</v>
+      <c r="C85" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D85" s="8">
         <f t="shared" si="3"/>

--- a/Carga_por_aerolinea_inter.xlsx
+++ b/Carga_por_aerolinea_inter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB99A08-21A2-4B75-8D5A-C0BBCE1637D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36692C64-CFA3-485F-96FE-12298E7A57EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="27">
   <si>
     <t>Total</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Centro y Sudamérica</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>Sep.</t>
+  </si>
+  <si>
+    <t>Actualización: septiembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -405,12 +405,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -418,6 +412,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -473,8 +473,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J85" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="B5:J85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J86" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B5:J86" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -722,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:J88"/>
+  <dimension ref="B2:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -787,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>7</v>
@@ -797,2419 +797,2449 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="18">
+      <c r="B6" s="20">
         <v>2024</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(E6:J6)</f>
+        <v>38236.492042400001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>655.125</v>
+      </c>
+      <c r="F6" s="4">
+        <v>11496.193750000002</v>
+      </c>
+      <c r="G6" s="4">
+        <v>77.037000000000006</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2604.8681999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10994.6880824</v>
+      </c>
+      <c r="J6" s="4">
+        <v>12408.58001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" ref="D7:D41" si="0">SUM(E7:J7)</f>
+        <v>39433.388310299997</v>
+      </c>
+      <c r="E7" s="7">
+        <v>784.92399999999998</v>
+      </c>
+      <c r="F7" s="7">
+        <v>12296.267870000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>99.649000000000001</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2503.4024399999998</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9761.9496002999986</v>
+      </c>
+      <c r="J7" s="7">
+        <v>13987.195400000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="D6:D40" si="0">SUM(E6:J6)</f>
-        <v>39433.388310299997</v>
-      </c>
-      <c r="E6" s="7">
-        <v>784.92399999999998</v>
-      </c>
-      <c r="F6" s="7">
-        <v>12296.267870000001</v>
-      </c>
-      <c r="G6" s="7">
-        <v>99.649000000000001</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2503.4024399999998</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9761.9496002999986</v>
-      </c>
-      <c r="J6" s="7">
-        <v>13987.195400000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="20">
+      <c r="D8" s="8">
+        <f t="shared" ref="D8:D10" si="1">SUM(E8:J8)</f>
+        <v>40801.963929400001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>699.11900000000003</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12543.787289999998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>84.063999999999993</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2098.4537700000001</v>
+      </c>
+      <c r="I8" s="4">
+        <v>11053.483869400001</v>
+      </c>
+      <c r="J8" s="4">
+        <v>14323.056</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="18">
         <v>2024</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" ref="D7:D9" si="1">SUM(E7:J7)</f>
-        <v>40801.963929400001</v>
-      </c>
-      <c r="E7" s="4">
-        <v>699.11900000000003</v>
-      </c>
-      <c r="F7" s="4">
-        <v>12543.787289999998</v>
-      </c>
-      <c r="G7" s="4">
-        <v>84.063999999999993</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2098.4537700000001</v>
-      </c>
-      <c r="I7" s="4">
-        <v>11053.483869400001</v>
-      </c>
-      <c r="J7" s="4">
-        <v>14323.056</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="18">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <f t="shared" si="1"/>
         <v>39620.932216600006</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>519.66999999999996</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>12641.439460000001</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>77.063999999999993</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <v>2216.25135</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="7">
         <v>9750.3944666000007</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="7">
         <v>14416.112940000001</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="20">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="20">
         <v>2024</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8">
         <f t="shared" si="1"/>
         <v>41707.502720700002</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>666.51599999999996</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>12929.211710000001</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="4">
         <v>67.73</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="4">
         <v>2272.335</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="4">
         <v>11736.1480207</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="4">
         <v>14035.56199</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="18">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="18">
         <v>2024</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>41262.668572400005</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>688.25300000000004</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
         <v>12315.68958</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <v>41.54</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="7">
         <v>2009.3571000000002</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I11" s="7">
         <v>11684.1584924</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J11" s="7">
         <v>14523.670400000001</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="20">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="20">
         <v>2024</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>42983.103187400004</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <v>794.28</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <v>13886.640620000002</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="4">
         <v>59.076999999999998</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="4">
         <v>2339.2438500000003</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="4">
         <v>10445.917705400001</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J12" s="4">
         <v>15457.944012</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="18">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="18">
         <v>2024</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>40423.179039299997</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>664.82100000000003</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <v>12004.929049999999</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="7">
         <v>45.631999999999998</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="7">
         <v>1860.7841100000001</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="7">
         <v>11883.265289299999</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J13" s="7">
         <v>13963.747589999999</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="22">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="22">
         <v>2024</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
         <v>41353.6868091</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>680.31799999999998</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>12601.32713</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <v>44.356000000000002</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="6">
         <v>1755.9950999999999</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I14" s="6">
         <v>12111.205109099999</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J14" s="6">
         <v>14160.48547</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="24">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="24">
         <v>2023</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>41305.9751617</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>772.82399999999996</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <v>13837.61614</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>74.738</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>2170.9023299999999</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="13">
         <v>9069.6951917000006</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J15" s="13">
         <v>15380.199500000001</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="20">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="20">
         <v>2023</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>40392.089828199998</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>779.80799999999999</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>11039.539530000002</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>95.251000000000005</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>2158.6788999999999</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>9817.7052921999984</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J16" s="4">
         <v>16501.107105999999</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="18">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="18">
         <v>2023</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="9">
         <f t="shared" si="0"/>
         <v>44801.968924000001</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>778.178</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <v>10705.033520000001</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G17" s="7">
         <v>62.91</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H17" s="7">
         <v>2322.5757999999996</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I17" s="7">
         <v>11604.903104000001</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J17" s="7">
         <v>19328.3685</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="20">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="20">
         <v>2023</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8">
         <f t="shared" si="0"/>
         <v>37081.792656999998</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <v>622.02300000000002</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="4">
         <v>9376.2873299999992</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="4">
         <v>85.058000000000007</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="4">
         <v>2340.9119999999998</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="4">
         <v>9719.7349270000013</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="4">
         <v>14937.777400000001</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="18">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="18">
         <v>2023</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="9">
         <f t="shared" si="0"/>
         <v>40017.679605799996</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>757.96799999999996</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>10215.824409999999</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="7">
         <v>52.222000000000001</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="7">
         <v>2329.6565299999997</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I19" s="7">
         <v>10678.306165799999</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J19" s="7">
         <v>15983.702499999999</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="20">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="20">
         <v>2023</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8">
         <f t="shared" si="0"/>
         <v>40319.464599799998</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>788.85</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>10358.445689999999</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>48.895000000000003</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>2259.8667999999998</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <v>10176.835459800001</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="4">
         <v>16686.571649999998</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="18">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="18">
         <v>2023</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="9">
         <f t="shared" si="0"/>
         <v>40587.1373762</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="7">
         <v>645.45299999999997</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <v>10949.239149999998</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="7">
         <v>36.125</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="7">
         <v>2276.2485000000001</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I21" s="7">
         <v>10352.348026199999</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J21" s="7">
         <v>16327.723699999999</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="20">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="20">
         <v>2023</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="8">
         <f t="shared" si="0"/>
         <v>38973.9993865</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>640.97299999999996</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>10514.624800000001</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="4">
         <v>48.081000000000003</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="4">
         <v>2950.8580000000002</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="4">
         <v>10310.050886500001</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J22" s="4">
         <v>14509.411699999999</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="18">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="18">
         <v>2023</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="9">
         <f t="shared" si="0"/>
         <v>36860.751413800004</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>640.28800000000001</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>10179.089970000001</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="7">
         <v>36.615000000000002</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="7">
         <v>2873.6055999999999</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="7">
         <v>9745.8580438000008</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J23" s="7">
         <v>13385.294800000001</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="20">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="20">
         <v>2023</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C24" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="8">
         <f t="shared" si="0"/>
         <v>40964.524065800004</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <v>786.44299999999998</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>10964.67835</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="4">
         <v>29.545999999999999</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <v>2982.933</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="4">
         <v>11630.4319158</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J24" s="4">
         <v>14570.491800000002</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="18">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="18">
         <v>2023</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="9">
         <f t="shared" si="0"/>
         <v>34787.3181482</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
         <v>578.94399999999996</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <v>8934.8815099999993</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="7">
         <v>75.331999999999994</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H25" s="7">
         <v>2327.9451500000005</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I25" s="7">
         <v>10297.7028882</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J25" s="7">
         <v>12572.5126</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="22">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="22">
         <v>2023</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="C26" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="10">
         <f t="shared" si="0"/>
         <v>34339.076626599999</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>536.072</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <v>8186.4879100000007</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <v>36.253</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <v>2646.0401599999996</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="6">
         <v>10631.4606566</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J26" s="6">
         <v>12302.7629</v>
       </c>
     </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="24">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="24">
         <v>2022</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="C27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="12">
         <f t="shared" si="0"/>
         <v>38746.066610000002</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>378.79500000000002</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>9252.3727799999997</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>106.069</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>2824.3177999999998</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="13">
         <v>11614.168230000001</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J27" s="13">
         <v>14570.343800000001</v>
       </c>
     </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="20">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="20">
         <v>2022</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="8">
         <f t="shared" si="0"/>
         <v>38505.180007499999</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <v>516.43899999999996</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>9489.5803000000014</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>75.007999999999996</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="4">
         <v>2658.9839999999999</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I28" s="4">
         <v>11148.7151075</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J28" s="4">
         <v>14616.453599999999</v>
       </c>
     </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="18">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="18">
         <v>2022</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C29" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="9">
         <f t="shared" si="0"/>
         <v>41053.772325500002</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E29" s="7">
         <v>741.95500000000004</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="7">
         <v>9730.2727100000011</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G29" s="7">
         <v>97.396000000000001</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H29" s="7">
         <v>2904.4928999999997</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I29" s="7">
         <v>11820.6849155</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J29" s="7">
         <v>15758.970800000001</v>
       </c>
     </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="20">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="20">
         <v>2022</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="8">
         <f t="shared" si="0"/>
         <v>37277.511123060001</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <v>663.58500000000004</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>8746.3328199999996</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="4">
         <v>20.056000000000001</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <v>3093.55527936</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="4">
         <v>11160.508123699999</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J30" s="4">
         <v>13593.473900000001</v>
       </c>
     </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="18">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="18">
         <v>2022</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="9">
         <f t="shared" si="0"/>
         <v>39368.723200799999</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="7">
         <v>591.01800000000003</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="7">
         <v>8719.4067500000001</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="7">
         <v>25.675000000000001</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H31" s="7">
         <v>3267.5057999999999</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I31" s="7">
         <v>12298.3654508</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J31" s="7">
         <v>14466.752199999999</v>
       </c>
     </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="20">
         <v>2022</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="8">
         <f t="shared" si="0"/>
         <v>40438.258232399996</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="4">
         <v>530.70500000000004</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>9093.8344099999995</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G32" s="4">
         <v>34.826000000000001</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="4">
         <v>3252.6017000000002</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="4">
         <v>11449.207622400001</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J32" s="4">
         <v>16077.083500000001</v>
       </c>
     </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="18">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="18">
         <v>2022</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C33" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="9">
         <f t="shared" si="0"/>
         <v>40705.379663200001</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="7">
         <v>512.66099999999994</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <v>8969.2943100000011</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="7">
         <v>26.021000000000001</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H33" s="7">
         <v>3225.5032000000001</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I33" s="7">
         <v>12235.6416532</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J33" s="7">
         <v>15736.2585</v>
       </c>
     </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="20">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="20">
         <v>2022</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="C34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="8">
         <f t="shared" si="0"/>
         <v>38385.635270600003</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="4">
         <v>646.77499999999998</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="4">
         <v>5887.1319999999996</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="4">
         <v>121.18</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="4">
         <v>3119.6742000000004</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="4">
         <v>12724.7170706</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="4">
         <v>15886.156999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="18">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="18">
         <v>2022</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="C35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="9">
         <f t="shared" si="0"/>
         <v>37880.648666100002</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>658.78499999999997</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="7">
         <v>5153.4015099999997</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="7">
         <v>198.077</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H35" s="7">
         <v>2884.4317999999998</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I35" s="7">
         <v>13095.553956100001</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J35" s="7">
         <v>15890.3994</v>
       </c>
     </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="20">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="20">
         <v>2022</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="C36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="8">
         <f t="shared" si="0"/>
         <v>39804.246607199995</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <v>701.476</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="4">
         <v>5848.9565830000001</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="4">
         <v>68.724999999999994</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="4">
         <v>3277.5267000000003</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I36" s="4">
         <v>13626.1151242</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J36" s="4">
         <v>16281.447199999999</v>
       </c>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="18">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="18">
         <v>2022</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C37" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="9">
         <f t="shared" si="0"/>
         <v>35391.386208299999</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <v>638.51099999999997</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="7">
         <v>5672.3767400000006</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="7">
         <v>17.033999999999999</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H37" s="7">
         <v>2882.4872999999998</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I37" s="7">
         <v>10909.8495683</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J37" s="7">
         <v>15271.1276</v>
       </c>
     </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="22">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="22">
         <v>2022</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="10">
+      <c r="C38" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="10">
         <f t="shared" si="0"/>
         <v>32469.8484493</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>482.12099999999998</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <v>6245.38976</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>259.46800000000002</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="6">
         <v>2435.1074600000002</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I38" s="6">
         <v>9916.5125293000001</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J38" s="6">
         <v>13131.249699999998</v>
       </c>
     </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="24">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="24">
         <v>2021</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="12">
+      <c r="C39" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="12">
         <f t="shared" si="0"/>
         <v>39492.366382700005</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>458.77499999999998</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>10098.12268</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>133.10599999999999</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>3136.06873</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="13">
         <v>12005.7867427</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J39" s="13">
         <v>13660.507230000001</v>
       </c>
     </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="20">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="20">
         <v>2021</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="C40" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="8">
         <f t="shared" si="0"/>
         <v>40331.827408900004</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <v>490.10599999999999</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F40" s="4">
         <v>10062.285780000002</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="4">
         <v>336.76799999999997</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="4">
         <v>3288.1294800000001</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I40" s="4">
         <v>12280.809678899999</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J40" s="4">
         <v>13873.728469999998</v>
       </c>
     </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="18">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="18">
         <v>2021</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="C41" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="9">
         <f t="shared" si="0"/>
         <v>41580.666843700004</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="7">
         <v>586.94299999999998</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="7">
         <v>10735.457050000001</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G41" s="7">
         <v>619.62599999999998</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H41" s="7">
         <v>2722.0764900000004</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I41" s="7">
         <v>11237.549403700001</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J41" s="7">
         <v>15679.0149</v>
       </c>
     </row>
-    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="20">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="20">
         <v>2021</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="8">
-        <f t="shared" ref="D41:D72" si="2">SUM(E41:J41)</f>
+      <c r="C42" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" ref="D42:D73" si="2">SUM(E42:J42)</f>
         <v>38165.8196035</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <v>696.17100000000005</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="4">
         <v>10134.700359999999</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="4">
         <v>487.45499999999998</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="4">
         <v>2548.2033000000001</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I42" s="4">
         <v>11597.826043499999</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J42" s="4">
         <v>12701.463900000001</v>
       </c>
     </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="18">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="18">
         <v>2021</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="9">
+      <c r="C43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="9">
         <f t="shared" si="2"/>
         <v>37424.307471799999</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="7">
         <v>396.84</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="7">
         <v>9954.2116800000003</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G43" s="7">
         <v>550.08500000000004</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H43" s="7">
         <v>2444.3667</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I43" s="7">
         <v>11310.234991799998</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J43" s="7">
         <v>12768.569099999999</v>
       </c>
     </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="20">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="20">
         <v>2021</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="C44" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="8">
         <f t="shared" si="2"/>
         <v>39029.204718000001</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="4">
         <v>501.01900000000001</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="4">
         <v>10968.570522</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="4">
         <v>546.27499999999998</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="4">
         <v>2313.2728999999999</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I44" s="4">
         <v>11426.955696000001</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J44" s="4">
         <v>13273.1116</v>
       </c>
     </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="18">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="18">
         <v>2021</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="9">
+      <c r="C45" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="9">
         <f t="shared" si="2"/>
         <v>37745.558432400001</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="7">
         <v>463.83300000000003</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="7">
         <v>10031.152749999999</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="7">
         <v>463.92500000000001</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H45" s="7">
         <v>1743.7754</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I45" s="7">
         <v>11018.1134824</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J45" s="7">
         <v>14024.758800000001</v>
       </c>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="20">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="20">
         <v>2021</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="C46" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="8">
         <f t="shared" si="2"/>
         <v>38457.492379999996</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="4">
         <v>554.96</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="4">
         <v>9638.9807799999999</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="4">
         <v>289.39</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="4">
         <v>1666.4480000000001</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="4">
         <v>11157.246999999999</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J46" s="4">
         <v>15150.4666</v>
       </c>
     </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="18">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="18">
         <v>2021</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="9">
+      <c r="C47" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="9">
         <f t="shared" si="2"/>
         <v>37112.560168100004</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="7">
         <v>590.50099999999998</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="7">
         <v>9277.434830000002</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G47" s="7">
         <v>331.7</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H47" s="7">
         <v>1472.3352</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I47" s="7">
         <v>11167.4790381</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J47" s="7">
         <v>14273.1101</v>
       </c>
     </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="20">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="20">
         <v>2021</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="C48" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="8">
         <f t="shared" si="2"/>
         <v>41269.452216999998</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="4">
         <v>386.11599999999999</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="4">
         <v>10042.040590000001</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G48" s="4">
         <v>536.54600000000005</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="4">
         <v>1531.1469999999999</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I48" s="4">
         <v>13111.292127000001</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J48" s="4">
         <v>15662.3105</v>
       </c>
     </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="18">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="18">
         <v>2021</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="9">
+      <c r="C49" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="9">
         <f t="shared" si="2"/>
         <v>34648.807876000006</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="7">
         <v>219.61199999999999</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="7">
         <v>8953.9622800000016</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G49" s="7">
         <v>228.47900000000001</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H49" s="7">
         <v>1342.146</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I49" s="7">
         <v>9816.7840960000012</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J49" s="7">
         <v>14087.824500000001</v>
       </c>
     </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="22">
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="22">
         <v>2021</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="C50" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="10">
         <f t="shared" si="2"/>
         <v>36982.816146000005</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>129.93199999999999</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="6">
         <v>10106.45505</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G50" s="6">
         <v>156.72999999999999</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H50" s="6">
         <v>1370.9369999999999</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I50" s="6">
         <v>11214.778596</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J50" s="6">
         <v>14003.9835</v>
       </c>
     </row>
-    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="24">
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="24">
         <v>2020</v>
       </c>
-      <c r="C50" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="12">
+      <c r="C51" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="12">
         <f t="shared" si="2"/>
         <v>36967.920087999999</v>
       </c>
-      <c r="E50" s="13">
-        <v>0</v>
-      </c>
-      <c r="F50" s="13">
+      <c r="E51" s="13">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
         <v>10567.67765</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>247.25800000000001</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>1325.12</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="13">
         <v>11836.856238</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J51" s="13">
         <v>12991.008199999998</v>
       </c>
     </row>
-    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="20">
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="20">
         <v>2020</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="C52" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="8">
         <f t="shared" si="2"/>
         <v>36852.864462999998</v>
       </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
         <v>10376.03788</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G52" s="4">
         <v>137.81200000000001</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H52" s="4">
         <v>1566.683</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I52" s="4">
         <v>11120.986982999999</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J52" s="4">
         <v>13651.3446</v>
       </c>
     </row>
-    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="18">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="18">
         <v>2020</v>
       </c>
-      <c r="C52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="C53" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="9">
         <f t="shared" si="2"/>
         <v>37111.751327400001</v>
       </c>
-      <c r="E52" s="7">
-        <v>0</v>
-      </c>
-      <c r="F52" s="7">
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
         <v>10139.1556</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G53" s="7">
         <v>42.646000000000001</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H53" s="7">
         <v>1292.682</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I53" s="7">
         <v>10863.6815274</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J53" s="7">
         <v>14773.5862</v>
       </c>
     </row>
-    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="20">
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="20">
         <v>2020</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="8">
+      <c r="C54" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="8">
         <f t="shared" si="2"/>
         <v>31289.118952199999</v>
       </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
         <v>8729.1361899999993</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="4">
         <v>35.866999999999997</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="4">
         <v>987.66099999999994</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I54" s="4">
         <v>9399.9986922000007</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J54" s="4">
         <v>12136.45607</v>
       </c>
     </row>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="18">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="18">
         <v>2020</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="9">
+      <c r="C55" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="9">
         <f t="shared" si="2"/>
         <v>28794.378688499997</v>
       </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
         <v>8471.0650299999998</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G55" s="7">
         <v>42.926000000000002</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H55" s="7">
         <v>1074.0519999999999</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I55" s="7">
         <v>8606.7041585000006</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J55" s="7">
         <v>10599.6315</v>
       </c>
     </row>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="20">
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="20">
         <v>2020</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="8">
+      <c r="C56" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="8">
         <f t="shared" si="2"/>
         <v>27431.279484500003</v>
       </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
         <v>8226.0579799999996</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="4">
         <v>36.588000000000001</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="4">
         <v>1040.3589999999999</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I56" s="4">
         <v>8177.4266045000004</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J56" s="4">
         <v>9950.8479000000007</v>
       </c>
     </row>
-    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="18">
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="18">
         <v>2020</v>
       </c>
-      <c r="C56" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="9">
+      <c r="C57" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="9">
         <f t="shared" si="2"/>
         <v>25926.471812200001</v>
       </c>
-      <c r="E56" s="7">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
         <v>7134.2837199999994</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="7">
         <v>63.805</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H57" s="7">
         <v>855.82899999999995</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I57" s="7">
         <v>7779.0341922000007</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J57" s="7">
         <v>10093.519900000001</v>
       </c>
     </row>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="20">
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="20">
         <v>2020</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="8">
+      <c r="C58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="8">
         <f t="shared" si="2"/>
         <v>23168.212673900001</v>
       </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
         <v>6023.6581899999992</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G58" s="4">
         <v>187.08600000000001</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H58" s="4">
         <v>832.03399999999999</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I58" s="4">
         <v>7072.7845839000001</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J58" s="4">
         <v>9052.6499000000003</v>
       </c>
     </row>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="18">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="18">
         <v>2020</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="9">
+      <c r="C59" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="9">
         <f t="shared" si="2"/>
         <v>20427.959275100002</v>
       </c>
-      <c r="E58" s="7">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7">
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
         <v>5209.0807000000004</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G59" s="7">
         <v>24.07</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H59" s="7">
         <v>739.351</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I59" s="7">
         <v>6596.5606751000005</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J59" s="7">
         <v>7858.8969000000006</v>
       </c>
     </row>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="20">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="20">
         <v>2020</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="8">
+      <c r="C60" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="8">
         <f t="shared" si="2"/>
         <v>33140.735087100002</v>
       </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
         <v>8644.8665579999997</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="4">
         <v>50.677999999999997</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="4">
         <v>2214.377</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I60" s="4">
         <v>10403.6180291</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J60" s="4">
         <v>11827.1955</v>
       </c>
     </row>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="18">
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="18">
         <v>2020</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="9">
+      <c r="C61" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="9">
         <f t="shared" si="2"/>
         <v>31595.295708999998</v>
       </c>
-      <c r="E60" s="7">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
         <v>8503.3772899999985</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G61" s="7">
         <v>71.156000000000006</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H61" s="7">
         <v>2496.2399999999998</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I61" s="7">
         <v>9914.0471189999989</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J61" s="7">
         <v>10610.4753</v>
       </c>
     </row>
-    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="22">
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="22">
         <v>2020</v>
       </c>
-      <c r="C61" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="10">
+      <c r="C62" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="10">
         <f t="shared" si="2"/>
         <v>31902.586373000002</v>
       </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="6">
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
         <v>8365.6301700000004</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="6">
         <v>80.352000000000004</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H62" s="6">
         <v>2759.7359999999999</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I62" s="6">
         <v>11337.052103</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J62" s="6">
         <v>9359.8161</v>
       </c>
     </row>
-    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="24">
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="24">
         <v>2019</v>
       </c>
-      <c r="C62" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="12">
+      <c r="C63" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="12">
         <f t="shared" si="2"/>
         <v>34834.055678999997</v>
       </c>
-      <c r="E62" s="13">
-        <v>0</v>
-      </c>
-      <c r="F62" s="13">
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
         <v>9580.7296500000011</v>
       </c>
-      <c r="G62" s="13">
-        <v>0</v>
-      </c>
-      <c r="H62" s="13">
+      <c r="G63" s="13">
+        <v>0</v>
+      </c>
+      <c r="H63" s="13">
         <v>2707.5740000000001</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="13">
         <v>11491.813929</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J63" s="13">
         <v>11053.938099999999</v>
       </c>
     </row>
-    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="20">
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="20">
         <v>2019</v>
       </c>
-      <c r="C63" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="C64" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="8">
         <f t="shared" si="2"/>
         <v>36842.30025</v>
       </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
         <v>9295.5269499999995</v>
       </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
         <v>2968.0250000000001</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I64" s="4">
         <v>12197.1018</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J64" s="4">
         <v>12381.646500000001</v>
       </c>
     </row>
-    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="18">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="18">
         <v>2019</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="9">
+      <c r="C65" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="9">
         <f t="shared" si="2"/>
         <v>37499.549509000004</v>
       </c>
-      <c r="E64" s="7">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7">
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
         <v>8717.2473399999999</v>
       </c>
-      <c r="G64" s="7">
-        <v>0</v>
-      </c>
-      <c r="H64" s="7">
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
         <v>2772.4720000000002</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I65" s="7">
         <v>12460.489269000002</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J65" s="7">
         <v>13549.340900000001</v>
       </c>
     </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="20">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="20">
         <v>2019</v>
       </c>
-      <c r="C65" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="8">
+      <c r="C66" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="8">
         <f t="shared" si="2"/>
         <v>34780.897574999995</v>
       </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
         <v>8235.0453999999991</v>
       </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
         <v>3011.7339999999999</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I66" s="4">
         <v>11347.632975</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J66" s="4">
         <v>12186.485199999999</v>
       </c>
     </row>
-    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="18">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="18">
         <v>2019</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="9">
+      <c r="C67" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="9">
         <f t="shared" si="2"/>
         <v>36123.947636999997</v>
       </c>
-      <c r="E66" s="7">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7">
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7">
         <v>8047.0139099999997</v>
       </c>
-      <c r="G66" s="7">
-        <v>0</v>
-      </c>
-      <c r="H66" s="7">
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
         <v>2861.5230000000001</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I67" s="7">
         <v>13553.171926999999</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J67" s="7">
         <v>11662.238800000001</v>
       </c>
     </row>
-    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="20">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="20">
         <v>2019</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="8">
+      <c r="C68" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="8">
         <f t="shared" si="2"/>
         <v>36989.020386999997</v>
       </c>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
         <v>8253.6834899999994</v>
       </c>
-      <c r="G67" s="4">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4">
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
         <v>2588.3980000000001</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I68" s="4">
         <v>13481.634697000001</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J68" s="4">
         <v>12665.304199999999</v>
       </c>
     </row>
-    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="18">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="18">
         <v>2019</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="9">
+      <c r="C69" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="9">
         <f t="shared" si="2"/>
         <v>36253.700530000002</v>
       </c>
-      <c r="E68" s="7">
-        <v>0</v>
-      </c>
-      <c r="F68" s="7">
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
         <v>7444.2109199999995</v>
       </c>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
-      <c r="H68" s="7">
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
         <v>2726.3809999999999</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I69" s="7">
         <v>14226.39911</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J69" s="7">
         <v>11856.709500000001</v>
       </c>
     </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="20">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="20">
         <v>2019</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="8">
+      <c r="C70" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="8">
         <f t="shared" si="2"/>
         <v>36841.123875999998</v>
       </c>
-      <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
         <v>8213.8209500000012</v>
       </c>
-      <c r="G69" s="4">
-        <v>0</v>
-      </c>
-      <c r="H69" s="4">
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
         <v>2822.8220000000001</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I70" s="4">
         <v>14573.453925999998</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J70" s="4">
         <v>11231.027</v>
       </c>
     </row>
-    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="18">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="18">
         <v>2019</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="9">
+      <c r="C71" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="9">
         <f t="shared" si="2"/>
         <v>34774.654051999998</v>
       </c>
-      <c r="E70" s="7">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7">
         <v>7045.8119100000004</v>
       </c>
-      <c r="G70" s="7">
-        <v>0</v>
-      </c>
-      <c r="H70" s="7">
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
         <v>2281.2820000000002</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I71" s="7">
         <v>14819.089841999999</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J71" s="7">
         <v>10628.470300000001</v>
       </c>
     </row>
-    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="20">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="20">
         <v>2019</v>
       </c>
-      <c r="C71" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="8">
+      <c r="C72" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="8">
         <f t="shared" si="2"/>
         <v>41597.635473399998</v>
       </c>
-      <c r="E71" s="4">
-        <v>0</v>
-      </c>
-      <c r="F71" s="4">
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
         <v>8978.2172699999992</v>
       </c>
-      <c r="G71" s="4">
-        <v>0</v>
-      </c>
-      <c r="H71" s="4">
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
         <v>2665.5234</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I72" s="4">
         <v>16057.1642034</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J72" s="4">
         <v>13896.730599999999</v>
       </c>
     </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="18">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="18">
         <v>2019</v>
       </c>
-      <c r="C72" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="9">
+      <c r="C73" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="9">
         <f t="shared" si="2"/>
         <v>34403.574224000004</v>
       </c>
-      <c r="E72" s="7">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7">
+      <c r="E73" s="7">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
         <v>7372.8365000000003</v>
       </c>
-      <c r="G72" s="7">
-        <v>0</v>
-      </c>
-      <c r="H72" s="7">
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
         <v>2041.7819999999999</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I73" s="7">
         <v>14155.565524</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J73" s="7">
         <v>10833.3902</v>
       </c>
     </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="22">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="22">
         <v>2019</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C74" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" ref="D74:D86" si="3">SUM(E74:J74)</f>
+        <v>34340.204129700003</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6">
+        <v>7805.6810100000012</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0</v>
+      </c>
+      <c r="H74" s="6">
+        <v>2447.4140000000002</v>
+      </c>
+      <c r="I74" s="6">
+        <v>13462.407319700002</v>
+      </c>
+      <c r="J74" s="6">
+        <v>10624.701800000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="19">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="10">
-        <f t="shared" ref="D73:D85" si="3">SUM(E73:J73)</f>
-        <v>34340.204129700003</v>
-      </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6">
-        <v>7805.6810100000012</v>
-      </c>
-      <c r="G73" s="6">
-        <v>0</v>
-      </c>
-      <c r="H73" s="6">
-        <v>2447.4140000000002</v>
-      </c>
-      <c r="I73" s="6">
-        <v>13462.407319700002</v>
-      </c>
-      <c r="J73" s="6">
-        <v>10624.701800000001</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="19">
-        <v>2018</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <f t="shared" si="3"/>
         <v>39107.630482000008</v>
       </c>
-      <c r="E74" s="7">
-        <v>0</v>
-      </c>
-      <c r="F74" s="7">
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
         <v>9016.9082100000014</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G75" s="7">
         <v>604.548</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H75" s="7">
         <v>2518.2449999999999</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I75" s="7">
         <v>14153.156971999999</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J75" s="7">
         <v>12814.772300000001</v>
       </c>
     </row>
-    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="21">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="21">
         <v>2018</v>
       </c>
-      <c r="C75" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="8">
+      <c r="C76" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="8">
         <f t="shared" si="3"/>
         <v>40739.449042</v>
       </c>
-      <c r="E75" s="4">
-        <v>0</v>
-      </c>
-      <c r="F75" s="4">
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
         <v>10171.974600000001</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G76" s="4">
         <v>543.64599999999996</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H76" s="4">
         <v>3271.4839999999999</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I76" s="4">
         <v>14774.019941999999</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J76" s="4">
         <v>11978.324500000001</v>
       </c>
     </row>
-    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="19">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="19">
         <v>2018</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="9">
+      <c r="C77" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="9">
         <f t="shared" si="3"/>
         <v>41232.318012000003</v>
       </c>
-      <c r="E76" s="7">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
+      <c r="E77" s="7">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
         <v>9028.4674500000001</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G77" s="7">
         <v>556.69100000000003</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H77" s="7">
         <v>3183.5309999999999</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I77" s="7">
         <v>15699.443762000001</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J77" s="7">
         <v>12764.184800000001</v>
       </c>
     </row>
-    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="21">
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="21">
         <v>2018</v>
       </c>
-      <c r="C77" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="8">
+      <c r="C78" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="8">
         <f t="shared" si="3"/>
         <v>39190.964049599999</v>
       </c>
-      <c r="E77" s="4">
-        <v>0</v>
-      </c>
-      <c r="F77" s="4">
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
         <v>9327.9771700000001</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="4">
         <v>646.58299999999997</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="4">
         <v>3104.5279999999998</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I78" s="4">
         <v>13338.916489599998</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J78" s="4">
         <v>12772.95939</v>
       </c>
     </row>
-    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="19">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="19">
         <v>2018</v>
       </c>
-      <c r="C78" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="9">
+      <c r="C79" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="9">
         <f t="shared" si="3"/>
         <v>37812.709869799997</v>
       </c>
-      <c r="E78" s="7">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7">
+      <c r="E79" s="7">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
         <v>8414.4507599999997</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G79" s="7">
         <v>730.47900000000004</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H79" s="7">
         <v>3062.973</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I79" s="7">
         <v>14063.5628698</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J79" s="7">
         <v>11541.24424</v>
       </c>
     </row>
-    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="21">
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="21">
         <v>2018</v>
       </c>
-      <c r="C79" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="8">
+      <c r="C80" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="8">
         <f t="shared" si="3"/>
         <v>39965.855546999999</v>
       </c>
-      <c r="E79" s="4">
-        <v>0</v>
-      </c>
-      <c r="F79" s="4">
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
         <v>8683.6723199999997</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G80" s="4">
         <v>687.87199999999996</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H80" s="4">
         <v>2884.9024869999998</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I80" s="4">
         <v>14803.904460000002</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J80" s="4">
         <v>12905.504279999999</v>
       </c>
     </row>
-    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="19">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="19">
         <v>2018</v>
       </c>
-      <c r="C80" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="9">
+      <c r="C81" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="9">
         <f t="shared" si="3"/>
         <v>41066.873502000002</v>
       </c>
-      <c r="E80" s="7">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7">
+      <c r="E81" s="7">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
         <v>8739.8234700000012</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="7">
         <v>775.90599999999995</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H81" s="7">
         <v>3132.7950000000001</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I81" s="7">
         <v>15348.913632</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J81" s="7">
         <v>13069.4354</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="21">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="21">
         <v>2018</v>
       </c>
-      <c r="C81" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="8">
+      <c r="C82" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="8">
         <f t="shared" si="3"/>
         <v>39330.274949999999</v>
       </c>
-      <c r="E81" s="4">
-        <v>0</v>
-      </c>
-      <c r="F81" s="4">
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
         <v>8459.8314499999997</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="4">
         <v>741.85500000000002</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="4">
         <v>3243.9609999999998</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I82" s="4">
         <v>15389.468199999999</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J82" s="4">
         <v>11495.159300000001</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="19">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="19">
         <v>2018</v>
       </c>
-      <c r="C82" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="9">
+      <c r="C83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="9">
         <f t="shared" si="3"/>
         <v>42190.912314999994</v>
       </c>
-      <c r="E82" s="7">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7">
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
         <v>9138.4659200000006</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G83" s="7">
         <v>763.33</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H83" s="7">
         <v>2695.9059999999999</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I83" s="7">
         <v>17318.287694999999</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J83" s="7">
         <v>12274.922699999999</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="21">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="21">
         <v>2018</v>
       </c>
-      <c r="C83" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="8">
+      <c r="C84" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="8">
         <f t="shared" si="3"/>
         <v>42310.135434999997</v>
       </c>
-      <c r="E83" s="4">
-        <v>0</v>
-      </c>
-      <c r="F83" s="4">
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
         <v>9362.9394400000001</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="4">
         <v>388.47899999999998</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="4">
         <v>3041.660961</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I84" s="4">
         <v>15644.620234</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J84" s="4">
         <v>13872.435800000001</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="19">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="19">
         <v>2018</v>
       </c>
-      <c r="C84" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="9">
+      <c r="C85" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="9">
         <f t="shared" si="3"/>
         <v>34826.467999300003</v>
       </c>
-      <c r="E84" s="7">
-        <v>0</v>
-      </c>
-      <c r="F84" s="7">
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7">
         <v>7302.8320700000004</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="7">
         <v>356.733</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H85" s="7">
         <v>2616.0599083000002</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I85" s="7">
         <v>13679.491221</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J85" s="7">
         <v>10871.3518</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="21">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="21">
         <v>2018</v>
       </c>
-      <c r="C85" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="8">
+      <c r="C86" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="8">
         <f t="shared" si="3"/>
         <v>34940.797042999999</v>
       </c>
-      <c r="E85" s="4">
-        <v>0</v>
-      </c>
-      <c r="F85" s="4">
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
         <v>7741.241140000001</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G86" s="4">
         <v>295.541</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H86" s="4">
         <v>2365.5157000000004</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I86" s="4">
         <v>14151.311802999999</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J86" s="4">
         <v>10387.187400000001</v>
       </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="J87" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D87"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Carga_por_aerolinea_inter.xlsx
+++ b/Carga_por_aerolinea_inter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A518FCF-DFD4-476B-A7C5-F1D53699B3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A25A2A-8C4A-4484-9A61-452200F8468A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_36" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
   <si>
     <t>Total</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -135,19 +135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Montserrat Medium"/>
       <family val="2"/>
@@ -161,18 +148,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -287,33 +290,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -326,55 +322,129 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -390,16 +460,40 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -425,6 +519,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -436,9 +543,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -473,11 +581,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J87" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B5:J87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J88" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B5:J88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -723,2554 +830,2585 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:J90"/>
+  <dimension ref="B2:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.296875" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:10" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="26" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="14" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="18">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="17">
+        <f>SUM(E6:J6)</f>
+        <v>38955.349190000001</v>
+      </c>
+      <c r="E6" s="18">
+        <v>476.91500000000002</v>
+      </c>
+      <c r="F6" s="18">
+        <v>11865.98335</v>
+      </c>
+      <c r="G6" s="18">
+        <v>118.56699999999999</v>
+      </c>
+      <c r="H6" s="18">
+        <v>2287.3870999999999</v>
+      </c>
+      <c r="I6" s="18">
+        <v>9767.1580399999984</v>
+      </c>
+      <c r="J6" s="18">
+        <v>14439.338699999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="D6" si="0">SUM(E6:J6)</f>
+      <c r="D7" s="13">
+        <f t="shared" ref="D7" si="0">SUM(E7:J7)</f>
         <v>40583.470432800001</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="14">
         <v>595.11500000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="14">
         <v>11875.472706999999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="14">
         <v>108.72</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="14">
         <v>2518.88535</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="14">
         <v>10723.791075800002</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J7" s="14">
         <v>14761.4863</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="20">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="15">
         <v>2024</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8">
-        <f>SUM(E7:J7)</f>
+      <c r="D8" s="17">
+        <f>SUM(E8:J8)</f>
         <v>36709.209215400006</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="18">
         <v>655.125</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="18">
         <v>11496.193750000002</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="18">
         <v>77.037000000000006</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="18">
         <v>2604.8681999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="18">
         <v>9467.4052554000009</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="18">
         <v>12408.58001</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="18">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9">
-        <f t="shared" ref="D8:D42" si="1">SUM(E8:J8)</f>
+      <c r="D9" s="13">
+        <f t="shared" ref="D9:D43" si="1">SUM(E9:J9)</f>
         <v>39433.388310299997</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="14">
         <v>784.92399999999998</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="14">
         <v>12296.267870000001</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="14">
         <v>99.649000000000001</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="14">
         <v>2503.4024399999998</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="14">
         <v>9761.9496002999986</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="14">
         <v>13987.195400000001</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="20">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:D11" si="2">SUM(E9:J9)</f>
+      <c r="D10" s="17">
+        <f t="shared" ref="D10:D12" si="2">SUM(E10:J10)</f>
         <v>40801.963929400001</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="18">
         <v>699.11900000000003</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="18">
         <v>12543.787289999998</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="18">
         <v>84.063999999999993</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="18">
         <v>2098.4537700000001</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="18">
         <v>11053.483869400001</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="18">
         <v>14323.056</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="18">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="13">
         <f t="shared" si="2"/>
         <v>39620.932216600006</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="14">
         <v>519.66999999999996</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="14">
         <v>12641.439460000001</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="14">
         <v>77.063999999999993</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="14">
         <v>2216.25135</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I11" s="14">
         <v>9750.3944666000007</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J11" s="14">
         <v>14416.112940000001</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="20">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="17">
         <f t="shared" si="2"/>
         <v>41707.502720700002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="18">
         <v>666.51599999999996</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="18">
         <v>12929.211710000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="18">
         <v>67.73</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="18">
         <v>2272.335</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="18">
         <v>11736.1480207</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J12" s="18">
         <v>14035.56199</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="18">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="13">
         <f t="shared" si="1"/>
         <v>41262.668572400005</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="14">
         <v>688.25300000000004</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="14">
         <v>12315.68958</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="14">
         <v>41.54</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="14">
         <v>2009.3571000000002</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="14">
         <v>11684.1584924</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J13" s="14">
         <v>14523.670400000001</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="20">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="17">
         <f t="shared" si="1"/>
         <v>42983.103187400004</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="18">
         <v>794.28</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="18">
         <v>13886.640620000002</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="18">
         <v>59.076999999999998</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="18">
         <v>2339.2438500000003</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="18">
         <v>10445.917705400001</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J14" s="18">
         <v>15457.944012</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="18">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="13">
         <f t="shared" si="1"/>
         <v>40423.179039299997</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="14">
         <v>664.82100000000003</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="14">
         <v>12004.929049999999</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="14">
         <v>45.631999999999998</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H15" s="14">
         <v>1860.7841100000001</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I15" s="14">
         <v>11883.265289299999</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J15" s="14">
         <v>13963.747589999999</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="22">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="19">
         <v>2024</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="21">
         <f t="shared" si="1"/>
         <v>41353.6868091</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="22">
         <v>680.31799999999998</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="22">
         <v>12601.32713</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="22">
         <v>44.356000000000002</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="22">
         <v>1755.9950999999999</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I16" s="22">
         <v>12111.205109099999</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J16" s="22">
         <v>14160.48547</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="24">
+    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="23">
         <v>2023</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="25">
         <f t="shared" si="1"/>
         <v>41305.9751617</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="26">
         <v>772.82399999999996</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="14">
         <v>13837.61614</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="26">
         <v>74.738</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="26">
         <v>2170.9023299999999</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="26">
         <v>9069.6951917000006</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J17" s="26">
         <v>15380.199500000001</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="20">
+    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="15">
         <v>2023</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="17">
         <f t="shared" si="1"/>
         <v>40392.089828199998</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="18">
         <v>779.80799999999999</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="18">
         <v>11039.539530000002</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="18">
         <v>95.251000000000005</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="18">
         <v>2158.6788999999999</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="18">
         <v>9817.7052921999984</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="18">
         <v>16501.107105999999</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="18">
+    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="11">
         <v>2023</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="13">
         <f t="shared" si="1"/>
         <v>44801.968924000001</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="14">
         <v>778.178</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="14">
         <v>10705.033520000001</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="14">
         <v>62.91</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="14">
         <v>2322.5757999999996</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I19" s="14">
         <v>11604.903104000001</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J19" s="14">
         <v>19328.3685</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="20">
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="15">
         <v>2023</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="17">
         <f t="shared" si="1"/>
         <v>37081.792656999998</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="18">
         <v>622.02300000000002</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="18">
         <v>9376.2873299999992</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="18">
         <v>85.058000000000007</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="18">
         <v>2340.9119999999998</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="18">
         <v>9719.7349270000013</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="18">
         <v>14937.777400000001</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="18">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="11">
         <v>2023</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="13">
         <f t="shared" si="1"/>
         <v>40017.679605799996</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="14">
         <v>757.96799999999996</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="14">
         <v>10215.824409999999</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="14">
         <v>52.222000000000001</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="14">
         <v>2329.6565299999997</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I21" s="14">
         <v>10678.306165799999</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J21" s="14">
         <v>15983.702499999999</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="20">
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="17">
         <f t="shared" si="1"/>
-        <v>40319.464599799998</v>
-      </c>
-      <c r="E21" s="4">
+        <v>40319.464599800005</v>
+      </c>
+      <c r="E22" s="18">
         <v>788.85</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="18">
         <v>10358.445689999999</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="18">
         <v>48.895000000000003</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="18">
         <v>2259.8667999999998</v>
       </c>
-      <c r="I21" s="4">
-        <v>10176.835459800001</v>
-      </c>
-      <c r="J21" s="4">
-        <v>16686.571649999998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="18">
+      <c r="I22" s="18">
+        <v>10176.835459799999</v>
+      </c>
+      <c r="J22" s="18">
+        <v>16686.571650000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="13">
         <f t="shared" si="1"/>
         <v>40587.1373762</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="14">
         <v>645.45299999999997</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="14">
         <v>10949.239150000001</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="14">
         <v>36.125</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="14">
         <v>2276.2485000000001</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="14">
         <v>10352.348026199999</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J23" s="14">
         <v>16327.723699999999</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="20">
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="17">
         <f t="shared" si="1"/>
         <v>38973.9993865</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="18">
         <v>640.97299999999996</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="18">
         <v>10514.624800000001</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="18">
         <v>48.081000000000003</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="18">
         <v>2950.8580000000002</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="18">
         <v>10310.050886499999</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J24" s="18">
         <v>14509.411699999999</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="18">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="13">
         <f t="shared" si="1"/>
         <v>36860.751413800004</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="14">
         <v>640.28800000000001</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="14">
         <v>10179.089970000001</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="14">
         <v>36.615000000000002</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H25" s="14">
         <v>2873.6055999999999</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I25" s="14">
         <v>9745.8580438000008</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J25" s="14">
         <v>13385.294800000001</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="20">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="17">
         <f t="shared" si="1"/>
         <v>40964.524065800004</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="18">
         <v>786.44299999999998</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="18">
         <v>10964.67835</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G26" s="18">
         <v>29.545999999999999</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="18">
         <v>2982.933</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I26" s="18">
         <v>11630.4319158</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J26" s="18">
         <v>14570.491800000002</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="18">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="13">
         <f t="shared" si="1"/>
         <v>34787.3181482</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="14">
         <v>578.94399999999996</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="14">
         <v>8934.8815099999993</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="14">
         <v>75.331999999999994</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H27" s="14">
         <v>2327.94515</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I27" s="14">
         <v>10297.7028882</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J27" s="14">
         <v>12572.5126</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="22">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="19">
         <v>2023</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="21">
         <f t="shared" si="1"/>
         <v>34339.076626599999</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="22">
         <v>536.072</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="22">
         <v>8186.4879099999998</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="22">
         <v>36.253</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="22">
         <v>2646.04016</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I28" s="22">
         <v>10631.4606566</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J28" s="22">
         <v>12302.7629</v>
       </c>
     </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="24">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="23">
         <v>2022</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="25">
         <f t="shared" si="1"/>
         <v>38746.066610000002</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="26">
         <v>378.79500000000002</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="26">
         <v>9252.3727799999997</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="26">
         <v>106.069</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="26">
         <v>2824.3177999999998</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="26">
         <v>11614.168230000001</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J29" s="26">
         <v>14570.343800000001</v>
       </c>
     </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="20">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="15">
         <v>2022</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="17">
         <f t="shared" si="1"/>
         <v>38505.180007499999</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="18">
         <v>516.43899999999996</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="18">
         <v>9489.5803000000014</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="18">
         <v>75.007999999999996</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="18">
         <v>2658.9839999999999</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="18">
         <v>11148.7151075</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J30" s="18">
         <v>14616.453599999999</v>
       </c>
     </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="18">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="11">
         <v>2022</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C31" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="13">
         <f t="shared" si="1"/>
         <v>41053.772325500002</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="14">
         <v>741.95500000000004</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="14">
         <v>9730.2727100000011</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="14">
         <v>97.396000000000001</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H31" s="14">
         <v>2904.4928999999997</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I31" s="14">
         <v>11820.6849155</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J31" s="14">
         <v>15758.970800000001</v>
       </c>
     </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="15">
         <v>2022</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C32" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="17">
         <f t="shared" si="1"/>
         <v>37277.511123060001</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="18">
         <v>663.58500000000004</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="18">
         <v>8746.3328199999996</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G32" s="18">
         <v>20.056000000000001</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="18">
         <v>3093.55527936</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="18">
         <v>11160.508123699999</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J32" s="18">
         <v>13593.473900000001</v>
       </c>
     </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="18">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="11">
         <v>2022</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="13">
         <f t="shared" si="1"/>
         <v>39368.723200799999</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="14">
         <v>591.01800000000003</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="14">
         <v>8719.4067500000001</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="14">
         <v>25.675000000000001</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H33" s="14">
         <v>3267.5057999999999</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I33" s="14">
         <v>12298.3654508</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J33" s="14">
         <v>14466.752199999999</v>
       </c>
     </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="20">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C34" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="17">
         <f t="shared" si="1"/>
         <v>40438.258232399996</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="18">
         <v>530.70500000000004</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="18">
         <v>9093.8344099999995</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="18">
         <v>34.826000000000001</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="18">
         <v>3252.6017000000002</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="18">
         <v>11449.207622400001</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="18">
         <v>16077.083500000001</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="18">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C35" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="13">
         <f t="shared" si="1"/>
         <v>40705.379663200001</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="14">
         <v>512.66099999999994</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="14">
         <v>8969.2943100000011</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="14">
         <v>26.021000000000001</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H35" s="14">
         <v>3225.5032000000001</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I35" s="14">
         <v>12235.6416532</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J35" s="14">
         <v>15736.2585</v>
       </c>
     </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="20">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="17">
         <f t="shared" si="1"/>
         <v>38385.635270600003</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="18">
         <v>646.77499999999998</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="18">
         <v>5887.1319999999996</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="18">
         <v>121.18</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="18">
         <v>3119.6742000000004</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I36" s="18">
         <v>12724.7170706</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J36" s="18">
         <v>15886.156999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="18">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="13">
         <f t="shared" si="1"/>
         <v>37880.648666100002</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="14">
         <v>658.78499999999997</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="14">
         <v>5153.4015099999997</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="14">
         <v>198.077</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H37" s="14">
         <v>2884.4317999999998</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I37" s="14">
         <v>13095.553956100001</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J37" s="14">
         <v>15890.3994</v>
       </c>
     </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="20">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C38" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="17">
         <f t="shared" si="1"/>
         <v>39804.246607199995</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="18">
         <v>701.476</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F38" s="18">
         <v>5848.9565830000001</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G38" s="18">
         <v>68.724999999999994</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H38" s="18">
         <v>3277.5267000000003</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I38" s="18">
         <v>13626.1151242</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J38" s="18">
         <v>16281.447199999999</v>
       </c>
     </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="18">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="13">
         <f t="shared" si="1"/>
         <v>35391.386208299999</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="14">
         <v>638.51099999999997</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="14">
         <v>5672.3767400000006</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G39" s="14">
         <v>17.033999999999999</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H39" s="14">
         <v>2882.4872999999998</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I39" s="14">
         <v>10909.8495683</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J39" s="14">
         <v>15271.1276</v>
       </c>
     </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="22">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="19">
         <v>2022</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C40" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="21">
         <f t="shared" si="1"/>
         <v>32469.8484493</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="22">
         <v>482.12099999999998</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="22">
         <v>6245.38976</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G40" s="22">
         <v>259.46800000000002</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H40" s="22">
         <v>2435.1074600000002</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I40" s="22">
         <v>9916.5125293000001</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J40" s="22">
         <v>13131.249699999998</v>
       </c>
     </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="24">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="23">
         <v>2021</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="25">
         <f t="shared" si="1"/>
         <v>39492.366382700005</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="26">
         <v>458.77499999999998</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="26">
         <v>10098.12268</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="26">
         <v>133.10599999999999</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="26">
         <v>3136.06873</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="26">
         <v>12005.7867427</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J41" s="26">
         <v>13660.507230000001</v>
       </c>
     </row>
-    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="20">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="15">
         <v>2021</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C42" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="17">
         <f t="shared" si="1"/>
         <v>40331.827408900004</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="18">
         <v>490.10599999999999</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="18">
         <v>10062.285780000002</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="18">
         <v>336.76799999999997</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="18">
         <v>3288.1294800000001</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I42" s="18">
         <v>12280.809678899999</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J42" s="18">
         <v>13873.728469999998</v>
       </c>
     </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="18">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="11">
         <v>2021</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C43" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="13">
         <f t="shared" si="1"/>
         <v>41580.666843700004</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="14">
         <v>586.94299999999998</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="14">
         <v>10735.457050000001</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G43" s="14">
         <v>619.62599999999998</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H43" s="14">
         <v>2722.0764900000004</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I43" s="14">
         <v>11237.549403700001</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J43" s="14">
         <v>15679.0149</v>
       </c>
     </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="20">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="15">
         <v>2021</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C44" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="8">
-        <f t="shared" ref="D43:D74" si="3">SUM(E43:J43)</f>
+      <c r="D44" s="17">
+        <f t="shared" ref="D44:D75" si="3">SUM(E44:J44)</f>
         <v>38165.8196035</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="18">
         <v>696.17100000000005</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="18">
         <v>10134.700359999999</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="18">
         <v>487.45499999999998</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="18">
         <v>2548.2033000000001</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I44" s="18">
         <v>11597.826043499999</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J44" s="18">
         <v>12701.463900000001</v>
       </c>
     </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="18">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="11">
         <v>2021</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="13">
         <f t="shared" si="3"/>
         <v>37424.307471799999</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="14">
         <v>396.84</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="14">
         <v>9954.2116800000003</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="14">
         <v>550.08500000000004</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H45" s="14">
         <v>2444.3667</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I45" s="14">
         <v>11310.234991799998</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J45" s="14">
         <v>12768.569099999999</v>
       </c>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="20">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C46" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="17">
         <f t="shared" si="3"/>
         <v>39029.204718000001</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="18">
         <v>501.01900000000001</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="18">
         <v>10968.570522</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="18">
         <v>546.27499999999998</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="18">
         <v>2313.2728999999999</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="18">
         <v>11426.955696000001</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J46" s="18">
         <v>13273.1116</v>
       </c>
     </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="18">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C47" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="13">
         <f t="shared" si="3"/>
         <v>37745.558432400001</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="14">
         <v>463.83300000000003</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="14">
         <v>10031.152749999999</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G47" s="14">
         <v>463.92500000000001</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H47" s="14">
         <v>1743.7754</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I47" s="14">
         <v>11018.1134824</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J47" s="14">
         <v>14024.758800000001</v>
       </c>
     </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="20">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C48" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="17">
         <f t="shared" si="3"/>
         <v>38457.492379999996</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="18">
         <v>554.96</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="18">
         <v>9638.9807799999999</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G48" s="18">
         <v>289.39</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="18">
         <v>1666.4480000000001</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I48" s="18">
         <v>11157.246999999999</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J48" s="18">
         <v>15150.4666</v>
       </c>
     </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="18">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="13">
         <f t="shared" si="3"/>
         <v>37112.560168100004</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="14">
         <v>590.50099999999998</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="14">
         <v>9277.434830000002</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G49" s="14">
         <v>331.7</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H49" s="14">
         <v>1472.3352</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I49" s="14">
         <v>11167.4790381</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J49" s="14">
         <v>14273.1101</v>
       </c>
     </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="20">
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C50" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="17">
         <f t="shared" si="3"/>
         <v>41269.452216999998</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E50" s="18">
         <v>386.11599999999999</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F50" s="18">
         <v>10042.040590000001</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G50" s="18">
         <v>536.54600000000005</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H50" s="18">
         <v>1531.1469999999999</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I50" s="18">
         <v>13111.292127000001</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J50" s="18">
         <v>15662.3105</v>
       </c>
     </row>
-    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="18">
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C51" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="13">
         <f t="shared" si="3"/>
         <v>34648.807876000006</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="14">
         <v>219.61199999999999</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="14">
         <v>8953.9622800000016</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G51" s="14">
         <v>228.47900000000001</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H51" s="14">
         <v>1342.146</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I51" s="14">
         <v>9816.7840960000012</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J51" s="14">
         <v>14087.824500000001</v>
       </c>
     </row>
-    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="22">
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="19">
         <v>2021</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C52" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="21">
         <f t="shared" si="3"/>
         <v>36982.816146000005</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="22">
         <v>129.93199999999999</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="22">
         <v>10106.45505</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G52" s="22">
         <v>156.72999999999999</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H52" s="22">
         <v>1370.9369999999999</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I52" s="22">
         <v>11214.778596</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J52" s="22">
         <v>14003.9835</v>
       </c>
     </row>
-    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="24">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="23">
         <v>2020</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="25">
         <f t="shared" si="3"/>
         <v>36967.920087999999</v>
       </c>
-      <c r="E52" s="13">
-        <v>0</v>
-      </c>
-      <c r="F52" s="13">
+      <c r="E53" s="26">
+        <v>0</v>
+      </c>
+      <c r="F53" s="26">
         <v>10567.67765</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="26">
         <v>247.25800000000001</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="26">
         <v>1325.12</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I53" s="26">
         <v>11836.856238</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J53" s="26">
         <v>12991.008199999998</v>
       </c>
     </row>
-    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="20">
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="15">
         <v>2020</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C54" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="17">
         <f t="shared" si="3"/>
         <v>36852.864462999998</v>
       </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
+      <c r="E54" s="18">
+        <v>0</v>
+      </c>
+      <c r="F54" s="18">
         <v>10376.03788</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="18">
         <v>137.81200000000001</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="18">
         <v>1566.683</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I54" s="18">
         <v>11120.986982999999</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J54" s="18">
         <v>13651.3446</v>
       </c>
     </row>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="18">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="11">
         <v>2020</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C55" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="13">
         <f t="shared" si="3"/>
         <v>37111.751327400001</v>
       </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
+      <c r="F55" s="14">
         <v>10139.1556</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G55" s="14">
         <v>42.646000000000001</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H55" s="14">
         <v>1292.682</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I55" s="14">
         <v>10863.6815274</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J55" s="14">
         <v>14773.5862</v>
       </c>
     </row>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="20">
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="15">
         <v>2020</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C56" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="17">
         <f t="shared" si="3"/>
         <v>31289.118952199999</v>
       </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
+      <c r="E56" s="18">
+        <v>0</v>
+      </c>
+      <c r="F56" s="18">
         <v>8729.1361899999993</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="18">
         <v>35.866999999999997</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="18">
         <v>987.66099999999994</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I56" s="18">
         <v>9399.9986922000007</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J56" s="18">
         <v>12136.45607</v>
       </c>
     </row>
-    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="18">
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="11">
         <v>2020</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="13">
         <f t="shared" si="3"/>
         <v>28794.378688499997</v>
       </c>
-      <c r="E56" s="7">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
+      <c r="E57" s="14">
+        <v>0</v>
+      </c>
+      <c r="F57" s="14">
         <v>8471.0650299999998</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="14">
         <v>42.926000000000002</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H57" s="14">
         <v>1074.0519999999999</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I57" s="14">
         <v>8606.7041585000006</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J57" s="14">
         <v>10599.6315</v>
       </c>
     </row>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="20">
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C58" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="17">
         <f t="shared" si="3"/>
         <v>27431.279484500003</v>
       </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
+      <c r="E58" s="18">
+        <v>0</v>
+      </c>
+      <c r="F58" s="18">
         <v>8226.0579799999996</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G58" s="18">
         <v>36.588000000000001</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H58" s="18">
         <v>1040.3589999999999</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I58" s="18">
         <v>8177.4266045000004</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J58" s="18">
         <v>9950.8479000000007</v>
       </c>
     </row>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="18">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C59" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="13">
         <f t="shared" si="3"/>
         <v>25926.471812200001</v>
       </c>
-      <c r="E58" s="7">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7">
+      <c r="E59" s="14">
+        <v>0</v>
+      </c>
+      <c r="F59" s="14">
         <v>7134.2837199999994</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G59" s="14">
         <v>63.805</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H59" s="14">
         <v>855.82899999999995</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I59" s="14">
         <v>7779.0341922000007</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J59" s="14">
         <v>10093.519900000001</v>
       </c>
     </row>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="20">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C60" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="17">
         <f t="shared" si="3"/>
         <v>23168.212673900001</v>
       </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
+      <c r="E60" s="18">
+        <v>0</v>
+      </c>
+      <c r="F60" s="18">
         <v>6023.6581899999992</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="18">
         <v>187.08600000000001</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="18">
         <v>832.03399999999999</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I60" s="18">
         <v>7072.7845839000001</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J60" s="18">
         <v>9052.6499000000003</v>
       </c>
     </row>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="18">
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="13">
         <f t="shared" si="3"/>
         <v>20427.959275100002</v>
       </c>
-      <c r="E60" s="7">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
+      <c r="E61" s="14">
+        <v>0</v>
+      </c>
+      <c r="F61" s="14">
         <v>5209.0807000000004</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G61" s="14">
         <v>24.07</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H61" s="14">
         <v>739.351</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I61" s="14">
         <v>6596.5606751000005</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J61" s="14">
         <v>7858.8969000000006</v>
       </c>
     </row>
-    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="20">
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C62" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="17">
         <f t="shared" si="3"/>
         <v>33140.735087100002</v>
       </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
+      <c r="E62" s="18">
+        <v>0</v>
+      </c>
+      <c r="F62" s="18">
         <v>8644.8665579999997</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G62" s="18">
         <v>50.677999999999997</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H62" s="18">
         <v>2214.377</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I62" s="18">
         <v>10403.6180291</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J62" s="18">
         <v>11827.1955</v>
       </c>
     </row>
-    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="18">
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C63" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="13">
         <f t="shared" si="3"/>
         <v>31595.295708999998</v>
       </c>
-      <c r="E62" s="7">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7">
+      <c r="E63" s="14">
+        <v>0</v>
+      </c>
+      <c r="F63" s="14">
         <v>8503.3772899999985</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G63" s="14">
         <v>71.156000000000006</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H63" s="14">
         <v>2496.2399999999998</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I63" s="14">
         <v>9914.0471189999989</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J63" s="14">
         <v>10610.4753</v>
       </c>
     </row>
-    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="22">
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="19">
         <v>2020</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C64" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="21">
         <f t="shared" si="3"/>
         <v>31902.586373000002</v>
       </c>
-      <c r="E63" s="6">
-        <v>0</v>
-      </c>
-      <c r="F63" s="6">
+      <c r="E64" s="22">
+        <v>0</v>
+      </c>
+      <c r="F64" s="22">
         <v>8365.6301700000004</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="22">
         <v>80.352000000000004</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="22">
         <v>2759.7359999999999</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I64" s="22">
         <v>11337.052103</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J64" s="22">
         <v>9359.8161</v>
       </c>
     </row>
-    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="24">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="23">
         <v>2019</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C65" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="25">
         <f t="shared" si="3"/>
         <v>34834.055678999997</v>
       </c>
-      <c r="E64" s="13">
-        <v>0</v>
-      </c>
-      <c r="F64" s="13">
+      <c r="E65" s="26">
+        <v>0</v>
+      </c>
+      <c r="F65" s="26">
         <v>9580.7296500000011</v>
       </c>
-      <c r="G64" s="13">
-        <v>0</v>
-      </c>
-      <c r="H64" s="13">
+      <c r="G65" s="26">
+        <v>0</v>
+      </c>
+      <c r="H65" s="26">
         <v>2707.5740000000001</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="26">
         <v>11491.813929</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J65" s="26">
         <v>11053.938099999999</v>
       </c>
     </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="20">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="15">
         <v>2019</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C66" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="17">
         <f t="shared" si="3"/>
         <v>36842.30025</v>
       </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
+      <c r="E66" s="18">
+        <v>0</v>
+      </c>
+      <c r="F66" s="18">
         <v>9295.5269499999995</v>
       </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
+      <c r="G66" s="18">
+        <v>0</v>
+      </c>
+      <c r="H66" s="18">
         <v>2968.0250000000001</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I66" s="18">
         <v>12197.1018</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J66" s="18">
         <v>12381.646500000001</v>
       </c>
     </row>
-    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="18">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="11">
         <v>2019</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C67" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="13">
         <f t="shared" si="3"/>
         <v>37499.549509000004</v>
       </c>
-      <c r="E66" s="7">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7">
+      <c r="E67" s="14">
+        <v>0</v>
+      </c>
+      <c r="F67" s="14">
         <v>8717.2473399999999</v>
       </c>
-      <c r="G66" s="7">
-        <v>0</v>
-      </c>
-      <c r="H66" s="7">
+      <c r="G67" s="14">
+        <v>0</v>
+      </c>
+      <c r="H67" s="14">
         <v>2772.4720000000002</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I67" s="14">
         <v>12460.489269000002</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J67" s="14">
         <v>13549.340900000001</v>
       </c>
     </row>
-    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="20">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="15">
         <v>2019</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C68" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="17">
         <f t="shared" si="3"/>
         <v>34780.897574999995</v>
       </c>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
+      <c r="E68" s="18">
+        <v>0</v>
+      </c>
+      <c r="F68" s="18">
         <v>8235.0453999999991</v>
       </c>
-      <c r="G67" s="4">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4">
+      <c r="G68" s="18">
+        <v>0</v>
+      </c>
+      <c r="H68" s="18">
         <v>3011.7339999999999</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I68" s="18">
         <v>11347.632975</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J68" s="18">
         <v>12186.485199999999</v>
       </c>
     </row>
-    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="18">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="11">
         <v>2019</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="13">
         <f t="shared" si="3"/>
         <v>36123.947636999997</v>
       </c>
-      <c r="E68" s="7">
-        <v>0</v>
-      </c>
-      <c r="F68" s="7">
+      <c r="E69" s="14">
+        <v>0</v>
+      </c>
+      <c r="F69" s="14">
         <v>8047.0139099999997</v>
       </c>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
-      <c r="H68" s="7">
+      <c r="G69" s="14">
+        <v>0</v>
+      </c>
+      <c r="H69" s="14">
         <v>2861.5230000000001</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I69" s="14">
         <v>13553.171926999999</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J69" s="14">
         <v>11662.238800000001</v>
       </c>
     </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="20">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C70" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="17">
         <f t="shared" si="3"/>
         <v>36989.020386999997</v>
       </c>
-      <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
+      <c r="E70" s="18">
+        <v>0</v>
+      </c>
+      <c r="F70" s="18">
         <v>8253.6834899999994</v>
       </c>
-      <c r="G69" s="4">
-        <v>0</v>
-      </c>
-      <c r="H69" s="4">
+      <c r="G70" s="18">
+        <v>0</v>
+      </c>
+      <c r="H70" s="18">
         <v>2588.3980000000001</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I70" s="18">
         <v>13481.634697000001</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J70" s="18">
         <v>12665.304199999999</v>
       </c>
     </row>
-    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="18">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C71" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="13">
         <f t="shared" si="3"/>
         <v>36253.700530000002</v>
       </c>
-      <c r="E70" s="7">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
+      <c r="E71" s="14">
+        <v>0</v>
+      </c>
+      <c r="F71" s="14">
         <v>7444.2109199999995</v>
       </c>
-      <c r="G70" s="7">
-        <v>0</v>
-      </c>
-      <c r="H70" s="7">
+      <c r="G71" s="14">
+        <v>0</v>
+      </c>
+      <c r="H71" s="14">
         <v>2726.3809999999999</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I71" s="14">
         <v>14226.39911</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J71" s="14">
         <v>11856.709500000001</v>
       </c>
     </row>
-    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="20">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C72" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="17">
         <f t="shared" si="3"/>
         <v>36841.123875999998</v>
       </c>
-      <c r="E71" s="4">
-        <v>0</v>
-      </c>
-      <c r="F71" s="4">
+      <c r="E72" s="18">
+        <v>0</v>
+      </c>
+      <c r="F72" s="18">
         <v>8213.8209500000012</v>
       </c>
-      <c r="G71" s="4">
-        <v>0</v>
-      </c>
-      <c r="H71" s="4">
+      <c r="G72" s="18">
+        <v>0</v>
+      </c>
+      <c r="H72" s="18">
         <v>2822.8220000000001</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I72" s="18">
         <v>14573.453925999998</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J72" s="18">
         <v>11231.027</v>
       </c>
     </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="18">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="13">
         <f t="shared" si="3"/>
         <v>34774.654051999998</v>
       </c>
-      <c r="E72" s="7">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7">
+      <c r="E73" s="14">
+        <v>0</v>
+      </c>
+      <c r="F73" s="14">
         <v>7045.8119100000004</v>
       </c>
-      <c r="G72" s="7">
-        <v>0</v>
-      </c>
-      <c r="H72" s="7">
+      <c r="G73" s="14">
+        <v>0</v>
+      </c>
+      <c r="H73" s="14">
         <v>2281.2820000000002</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I73" s="14">
         <v>14819.089841999999</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J73" s="14">
         <v>10628.470300000001</v>
       </c>
     </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="20">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C74" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="17">
         <f t="shared" si="3"/>
         <v>41597.635473399998</v>
       </c>
-      <c r="E73" s="4">
-        <v>0</v>
-      </c>
-      <c r="F73" s="4">
+      <c r="E74" s="18">
+        <v>0</v>
+      </c>
+      <c r="F74" s="18">
         <v>8978.2172699999992</v>
       </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="H73" s="4">
+      <c r="G74" s="18">
+        <v>0</v>
+      </c>
+      <c r="H74" s="18">
         <v>2665.5234</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I74" s="18">
         <v>16057.1642034</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J74" s="18">
         <v>13896.730599999999</v>
       </c>
     </row>
-    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="18">
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C75" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="13">
         <f t="shared" si="3"/>
         <v>34403.574224000004</v>
       </c>
-      <c r="E74" s="7">
-        <v>0</v>
-      </c>
-      <c r="F74" s="7">
+      <c r="E75" s="14">
+        <v>0</v>
+      </c>
+      <c r="F75" s="14">
         <v>7372.8365000000003</v>
       </c>
-      <c r="G74" s="7">
-        <v>0</v>
-      </c>
-      <c r="H74" s="7">
+      <c r="G75" s="14">
+        <v>0</v>
+      </c>
+      <c r="H75" s="14">
         <v>2041.7819999999999</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I75" s="14">
         <v>14155.565524</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J75" s="14">
         <v>10833.3902</v>
       </c>
     </row>
-    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="22">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="19">
         <v>2019</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C76" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="10">
-        <f t="shared" ref="D75:D87" si="4">SUM(E75:J75)</f>
+      <c r="D76" s="21">
+        <f t="shared" ref="D76:D88" si="4">SUM(E76:J76)</f>
         <v>34340.204129700003</v>
       </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-      <c r="F75" s="6">
+      <c r="E76" s="22">
+        <v>0</v>
+      </c>
+      <c r="F76" s="22">
         <v>7805.6810100000012</v>
       </c>
-      <c r="G75" s="6">
-        <v>0</v>
-      </c>
-      <c r="H75" s="6">
+      <c r="G76" s="22">
+        <v>0</v>
+      </c>
+      <c r="H76" s="22">
         <v>2447.4140000000002</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I76" s="22">
         <v>13462.407319700002</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J76" s="22">
         <v>10624.701800000001</v>
       </c>
     </row>
-    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="19">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="12">
         <v>2018</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C77" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="13">
         <f t="shared" si="4"/>
         <v>39107.630482000008</v>
       </c>
-      <c r="E76" s="7">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
+      <c r="E77" s="14">
+        <v>0</v>
+      </c>
+      <c r="F77" s="14">
         <v>9016.9082100000014</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G77" s="14">
         <v>604.548</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H77" s="14">
         <v>2518.2449999999999</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I77" s="14">
         <v>14153.156971999999</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J77" s="14">
         <v>12814.772300000001</v>
       </c>
     </row>
-    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="21">
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="16">
         <v>2018</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C78" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="17">
         <f t="shared" si="4"/>
         <v>40739.449042</v>
       </c>
-      <c r="E77" s="4">
-        <v>0</v>
-      </c>
-      <c r="F77" s="4">
+      <c r="E78" s="18">
+        <v>0</v>
+      </c>
+      <c r="F78" s="18">
         <v>10171.974600000001</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="18">
         <v>543.64599999999996</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="18">
         <v>3271.4839999999999</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I78" s="18">
         <v>14774.019941999999</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J78" s="18">
         <v>11978.324500000001</v>
       </c>
     </row>
-    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="19">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="12">
         <v>2018</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C79" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="13">
         <f t="shared" si="4"/>
         <v>41232.318012000003</v>
       </c>
-      <c r="E78" s="7">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7">
+      <c r="E79" s="14">
+        <v>0</v>
+      </c>
+      <c r="F79" s="14">
         <v>9028.4674500000001</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G79" s="14">
         <v>556.69100000000003</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H79" s="14">
         <v>3183.5309999999999</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I79" s="14">
         <v>15699.443762000001</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J79" s="14">
         <v>12764.184800000001</v>
       </c>
     </row>
-    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="21">
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="16">
         <v>2018</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C80" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="17">
         <f t="shared" si="4"/>
         <v>39190.964049599999</v>
       </c>
-      <c r="E79" s="4">
-        <v>0</v>
-      </c>
-      <c r="F79" s="4">
+      <c r="E80" s="18">
+        <v>0</v>
+      </c>
+      <c r="F80" s="18">
         <v>9327.9771700000001</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G80" s="18">
         <v>646.58299999999997</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H80" s="18">
         <v>3104.5279999999998</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I80" s="18">
         <v>13338.916489599998</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J80" s="18">
         <v>12772.95939</v>
       </c>
     </row>
-    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="19">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="13">
         <f t="shared" si="4"/>
         <v>37812.709869799997</v>
       </c>
-      <c r="E80" s="7">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7">
+      <c r="E81" s="14">
+        <v>0</v>
+      </c>
+      <c r="F81" s="14">
         <v>8414.4507599999997</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="14">
         <v>730.47900000000004</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H81" s="14">
         <v>3062.973</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I81" s="14">
         <v>14063.5628698</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J81" s="14">
         <v>11541.24424</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="21">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="16">
         <v>2018</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C82" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="17">
         <f t="shared" si="4"/>
         <v>39965.855546999999</v>
       </c>
-      <c r="E81" s="4">
-        <v>0</v>
-      </c>
-      <c r="F81" s="4">
+      <c r="E82" s="18">
+        <v>0</v>
+      </c>
+      <c r="F82" s="18">
         <v>8683.6723199999997</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="18">
         <v>687.87199999999996</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="18">
         <v>2884.9024869999998</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I82" s="18">
         <v>14803.904460000002</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J82" s="18">
         <v>12905.504279999999</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="19">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C83" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="13">
         <f t="shared" si="4"/>
         <v>41066.873502000002</v>
       </c>
-      <c r="E82" s="7">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7">
+      <c r="E83" s="14">
+        <v>0</v>
+      </c>
+      <c r="F83" s="14">
         <v>8739.8234700000012</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G83" s="14">
         <v>775.90599999999995</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H83" s="14">
         <v>3132.7950000000001</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I83" s="14">
         <v>15348.913632</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J83" s="14">
         <v>13069.4354</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="21">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="16">
         <v>2018</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C84" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="17">
         <f t="shared" si="4"/>
         <v>39330.274949999999</v>
       </c>
-      <c r="E83" s="4">
-        <v>0</v>
-      </c>
-      <c r="F83" s="4">
+      <c r="E84" s="18">
+        <v>0</v>
+      </c>
+      <c r="F84" s="18">
         <v>8459.8314499999997</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="18">
         <v>741.85500000000002</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="18">
         <v>3243.9609999999998</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I84" s="18">
         <v>15389.468199999999</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J84" s="18">
         <v>11495.159300000001</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="19">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C85" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="13">
         <f t="shared" si="4"/>
         <v>42190.912314999994</v>
       </c>
-      <c r="E84" s="7">
-        <v>0</v>
-      </c>
-      <c r="F84" s="7">
+      <c r="E85" s="14">
+        <v>0</v>
+      </c>
+      <c r="F85" s="14">
         <v>9138.4659200000006</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="14">
         <v>763.33</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H85" s="14">
         <v>2695.9059999999999</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I85" s="14">
         <v>17318.287694999999</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J85" s="14">
         <v>12274.922699999999</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="21">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C86" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="17">
         <f t="shared" si="4"/>
         <v>42310.135434999997</v>
       </c>
-      <c r="E85" s="4">
-        <v>0</v>
-      </c>
-      <c r="F85" s="4">
+      <c r="E86" s="18">
+        <v>0</v>
+      </c>
+      <c r="F86" s="18">
         <v>9362.9394400000001</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G86" s="18">
         <v>388.47899999999998</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H86" s="18">
         <v>3041.660961</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I86" s="18">
         <v>15644.620234</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J86" s="18">
         <v>13872.435800000001</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="19">
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C87" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="13">
         <f t="shared" si="4"/>
         <v>34826.467999300003</v>
       </c>
-      <c r="E86" s="7">
-        <v>0</v>
-      </c>
-      <c r="F86" s="7">
+      <c r="E87" s="14">
+        <v>0</v>
+      </c>
+      <c r="F87" s="14">
         <v>7302.8320700000004</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G87" s="14">
         <v>356.733</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H87" s="14">
         <v>2616.0599083000002</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I87" s="14">
         <v>13679.491221</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J87" s="14">
         <v>10871.3518</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="21">
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="16">
         <v>2018</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C88" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="17">
         <f t="shared" si="4"/>
         <v>34940.797042999999</v>
       </c>
-      <c r="E87" s="4">
-        <v>0</v>
-      </c>
-      <c r="F87" s="4">
+      <c r="E88" s="18">
+        <v>0</v>
+      </c>
+      <c r="F88" s="18">
         <v>7741.241140000001</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G88" s="18">
         <v>295.541</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H88" s="18">
         <v>2365.5157000000004</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I88" s="18">
         <v>14151.311802999999</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J88" s="18">
         <v>10387.187400000001</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B89" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D88"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B90" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
+      <c r="J90" s="27"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3278,7 +3416,7 @@
   <mergeCells count="1">
     <mergeCell ref="D4:J4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Carga_por_aerolinea_inter.xlsx
+++ b/Carga_por_aerolinea_inter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A25A2A-8C4A-4484-9A61-452200F8468A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F793AAE-8DEE-4338-AE54-CBD8A03CA6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_36" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>Total</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -307,9 +307,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -356,6 +353,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,8 +581,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J88" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B5:J88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J89" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B5:J89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -830,7 +830,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:J91"/>
+  <dimension ref="B2:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -866,2549 +866,2579 @@
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="15">
+      <c r="B6" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12">
+        <f>SUM(E6:J6)</f>
+        <v>36553.283453600001</v>
+      </c>
+      <c r="E6" s="13">
+        <v>567.71299999999997</v>
+      </c>
+      <c r="F6" s="13">
+        <v>11062.71538</v>
+      </c>
+      <c r="G6" s="13">
+        <v>83.263000000000005</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2193.5998599999998</v>
+      </c>
+      <c r="I6" s="13">
+        <v>9052.3878136000003</v>
+      </c>
+      <c r="J6" s="13">
+        <v>13593.6044</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="17">
-        <f>SUM(E6:J6)</f>
+      <c r="D7" s="16">
+        <f>SUM(E7:J7)</f>
         <v>38955.349190000001</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E7" s="17">
         <v>476.91500000000002</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F7" s="17">
         <v>11865.98335</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G7" s="17">
         <v>118.56699999999999</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H7" s="17">
         <v>2287.3870999999999</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I7" s="17">
         <v>9767.1580399999984</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J7" s="17">
         <v>14439.338699999998</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B7" s="11">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="13">
-        <f t="shared" ref="D7" si="0">SUM(E7:J7)</f>
+      <c r="D8" s="12">
+        <f t="shared" ref="D8" si="0">SUM(E8:J8)</f>
         <v>40583.470432800001</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E8" s="13">
         <v>595.11500000000001</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F8" s="13">
         <v>11875.472706999999</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G8" s="13">
         <v>108.72</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H8" s="13">
         <v>2518.88535</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I8" s="13">
         <v>10723.791075800002</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J8" s="13">
         <v>14761.4863</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="15">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="17">
-        <f>SUM(E8:J8)</f>
+      <c r="D9" s="16">
+        <f>SUM(E9:J9)</f>
         <v>36709.209215400006</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E9" s="17">
         <v>655.125</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F9" s="17">
         <v>11496.193750000002</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G9" s="17">
         <v>77.037000000000006</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H9" s="17">
         <v>2604.8681999999999</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I9" s="17">
         <v>9467.4052554000009</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J9" s="17">
         <v>12408.58001</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="11">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="13">
-        <f t="shared" ref="D9:D43" si="1">SUM(E9:J9)</f>
+      <c r="D10" s="12">
+        <f t="shared" ref="D10:D44" si="1">SUM(E10:J10)</f>
         <v>39433.388310299997</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E10" s="13">
         <v>784.92399999999998</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F10" s="13">
         <v>12296.267870000001</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="13">
         <v>99.649000000000001</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H10" s="13">
         <v>2503.4024399999998</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="13">
         <v>9761.9496002999986</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J10" s="13">
         <v>13987.195400000001</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="15">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="17">
-        <f t="shared" ref="D10:D12" si="2">SUM(E10:J10)</f>
+      <c r="D11" s="16">
+        <f t="shared" ref="D11:D13" si="2">SUM(E11:J11)</f>
         <v>40801.963929400001</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E11" s="17">
         <v>699.11900000000003</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F11" s="17">
         <v>12543.787289999998</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G11" s="17">
         <v>84.063999999999993</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H11" s="17">
         <v>2098.4537700000001</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I11" s="17">
         <v>11053.483869400001</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J11" s="17">
         <v>14323.056</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="11">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="12">
         <f t="shared" si="2"/>
         <v>39620.932216600006</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E12" s="13">
         <v>519.66999999999996</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F12" s="13">
         <v>12641.439460000001</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G12" s="13">
         <v>77.063999999999993</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="13">
         <v>2216.25135</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I12" s="13">
         <v>9750.3944666000007</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J12" s="13">
         <v>14416.112940000001</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="15">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="16">
         <f t="shared" si="2"/>
         <v>41707.502720700002</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E13" s="17">
         <v>666.51599999999996</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F13" s="17">
         <v>12929.211710000001</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G13" s="17">
         <v>67.73</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H13" s="17">
         <v>2272.335</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I13" s="17">
         <v>11736.1480207</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J13" s="17">
         <v>14035.56199</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="11">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="12">
         <f t="shared" si="1"/>
         <v>41262.668572400005</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E14" s="13">
         <v>688.25300000000004</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F14" s="13">
         <v>12315.68958</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G14" s="13">
         <v>41.54</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H14" s="13">
         <v>2009.3571000000002</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I14" s="13">
         <v>11684.1584924</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J14" s="13">
         <v>14523.670400000001</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="15">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="14">
         <v>2024</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="16">
         <f t="shared" si="1"/>
         <v>42983.103187400004</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E15" s="17">
         <v>794.28</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F15" s="17">
         <v>13886.640620000002</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G15" s="17">
         <v>59.076999999999998</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H15" s="17">
         <v>2339.2438500000003</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I15" s="17">
         <v>10445.917705400001</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J15" s="17">
         <v>15457.944012</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="11">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="12">
         <f t="shared" si="1"/>
         <v>40423.179039299997</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="13">
         <v>664.82100000000003</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F16" s="13">
         <v>12004.929049999999</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G16" s="13">
         <v>45.631999999999998</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H16" s="13">
         <v>1860.7841100000001</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="13">
         <v>11883.265289299999</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J16" s="13">
         <v>13963.747589999999</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="19">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B17" s="18">
         <v>2024</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D17" s="20">
         <f t="shared" si="1"/>
         <v>41353.6868091</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E17" s="21">
         <v>680.31799999999998</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F17" s="21">
         <v>12601.32713</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G17" s="21">
         <v>44.356000000000002</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H17" s="21">
         <v>1755.9950999999999</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I17" s="21">
         <v>12111.205109099999</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J17" s="21">
         <v>14160.48547</v>
       </c>
     </row>
-    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="23">
+    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="22">
         <v>2023</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D18" s="24">
         <f t="shared" si="1"/>
         <v>41305.9751617</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E18" s="25">
         <v>772.82399999999996</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F18" s="13">
         <v>13837.61614</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G18" s="25">
         <v>74.738</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H18" s="25">
         <v>2170.9023299999999</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I18" s="25">
         <v>9069.6951917000006</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J18" s="25">
         <v>15380.199500000001</v>
       </c>
     </row>
-    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15">
+    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="16">
         <f t="shared" si="1"/>
         <v>40392.089828199998</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E19" s="17">
         <v>779.80799999999999</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F19" s="17">
         <v>11039.539530000002</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G19" s="17">
         <v>95.251000000000005</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H19" s="17">
         <v>2158.6788999999999</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I19" s="17">
         <v>9817.7052921999984</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J19" s="17">
         <v>16501.107105999999</v>
       </c>
     </row>
-    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11">
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="12">
         <f t="shared" si="1"/>
         <v>44801.968924000001</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E20" s="13">
         <v>778.178</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F20" s="13">
         <v>10705.033520000001</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G20" s="13">
         <v>62.91</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H20" s="13">
         <v>2322.5757999999996</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I20" s="13">
         <v>11604.903104000001</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J20" s="13">
         <v>19328.3685</v>
       </c>
     </row>
-    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="16">
         <f t="shared" si="1"/>
         <v>37081.792656999998</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E21" s="17">
         <v>622.02300000000002</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F21" s="17">
         <v>9376.2873299999992</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G21" s="17">
         <v>85.058000000000007</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H21" s="17">
         <v>2340.9119999999998</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I21" s="17">
         <v>9719.7349270000013</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J21" s="17">
         <v>14937.777400000001</v>
       </c>
     </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11">
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="12">
         <f t="shared" si="1"/>
         <v>40017.679605799996</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="13">
         <v>757.96799999999996</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F22" s="13">
         <v>10215.824409999999</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G22" s="13">
         <v>52.222000000000001</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H22" s="13">
         <v>2329.6565299999997</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="13">
         <v>10678.306165799999</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J22" s="13">
         <v>15983.702499999999</v>
       </c>
     </row>
-    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="16">
         <f t="shared" si="1"/>
-        <v>40319.464599800005</v>
-      </c>
-      <c r="E22" s="18">
+        <v>40319.464599799998</v>
+      </c>
+      <c r="E23" s="17">
         <v>788.85</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F23" s="17">
         <v>10358.445689999999</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G23" s="17">
         <v>48.895000000000003</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H23" s="17">
         <v>2259.8667999999998</v>
       </c>
-      <c r="I22" s="18">
-        <v>10176.835459799999</v>
-      </c>
-      <c r="J22" s="18">
-        <v>16686.571650000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11">
+      <c r="I23" s="17">
+        <v>10176.835459800001</v>
+      </c>
+      <c r="J23" s="17">
+        <v>16686.571649999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="12">
         <f t="shared" si="1"/>
         <v>40587.1373762</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E24" s="13">
         <v>645.45299999999997</v>
       </c>
-      <c r="F23" s="14">
-        <v>10949.239150000001</v>
-      </c>
-      <c r="G23" s="14">
+      <c r="F24" s="13">
+        <v>10949.239149999998</v>
+      </c>
+      <c r="G24" s="13">
         <v>36.125</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H24" s="13">
         <v>2276.2485000000001</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I24" s="13">
         <v>10352.348026199999</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J24" s="13">
         <v>16327.723699999999</v>
       </c>
     </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="16">
         <f t="shared" si="1"/>
         <v>38973.9993865</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E25" s="17">
         <v>640.97299999999996</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F25" s="17">
         <v>10514.624800000001</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G25" s="17">
         <v>48.081000000000003</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H25" s="17">
         <v>2950.8580000000002</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I25" s="17">
         <v>10310.050886499999</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J25" s="17">
         <v>14509.411699999999</v>
       </c>
     </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="12">
         <f t="shared" si="1"/>
         <v>36860.751413800004</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="13">
         <v>640.28800000000001</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F26" s="13">
         <v>10179.089970000001</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G26" s="13">
         <v>36.615000000000002</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H26" s="13">
         <v>2873.6055999999999</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="13">
         <v>9745.8580438000008</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J26" s="13">
         <v>13385.294800000001</v>
       </c>
     </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="14">
         <v>2023</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="16">
         <f t="shared" si="1"/>
         <v>40964.524065800004</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E27" s="17">
         <v>786.44299999999998</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F27" s="17">
         <v>10964.67835</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G27" s="17">
         <v>29.545999999999999</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H27" s="17">
         <v>2982.933</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I27" s="17">
         <v>11630.4319158</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J27" s="17">
         <v>14570.491800000002</v>
       </c>
     </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="11">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="12">
         <f t="shared" si="1"/>
         <v>34787.3181482</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E28" s="13">
         <v>578.94399999999996</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F28" s="13">
         <v>8934.8815099999993</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G28" s="13">
         <v>75.331999999999994</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H28" s="13">
         <v>2327.94515</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="13">
         <v>10297.7028882</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J28" s="13">
         <v>12572.5126</v>
       </c>
     </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="19">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="18">
         <v>2023</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D29" s="20">
         <f t="shared" si="1"/>
         <v>34339.076626599999</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E29" s="21">
         <v>536.072</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F29" s="21">
         <v>8186.4879099999998</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G29" s="21">
         <v>36.253</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H29" s="21">
         <v>2646.04016</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I29" s="21">
         <v>10631.4606566</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J29" s="21">
         <v>12302.7629</v>
       </c>
     </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="23">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="22">
         <v>2022</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D30" s="24">
         <f t="shared" si="1"/>
         <v>38746.066610000002</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E30" s="25">
         <v>378.79500000000002</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F30" s="25">
         <v>9252.3727799999997</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G30" s="25">
         <v>106.069</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H30" s="25">
         <v>2824.3177999999998</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I30" s="25">
         <v>11614.168230000001</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J30" s="25">
         <v>14570.343800000001</v>
       </c>
     </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="16">
         <f t="shared" si="1"/>
         <v>38505.180007499999</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E31" s="17">
         <v>516.43899999999996</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F31" s="17">
         <v>9489.5803000000014</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G31" s="17">
         <v>75.007999999999996</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H31" s="17">
         <v>2658.9839999999999</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I31" s="17">
         <v>11148.7151075</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J31" s="17">
         <v>14616.453599999999</v>
       </c>
     </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="11">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="12">
         <f t="shared" si="1"/>
         <v>41053.772325500002</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E32" s="13">
         <v>741.95500000000004</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F32" s="13">
         <v>9730.2727100000011</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G32" s="13">
         <v>97.396000000000001</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H32" s="13">
         <v>2904.4928999999997</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I32" s="13">
         <v>11820.6849155</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J32" s="13">
         <v>15758.970800000001</v>
       </c>
     </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="15">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="16">
         <f t="shared" si="1"/>
         <v>37277.511123060001</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E33" s="17">
         <v>663.58500000000004</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F33" s="17">
         <v>8746.3328199999996</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G33" s="17">
         <v>20.056000000000001</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H33" s="17">
         <v>3093.55527936</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I33" s="17">
         <v>11160.508123699999</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J33" s="17">
         <v>13593.473900000001</v>
       </c>
     </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="11">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="12">
         <f t="shared" si="1"/>
         <v>39368.723200799999</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E34" s="13">
         <v>591.01800000000003</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F34" s="13">
         <v>8719.4067500000001</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G34" s="13">
         <v>25.675000000000001</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H34" s="13">
         <v>3267.5057999999999</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I34" s="13">
         <v>12298.3654508</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J34" s="13">
         <v>14466.752199999999</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="15">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="16">
         <f t="shared" si="1"/>
         <v>40438.258232399996</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E35" s="17">
         <v>530.70500000000004</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F35" s="17">
         <v>9093.8344099999995</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G35" s="17">
         <v>34.826000000000001</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H35" s="17">
         <v>3252.6017000000002</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I35" s="17">
         <v>11449.207622400001</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J35" s="17">
         <v>16077.083500000001</v>
       </c>
     </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="11">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="12">
         <f t="shared" si="1"/>
         <v>40705.379663200001</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E36" s="13">
         <v>512.66099999999994</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F36" s="13">
         <v>8969.2943100000011</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="13">
         <v>26.021000000000001</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H36" s="13">
         <v>3225.5032000000001</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I36" s="13">
         <v>12235.6416532</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J36" s="13">
         <v>15736.2585</v>
       </c>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="15">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D37" s="16">
         <f t="shared" si="1"/>
         <v>38385.635270600003</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E37" s="17">
         <v>646.77499999999998</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F37" s="17">
         <v>5887.1319999999996</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G37" s="17">
         <v>121.18</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H37" s="17">
         <v>3119.6742000000004</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I37" s="17">
         <v>12724.7170706</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J37" s="17">
         <v>15886.156999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="11">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="12">
         <f t="shared" si="1"/>
         <v>37880.648666100002</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="13">
         <v>658.78499999999997</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F38" s="13">
         <v>5153.4015099999997</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G38" s="13">
         <v>198.077</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H38" s="13">
         <v>2884.4317999999998</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I38" s="13">
         <v>13095.553956100001</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J38" s="13">
         <v>15890.3994</v>
       </c>
     </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="15">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="14">
         <v>2022</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="16">
         <f t="shared" si="1"/>
         <v>39804.246607199995</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E39" s="17">
         <v>701.476</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F39" s="17">
         <v>5848.9565830000001</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G39" s="17">
         <v>68.724999999999994</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H39" s="17">
         <v>3277.5267000000003</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I39" s="17">
         <v>13626.1151242</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J39" s="17">
         <v>16281.447199999999</v>
       </c>
     </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="11">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="12">
         <f t="shared" si="1"/>
         <v>35391.386208299999</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="13">
         <v>638.51099999999997</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F40" s="13">
         <v>5672.3767400000006</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="13">
         <v>17.033999999999999</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H40" s="13">
         <v>2882.4872999999998</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I40" s="13">
         <v>10909.8495683</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J40" s="13">
         <v>15271.1276</v>
       </c>
     </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="19">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="18">
         <v>2022</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D41" s="20">
         <f t="shared" si="1"/>
         <v>32469.8484493</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E41" s="21">
         <v>482.12099999999998</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F41" s="21">
         <v>6245.38976</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G41" s="21">
         <v>259.46800000000002</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H41" s="21">
         <v>2435.1074600000002</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I41" s="21">
         <v>9916.5125293000001</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J41" s="21">
         <v>13131.249699999998</v>
       </c>
     </row>
-    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="23">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="22">
         <v>2021</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C42" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D42" s="24">
         <f t="shared" si="1"/>
         <v>39492.366382700005</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E42" s="25">
         <v>458.77499999999998</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F42" s="25">
         <v>10098.12268</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G42" s="25">
         <v>133.10599999999999</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H42" s="25">
         <v>3136.06873</v>
       </c>
-      <c r="I41" s="26">
+      <c r="I42" s="25">
         <v>12005.7867427</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J42" s="25">
         <v>13660.507230000001</v>
       </c>
     </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="15">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="16">
         <f t="shared" si="1"/>
         <v>40331.827408900004</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E43" s="17">
         <v>490.10599999999999</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F43" s="17">
         <v>10062.285780000002</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G43" s="17">
         <v>336.76799999999997</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H43" s="17">
         <v>3288.1294800000001</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I43" s="17">
         <v>12280.809678899999</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J43" s="17">
         <v>13873.728469999998</v>
       </c>
     </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="11">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="12">
         <f t="shared" si="1"/>
         <v>41580.666843700004</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E44" s="13">
         <v>586.94299999999998</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F44" s="13">
         <v>10735.457050000001</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G44" s="13">
         <v>619.62599999999998</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H44" s="13">
         <v>2722.0764900000004</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I44" s="13">
         <v>11237.549403700001</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J44" s="13">
         <v>15679.0149</v>
       </c>
     </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="15">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="17">
-        <f t="shared" ref="D44:D75" si="3">SUM(E44:J44)</f>
+      <c r="D45" s="16">
+        <f t="shared" ref="D45:D76" si="3">SUM(E45:J45)</f>
         <v>38165.8196035</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E45" s="17">
         <v>696.17100000000005</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F45" s="17">
         <v>10134.700359999999</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G45" s="17">
         <v>487.45499999999998</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H45" s="17">
         <v>2548.2033000000001</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I45" s="17">
         <v>11597.826043499999</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J45" s="17">
         <v>12701.463900000001</v>
       </c>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="11">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="12">
         <f t="shared" si="3"/>
         <v>37424.307471799999</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E46" s="13">
         <v>396.84</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F46" s="13">
         <v>9954.2116800000003</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="13">
         <v>550.08500000000004</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H46" s="13">
         <v>2444.3667</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I46" s="13">
         <v>11310.234991799998</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J46" s="13">
         <v>12768.569099999999</v>
       </c>
     </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="15">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="16">
         <f t="shared" si="3"/>
         <v>39029.204718000001</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E47" s="17">
         <v>501.01900000000001</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F47" s="17">
         <v>10968.570522</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G47" s="17">
         <v>546.27499999999998</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H47" s="17">
         <v>2313.2728999999999</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I47" s="17">
         <v>11426.955696000001</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J47" s="17">
         <v>13273.1116</v>
       </c>
     </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="11">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="12">
         <f t="shared" si="3"/>
         <v>37745.558432400001</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E48" s="13">
         <v>463.83300000000003</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F48" s="13">
         <v>10031.152749999999</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G48" s="13">
         <v>463.92500000000001</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H48" s="13">
         <v>1743.7754</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I48" s="13">
         <v>11018.1134824</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J48" s="13">
         <v>14024.758800000001</v>
       </c>
     </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="15">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="16">
         <f t="shared" si="3"/>
         <v>38457.492379999996</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E49" s="17">
         <v>554.96</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F49" s="17">
         <v>9638.9807799999999</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G49" s="17">
         <v>289.39</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H49" s="17">
         <v>1666.4480000000001</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I49" s="17">
         <v>11157.246999999999</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J49" s="17">
         <v>15150.4666</v>
       </c>
     </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="11">
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="12">
         <f t="shared" si="3"/>
         <v>37112.560168100004</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E50" s="13">
         <v>590.50099999999998</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F50" s="13">
         <v>9277.434830000002</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G50" s="13">
         <v>331.7</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H50" s="13">
         <v>1472.3352</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I50" s="13">
         <v>11167.4790381</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J50" s="13">
         <v>14273.1101</v>
       </c>
     </row>
-    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="15">
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="14">
         <v>2021</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="16">
         <f t="shared" si="3"/>
         <v>41269.452216999998</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E51" s="17">
         <v>386.11599999999999</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F51" s="17">
         <v>10042.040590000001</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G51" s="17">
         <v>536.54600000000005</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H51" s="17">
         <v>1531.1469999999999</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I51" s="17">
         <v>13111.292127000001</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J51" s="17">
         <v>15662.3105</v>
       </c>
     </row>
-    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="11">
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="12">
         <f t="shared" si="3"/>
         <v>34648.807876000006</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E52" s="13">
         <v>219.61199999999999</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F52" s="13">
         <v>8953.9622800000016</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="13">
         <v>228.47900000000001</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H52" s="13">
         <v>1342.146</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I52" s="13">
         <v>9816.7840960000012</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J52" s="13">
         <v>14087.824500000001</v>
       </c>
     </row>
-    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="19">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="18">
         <v>2021</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D53" s="20">
         <f t="shared" si="3"/>
         <v>36982.816146000005</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E53" s="21">
         <v>129.93199999999999</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F53" s="21">
         <v>10106.45505</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G53" s="21">
         <v>156.72999999999999</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H53" s="21">
         <v>1370.9369999999999</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I53" s="21">
         <v>11214.778596</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J53" s="21">
         <v>14003.9835</v>
       </c>
     </row>
-    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="23">
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="22">
         <v>2020</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C54" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D54" s="24">
         <f t="shared" si="3"/>
         <v>36967.920087999999</v>
       </c>
-      <c r="E53" s="26">
-        <v>0</v>
-      </c>
-      <c r="F53" s="26">
+      <c r="E54" s="25">
+        <v>0</v>
+      </c>
+      <c r="F54" s="25">
         <v>10567.67765</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G54" s="25">
         <v>247.25800000000001</v>
       </c>
-      <c r="H53" s="26">
+      <c r="H54" s="25">
         <v>1325.12</v>
       </c>
-      <c r="I53" s="26">
+      <c r="I54" s="25">
         <v>11836.856238</v>
       </c>
-      <c r="J53" s="26">
+      <c r="J54" s="25">
         <v>12991.008199999998</v>
       </c>
     </row>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="15">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="16">
         <f t="shared" si="3"/>
         <v>36852.864462999998</v>
       </c>
-      <c r="E54" s="18">
-        <v>0</v>
-      </c>
-      <c r="F54" s="18">
+      <c r="E55" s="17">
+        <v>0</v>
+      </c>
+      <c r="F55" s="17">
         <v>10376.03788</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G55" s="17">
         <v>137.81200000000001</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H55" s="17">
         <v>1566.683</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I55" s="17">
         <v>11120.986982999999</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J55" s="17">
         <v>13651.3446</v>
       </c>
     </row>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="11">
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="12">
         <f t="shared" si="3"/>
         <v>37111.751327400001</v>
       </c>
-      <c r="E55" s="14">
-        <v>0</v>
-      </c>
-      <c r="F55" s="14">
+      <c r="E56" s="13">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
         <v>10139.1556</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G56" s="13">
         <v>42.646000000000001</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H56" s="13">
         <v>1292.682</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I56" s="13">
         <v>10863.6815274</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J56" s="13">
         <v>14773.5862</v>
       </c>
     </row>
-    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="15">
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="16">
         <f t="shared" si="3"/>
         <v>31289.118952199999</v>
       </c>
-      <c r="E56" s="18">
-        <v>0</v>
-      </c>
-      <c r="F56" s="18">
+      <c r="E57" s="17">
+        <v>0</v>
+      </c>
+      <c r="F57" s="17">
         <v>8729.1361899999993</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G57" s="17">
         <v>35.866999999999997</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H57" s="17">
         <v>987.66099999999994</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I57" s="17">
         <v>9399.9986922000007</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J57" s="17">
         <v>12136.45607</v>
       </c>
     </row>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="11">
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="12">
         <f t="shared" si="3"/>
         <v>28794.378688499997</v>
       </c>
-      <c r="E57" s="14">
-        <v>0</v>
-      </c>
-      <c r="F57" s="14">
+      <c r="E58" s="13">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
         <v>8471.0650299999998</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G58" s="13">
         <v>42.926000000000002</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H58" s="13">
         <v>1074.0519999999999</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I58" s="13">
         <v>8606.7041585000006</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J58" s="13">
         <v>10599.6315</v>
       </c>
     </row>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="15">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="16">
         <f t="shared" si="3"/>
         <v>27431.279484500003</v>
       </c>
-      <c r="E58" s="18">
-        <v>0</v>
-      </c>
-      <c r="F58" s="18">
+      <c r="E59" s="17">
+        <v>0</v>
+      </c>
+      <c r="F59" s="17">
         <v>8226.0579799999996</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G59" s="17">
         <v>36.588000000000001</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H59" s="17">
         <v>1040.3589999999999</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I59" s="17">
         <v>8177.4266045000004</v>
       </c>
-      <c r="J58" s="18">
+      <c r="J59" s="17">
         <v>9950.8479000000007</v>
       </c>
     </row>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="11">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="12">
         <f t="shared" si="3"/>
         <v>25926.471812200001</v>
       </c>
-      <c r="E59" s="14">
-        <v>0</v>
-      </c>
-      <c r="F59" s="14">
+      <c r="E60" s="13">
+        <v>0</v>
+      </c>
+      <c r="F60" s="13">
         <v>7134.2837199999994</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="13">
         <v>63.805</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H60" s="13">
         <v>855.82899999999995</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I60" s="13">
         <v>7779.0341922000007</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J60" s="13">
         <v>10093.519900000001</v>
       </c>
     </row>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="15">
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="16">
         <f t="shared" si="3"/>
         <v>23168.212673900001</v>
       </c>
-      <c r="E60" s="18">
-        <v>0</v>
-      </c>
-      <c r="F60" s="18">
+      <c r="E61" s="17">
+        <v>0</v>
+      </c>
+      <c r="F61" s="17">
         <v>6023.6581899999992</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G61" s="17">
         <v>187.08600000000001</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H61" s="17">
         <v>832.03399999999999</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I61" s="17">
         <v>7072.7845839000001</v>
       </c>
-      <c r="J60" s="18">
+      <c r="J61" s="17">
         <v>9052.6499000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="11">
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="12">
         <f t="shared" si="3"/>
         <v>20427.959275100002</v>
       </c>
-      <c r="E61" s="14">
-        <v>0</v>
-      </c>
-      <c r="F61" s="14">
+      <c r="E62" s="13">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
         <v>5209.0807000000004</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G62" s="13">
         <v>24.07</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H62" s="13">
         <v>739.351</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I62" s="13">
         <v>6596.5606751000005</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J62" s="13">
         <v>7858.8969000000006</v>
       </c>
     </row>
-    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="15">
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="14">
         <v>2020</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="16">
         <f t="shared" si="3"/>
         <v>33140.735087100002</v>
       </c>
-      <c r="E62" s="18">
-        <v>0</v>
-      </c>
-      <c r="F62" s="18">
+      <c r="E63" s="17">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17">
         <v>8644.8665579999997</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G63" s="17">
         <v>50.677999999999997</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H63" s="17">
         <v>2214.377</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I63" s="17">
         <v>10403.6180291</v>
       </c>
-      <c r="J62" s="18">
+      <c r="J63" s="17">
         <v>11827.1955</v>
       </c>
     </row>
-    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="11">
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="12">
         <f t="shared" si="3"/>
         <v>31595.295708999998</v>
       </c>
-      <c r="E63" s="14">
-        <v>0</v>
-      </c>
-      <c r="F63" s="14">
+      <c r="E64" s="13">
+        <v>0</v>
+      </c>
+      <c r="F64" s="13">
         <v>8503.3772899999985</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="13">
         <v>71.156000000000006</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H64" s="13">
         <v>2496.2399999999998</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I64" s="13">
         <v>9914.0471189999989</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J64" s="13">
         <v>10610.4753</v>
       </c>
     </row>
-    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="19">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="18">
         <v>2020</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C65" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D65" s="20">
         <f t="shared" si="3"/>
         <v>31902.586373000002</v>
       </c>
-      <c r="E64" s="22">
-        <v>0</v>
-      </c>
-      <c r="F64" s="22">
+      <c r="E65" s="21">
+        <v>0</v>
+      </c>
+      <c r="F65" s="21">
         <v>8365.6301700000004</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G65" s="21">
         <v>80.352000000000004</v>
       </c>
-      <c r="H64" s="22">
+      <c r="H65" s="21">
         <v>2759.7359999999999</v>
       </c>
-      <c r="I64" s="22">
+      <c r="I65" s="21">
         <v>11337.052103</v>
       </c>
-      <c r="J64" s="22">
+      <c r="J65" s="21">
         <v>9359.8161</v>
       </c>
     </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="23">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="22">
         <v>2019</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C66" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D66" s="24">
         <f t="shared" si="3"/>
         <v>34834.055678999997</v>
       </c>
-      <c r="E65" s="26">
-        <v>0</v>
-      </c>
-      <c r="F65" s="26">
+      <c r="E66" s="25">
+        <v>0</v>
+      </c>
+      <c r="F66" s="25">
         <v>9580.7296500000011</v>
       </c>
-      <c r="G65" s="26">
-        <v>0</v>
-      </c>
-      <c r="H65" s="26">
+      <c r="G66" s="25">
+        <v>0</v>
+      </c>
+      <c r="H66" s="25">
         <v>2707.5740000000001</v>
       </c>
-      <c r="I65" s="26">
+      <c r="I66" s="25">
         <v>11491.813929</v>
       </c>
-      <c r="J65" s="26">
+      <c r="J66" s="25">
         <v>11053.938099999999</v>
       </c>
     </row>
-    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="15">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D67" s="16">
         <f t="shared" si="3"/>
         <v>36842.30025</v>
       </c>
-      <c r="E66" s="18">
-        <v>0</v>
-      </c>
-      <c r="F66" s="18">
+      <c r="E67" s="17">
+        <v>0</v>
+      </c>
+      <c r="F67" s="17">
         <v>9295.5269499999995</v>
       </c>
-      <c r="G66" s="18">
-        <v>0</v>
-      </c>
-      <c r="H66" s="18">
+      <c r="G67" s="17">
+        <v>0</v>
+      </c>
+      <c r="H67" s="17">
         <v>2968.0250000000001</v>
       </c>
-      <c r="I66" s="18">
+      <c r="I67" s="17">
         <v>12197.1018</v>
       </c>
-      <c r="J66" s="18">
+      <c r="J67" s="17">
         <v>12381.646500000001</v>
       </c>
     </row>
-    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="11">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="12">
         <f t="shared" si="3"/>
         <v>37499.549509000004</v>
       </c>
-      <c r="E67" s="14">
-        <v>0</v>
-      </c>
-      <c r="F67" s="14">
+      <c r="E68" s="13">
+        <v>0</v>
+      </c>
+      <c r="F68" s="13">
         <v>8717.2473399999999</v>
       </c>
-      <c r="G67" s="14">
-        <v>0</v>
-      </c>
-      <c r="H67" s="14">
+      <c r="G68" s="13">
+        <v>0</v>
+      </c>
+      <c r="H68" s="13">
         <v>2772.4720000000002</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I68" s="13">
         <v>12460.489269000002</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J68" s="13">
         <v>13549.340900000001</v>
       </c>
     </row>
-    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="15">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D69" s="16">
         <f t="shared" si="3"/>
         <v>34780.897574999995</v>
       </c>
-      <c r="E68" s="18">
-        <v>0</v>
-      </c>
-      <c r="F68" s="18">
+      <c r="E69" s="17">
+        <v>0</v>
+      </c>
+      <c r="F69" s="17">
         <v>8235.0453999999991</v>
       </c>
-      <c r="G68" s="18">
-        <v>0</v>
-      </c>
-      <c r="H68" s="18">
+      <c r="G69" s="17">
+        <v>0</v>
+      </c>
+      <c r="H69" s="17">
         <v>3011.7339999999999</v>
       </c>
-      <c r="I68" s="18">
+      <c r="I69" s="17">
         <v>11347.632975</v>
       </c>
-      <c r="J68" s="18">
+      <c r="J69" s="17">
         <v>12186.485199999999</v>
       </c>
     </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="11">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="12">
         <f t="shared" si="3"/>
         <v>36123.947636999997</v>
       </c>
-      <c r="E69" s="14">
-        <v>0</v>
-      </c>
-      <c r="F69" s="14">
+      <c r="E70" s="13">
+        <v>0</v>
+      </c>
+      <c r="F70" s="13">
         <v>8047.0139099999997</v>
       </c>
-      <c r="G69" s="14">
-        <v>0</v>
-      </c>
-      <c r="H69" s="14">
+      <c r="G70" s="13">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
         <v>2861.5230000000001</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I70" s="13">
         <v>13553.171926999999</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J70" s="13">
         <v>11662.238800000001</v>
       </c>
     </row>
-    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="15">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D71" s="16">
         <f t="shared" si="3"/>
         <v>36989.020386999997</v>
       </c>
-      <c r="E70" s="18">
-        <v>0</v>
-      </c>
-      <c r="F70" s="18">
+      <c r="E71" s="17">
+        <v>0</v>
+      </c>
+      <c r="F71" s="17">
         <v>8253.6834899999994</v>
       </c>
-      <c r="G70" s="18">
-        <v>0</v>
-      </c>
-      <c r="H70" s="18">
+      <c r="G71" s="17">
+        <v>0</v>
+      </c>
+      <c r="H71" s="17">
         <v>2588.3980000000001</v>
       </c>
-      <c r="I70" s="18">
+      <c r="I71" s="17">
         <v>13481.634697000001</v>
       </c>
-      <c r="J70" s="18">
+      <c r="J71" s="17">
         <v>12665.304199999999</v>
       </c>
     </row>
-    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="11">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="12">
         <f t="shared" si="3"/>
         <v>36253.700530000002</v>
       </c>
-      <c r="E71" s="14">
-        <v>0</v>
-      </c>
-      <c r="F71" s="14">
+      <c r="E72" s="13">
+        <v>0</v>
+      </c>
+      <c r="F72" s="13">
         <v>7444.2109199999995</v>
       </c>
-      <c r="G71" s="14">
-        <v>0</v>
-      </c>
-      <c r="H71" s="14">
+      <c r="G72" s="13">
+        <v>0</v>
+      </c>
+      <c r="H72" s="13">
         <v>2726.3809999999999</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I72" s="13">
         <v>14226.39911</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J72" s="13">
         <v>11856.709500000001</v>
       </c>
     </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="15">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D73" s="16">
         <f t="shared" si="3"/>
         <v>36841.123875999998</v>
       </c>
-      <c r="E72" s="18">
-        <v>0</v>
-      </c>
-      <c r="F72" s="18">
+      <c r="E73" s="17">
+        <v>0</v>
+      </c>
+      <c r="F73" s="17">
         <v>8213.8209500000012</v>
       </c>
-      <c r="G72" s="18">
-        <v>0</v>
-      </c>
-      <c r="H72" s="18">
+      <c r="G73" s="17">
+        <v>0</v>
+      </c>
+      <c r="H73" s="17">
         <v>2822.8220000000001</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I73" s="17">
         <v>14573.453925999998</v>
       </c>
-      <c r="J72" s="18">
+      <c r="J73" s="17">
         <v>11231.027</v>
       </c>
     </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="11">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="12">
         <f t="shared" si="3"/>
         <v>34774.654051999998</v>
       </c>
-      <c r="E73" s="14">
-        <v>0</v>
-      </c>
-      <c r="F73" s="14">
+      <c r="E74" s="13">
+        <v>0</v>
+      </c>
+      <c r="F74" s="13">
         <v>7045.8119100000004</v>
       </c>
-      <c r="G73" s="14">
-        <v>0</v>
-      </c>
-      <c r="H73" s="14">
+      <c r="G74" s="13">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13">
         <v>2281.2820000000002</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I74" s="13">
         <v>14819.089841999999</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J74" s="13">
         <v>10628.470300000001</v>
       </c>
     </row>
-    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="15">
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="14">
         <v>2019</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D75" s="16">
         <f t="shared" si="3"/>
         <v>41597.635473399998</v>
       </c>
-      <c r="E74" s="18">
-        <v>0</v>
-      </c>
-      <c r="F74" s="18">
+      <c r="E75" s="17">
+        <v>0</v>
+      </c>
+      <c r="F75" s="17">
         <v>8978.2172699999992</v>
       </c>
-      <c r="G74" s="18">
-        <v>0</v>
-      </c>
-      <c r="H74" s="18">
+      <c r="G75" s="17">
+        <v>0</v>
+      </c>
+      <c r="H75" s="17">
         <v>2665.5234</v>
       </c>
-      <c r="I74" s="18">
+      <c r="I75" s="17">
         <v>16057.1642034</v>
       </c>
-      <c r="J74" s="18">
+      <c r="J75" s="17">
         <v>13896.730599999999</v>
       </c>
     </row>
-    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="11">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="12">
         <f t="shared" si="3"/>
         <v>34403.574224000004</v>
       </c>
-      <c r="E75" s="14">
-        <v>0</v>
-      </c>
-      <c r="F75" s="14">
+      <c r="E76" s="13">
+        <v>0</v>
+      </c>
+      <c r="F76" s="13">
         <v>7372.8365000000003</v>
       </c>
-      <c r="G75" s="14">
-        <v>0</v>
-      </c>
-      <c r="H75" s="14">
+      <c r="G76" s="13">
+        <v>0</v>
+      </c>
+      <c r="H76" s="13">
         <v>2041.7819999999999</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I76" s="13">
         <v>14155.565524</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J76" s="13">
         <v>10833.3902</v>
       </c>
     </row>
-    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="19">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="18">
         <v>2019</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C77" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="21">
-        <f t="shared" ref="D76:D88" si="4">SUM(E76:J76)</f>
+      <c r="D77" s="20">
+        <f t="shared" ref="D77:D89" si="4">SUM(E77:J77)</f>
         <v>34340.204129700003</v>
       </c>
-      <c r="E76" s="22">
-        <v>0</v>
-      </c>
-      <c r="F76" s="22">
+      <c r="E77" s="21">
+        <v>0</v>
+      </c>
+      <c r="F77" s="21">
         <v>7805.6810100000012</v>
       </c>
-      <c r="G76" s="22">
-        <v>0</v>
-      </c>
-      <c r="H76" s="22">
+      <c r="G77" s="21">
+        <v>0</v>
+      </c>
+      <c r="H77" s="21">
         <v>2447.4140000000002</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I77" s="21">
         <v>13462.407319700002</v>
       </c>
-      <c r="J76" s="22">
+      <c r="J77" s="21">
         <v>10624.701800000001</v>
       </c>
     </row>
-    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="12">
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="11">
         <v>2018</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="12">
         <f t="shared" si="4"/>
         <v>39107.630482000008</v>
       </c>
-      <c r="E77" s="14">
-        <v>0</v>
-      </c>
-      <c r="F77" s="14">
+      <c r="E78" s="13">
+        <v>0</v>
+      </c>
+      <c r="F78" s="13">
         <v>9016.9082100000014</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G78" s="13">
         <v>604.548</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H78" s="13">
         <v>2518.2449999999999</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I78" s="13">
         <v>14153.156971999999</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J78" s="13">
         <v>12814.772300000001</v>
       </c>
     </row>
-    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="16">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="15">
         <v>2018</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D79" s="16">
         <f t="shared" si="4"/>
         <v>40739.449042</v>
       </c>
-      <c r="E78" s="18">
-        <v>0</v>
-      </c>
-      <c r="F78" s="18">
+      <c r="E79" s="17">
+        <v>0</v>
+      </c>
+      <c r="F79" s="17">
         <v>10171.974600000001</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G79" s="17">
         <v>543.64599999999996</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H79" s="17">
         <v>3271.4839999999999</v>
       </c>
-      <c r="I78" s="18">
+      <c r="I79" s="17">
         <v>14774.019941999999</v>
       </c>
-      <c r="J78" s="18">
+      <c r="J79" s="17">
         <v>11978.324500000001</v>
       </c>
     </row>
-    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="12">
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="11">
         <v>2018</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="12">
         <f t="shared" si="4"/>
         <v>41232.318012000003</v>
       </c>
-      <c r="E79" s="14">
-        <v>0</v>
-      </c>
-      <c r="F79" s="14">
+      <c r="E80" s="13">
+        <v>0</v>
+      </c>
+      <c r="F80" s="13">
         <v>9028.4674500000001</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G80" s="13">
         <v>556.69100000000003</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H80" s="13">
         <v>3183.5309999999999</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I80" s="13">
         <v>15699.443762000001</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J80" s="13">
         <v>12764.184800000001</v>
       </c>
     </row>
-    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="16">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D81" s="16">
         <f t="shared" si="4"/>
         <v>39190.964049599999</v>
       </c>
-      <c r="E80" s="18">
-        <v>0</v>
-      </c>
-      <c r="F80" s="18">
+      <c r="E81" s="17">
+        <v>0</v>
+      </c>
+      <c r="F81" s="17">
         <v>9327.9771700000001</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G81" s="17">
         <v>646.58299999999997</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H81" s="17">
         <v>3104.5279999999998</v>
       </c>
-      <c r="I80" s="18">
+      <c r="I81" s="17">
         <v>13338.916489599998</v>
       </c>
-      <c r="J80" s="18">
+      <c r="J81" s="17">
         <v>12772.95939</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="12">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="12">
         <f t="shared" si="4"/>
         <v>37812.709869799997</v>
       </c>
-      <c r="E81" s="14">
-        <v>0</v>
-      </c>
-      <c r="F81" s="14">
+      <c r="E82" s="13">
+        <v>0</v>
+      </c>
+      <c r="F82" s="13">
         <v>8414.4507599999997</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G82" s="13">
         <v>730.47900000000004</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H82" s="13">
         <v>3062.973</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I82" s="13">
         <v>14063.5628698</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J82" s="13">
         <v>11541.24424</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="16">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D83" s="16">
         <f t="shared" si="4"/>
         <v>39965.855546999999</v>
       </c>
-      <c r="E82" s="18">
-        <v>0</v>
-      </c>
-      <c r="F82" s="18">
+      <c r="E83" s="17">
+        <v>0</v>
+      </c>
+      <c r="F83" s="17">
         <v>8683.6723199999997</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G83" s="17">
         <v>687.87199999999996</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H83" s="17">
         <v>2884.9024869999998</v>
       </c>
-      <c r="I82" s="18">
+      <c r="I83" s="17">
         <v>14803.904460000002</v>
       </c>
-      <c r="J82" s="18">
+      <c r="J83" s="17">
         <v>12905.504279999999</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="12">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="12">
         <f t="shared" si="4"/>
         <v>41066.873502000002</v>
       </c>
-      <c r="E83" s="14">
-        <v>0</v>
-      </c>
-      <c r="F83" s="14">
+      <c r="E84" s="13">
+        <v>0</v>
+      </c>
+      <c r="F84" s="13">
         <v>8739.8234700000012</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G84" s="13">
         <v>775.90599999999995</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H84" s="13">
         <v>3132.7950000000001</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I84" s="13">
         <v>15348.913632</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J84" s="13">
         <v>13069.4354</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="16">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D85" s="16">
         <f t="shared" si="4"/>
         <v>39330.274949999999</v>
       </c>
-      <c r="E84" s="18">
-        <v>0</v>
-      </c>
-      <c r="F84" s="18">
+      <c r="E85" s="17">
+        <v>0</v>
+      </c>
+      <c r="F85" s="17">
         <v>8459.8314499999997</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G85" s="17">
         <v>741.85500000000002</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H85" s="17">
         <v>3243.9609999999998</v>
       </c>
-      <c r="I84" s="18">
+      <c r="I85" s="17">
         <v>15389.468199999999</v>
       </c>
-      <c r="J84" s="18">
+      <c r="J85" s="17">
         <v>11495.159300000001</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="12">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D86" s="12">
         <f t="shared" si="4"/>
         <v>42190.912314999994</v>
       </c>
-      <c r="E85" s="14">
-        <v>0</v>
-      </c>
-      <c r="F85" s="14">
+      <c r="E86" s="13">
+        <v>0</v>
+      </c>
+      <c r="F86" s="13">
         <v>9138.4659200000006</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G86" s="13">
         <v>763.33</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H86" s="13">
         <v>2695.9059999999999</v>
       </c>
-      <c r="I85" s="14">
+      <c r="I86" s="13">
         <v>17318.287694999999</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J86" s="13">
         <v>12274.922699999999</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="16">
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D87" s="16">
         <f t="shared" si="4"/>
         <v>42310.135434999997</v>
       </c>
-      <c r="E86" s="18">
-        <v>0</v>
-      </c>
-      <c r="F86" s="18">
+      <c r="E87" s="17">
+        <v>0</v>
+      </c>
+      <c r="F87" s="17">
         <v>9362.9394400000001</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G87" s="17">
         <v>388.47899999999998</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H87" s="17">
         <v>3041.660961</v>
       </c>
-      <c r="I86" s="18">
+      <c r="I87" s="17">
         <v>15644.620234</v>
       </c>
-      <c r="J86" s="18">
+      <c r="J87" s="17">
         <v>13872.435800000001</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="12">
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D88" s="12">
         <f t="shared" si="4"/>
         <v>34826.467999300003</v>
       </c>
-      <c r="E87" s="14">
-        <v>0</v>
-      </c>
-      <c r="F87" s="14">
+      <c r="E88" s="13">
+        <v>0</v>
+      </c>
+      <c r="F88" s="13">
         <v>7302.8320700000004</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G88" s="13">
         <v>356.733</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H88" s="13">
         <v>2616.0599083000002</v>
       </c>
-      <c r="I87" s="14">
+      <c r="I88" s="13">
         <v>13679.491221</v>
       </c>
-      <c r="J87" s="14">
+      <c r="J88" s="13">
         <v>10871.3518</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="16">
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="15">
         <v>2018</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D89" s="16">
         <f t="shared" si="4"/>
         <v>34940.797042999999</v>
       </c>
-      <c r="E88" s="18">
-        <v>0</v>
-      </c>
-      <c r="F88" s="18">
+      <c r="E89" s="17">
+        <v>0</v>
+      </c>
+      <c r="F89" s="17">
         <v>7741.241140000001</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G89" s="17">
         <v>295.541</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H89" s="17">
         <v>2365.5157000000004</v>
       </c>
-      <c r="I88" s="18">
+      <c r="I89" s="17">
         <v>14151.311802999999</v>
       </c>
-      <c r="J88" s="18">
+      <c r="J89" s="17">
         <v>10387.187400000001</v>
       </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89" s="3"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B90" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J90" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="26"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B92" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Carga_por_aerolinea_inter.xlsx
+++ b/Carga_por_aerolinea_inter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F793AAE-8DEE-4338-AE54-CBD8A03CA6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD49AD9-8FFA-4AD5-B17C-AE3442AF979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_36" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Total</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -287,12 +287,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -357,6 +381,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -581,8 +613,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J89" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B5:J89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J90" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B5:J90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -830,9 +862,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:J92"/>
+  <dimension ref="B2:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -906,2539 +938,2569 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="B6" s="28">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="30">
+        <f>SUM(E6:J6)</f>
+        <v>32738.156787100001</v>
+      </c>
+      <c r="E6" s="31">
+        <v>547.80899999999997</v>
+      </c>
+      <c r="F6" s="31">
+        <v>9255.4840800000002</v>
+      </c>
+      <c r="G6" s="31">
+        <v>64.498999999999995</v>
+      </c>
+      <c r="H6" s="31">
+        <v>2006.0550999999998</v>
+      </c>
+      <c r="I6" s="31">
+        <v>8929.4855071000002</v>
+      </c>
+      <c r="J6" s="31">
+        <v>11934.8241</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12">
-        <f>SUM(E6:J6)</f>
+      <c r="D7" s="12">
+        <f>SUM(E7:J7)</f>
         <v>36553.283453600001</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>567.71299999999997</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>11062.71538</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>83.263000000000005</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="13">
         <v>2193.5998599999998</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="13">
         <v>9052.3878136000003</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J7" s="13">
         <v>13593.6044</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B7" s="14">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="14">
         <v>2024</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="16">
-        <f>SUM(E7:J7)</f>
+      <c r="D8" s="16">
+        <f>SUM(E8:J8)</f>
         <v>38955.349190000001</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>476.91500000000002</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>11865.98335</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <v>118.56699999999999</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H8" s="17">
         <v>2287.3870999999999</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I8" s="17">
         <v>9767.1580399999984</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J8" s="17">
         <v>14439.338699999998</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="12">
-        <f t="shared" ref="D8" si="0">SUM(E8:J8)</f>
+      <c r="D9" s="12">
+        <f t="shared" ref="D9" si="0">SUM(E9:J9)</f>
         <v>40583.470432800001</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>595.11500000000001</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>11875.472706999999</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>108.72</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="13">
         <v>2518.88535</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="13">
         <v>10723.791075800002</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J9" s="13">
         <v>14761.4863</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="14">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="14">
         <v>2024</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16">
-        <f>SUM(E9:J9)</f>
+      <c r="D10" s="16">
+        <f>SUM(E10:J10)</f>
         <v>36709.209215400006</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="17">
         <v>655.125</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>11496.193750000002</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G10" s="17">
         <v>77.037000000000006</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H10" s="17">
         <v>2604.8681999999999</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I10" s="17">
         <v>9467.4052554000009</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J10" s="17">
         <v>12408.58001</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12">
-        <f t="shared" ref="D10:D44" si="1">SUM(E10:J10)</f>
+      <c r="D11" s="12">
+        <f t="shared" ref="D11:D45" si="1">SUM(E11:J11)</f>
         <v>39433.388310299997</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>784.92399999999998</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>12296.267870000001</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>99.649000000000001</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="13">
         <v>2503.4024399999998</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I11" s="13">
         <v>9761.9496002999986</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J11" s="13">
         <v>13987.195400000001</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="14">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="14">
         <v>2024</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="16">
-        <f t="shared" ref="D11:D13" si="2">SUM(E11:J11)</f>
+      <c r="D12" s="16">
+        <f t="shared" ref="D12:D14" si="2">SUM(E12:J12)</f>
         <v>40801.963929400001</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>699.11900000000003</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>12543.787289999998</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <v>84.063999999999993</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H12" s="17">
         <v>2098.4537700000001</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I12" s="17">
         <v>11053.483869400001</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J12" s="17">
         <v>14323.056</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <f t="shared" si="2"/>
         <v>39620.932216600006</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="13">
         <v>519.66999999999996</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="13">
         <v>12641.439460000001</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>77.063999999999993</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="13">
         <v>2216.25135</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="13">
         <v>9750.3944666000007</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J13" s="13">
         <v>14416.112940000001</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="14">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="14">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <f t="shared" si="2"/>
         <v>41707.502720700002</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="17">
         <v>666.51599999999996</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>12929.211710000001</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="17">
         <v>67.73</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H14" s="17">
         <v>2272.335</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I14" s="17">
         <v>11736.1480207</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J14" s="17">
         <v>14035.56199</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <f t="shared" si="1"/>
         <v>41262.668572400005</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>688.25300000000004</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>12315.68958</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>41.54</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>2009.3571000000002</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="13">
         <v>11684.1584924</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J15" s="13">
         <v>14523.670400000001</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="14">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="14">
         <v>2024</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="16">
         <f t="shared" si="1"/>
         <v>42983.103187400004</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="17">
         <v>794.28</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="17">
         <v>13886.640620000002</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="17">
         <v>59.076999999999998</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H16" s="17">
         <v>2339.2438500000003</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I16" s="17">
         <v>10445.917705400001</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J16" s="17">
         <v>15457.944012</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <f t="shared" si="1"/>
         <v>40423.179039299997</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>664.82100000000003</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>12004.929049999999</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>45.631999999999998</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="13">
         <v>1860.7841100000001</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="13">
         <v>11883.265289299999</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J17" s="13">
         <v>13963.747589999999</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17" s="18">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B18" s="18">
         <v>2024</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D18" s="20">
         <f t="shared" si="1"/>
         <v>41353.6868091</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E18" s="21">
         <v>680.31799999999998</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F18" s="21">
         <v>12601.32713</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G18" s="21">
         <v>44.356000000000002</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H18" s="21">
         <v>1755.9950999999999</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I18" s="21">
         <v>12111.205109099999</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J18" s="21">
         <v>14160.48547</v>
       </c>
     </row>
-    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="22">
+    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="22">
         <v>2023</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D19" s="24">
         <f t="shared" si="1"/>
         <v>41305.9751617</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E19" s="25">
         <v>772.82399999999996</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>13837.61614</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G19" s="25">
         <v>74.738</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H19" s="25">
         <v>2170.9023299999999</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I19" s="25">
         <v>9069.6951917000006</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J19" s="25">
         <v>15380.199500000001</v>
       </c>
     </row>
-    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="14">
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="16">
         <f t="shared" si="1"/>
         <v>40392.089828199998</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>779.80799999999999</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>11039.539530000002</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G20" s="17">
         <v>95.251000000000005</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H20" s="17">
         <v>2158.6788999999999</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I20" s="17">
         <v>9817.7052921999984</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J20" s="17">
         <v>16501.107105999999</v>
       </c>
     </row>
-    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <f t="shared" si="1"/>
         <v>44801.968924000001</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>778.178</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>10705.033520000001</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>62.91</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="13">
         <v>2322.5757999999996</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I21" s="13">
         <v>11604.903104000001</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J21" s="13">
         <v>19328.3685</v>
       </c>
     </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="14">
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D22" s="16">
         <f t="shared" si="1"/>
         <v>37081.792656999998</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E22" s="17">
         <v>622.02300000000002</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F22" s="17">
         <v>9376.2873299999992</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G22" s="17">
         <v>85.058000000000007</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H22" s="17">
         <v>2340.9119999999998</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I22" s="17">
         <v>9719.7349270000013</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J22" s="17">
         <v>14937.777400000001</v>
       </c>
     </row>
-    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <f t="shared" si="1"/>
         <v>40017.679605799996</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>757.96799999999996</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>10215.824409999999</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>52.222000000000001</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>2329.6565299999997</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>10678.306165799999</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="13">
         <v>15983.702499999999</v>
       </c>
     </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="14">
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="16">
         <f t="shared" si="1"/>
         <v>40319.464599799998</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>788.85</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>10358.445689999999</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>48.895000000000003</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="17">
         <v>2259.8667999999998</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I24" s="17">
         <v>10176.835459800001</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J24" s="17">
         <v>16686.571649999998</v>
       </c>
     </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <f t="shared" si="1"/>
         <v>40587.1373762</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>645.45299999999997</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>10949.239149999998</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>36.125</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="13">
         <v>2276.2485000000001</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I25" s="13">
         <v>10352.348026199999</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J25" s="13">
         <v>16327.723699999999</v>
       </c>
     </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="14">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="14">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D26" s="16">
         <f t="shared" si="1"/>
         <v>38973.9993865</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E26" s="17">
         <v>640.97299999999996</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F26" s="17">
         <v>10514.624800000001</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G26" s="17">
         <v>48.081000000000003</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H26" s="17">
         <v>2950.8580000000002</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I26" s="17">
         <v>10310.050886499999</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J26" s="17">
         <v>14509.411699999999</v>
       </c>
     </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <f t="shared" si="1"/>
         <v>36860.751413800004</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>640.28800000000001</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>10179.089970000001</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>36.615000000000002</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>2873.6055999999999</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="13">
         <v>9745.8580438000008</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J27" s="13">
         <v>13385.294800000001</v>
       </c>
     </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="14">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="14">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="16">
         <f t="shared" si="1"/>
         <v>40964.524065800004</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="17">
         <v>786.44299999999998</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <v>10964.67835</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G28" s="17">
         <v>29.545999999999999</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="17">
         <v>2982.933</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I28" s="17">
         <v>11630.4319158</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J28" s="17">
         <v>14570.491800000002</v>
       </c>
     </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <f t="shared" si="1"/>
         <v>34787.3181482</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>578.94399999999996</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>8934.8815099999993</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>75.331999999999994</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>2327.94515</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="13">
         <v>10297.7028882</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J29" s="13">
         <v>12572.5126</v>
       </c>
     </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="18">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="18">
         <v>2023</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D30" s="20">
         <f t="shared" si="1"/>
         <v>34339.076626599999</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E30" s="21">
         <v>536.072</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F30" s="21">
         <v>8186.4879099999998</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G30" s="21">
         <v>36.253</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H30" s="21">
         <v>2646.04016</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I30" s="21">
         <v>10631.4606566</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J30" s="21">
         <v>12302.7629</v>
       </c>
     </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="22">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="22">
         <v>2022</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C31" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D31" s="24">
         <f t="shared" si="1"/>
         <v>38746.066610000002</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E31" s="25">
         <v>378.79500000000002</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F31" s="25">
         <v>9252.3727799999997</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G31" s="25">
         <v>106.069</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H31" s="25">
         <v>2824.3177999999998</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I31" s="25">
         <v>11614.168230000001</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J31" s="25">
         <v>14570.343800000001</v>
       </c>
     </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="14">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="16">
         <f t="shared" si="1"/>
         <v>38505.180007499999</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>516.43899999999996</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F32" s="17">
         <v>9489.5803000000014</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G32" s="17">
         <v>75.007999999999996</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H32" s="17">
         <v>2658.9839999999999</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I32" s="17">
         <v>11148.7151075</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J32" s="17">
         <v>14616.453599999999</v>
       </c>
     </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="12">
         <f t="shared" si="1"/>
         <v>41053.772325500002</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>741.95500000000004</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>9730.2727100000011</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>97.396000000000001</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="13">
         <v>2904.4928999999997</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I33" s="13">
         <v>11820.6849155</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J33" s="13">
         <v>15758.970800000001</v>
       </c>
     </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="14">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D34" s="16">
         <f t="shared" si="1"/>
         <v>37277.511123060001</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E34" s="17">
         <v>663.58500000000004</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="17">
         <v>8746.3328199999996</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G34" s="17">
         <v>20.056000000000001</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H34" s="17">
         <v>3093.55527936</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I34" s="17">
         <v>11160.508123699999</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J34" s="17">
         <v>13593.473900000001</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <f t="shared" si="1"/>
         <v>39368.723200799999</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>591.01800000000003</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>8719.4067500000001</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>25.675000000000001</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>3267.5057999999999</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="13">
         <v>12298.3654508</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J35" s="13">
         <v>14466.752199999999</v>
       </c>
     </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="14">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="16">
         <f t="shared" si="1"/>
         <v>40438.258232399996</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>530.70500000000004</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>9093.8344099999995</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G36" s="17">
         <v>34.826000000000001</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="17">
         <v>3252.6017000000002</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I36" s="17">
         <v>11449.207622400001</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J36" s="17">
         <v>16077.083500000001</v>
       </c>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <f t="shared" si="1"/>
         <v>40705.379663200001</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>512.66099999999994</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>8969.2943100000011</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>26.021000000000001</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="13">
         <v>3225.5032000000001</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I37" s="13">
         <v>12235.6416532</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J37" s="13">
         <v>15736.2585</v>
       </c>
     </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="14">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="14">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D38" s="16">
         <f t="shared" si="1"/>
         <v>38385.635270600003</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E38" s="17">
         <v>646.77499999999998</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="17">
         <v>5887.1319999999996</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G38" s="17">
         <v>121.18</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H38" s="17">
         <v>3119.6742000000004</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I38" s="17">
         <v>12724.7170706</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J38" s="17">
         <v>15886.156999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <f t="shared" si="1"/>
         <v>37880.648666100002</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>658.78499999999997</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>5153.4015099999997</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>198.077</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>2884.4317999999998</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="13">
         <v>13095.553956100001</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J39" s="13">
         <v>15890.3994</v>
       </c>
     </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="14">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="14">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="16">
         <f t="shared" si="1"/>
         <v>39804.246607199995</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>701.476</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>5848.9565830000001</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G40" s="17">
         <v>68.724999999999994</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="17">
         <v>3277.5267000000003</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I40" s="17">
         <v>13626.1151242</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J40" s="17">
         <v>16281.447199999999</v>
       </c>
     </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="12">
         <f t="shared" si="1"/>
         <v>35391.386208299999</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>638.51099999999997</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>5672.3767400000006</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>17.033999999999999</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>2882.4872999999998</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="13">
         <v>10909.8495683</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J41" s="13">
         <v>15271.1276</v>
       </c>
     </row>
-    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="18">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="18">
         <v>2022</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C42" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D42" s="20">
         <f t="shared" si="1"/>
         <v>32469.8484493</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E42" s="21">
         <v>482.12099999999998</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F42" s="21">
         <v>6245.38976</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G42" s="21">
         <v>259.46800000000002</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H42" s="21">
         <v>2435.1074600000002</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I42" s="21">
         <v>9916.5125293000001</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J42" s="21">
         <v>13131.249699999998</v>
       </c>
     </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="22">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="22">
         <v>2021</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C43" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D43" s="24">
         <f t="shared" si="1"/>
         <v>39492.366382700005</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E43" s="25">
         <v>458.77499999999998</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F43" s="25">
         <v>10098.12268</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G43" s="25">
         <v>133.10599999999999</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H43" s="25">
         <v>3136.06873</v>
       </c>
-      <c r="I42" s="25">
+      <c r="I43" s="25">
         <v>12005.7867427</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J43" s="25">
         <v>13660.507230000001</v>
       </c>
     </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="14">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="14">
         <v>2021</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="16">
         <f t="shared" si="1"/>
         <v>40331.827408900004</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>490.10599999999999</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>10062.285780000002</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G44" s="17">
         <v>336.76799999999997</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H44" s="17">
         <v>3288.1294800000001</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I44" s="17">
         <v>12280.809678899999</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J44" s="17">
         <v>13873.728469999998</v>
       </c>
     </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="12">
         <f t="shared" si="1"/>
         <v>41580.666843700004</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>586.94299999999998</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>10735.457050000001</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>619.62599999999998</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="13">
         <v>2722.0764900000004</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I45" s="13">
         <v>11237.549403700001</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J45" s="13">
         <v>15679.0149</v>
       </c>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="14">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="16">
-        <f t="shared" ref="D45:D76" si="3">SUM(E45:J45)</f>
+      <c r="D46" s="16">
+        <f t="shared" ref="D46:D77" si="3">SUM(E46:J46)</f>
         <v>38165.8196035</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>696.17100000000005</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="17">
         <v>10134.700359999999</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G46" s="17">
         <v>487.45499999999998</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H46" s="17">
         <v>2548.2033000000001</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I46" s="17">
         <v>11597.826043499999</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J46" s="17">
         <v>12701.463900000001</v>
       </c>
     </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <f t="shared" si="3"/>
         <v>37424.307471799999</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>396.84</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>9954.2116800000003</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>550.08500000000004</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>2444.3667</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I47" s="13">
         <v>11310.234991799998</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J47" s="13">
         <v>12768.569099999999</v>
       </c>
     </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="14">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <f t="shared" si="3"/>
         <v>39029.204718000001</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>501.01900000000001</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>10968.570522</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G48" s="17">
         <v>546.27499999999998</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H48" s="17">
         <v>2313.2728999999999</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I48" s="17">
         <v>11426.955696000001</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J48" s="17">
         <v>13273.1116</v>
       </c>
     </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <f t="shared" si="3"/>
         <v>37745.558432400001</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>463.83300000000003</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>10031.152749999999</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>463.92500000000001</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="13">
         <v>1743.7754</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I49" s="13">
         <v>11018.1134824</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J49" s="13">
         <v>14024.758800000001</v>
       </c>
     </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="14">
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="14">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D50" s="16">
         <f t="shared" si="3"/>
         <v>38457.492379999996</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="17">
         <v>554.96</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F50" s="17">
         <v>9638.9807799999999</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G50" s="17">
         <v>289.39</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H50" s="17">
         <v>1666.4480000000001</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I50" s="17">
         <v>11157.246999999999</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J50" s="17">
         <v>15150.4666</v>
       </c>
     </row>
-    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <f t="shared" si="3"/>
         <v>37112.560168100004</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>590.50099999999998</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>9277.434830000002</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>331.7</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>1472.3352</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="13">
         <v>11167.4790381</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J51" s="13">
         <v>14273.1101</v>
       </c>
     </row>
-    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="14">
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="14">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="16">
         <f t="shared" si="3"/>
         <v>41269.452216999998</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>386.11599999999999</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>10042.040590000001</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G52" s="17">
         <v>536.54600000000005</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H52" s="17">
         <v>1531.1469999999999</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I52" s="17">
         <v>13111.292127000001</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J52" s="17">
         <v>15662.3105</v>
       </c>
     </row>
-    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="10">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="12">
         <f t="shared" si="3"/>
         <v>34648.807876000006</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>219.61199999999999</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>8953.9622800000016</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>228.47900000000001</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>1342.146</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I53" s="13">
         <v>9816.7840960000012</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J53" s="13">
         <v>14087.824500000001</v>
       </c>
     </row>
-    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="18">
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="18">
         <v>2021</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D54" s="20">
         <f t="shared" si="3"/>
         <v>36982.816146000005</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E54" s="21">
         <v>129.93199999999999</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F54" s="21">
         <v>10106.45505</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G54" s="21">
         <v>156.72999999999999</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H54" s="21">
         <v>1370.9369999999999</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I54" s="21">
         <v>11214.778596</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J54" s="21">
         <v>14003.9835</v>
       </c>
     </row>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="22">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="22">
         <v>2020</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C55" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D55" s="24">
         <f t="shared" si="3"/>
         <v>36967.920087999999</v>
       </c>
-      <c r="E54" s="25">
-        <v>0</v>
-      </c>
-      <c r="F54" s="25">
+      <c r="E55" s="25">
+        <v>0</v>
+      </c>
+      <c r="F55" s="25">
         <v>10567.67765</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G55" s="25">
         <v>247.25800000000001</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H55" s="25">
         <v>1325.12</v>
       </c>
-      <c r="I54" s="25">
+      <c r="I55" s="25">
         <v>11836.856238</v>
       </c>
-      <c r="J54" s="25">
+      <c r="J55" s="25">
         <v>12991.008199999998</v>
       </c>
     </row>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="14">
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="14">
         <v>2020</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="16">
         <f t="shared" si="3"/>
         <v>36852.864462999998</v>
       </c>
-      <c r="E55" s="17">
-        <v>0</v>
-      </c>
-      <c r="F55" s="17">
+      <c r="E56" s="17">
+        <v>0</v>
+      </c>
+      <c r="F56" s="17">
         <v>10376.03788</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G56" s="17">
         <v>137.81200000000001</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H56" s="17">
         <v>1566.683</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I56" s="17">
         <v>11120.986982999999</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J56" s="17">
         <v>13651.3446</v>
       </c>
     </row>
-    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="12">
         <f t="shared" si="3"/>
         <v>37111.751327400001</v>
       </c>
-      <c r="E56" s="13">
-        <v>0</v>
-      </c>
-      <c r="F56" s="13">
+      <c r="E57" s="13">
+        <v>0</v>
+      </c>
+      <c r="F57" s="13">
         <v>10139.1556</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>42.646000000000001</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H57" s="13">
         <v>1292.682</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I57" s="13">
         <v>10863.6815274</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J57" s="13">
         <v>14773.5862</v>
       </c>
     </row>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="14">
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D58" s="16">
         <f t="shared" si="3"/>
         <v>31289.118952199999</v>
       </c>
-      <c r="E57" s="17">
-        <v>0</v>
-      </c>
-      <c r="F57" s="17">
+      <c r="E58" s="17">
+        <v>0</v>
+      </c>
+      <c r="F58" s="17">
         <v>8729.1361899999993</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G58" s="17">
         <v>35.866999999999997</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H58" s="17">
         <v>987.66099999999994</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I58" s="17">
         <v>9399.9986922000007</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J58" s="17">
         <v>12136.45607</v>
       </c>
     </row>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <f t="shared" si="3"/>
         <v>28794.378688499997</v>
       </c>
-      <c r="E58" s="13">
-        <v>0</v>
-      </c>
-      <c r="F58" s="13">
+      <c r="E59" s="13">
+        <v>0</v>
+      </c>
+      <c r="F59" s="13">
         <v>8471.0650299999998</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>42.926000000000002</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>1074.0519999999999</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="13">
         <v>8606.7041585000006</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J59" s="13">
         <v>10599.6315</v>
       </c>
     </row>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="14">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <f t="shared" si="3"/>
         <v>27431.279484500003</v>
       </c>
-      <c r="E59" s="17">
-        <v>0</v>
-      </c>
-      <c r="F59" s="17">
+      <c r="E60" s="17">
+        <v>0</v>
+      </c>
+      <c r="F60" s="17">
         <v>8226.0579799999996</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G60" s="17">
         <v>36.588000000000001</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H60" s="17">
         <v>1040.3589999999999</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I60" s="17">
         <v>8177.4266045000004</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J60" s="17">
         <v>9950.8479000000007</v>
       </c>
     </row>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <f t="shared" si="3"/>
         <v>25926.471812200001</v>
       </c>
-      <c r="E60" s="13">
-        <v>0</v>
-      </c>
-      <c r="F60" s="13">
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
         <v>7134.2837199999994</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>63.805</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="13">
         <v>855.82899999999995</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I61" s="13">
         <v>7779.0341922000007</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J61" s="13">
         <v>10093.519900000001</v>
       </c>
     </row>
-    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="14">
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="14">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D62" s="16">
         <f t="shared" si="3"/>
         <v>23168.212673900001</v>
       </c>
-      <c r="E61" s="17">
-        <v>0</v>
-      </c>
-      <c r="F61" s="17">
+      <c r="E62" s="17">
+        <v>0</v>
+      </c>
+      <c r="F62" s="17">
         <v>6023.6581899999992</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G62" s="17">
         <v>187.08600000000001</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H62" s="17">
         <v>832.03399999999999</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I62" s="17">
         <v>7072.7845839000001</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J62" s="17">
         <v>9052.6499000000003</v>
       </c>
     </row>
-    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <f t="shared" si="3"/>
         <v>20427.959275100002</v>
       </c>
-      <c r="E62" s="13">
-        <v>0</v>
-      </c>
-      <c r="F62" s="13">
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
         <v>5209.0807000000004</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>24.07</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>739.351</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="13">
         <v>6596.5606751000005</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J63" s="13">
         <v>7858.8969000000006</v>
       </c>
     </row>
-    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="14">
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="14">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="16">
         <f t="shared" si="3"/>
         <v>33140.735087100002</v>
       </c>
-      <c r="E63" s="17">
-        <v>0</v>
-      </c>
-      <c r="F63" s="17">
+      <c r="E64" s="17">
+        <v>0</v>
+      </c>
+      <c r="F64" s="17">
         <v>8644.8665579999997</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G64" s="17">
         <v>50.677999999999997</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H64" s="17">
         <v>2214.377</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I64" s="17">
         <v>10403.6180291</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J64" s="17">
         <v>11827.1955</v>
       </c>
     </row>
-    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="10">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="12">
         <f t="shared" si="3"/>
         <v>31595.295708999998</v>
       </c>
-      <c r="E64" s="13">
-        <v>0</v>
-      </c>
-      <c r="F64" s="13">
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13">
         <v>8503.3772899999985</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>71.156000000000006</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>2496.2399999999998</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="13">
         <v>9914.0471189999989</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J65" s="13">
         <v>10610.4753</v>
       </c>
     </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="18">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="18">
         <v>2020</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C66" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D66" s="20">
         <f t="shared" si="3"/>
         <v>31902.586373000002</v>
       </c>
-      <c r="E65" s="21">
-        <v>0</v>
-      </c>
-      <c r="F65" s="21">
+      <c r="E66" s="21">
+        <v>0</v>
+      </c>
+      <c r="F66" s="21">
         <v>8365.6301700000004</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G66" s="21">
         <v>80.352000000000004</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H66" s="21">
         <v>2759.7359999999999</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I66" s="21">
         <v>11337.052103</v>
       </c>
-      <c r="J65" s="21">
+      <c r="J66" s="21">
         <v>9359.8161</v>
       </c>
     </row>
-    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="22">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="22">
         <v>2019</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C67" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D67" s="24">
         <f t="shared" si="3"/>
         <v>34834.055678999997</v>
       </c>
-      <c r="E66" s="25">
-        <v>0</v>
-      </c>
-      <c r="F66" s="25">
+      <c r="E67" s="25">
+        <v>0</v>
+      </c>
+      <c r="F67" s="25">
         <v>9580.7296500000011</v>
       </c>
-      <c r="G66" s="25">
-        <v>0</v>
-      </c>
-      <c r="H66" s="25">
+      <c r="G67" s="25">
+        <v>0</v>
+      </c>
+      <c r="H67" s="25">
         <v>2707.5740000000001</v>
       </c>
-      <c r="I66" s="25">
+      <c r="I67" s="25">
         <v>11491.813929</v>
       </c>
-      <c r="J66" s="25">
+      <c r="J67" s="25">
         <v>11053.938099999999</v>
       </c>
     </row>
-    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="14">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="14">
         <v>2019</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="16">
         <f t="shared" si="3"/>
         <v>36842.30025</v>
       </c>
-      <c r="E67" s="17">
-        <v>0</v>
-      </c>
-      <c r="F67" s="17">
+      <c r="E68" s="17">
+        <v>0</v>
+      </c>
+      <c r="F68" s="17">
         <v>9295.5269499999995</v>
       </c>
-      <c r="G67" s="17">
-        <v>0</v>
-      </c>
-      <c r="H67" s="17">
+      <c r="G68" s="17">
+        <v>0</v>
+      </c>
+      <c r="H68" s="17">
         <v>2968.0250000000001</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I68" s="17">
         <v>12197.1018</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J68" s="17">
         <v>12381.646500000001</v>
       </c>
     </row>
-    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="12">
         <f t="shared" si="3"/>
         <v>37499.549509000004</v>
       </c>
-      <c r="E68" s="13">
-        <v>0</v>
-      </c>
-      <c r="F68" s="13">
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
         <v>8717.2473399999999</v>
       </c>
-      <c r="G68" s="13">
-        <v>0</v>
-      </c>
-      <c r="H68" s="13">
+      <c r="G69" s="13">
+        <v>0</v>
+      </c>
+      <c r="H69" s="13">
         <v>2772.4720000000002</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I69" s="13">
         <v>12460.489269000002</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J69" s="13">
         <v>13549.340900000001</v>
       </c>
     </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="14">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D70" s="16">
         <f t="shared" si="3"/>
         <v>34780.897574999995</v>
       </c>
-      <c r="E69" s="17">
-        <v>0</v>
-      </c>
-      <c r="F69" s="17">
+      <c r="E70" s="17">
+        <v>0</v>
+      </c>
+      <c r="F70" s="17">
         <v>8235.0453999999991</v>
       </c>
-      <c r="G69" s="17">
-        <v>0</v>
-      </c>
-      <c r="H69" s="17">
+      <c r="G70" s="17">
+        <v>0</v>
+      </c>
+      <c r="H70" s="17">
         <v>3011.7339999999999</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I70" s="17">
         <v>11347.632975</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J70" s="17">
         <v>12186.485199999999</v>
       </c>
     </row>
-    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <f t="shared" si="3"/>
         <v>36123.947636999997</v>
       </c>
-      <c r="E70" s="13">
-        <v>0</v>
-      </c>
-      <c r="F70" s="13">
+      <c r="E71" s="13">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
         <v>8047.0139099999997</v>
       </c>
-      <c r="G70" s="13">
-        <v>0</v>
-      </c>
-      <c r="H70" s="13">
+      <c r="G71" s="13">
+        <v>0</v>
+      </c>
+      <c r="H71" s="13">
         <v>2861.5230000000001</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I71" s="13">
         <v>13553.171926999999</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J71" s="13">
         <v>11662.238800000001</v>
       </c>
     </row>
-    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="14">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="16">
         <f t="shared" si="3"/>
         <v>36989.020386999997</v>
       </c>
-      <c r="E71" s="17">
-        <v>0</v>
-      </c>
-      <c r="F71" s="17">
+      <c r="E72" s="17">
+        <v>0</v>
+      </c>
+      <c r="F72" s="17">
         <v>8253.6834899999994</v>
       </c>
-      <c r="G71" s="17">
-        <v>0</v>
-      </c>
-      <c r="H71" s="17">
+      <c r="G72" s="17">
+        <v>0</v>
+      </c>
+      <c r="H72" s="17">
         <v>2588.3980000000001</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I72" s="17">
         <v>13481.634697000001</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J72" s="17">
         <v>12665.304199999999</v>
       </c>
     </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="12">
         <f t="shared" si="3"/>
         <v>36253.700530000002</v>
       </c>
-      <c r="E72" s="13">
-        <v>0</v>
-      </c>
-      <c r="F72" s="13">
+      <c r="E73" s="13">
+        <v>0</v>
+      </c>
+      <c r="F73" s="13">
         <v>7444.2109199999995</v>
       </c>
-      <c r="G72" s="13">
-        <v>0</v>
-      </c>
-      <c r="H72" s="13">
+      <c r="G73" s="13">
+        <v>0</v>
+      </c>
+      <c r="H73" s="13">
         <v>2726.3809999999999</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I73" s="13">
         <v>14226.39911</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J73" s="13">
         <v>11856.709500000001</v>
       </c>
     </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="14">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="14">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D74" s="16">
         <f t="shared" si="3"/>
         <v>36841.123875999998</v>
       </c>
-      <c r="E73" s="17">
-        <v>0</v>
-      </c>
-      <c r="F73" s="17">
+      <c r="E74" s="17">
+        <v>0</v>
+      </c>
+      <c r="F74" s="17">
         <v>8213.8209500000012</v>
       </c>
-      <c r="G73" s="17">
-        <v>0</v>
-      </c>
-      <c r="H73" s="17">
+      <c r="G74" s="17">
+        <v>0</v>
+      </c>
+      <c r="H74" s="17">
         <v>2822.8220000000001</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I74" s="17">
         <v>14573.453925999998</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J74" s="17">
         <v>11231.027</v>
       </c>
     </row>
-    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="12">
         <f t="shared" si="3"/>
         <v>34774.654051999998</v>
       </c>
-      <c r="E74" s="13">
-        <v>0</v>
-      </c>
-      <c r="F74" s="13">
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13">
         <v>7045.8119100000004</v>
       </c>
-      <c r="G74" s="13">
-        <v>0</v>
-      </c>
-      <c r="H74" s="13">
+      <c r="G75" s="13">
+        <v>0</v>
+      </c>
+      <c r="H75" s="13">
         <v>2281.2820000000002</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I75" s="13">
         <v>14819.089841999999</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J75" s="13">
         <v>10628.470300000001</v>
       </c>
     </row>
-    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="14">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="14">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="16">
         <f t="shared" si="3"/>
         <v>41597.635473399998</v>
       </c>
-      <c r="E75" s="17">
-        <v>0</v>
-      </c>
-      <c r="F75" s="17">
+      <c r="E76" s="17">
+        <v>0</v>
+      </c>
+      <c r="F76" s="17">
         <v>8978.2172699999992</v>
       </c>
-      <c r="G75" s="17">
-        <v>0</v>
-      </c>
-      <c r="H75" s="17">
+      <c r="G76" s="17">
+        <v>0</v>
+      </c>
+      <c r="H76" s="17">
         <v>2665.5234</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I76" s="17">
         <v>16057.1642034</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J76" s="17">
         <v>13896.730599999999</v>
       </c>
     </row>
-    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="12">
         <f t="shared" si="3"/>
         <v>34403.574224000004</v>
       </c>
-      <c r="E76" s="13">
-        <v>0</v>
-      </c>
-      <c r="F76" s="13">
+      <c r="E77" s="13">
+        <v>0</v>
+      </c>
+      <c r="F77" s="13">
         <v>7372.8365000000003</v>
       </c>
-      <c r="G76" s="13">
-        <v>0</v>
-      </c>
-      <c r="H76" s="13">
+      <c r="G77" s="13">
+        <v>0</v>
+      </c>
+      <c r="H77" s="13">
         <v>2041.7819999999999</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I77" s="13">
         <v>14155.565524</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J77" s="13">
         <v>10833.3902</v>
       </c>
     </row>
-    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="18">
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="18">
         <v>2019</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C78" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="20">
-        <f t="shared" ref="D77:D89" si="4">SUM(E77:J77)</f>
+      <c r="D78" s="20">
+        <f t="shared" ref="D78:D90" si="4">SUM(E78:J78)</f>
         <v>34340.204129700003</v>
       </c>
-      <c r="E77" s="21">
-        <v>0</v>
-      </c>
-      <c r="F77" s="21">
+      <c r="E78" s="21">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21">
         <v>7805.6810100000012</v>
       </c>
-      <c r="G77" s="21">
-        <v>0</v>
-      </c>
-      <c r="H77" s="21">
+      <c r="G78" s="21">
+        <v>0</v>
+      </c>
+      <c r="H78" s="21">
         <v>2447.4140000000002</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I78" s="21">
         <v>13462.407319700002</v>
       </c>
-      <c r="J77" s="21">
+      <c r="J78" s="21">
         <v>10624.701800000001</v>
       </c>
     </row>
-    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="11">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="11">
         <v>2018</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <f t="shared" si="4"/>
         <v>39107.630482000008</v>
       </c>
-      <c r="E78" s="13">
-        <v>0</v>
-      </c>
-      <c r="F78" s="13">
+      <c r="E79" s="13">
+        <v>0</v>
+      </c>
+      <c r="F79" s="13">
         <v>9016.9082100000014</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>604.548</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H79" s="13">
         <v>2518.2449999999999</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I79" s="13">
         <v>14153.156971999999</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J79" s="13">
         <v>12814.772300000001</v>
       </c>
     </row>
-    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="15">
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="15">
         <v>2018</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D80" s="16">
         <f t="shared" si="4"/>
         <v>40739.449042</v>
       </c>
-      <c r="E79" s="17">
-        <v>0</v>
-      </c>
-      <c r="F79" s="17">
+      <c r="E80" s="17">
+        <v>0</v>
+      </c>
+      <c r="F80" s="17">
         <v>10171.974600000001</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G80" s="17">
         <v>543.64599999999996</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H80" s="17">
         <v>3271.4839999999999</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I80" s="17">
         <v>14774.019941999999</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J80" s="17">
         <v>11978.324500000001</v>
       </c>
     </row>
-    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="11">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="11">
         <v>2018</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="12">
         <f t="shared" si="4"/>
         <v>41232.318012000003</v>
       </c>
-      <c r="E80" s="13">
-        <v>0</v>
-      </c>
-      <c r="F80" s="13">
+      <c r="E81" s="13">
+        <v>0</v>
+      </c>
+      <c r="F81" s="13">
         <v>9028.4674500000001</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>556.69100000000003</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H81" s="13">
         <v>3183.5309999999999</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I81" s="13">
         <v>15699.443762000001</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J81" s="13">
         <v>12764.184800000001</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="15">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D82" s="16">
         <f t="shared" si="4"/>
         <v>39190.964049599999</v>
       </c>
-      <c r="E81" s="17">
-        <v>0</v>
-      </c>
-      <c r="F81" s="17">
+      <c r="E82" s="17">
+        <v>0</v>
+      </c>
+      <c r="F82" s="17">
         <v>9327.9771700000001</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G82" s="17">
         <v>646.58299999999997</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H82" s="17">
         <v>3104.5279999999998</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I82" s="17">
         <v>13338.916489599998</v>
       </c>
-      <c r="J81" s="17">
+      <c r="J82" s="17">
         <v>12772.95939</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="11">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <f t="shared" si="4"/>
         <v>37812.709869799997</v>
       </c>
-      <c r="E82" s="13">
-        <v>0</v>
-      </c>
-      <c r="F82" s="13">
+      <c r="E83" s="13">
+        <v>0</v>
+      </c>
+      <c r="F83" s="13">
         <v>8414.4507599999997</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>730.47900000000004</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H83" s="13">
         <v>3062.973</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>14063.5628698</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J83" s="13">
         <v>11541.24424</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="15">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D84" s="16">
         <f t="shared" si="4"/>
         <v>39965.855546999999</v>
       </c>
-      <c r="E83" s="17">
-        <v>0</v>
-      </c>
-      <c r="F83" s="17">
+      <c r="E84" s="17">
+        <v>0</v>
+      </c>
+      <c r="F84" s="17">
         <v>8683.6723199999997</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G84" s="17">
         <v>687.87199999999996</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H84" s="17">
         <v>2884.9024869999998</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I84" s="17">
         <v>14803.904460000002</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J84" s="17">
         <v>12905.504279999999</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="11">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <f t="shared" si="4"/>
         <v>41066.873502000002</v>
       </c>
-      <c r="E84" s="13">
-        <v>0</v>
-      </c>
-      <c r="F84" s="13">
+      <c r="E85" s="13">
+        <v>0</v>
+      </c>
+      <c r="F85" s="13">
         <v>8739.8234700000012</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="13">
         <v>775.90599999999995</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H85" s="13">
         <v>3132.7950000000001</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I85" s="13">
         <v>15348.913632</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J85" s="13">
         <v>13069.4354</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="15">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D86" s="16">
         <f t="shared" si="4"/>
         <v>39330.274949999999</v>
       </c>
-      <c r="E85" s="17">
-        <v>0</v>
-      </c>
-      <c r="F85" s="17">
+      <c r="E86" s="17">
+        <v>0</v>
+      </c>
+      <c r="F86" s="17">
         <v>8459.8314499999997</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G86" s="17">
         <v>741.85500000000002</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H86" s="17">
         <v>3243.9609999999998</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I86" s="17">
         <v>15389.468199999999</v>
       </c>
-      <c r="J85" s="17">
+      <c r="J86" s="17">
         <v>11495.159300000001</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="11">
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <f t="shared" si="4"/>
         <v>42190.912314999994</v>
       </c>
-      <c r="E86" s="13">
-        <v>0</v>
-      </c>
-      <c r="F86" s="13">
+      <c r="E87" s="13">
+        <v>0</v>
+      </c>
+      <c r="F87" s="13">
         <v>9138.4659200000006</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>763.33</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H87" s="13">
         <v>2695.9059999999999</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>17318.287694999999</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J87" s="13">
         <v>12274.922699999999</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="15">
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="16">
         <f t="shared" si="4"/>
         <v>42310.135434999997</v>
       </c>
-      <c r="E87" s="17">
-        <v>0</v>
-      </c>
-      <c r="F87" s="17">
+      <c r="E88" s="17">
+        <v>0</v>
+      </c>
+      <c r="F88" s="17">
         <v>9362.9394400000001</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G88" s="17">
         <v>388.47899999999998</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H88" s="17">
         <v>3041.660961</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I88" s="17">
         <v>15644.620234</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J88" s="17">
         <v>13872.435800000001</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="11">
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <f t="shared" si="4"/>
         <v>34826.467999300003</v>
       </c>
-      <c r="E88" s="13">
-        <v>0</v>
-      </c>
-      <c r="F88" s="13">
+      <c r="E89" s="13">
+        <v>0</v>
+      </c>
+      <c r="F89" s="13">
         <v>7302.8320700000004</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>356.733</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H89" s="13">
         <v>2616.0599083000002</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>13679.491221</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J89" s="13">
         <v>10871.3518</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="15">
+    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="15">
         <v>2018</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D90" s="16">
         <f t="shared" si="4"/>
         <v>34940.797042999999</v>
       </c>
-      <c r="E89" s="17">
-        <v>0</v>
-      </c>
-      <c r="F89" s="17">
+      <c r="E90" s="17">
+        <v>0</v>
+      </c>
+      <c r="F90" s="17">
         <v>7741.241140000001</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G90" s="17">
         <v>295.541</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H90" s="17">
         <v>2365.5157000000004</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I90" s="17">
         <v>14151.311802999999</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J90" s="17">
         <v>10387.187400000001</v>
       </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B90" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" s="26"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B93" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Carga_por_aerolinea_inter.xlsx
+++ b/Carga_por_aerolinea_inter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD49AD9-8FFA-4AD5-B17C-AE3442AF979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F0AE14-13E9-4923-827D-8759E198D9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_36" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="27">
   <si>
     <t>Total</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -282,33 +282,20 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -316,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -330,18 +317,6 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,14 +356,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -613,8 +592,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J90" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B5:J90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J91" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B5:J91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -862,13 +841,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:J93"/>
+  <dimension ref="B2:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.296875" style="3" customWidth="1"/>
@@ -883,2624 +862,2654 @@
     <col min="11" max="16384" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="28">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
         <v>2025</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(E6:J6)</f>
+        <v>32801.154213885173</v>
+      </c>
+      <c r="E6" s="9">
+        <v>728.84699999999998</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8878.0039399999987</v>
+      </c>
+      <c r="G6" s="9">
+        <v>59.85</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2255.4859999999999</v>
+      </c>
+      <c r="I6" s="9">
+        <v>8489.2731738851744</v>
+      </c>
+      <c r="J6" s="9">
+        <v>12389.694099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30">
-        <f>SUM(E6:J6)</f>
-        <v>32738.156787100001</v>
-      </c>
-      <c r="E6" s="31">
+      <c r="D7" s="16">
+        <f>SUM(E7:J7)</f>
+        <v>32738.156787040898</v>
+      </c>
+      <c r="E7" s="17">
         <v>547.80899999999997</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F7" s="17">
         <v>9255.4840800000002</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G7" s="17">
         <v>64.498999999999995</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H7" s="17">
         <v>2006.0550999999998</v>
       </c>
-      <c r="I6" s="31">
-        <v>8929.4855071000002</v>
-      </c>
-      <c r="J6" s="31">
+      <c r="I7" s="17">
+        <v>8929.485507040903</v>
+      </c>
+      <c r="J7" s="17">
         <v>11934.8241</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
         <v>2024</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="12">
-        <f>SUM(E7:J7)</f>
-        <v>36553.283453600001</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="D8" s="8">
+        <f>SUM(E8:J8)</f>
+        <v>36553.283453957527</v>
+      </c>
+      <c r="E8" s="9">
         <v>567.71299999999997</v>
       </c>
-      <c r="F7" s="13">
-        <v>11062.71538</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="F8" s="9">
+        <v>11062.715380000001</v>
+      </c>
+      <c r="G8" s="9">
         <v>83.263000000000005</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H8" s="9">
         <v>2193.5998599999998</v>
       </c>
-      <c r="I7" s="13">
-        <v>9052.3878136000003</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="I8" s="9">
+        <v>9052.3878139575227</v>
+      </c>
+      <c r="J8" s="9">
         <v>13593.6044</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="14">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="16">
-        <f>SUM(E8:J8)</f>
-        <v>38955.349190000001</v>
-      </c>
-      <c r="E8" s="17">
-        <v>476.91500000000002</v>
-      </c>
-      <c r="F8" s="17">
-        <v>11865.98335</v>
-      </c>
-      <c r="G8" s="17">
-        <v>118.56699999999999</v>
-      </c>
-      <c r="H8" s="17">
-        <v>2287.3870999999999</v>
-      </c>
-      <c r="I8" s="17">
-        <v>9767.1580399999984</v>
-      </c>
-      <c r="J8" s="17">
-        <v>14439.338699999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>2024</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12">
+        <f>SUM(E9:J9)</f>
+        <v>38955.349190032139</v>
+      </c>
+      <c r="E9" s="13">
+        <v>476.91500000000002</v>
+      </c>
+      <c r="F9" s="13">
+        <v>11865.983349999999</v>
+      </c>
+      <c r="G9" s="13">
+        <v>118.56699999999999</v>
+      </c>
+      <c r="H9" s="13">
+        <v>2287.3870999999999</v>
+      </c>
+      <c r="I9" s="13">
+        <v>9767.1580400321363</v>
+      </c>
+      <c r="J9" s="13">
+        <v>14439.3387</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="12">
-        <f t="shared" ref="D9" si="0">SUM(E9:J9)</f>
-        <v>40583.470432800001</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="D10" s="8">
+        <f t="shared" ref="D10" si="0">SUM(E10:J10)</f>
+        <v>40583.470433011738</v>
+      </c>
+      <c r="E10" s="9">
         <v>595.11500000000001</v>
       </c>
-      <c r="F9" s="13">
-        <v>11875.472706999999</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="F10" s="9">
+        <v>11875.472707000001</v>
+      </c>
+      <c r="G10" s="9">
         <v>108.72</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="9">
         <v>2518.88535</v>
       </c>
-      <c r="I9" s="13">
-        <v>10723.791075800002</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="I10" s="9">
+        <v>10723.791076011736</v>
+      </c>
+      <c r="J10" s="9">
         <v>14761.4863</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="14">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="16">
-        <f>SUM(E10:J10)</f>
-        <v>36709.209215400006</v>
-      </c>
-      <c r="E10" s="17">
-        <v>655.125</v>
-      </c>
-      <c r="F10" s="17">
-        <v>11496.193750000002</v>
-      </c>
-      <c r="G10" s="17">
-        <v>77.037000000000006</v>
-      </c>
-      <c r="H10" s="17">
-        <v>2604.8681999999999</v>
-      </c>
-      <c r="I10" s="17">
-        <v>9467.4052554000009</v>
-      </c>
-      <c r="J10" s="17">
-        <v>12408.58001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>2024</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="12">
+        <f>SUM(E11:J11)</f>
+        <v>36709.209215460316</v>
+      </c>
+      <c r="E11" s="13">
+        <v>655.125</v>
+      </c>
+      <c r="F11" s="13">
+        <v>11496.19375</v>
+      </c>
+      <c r="G11" s="13">
+        <v>77.037000000000006</v>
+      </c>
+      <c r="H11" s="13">
+        <v>2604.8681999999999</v>
+      </c>
+      <c r="I11" s="13">
+        <v>9467.4052554603149</v>
+      </c>
+      <c r="J11" s="13">
+        <v>12408.580010000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12">
-        <f t="shared" ref="D11:D45" si="1">SUM(E11:J11)</f>
-        <v>39433.388310299997</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="D12" s="8">
+        <f t="shared" ref="D12:D46" si="1">SUM(E12:J12)</f>
+        <v>39433.388310719492</v>
+      </c>
+      <c r="E12" s="9">
         <v>784.92399999999998</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="9">
         <v>12296.267870000001</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="9">
         <v>99.649000000000001</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="9">
         <v>2503.4024399999998</v>
       </c>
-      <c r="I11" s="13">
-        <v>9761.9496002999986</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="I12" s="9">
+        <v>9761.9496007194903</v>
+      </c>
+      <c r="J12" s="9">
         <v>13987.195400000001</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="14">
-        <v>2024</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" ref="D12:D14" si="2">SUM(E12:J12)</f>
-        <v>40801.963929400001</v>
-      </c>
-      <c r="E12" s="17">
-        <v>699.11900000000003</v>
-      </c>
-      <c r="F12" s="17">
-        <v>12543.787289999998</v>
-      </c>
-      <c r="G12" s="17">
-        <v>84.063999999999993</v>
-      </c>
-      <c r="H12" s="17">
-        <v>2098.4537700000001</v>
-      </c>
-      <c r="I12" s="17">
-        <v>11053.483869400001</v>
-      </c>
-      <c r="J12" s="17">
-        <v>14323.056</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>2024</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" ref="D13:D15" si="2">SUM(E13:J13)</f>
+        <v>40801.963929445177</v>
+      </c>
+      <c r="E13" s="13">
+        <v>699.11900000000003</v>
+      </c>
+      <c r="F13" s="13">
+        <v>12543.787289999998</v>
+      </c>
+      <c r="G13" s="13">
+        <v>84.063999999999993</v>
+      </c>
+      <c r="H13" s="13">
+        <v>2098.4537700000001</v>
+      </c>
+      <c r="I13" s="13">
+        <v>11053.483869445181</v>
+      </c>
+      <c r="J13" s="13">
+        <v>14323.056</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="8">
         <f t="shared" si="2"/>
-        <v>39620.932216600006</v>
-      </c>
-      <c r="E13" s="13">
+        <v>39620.93221658191</v>
+      </c>
+      <c r="E14" s="9">
         <v>519.66999999999996</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="9">
         <v>12641.439460000001</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="9">
         <v>77.063999999999993</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="9">
         <v>2216.25135</v>
       </c>
-      <c r="I13" s="13">
-        <v>9750.3944666000007</v>
-      </c>
-      <c r="J13" s="13">
+      <c r="I14" s="9">
+        <v>9750.3944665819108</v>
+      </c>
+      <c r="J14" s="9">
         <v>14416.112940000001</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="14">
-        <v>2024</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="16">
-        <f t="shared" si="2"/>
-        <v>41707.502720700002</v>
-      </c>
-      <c r="E14" s="17">
-        <v>666.51599999999996</v>
-      </c>
-      <c r="F14" s="17">
-        <v>12929.211710000001</v>
-      </c>
-      <c r="G14" s="17">
-        <v>67.73</v>
-      </c>
-      <c r="H14" s="17">
-        <v>2272.335</v>
-      </c>
-      <c r="I14" s="17">
-        <v>11736.1480207</v>
-      </c>
-      <c r="J14" s="17">
-        <v>14035.56199</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>2024</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="2"/>
+        <v>41707.502720706252</v>
+      </c>
+      <c r="E15" s="13">
+        <v>666.51599999999996</v>
+      </c>
+      <c r="F15" s="13">
+        <v>12929.211709999998</v>
+      </c>
+      <c r="G15" s="13">
+        <v>67.73</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2272.335</v>
+      </c>
+      <c r="I15" s="13">
+        <v>11736.148020706249</v>
+      </c>
+      <c r="J15" s="13">
+        <v>14035.561990000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="8">
         <f t="shared" si="1"/>
-        <v>41262.668572400005</v>
-      </c>
-      <c r="E15" s="13">
+        <v>41262.668572409835</v>
+      </c>
+      <c r="E16" s="9">
         <v>688.25300000000004</v>
       </c>
-      <c r="F15" s="13">
-        <v>12315.68958</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="F16" s="9">
+        <v>12315.689579999998</v>
+      </c>
+      <c r="G16" s="9">
         <v>41.54</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="9">
         <v>2009.3571000000002</v>
       </c>
-      <c r="I15" s="13">
-        <v>11684.1584924</v>
-      </c>
-      <c r="J15" s="13">
-        <v>14523.670400000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="14">
-        <v>2024</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="16">
-        <f t="shared" si="1"/>
-        <v>42983.103187400004</v>
-      </c>
-      <c r="E16" s="17">
-        <v>794.28</v>
-      </c>
-      <c r="F16" s="17">
-        <v>13886.640620000002</v>
-      </c>
-      <c r="G16" s="17">
-        <v>59.076999999999998</v>
-      </c>
-      <c r="H16" s="17">
-        <v>2339.2438500000003</v>
-      </c>
-      <c r="I16" s="17">
-        <v>10445.917705400001</v>
-      </c>
-      <c r="J16" s="17">
-        <v>15457.944012</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="I16" s="9">
+        <v>11684.158492409841</v>
+      </c>
+      <c r="J16" s="9">
+        <v>14523.670399999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>2024</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="1"/>
-        <v>40423.179039299997</v>
+        <v>42983.103187414818</v>
       </c>
       <c r="E17" s="13">
+        <v>794.28</v>
+      </c>
+      <c r="F17" s="13">
+        <v>13886.640619999998</v>
+      </c>
+      <c r="G17" s="13">
+        <v>59.076999999999998</v>
+      </c>
+      <c r="H17" s="13">
+        <v>2339.2438500000003</v>
+      </c>
+      <c r="I17" s="13">
+        <v>10445.91770541482</v>
+      </c>
+      <c r="J17" s="13">
+        <v>15457.944011999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="1"/>
+        <v>40423.179039296359</v>
+      </c>
+      <c r="E18" s="9">
         <v>664.82100000000003</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="9">
         <v>12004.929049999999</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="9">
         <v>45.631999999999998</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="9">
         <v>1860.7841100000001</v>
       </c>
-      <c r="I17" s="13">
-        <v>11883.265289299999</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="I18" s="9">
+        <v>11883.265289296362</v>
+      </c>
+      <c r="J18" s="9">
         <v>13963.747589999999</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B18" s="18">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="14">
         <v>2024</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D19" s="16">
         <f t="shared" si="1"/>
-        <v>41353.6868091</v>
-      </c>
-      <c r="E18" s="21">
+        <v>41353.686809090235</v>
+      </c>
+      <c r="E19" s="17">
         <v>680.31799999999998</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F19" s="17">
         <v>12601.32713</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G19" s="17">
         <v>44.356000000000002</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H19" s="17">
         <v>1755.9950999999999</v>
       </c>
-      <c r="I18" s="21">
-        <v>12111.205109099999</v>
-      </c>
-      <c r="J18" s="21">
-        <v>14160.48547</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="22">
+      <c r="I19" s="17">
+        <v>12111.205109090239</v>
+      </c>
+      <c r="J19" s="17">
+        <v>14160.485470000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18">
         <v>2023</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D20" s="20">
         <f t="shared" si="1"/>
-        <v>41305.9751617</v>
-      </c>
-      <c r="E19" s="25">
+        <v>41305.975162030925</v>
+      </c>
+      <c r="E20" s="21">
         <v>772.82399999999996</v>
       </c>
-      <c r="F19" s="13">
-        <v>13837.61614</v>
-      </c>
-      <c r="G19" s="25">
+      <c r="F20" s="9">
+        <v>13837.616139999998</v>
+      </c>
+      <c r="G20" s="21">
         <v>74.738</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H20" s="21">
         <v>2170.9023299999999</v>
       </c>
-      <c r="I19" s="25">
-        <v>9069.6951917000006</v>
-      </c>
-      <c r="J19" s="25">
+      <c r="I20" s="21">
+        <v>9069.6951920309275</v>
+      </c>
+      <c r="J20" s="21">
         <v>15380.199500000001</v>
       </c>
     </row>
-    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="16">
-        <f t="shared" si="1"/>
-        <v>40392.089828199998</v>
-      </c>
-      <c r="E20" s="17">
-        <v>779.80799999999999</v>
-      </c>
-      <c r="F20" s="17">
-        <v>11039.539530000002</v>
-      </c>
-      <c r="G20" s="17">
-        <v>95.251000000000005</v>
-      </c>
-      <c r="H20" s="17">
-        <v>2158.6788999999999</v>
-      </c>
-      <c r="I20" s="17">
-        <v>9817.7052921999984</v>
-      </c>
-      <c r="J20" s="17">
-        <v>16501.107105999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>2023</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="1"/>
-        <v>44801.968924000001</v>
+        <v>40392.089828230179</v>
       </c>
       <c r="E21" s="13">
+        <v>779.80799999999999</v>
+      </c>
+      <c r="F21" s="13">
+        <v>11039.539529999998</v>
+      </c>
+      <c r="G21" s="13">
+        <v>95.251000000000005</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2158.6788999999999</v>
+      </c>
+      <c r="I21" s="13">
+        <v>9817.7052922301791</v>
+      </c>
+      <c r="J21" s="13">
+        <v>16501.107106000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="1"/>
+        <v>44801.968924327317</v>
+      </c>
+      <c r="E22" s="9">
         <v>778.178</v>
       </c>
-      <c r="F21" s="13">
-        <v>10705.033520000001</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="F22" s="9">
+        <v>10705.033519999999</v>
+      </c>
+      <c r="G22" s="9">
         <v>62.91</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="9">
         <v>2322.5757999999996</v>
       </c>
-      <c r="I21" s="13">
-        <v>11604.903104000001</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="I22" s="9">
+        <v>11604.903104327317</v>
+      </c>
+      <c r="J22" s="9">
         <v>19328.3685</v>
       </c>
     </row>
-    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="16">
-        <f t="shared" si="1"/>
-        <v>37081.792656999998</v>
-      </c>
-      <c r="E22" s="17">
-        <v>622.02300000000002</v>
-      </c>
-      <c r="F22" s="17">
-        <v>9376.2873299999992</v>
-      </c>
-      <c r="G22" s="17">
-        <v>85.058000000000007</v>
-      </c>
-      <c r="H22" s="17">
-        <v>2340.9119999999998</v>
-      </c>
-      <c r="I22" s="17">
-        <v>9719.7349270000013</v>
-      </c>
-      <c r="J22" s="17">
-        <v>14937.777400000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <v>2023</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D23" s="12">
         <f t="shared" si="1"/>
-        <v>40017.679605799996</v>
+        <v>37081.792657201382</v>
       </c>
       <c r="E23" s="13">
+        <v>622.02300000000002</v>
+      </c>
+      <c r="F23" s="13">
+        <v>9376.2873299999992</v>
+      </c>
+      <c r="G23" s="13">
+        <v>85.058000000000007</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2340.9119999999998</v>
+      </c>
+      <c r="I23" s="13">
+        <v>9719.7349272013871</v>
+      </c>
+      <c r="J23" s="13">
+        <v>14937.777399999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="1"/>
+        <v>40017.679605821257</v>
+      </c>
+      <c r="E24" s="9">
         <v>757.96799999999996</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="9">
         <v>10215.824409999999</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="9">
         <v>52.222000000000001</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="9">
         <v>2329.6565299999997</v>
       </c>
-      <c r="I23" s="13">
-        <v>10678.306165799999</v>
-      </c>
-      <c r="J23" s="13">
+      <c r="I24" s="9">
+        <v>10678.306165821259</v>
+      </c>
+      <c r="J24" s="9">
         <v>15983.702499999999</v>
       </c>
     </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="1"/>
-        <v>40319.464599799998</v>
-      </c>
-      <c r="E24" s="17">
-        <v>788.85</v>
-      </c>
-      <c r="F24" s="17">
-        <v>10358.445689999999</v>
-      </c>
-      <c r="G24" s="17">
-        <v>48.895000000000003</v>
-      </c>
-      <c r="H24" s="17">
-        <v>2259.8667999999998</v>
-      </c>
-      <c r="I24" s="17">
-        <v>10176.835459800001</v>
-      </c>
-      <c r="J24" s="17">
-        <v>16686.571649999998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10">
         <v>2023</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="1"/>
-        <v>40587.1373762</v>
+        <v>40319.464599793209</v>
       </c>
       <c r="E25" s="13">
+        <v>788.85</v>
+      </c>
+      <c r="F25" s="13">
+        <v>10358.44569</v>
+      </c>
+      <c r="G25" s="13">
+        <v>48.895000000000003</v>
+      </c>
+      <c r="H25" s="13">
+        <v>2259.8667999999998</v>
+      </c>
+      <c r="I25" s="13">
+        <v>10176.83545979321</v>
+      </c>
+      <c r="J25" s="13">
+        <v>16686.571650000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="1"/>
+        <v>40587.137376239552</v>
+      </c>
+      <c r="E26" s="9">
         <v>645.45299999999997</v>
       </c>
-      <c r="F25" s="13">
-        <v>10949.239149999998</v>
-      </c>
-      <c r="G25" s="13">
+      <c r="F26" s="9">
+        <v>10949.239150000001</v>
+      </c>
+      <c r="G26" s="9">
         <v>36.125</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="9">
         <v>2276.2485000000001</v>
       </c>
-      <c r="I25" s="13">
-        <v>10352.348026199999</v>
-      </c>
-      <c r="J25" s="13">
+      <c r="I26" s="9">
+        <v>10352.348026239559</v>
+      </c>
+      <c r="J26" s="9">
         <v>16327.723699999999</v>
       </c>
     </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="16">
-        <f t="shared" si="1"/>
-        <v>38973.9993865</v>
-      </c>
-      <c r="E26" s="17">
-        <v>640.97299999999996</v>
-      </c>
-      <c r="F26" s="17">
-        <v>10514.624800000001</v>
-      </c>
-      <c r="G26" s="17">
-        <v>48.081000000000003</v>
-      </c>
-      <c r="H26" s="17">
-        <v>2950.8580000000002</v>
-      </c>
-      <c r="I26" s="17">
-        <v>10310.050886499999</v>
-      </c>
-      <c r="J26" s="17">
-        <v>14509.411699999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>2023</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="1"/>
-        <v>36860.751413800004</v>
+        <v>38973.999386463627</v>
       </c>
       <c r="E27" s="13">
+        <v>640.97299999999996</v>
+      </c>
+      <c r="F27" s="13">
+        <v>10514.624799999998</v>
+      </c>
+      <c r="G27" s="13">
+        <v>48.081000000000003</v>
+      </c>
+      <c r="H27" s="13">
+        <v>2950.8580000000002</v>
+      </c>
+      <c r="I27" s="13">
+        <v>10310.05088646363</v>
+      </c>
+      <c r="J27" s="13">
+        <v>14509.411699999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="1"/>
+        <v>36860.751413830367</v>
+      </c>
+      <c r="E28" s="9">
         <v>640.28800000000001</v>
       </c>
-      <c r="F27" s="13">
-        <v>10179.089970000001</v>
-      </c>
-      <c r="G27" s="13">
+      <c r="F28" s="9">
+        <v>10179.089970000003</v>
+      </c>
+      <c r="G28" s="9">
         <v>36.615000000000002</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="9">
         <v>2873.6055999999999</v>
       </c>
-      <c r="I27" s="13">
-        <v>9745.8580438000008</v>
-      </c>
-      <c r="J27" s="13">
-        <v>13385.294800000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="16">
-        <f t="shared" si="1"/>
-        <v>40964.524065800004</v>
-      </c>
-      <c r="E28" s="17">
-        <v>786.44299999999998</v>
-      </c>
-      <c r="F28" s="17">
-        <v>10964.67835</v>
-      </c>
-      <c r="G28" s="17">
-        <v>29.545999999999999</v>
-      </c>
-      <c r="H28" s="17">
-        <v>2982.933</v>
-      </c>
-      <c r="I28" s="17">
-        <v>11630.4319158</v>
-      </c>
-      <c r="J28" s="17">
-        <v>14570.491800000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="I28" s="9">
+        <v>9745.8580438303616</v>
+      </c>
+      <c r="J28" s="9">
+        <v>13385.2948</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="10">
         <v>2023</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="1"/>
-        <v>34787.3181482</v>
+        <v>40964.52406578567</v>
       </c>
       <c r="E29" s="13">
+        <v>786.44299999999998</v>
+      </c>
+      <c r="F29" s="13">
+        <v>10964.678350000002</v>
+      </c>
+      <c r="G29" s="13">
+        <v>29.545999999999999</v>
+      </c>
+      <c r="H29" s="13">
+        <v>2982.933</v>
+      </c>
+      <c r="I29" s="13">
+        <v>11630.43191578567</v>
+      </c>
+      <c r="J29" s="13">
+        <v>14570.491800000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="1"/>
+        <v>34787.318148179547</v>
+      </c>
+      <c r="E30" s="9">
         <v>578.94399999999996</v>
       </c>
-      <c r="F29" s="13">
-        <v>8934.8815099999993</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="F30" s="9">
+        <v>8934.8815099999974</v>
+      </c>
+      <c r="G30" s="9">
         <v>75.331999999999994</v>
       </c>
-      <c r="H29" s="13">
-        <v>2327.94515</v>
-      </c>
-      <c r="I29" s="13">
-        <v>10297.7028882</v>
-      </c>
-      <c r="J29" s="13">
+      <c r="H30" s="9">
+        <v>2327.9451500000005</v>
+      </c>
+      <c r="I30" s="9">
+        <v>10297.70288817955</v>
+      </c>
+      <c r="J30" s="9">
         <v>12572.5126</v>
       </c>
     </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="18">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="14">
         <v>2023</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D31" s="16">
         <f t="shared" si="1"/>
-        <v>34339.076626599999</v>
-      </c>
-      <c r="E30" s="21">
+        <v>34339.076626616064</v>
+      </c>
+      <c r="E31" s="17">
         <v>536.072</v>
       </c>
-      <c r="F30" s="21">
-        <v>8186.4879099999998</v>
-      </c>
-      <c r="G30" s="21">
+      <c r="F31" s="17">
+        <v>8186.4879100000007</v>
+      </c>
+      <c r="G31" s="17">
         <v>36.253</v>
       </c>
-      <c r="H30" s="21">
-        <v>2646.04016</v>
-      </c>
-      <c r="I30" s="21">
-        <v>10631.4606566</v>
-      </c>
-      <c r="J30" s="21">
-        <v>12302.7629</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="22">
+      <c r="H31" s="17">
+        <v>2646.0401599999996</v>
+      </c>
+      <c r="I31" s="17">
+        <v>10631.460656616069</v>
+      </c>
+      <c r="J31" s="17">
+        <v>12302.762899999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="18">
         <v>2022</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D32" s="20">
         <f t="shared" si="1"/>
-        <v>38746.066610000002</v>
-      </c>
-      <c r="E31" s="25">
+        <v>38746.066609950823</v>
+      </c>
+      <c r="E32" s="21">
         <v>378.79500000000002</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F32" s="21">
         <v>9252.3727799999997</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G32" s="21">
         <v>106.069</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H32" s="21">
         <v>2824.3177999999998</v>
       </c>
-      <c r="I31" s="25">
-        <v>11614.168230000001</v>
-      </c>
-      <c r="J31" s="25">
+      <c r="I32" s="21">
+        <v>11614.168229950819</v>
+      </c>
+      <c r="J32" s="21">
         <v>14570.343800000001</v>
       </c>
     </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="16">
-        <f t="shared" si="1"/>
-        <v>38505.180007499999</v>
-      </c>
-      <c r="E32" s="17">
-        <v>516.43899999999996</v>
-      </c>
-      <c r="F32" s="17">
-        <v>9489.5803000000014</v>
-      </c>
-      <c r="G32" s="17">
-        <v>75.007999999999996</v>
-      </c>
-      <c r="H32" s="17">
-        <v>2658.9839999999999</v>
-      </c>
-      <c r="I32" s="17">
-        <v>11148.7151075</v>
-      </c>
-      <c r="J32" s="17">
-        <v>14616.453599999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10">
         <v>2022</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="12">
         <f t="shared" si="1"/>
-        <v>41053.772325500002</v>
+        <v>38505.180007486138</v>
       </c>
       <c r="E33" s="13">
+        <v>516.43899999999996</v>
+      </c>
+      <c r="F33" s="13">
+        <v>9489.5803000000014</v>
+      </c>
+      <c r="G33" s="13">
+        <v>75.007999999999996</v>
+      </c>
+      <c r="H33" s="13">
+        <v>2658.9839999999999</v>
+      </c>
+      <c r="I33" s="13">
+        <v>11148.715107486139</v>
+      </c>
+      <c r="J33" s="13">
+        <v>14616.453599999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="1"/>
+        <v>41053.772325471538</v>
+      </c>
+      <c r="E34" s="9">
         <v>741.95500000000004</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="9">
         <v>9730.2727100000011</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="9">
         <v>97.396000000000001</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="9">
         <v>2904.4928999999997</v>
       </c>
-      <c r="I33" s="13">
-        <v>11820.6849155</v>
-      </c>
-      <c r="J33" s="13">
+      <c r="I34" s="9">
+        <v>11820.684915471538</v>
+      </c>
+      <c r="J34" s="9">
         <v>15758.970800000001</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="16">
-        <f t="shared" si="1"/>
-        <v>37277.511123060001</v>
-      </c>
-      <c r="E34" s="17">
-        <v>663.58500000000004</v>
-      </c>
-      <c r="F34" s="17">
-        <v>8746.3328199999996</v>
-      </c>
-      <c r="G34" s="17">
-        <v>20.056000000000001</v>
-      </c>
-      <c r="H34" s="17">
-        <v>3093.55527936</v>
-      </c>
-      <c r="I34" s="17">
-        <v>11160.508123699999</v>
-      </c>
-      <c r="J34" s="17">
-        <v>13593.473900000001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>2022</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D35" s="12">
         <f t="shared" si="1"/>
-        <v>39368.723200799999</v>
+        <v>37277.511123095581</v>
       </c>
       <c r="E35" s="13">
+        <v>663.58500000000004</v>
+      </c>
+      <c r="F35" s="13">
+        <v>8746.3328199999996</v>
+      </c>
+      <c r="G35" s="13">
+        <v>20.056000000000001</v>
+      </c>
+      <c r="H35" s="13">
+        <v>3093.5552793645161</v>
+      </c>
+      <c r="I35" s="13">
+        <v>11160.508123731061</v>
+      </c>
+      <c r="J35" s="13">
+        <v>13593.473900000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="1"/>
+        <v>39368.723200849388</v>
+      </c>
+      <c r="E36" s="9">
         <v>591.01800000000003</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="9">
         <v>8719.4067500000001</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="9">
         <v>25.675000000000001</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="9">
         <v>3267.5057999999999</v>
       </c>
-      <c r="I35" s="13">
-        <v>12298.3654508</v>
-      </c>
-      <c r="J35" s="13">
+      <c r="I36" s="9">
+        <v>12298.365450849389</v>
+      </c>
+      <c r="J36" s="9">
         <v>14466.752199999999</v>
       </c>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="16">
-        <f t="shared" si="1"/>
-        <v>40438.258232399996</v>
-      </c>
-      <c r="E36" s="17">
-        <v>530.70500000000004</v>
-      </c>
-      <c r="F36" s="17">
-        <v>9093.8344099999995</v>
-      </c>
-      <c r="G36" s="17">
-        <v>34.826000000000001</v>
-      </c>
-      <c r="H36" s="17">
-        <v>3252.6017000000002</v>
-      </c>
-      <c r="I36" s="17">
-        <v>11449.207622400001</v>
-      </c>
-      <c r="J36" s="17">
-        <v>16077.083500000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="10">
         <v>2022</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="12">
         <f t="shared" si="1"/>
-        <v>40705.379663200001</v>
+        <v>40438.258232407403</v>
       </c>
       <c r="E37" s="13">
+        <v>530.70500000000004</v>
+      </c>
+      <c r="F37" s="13">
+        <v>9093.8344099999977</v>
+      </c>
+      <c r="G37" s="13">
+        <v>34.826000000000001</v>
+      </c>
+      <c r="H37" s="13">
+        <v>3252.6017000000002</v>
+      </c>
+      <c r="I37" s="13">
+        <v>11449.207622407401</v>
+      </c>
+      <c r="J37" s="13">
+        <v>16077.083500000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="1"/>
+        <v>40705.379663201522</v>
+      </c>
+      <c r="E38" s="9">
         <v>512.66099999999994</v>
       </c>
-      <c r="F37" s="13">
-        <v>8969.2943100000011</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="F38" s="9">
+        <v>8969.2943099999993</v>
+      </c>
+      <c r="G38" s="9">
         <v>26.021000000000001</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="9">
         <v>3225.5032000000001</v>
       </c>
-      <c r="I37" s="13">
-        <v>12235.6416532</v>
-      </c>
-      <c r="J37" s="13">
+      <c r="I38" s="9">
+        <v>12235.641653201521</v>
+      </c>
+      <c r="J38" s="9">
         <v>15736.2585</v>
       </c>
     </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="16">
-        <f t="shared" si="1"/>
-        <v>38385.635270600003</v>
-      </c>
-      <c r="E38" s="17">
-        <v>646.77499999999998</v>
-      </c>
-      <c r="F38" s="17">
-        <v>5887.1319999999996</v>
-      </c>
-      <c r="G38" s="17">
-        <v>121.18</v>
-      </c>
-      <c r="H38" s="17">
-        <v>3119.6742000000004</v>
-      </c>
-      <c r="I38" s="17">
-        <v>12724.7170706</v>
-      </c>
-      <c r="J38" s="17">
-        <v>15886.156999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
         <v>2022</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="12">
         <f t="shared" si="1"/>
-        <v>37880.648666100002</v>
+        <v>38385.635270624982</v>
       </c>
       <c r="E39" s="13">
+        <v>646.77499999999998</v>
+      </c>
+      <c r="F39" s="13">
+        <v>5887.1319999999996</v>
+      </c>
+      <c r="G39" s="13">
+        <v>121.18</v>
+      </c>
+      <c r="H39" s="13">
+        <v>3119.6742000000004</v>
+      </c>
+      <c r="I39" s="13">
+        <v>12724.717070624982</v>
+      </c>
+      <c r="J39" s="13">
+        <v>15886.156999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="1"/>
+        <v>37880.648666149609</v>
+      </c>
+      <c r="E40" s="9">
         <v>658.78499999999997</v>
       </c>
-      <c r="F39" s="13">
-        <v>5153.4015099999997</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="F40" s="9">
+        <v>5153.4015100000006</v>
+      </c>
+      <c r="G40" s="9">
         <v>198.077</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="9">
         <v>2884.4317999999998</v>
       </c>
-      <c r="I39" s="13">
-        <v>13095.553956100001</v>
-      </c>
-      <c r="J39" s="13">
+      <c r="I40" s="9">
+        <v>13095.55395614961</v>
+      </c>
+      <c r="J40" s="9">
         <v>15890.3994</v>
       </c>
     </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="14">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="12">
         <f t="shared" si="1"/>
         <v>39804.246607199995</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="13">
         <v>701.476</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="13">
         <v>5848.9565830000001</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G41" s="13">
         <v>68.724999999999994</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H41" s="13">
         <v>3277.5267000000003</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I41" s="13">
         <v>13626.1151242</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J41" s="13">
         <v>16281.447199999999</v>
       </c>
     </row>
-    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="10">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="6">
         <v>2022</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D42" s="8">
         <f t="shared" si="1"/>
         <v>35391.386208299999</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="9">
         <v>638.51099999999997</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="9">
         <v>5672.3767400000006</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="9">
         <v>17.033999999999999</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="9">
         <v>2882.4872999999998</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I42" s="9">
         <v>10909.8495683</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J42" s="9">
         <v>15271.1276</v>
       </c>
     </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="18">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="14">
         <v>2022</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C43" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D43" s="16">
         <f t="shared" si="1"/>
         <v>32469.8484493</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E43" s="17">
         <v>482.12099999999998</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F43" s="17">
         <v>6245.38976</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G43" s="17">
         <v>259.46800000000002</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H43" s="17">
         <v>2435.1074600000002</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I43" s="17">
         <v>9916.5125293000001</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J43" s="17">
         <v>13131.249699999998</v>
       </c>
     </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="22">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="18">
         <v>2021</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C44" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D44" s="20">
         <f t="shared" si="1"/>
         <v>39492.366382700005</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E44" s="21">
         <v>458.77499999999998</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F44" s="21">
         <v>10098.12268</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G44" s="21">
         <v>133.10599999999999</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H44" s="21">
         <v>3136.06873</v>
       </c>
-      <c r="I43" s="25">
+      <c r="I44" s="21">
         <v>12005.7867427</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J44" s="21">
         <v>13660.507230000001</v>
       </c>
     </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="14">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="12">
         <f t="shared" si="1"/>
         <v>40331.827408900004</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="13">
         <v>490.10599999999999</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="13">
         <v>10062.285780000002</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G45" s="13">
         <v>336.76799999999997</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H45" s="13">
         <v>3288.1294800000001</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I45" s="13">
         <v>12280.809678899999</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J45" s="13">
         <v>13873.728469999998</v>
       </c>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="10">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="6">
         <v>2021</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D46" s="8">
         <f t="shared" si="1"/>
         <v>41580.666843700004</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="9">
         <v>586.94299999999998</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="9">
         <v>10735.457050000001</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="9">
         <v>619.62599999999998</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="9">
         <v>2722.0764900000004</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I46" s="9">
         <v>11237.549403700001</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J46" s="9">
         <v>15679.0149</v>
       </c>
     </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="14">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="16">
-        <f t="shared" ref="D46:D77" si="3">SUM(E46:J46)</f>
-        <v>38165.8196035</v>
-      </c>
-      <c r="E46" s="17">
-        <v>696.17100000000005</v>
-      </c>
-      <c r="F46" s="17">
-        <v>10134.700359999999</v>
-      </c>
-      <c r="G46" s="17">
-        <v>487.45499999999998</v>
-      </c>
-      <c r="H46" s="17">
-        <v>2548.2033000000001</v>
-      </c>
-      <c r="I46" s="17">
-        <v>11597.826043499999</v>
-      </c>
-      <c r="J46" s="17">
-        <v>12701.463900000001</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="10">
         <v>2021</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" ref="D47:D78" si="3">SUM(E47:J47)</f>
+        <v>38165.8196035</v>
+      </c>
+      <c r="E47" s="13">
+        <v>696.17100000000005</v>
+      </c>
+      <c r="F47" s="13">
+        <v>10134.700359999999</v>
+      </c>
+      <c r="G47" s="13">
+        <v>487.45499999999998</v>
+      </c>
+      <c r="H47" s="13">
+        <v>2548.2033000000001</v>
+      </c>
+      <c r="I47" s="13">
+        <v>11597.826043499999</v>
+      </c>
+      <c r="J47" s="13">
+        <v>12701.463900000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="8">
         <f t="shared" si="3"/>
         <v>37424.307471799999</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="9">
         <v>396.84</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="9">
         <v>9954.2116800000003</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="9">
         <v>550.08500000000004</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H48" s="9">
         <v>2444.3667</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I48" s="9">
         <v>11310.234991799998</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J48" s="9">
         <v>12768.569099999999</v>
       </c>
     </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="14">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="12">
         <f t="shared" si="3"/>
         <v>39029.204718000001</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="13">
         <v>501.01900000000001</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="13">
         <v>10968.570522</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G49" s="13">
         <v>546.27499999999998</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H49" s="13">
         <v>2313.2728999999999</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I49" s="13">
         <v>11426.955696000001</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J49" s="13">
         <v>13273.1116</v>
       </c>
     </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="10">
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="6">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="8">
         <f t="shared" si="3"/>
         <v>37745.558432400001</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="9">
         <v>463.83300000000003</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="9">
         <v>10031.152749999999</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="9">
         <v>463.92500000000001</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="9">
         <v>1743.7754</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I50" s="9">
         <v>11018.1134824</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J50" s="9">
         <v>14024.758800000001</v>
       </c>
     </row>
-    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="14">
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D51" s="12">
         <f t="shared" si="3"/>
         <v>38457.492379999996</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="13">
         <v>554.96</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="13">
         <v>9638.9807799999999</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G51" s="13">
         <v>289.39</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H51" s="13">
         <v>1666.4480000000001</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I51" s="13">
         <v>11157.246999999999</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J51" s="13">
         <v>15150.4666</v>
       </c>
     </row>
-    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="10">
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="6">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="8">
         <f t="shared" si="3"/>
         <v>37112.560168100004</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="9">
         <v>590.50099999999998</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="9">
         <v>9277.434830000002</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="9">
         <v>331.7</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="9">
         <v>1472.3352</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I52" s="9">
         <v>11167.4790381</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J52" s="9">
         <v>14273.1101</v>
       </c>
     </row>
-    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="14">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="12">
         <f t="shared" si="3"/>
         <v>41269.452216999998</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="13">
         <v>386.11599999999999</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="13">
         <v>10042.040590000001</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G53" s="13">
         <v>536.54600000000005</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H53" s="13">
         <v>1531.1469999999999</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I53" s="13">
         <v>13111.292127000001</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J53" s="13">
         <v>15662.3105</v>
       </c>
     </row>
-    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="10">
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="6">
         <v>2021</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D54" s="8">
         <f t="shared" si="3"/>
         <v>34648.807876000006</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="9">
         <v>219.61199999999999</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="9">
         <v>8953.9622800000016</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="9">
         <v>228.47900000000001</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="9">
         <v>1342.146</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I54" s="9">
         <v>9816.7840960000012</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J54" s="9">
         <v>14087.824500000001</v>
       </c>
     </row>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="18">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="14">
         <v>2021</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C55" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D55" s="16">
         <f t="shared" si="3"/>
         <v>36982.816146000005</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E55" s="17">
         <v>129.93199999999999</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F55" s="17">
         <v>10106.45505</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G55" s="17">
         <v>156.72999999999999</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H55" s="17">
         <v>1370.9369999999999</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I55" s="17">
         <v>11214.778596</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J55" s="17">
         <v>14003.9835</v>
       </c>
     </row>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="22">
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="18">
         <v>2020</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C56" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D56" s="20">
         <f t="shared" si="3"/>
         <v>36967.920087999999</v>
       </c>
-      <c r="E55" s="25">
-        <v>0</v>
-      </c>
-      <c r="F55" s="25">
+      <c r="E56" s="21">
+        <v>0</v>
+      </c>
+      <c r="F56" s="21">
         <v>10567.67765</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G56" s="21">
         <v>247.25800000000001</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H56" s="21">
         <v>1325.12</v>
       </c>
-      <c r="I55" s="25">
+      <c r="I56" s="21">
         <v>11836.856238</v>
       </c>
-      <c r="J55" s="25">
+      <c r="J56" s="21">
         <v>12991.008199999998</v>
       </c>
     </row>
-    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="14">
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="12">
         <f t="shared" si="3"/>
         <v>36852.864462999998</v>
       </c>
-      <c r="E56" s="17">
-        <v>0</v>
-      </c>
-      <c r="F56" s="17">
+      <c r="E57" s="13">
+        <v>0</v>
+      </c>
+      <c r="F57" s="13">
         <v>10376.03788</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G57" s="13">
         <v>137.81200000000001</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H57" s="13">
         <v>1566.683</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I57" s="13">
         <v>11120.986982999999</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J57" s="13">
         <v>13651.3446</v>
       </c>
     </row>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10">
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="6">
         <v>2020</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D58" s="8">
         <f t="shared" si="3"/>
         <v>37111.751327400001</v>
       </c>
-      <c r="E57" s="13">
-        <v>0</v>
-      </c>
-      <c r="F57" s="13">
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="9">
         <v>10139.1556</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="9">
         <v>42.646000000000001</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="9">
         <v>1292.682</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I58" s="9">
         <v>10863.6815274</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J58" s="9">
         <v>14773.5862</v>
       </c>
     </row>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="14">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D59" s="12">
         <f t="shared" si="3"/>
         <v>31289.118952199999</v>
       </c>
-      <c r="E58" s="17">
-        <v>0</v>
-      </c>
-      <c r="F58" s="17">
+      <c r="E59" s="13">
+        <v>0</v>
+      </c>
+      <c r="F59" s="13">
         <v>8729.1361899999993</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G59" s="13">
         <v>35.866999999999997</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H59" s="13">
         <v>987.66099999999994</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I59" s="13">
         <v>9399.9986922000007</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J59" s="13">
         <v>12136.45607</v>
       </c>
     </row>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="10">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="6">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="8">
         <f t="shared" si="3"/>
         <v>28794.378688499997</v>
       </c>
-      <c r="E59" s="13">
-        <v>0</v>
-      </c>
-      <c r="F59" s="13">
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
+      <c r="F60" s="9">
         <v>8471.0650299999998</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="9">
         <v>42.926000000000002</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H60" s="9">
         <v>1074.0519999999999</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I60" s="9">
         <v>8606.7041585000006</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J60" s="9">
         <v>10599.6315</v>
       </c>
     </row>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="14">
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="12">
         <f t="shared" si="3"/>
         <v>27431.279484500003</v>
       </c>
-      <c r="E60" s="17">
-        <v>0</v>
-      </c>
-      <c r="F60" s="17">
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
         <v>8226.0579799999996</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G61" s="13">
         <v>36.588000000000001</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H61" s="13">
         <v>1040.3589999999999</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I61" s="13">
         <v>8177.4266045000004</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J61" s="13">
         <v>9950.8479000000007</v>
       </c>
     </row>
-    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10">
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="6">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="8">
         <f t="shared" si="3"/>
         <v>25926.471812200001</v>
       </c>
-      <c r="E61" s="13">
-        <v>0</v>
-      </c>
-      <c r="F61" s="13">
+      <c r="E62" s="9">
+        <v>0</v>
+      </c>
+      <c r="F62" s="9">
         <v>7134.2837199999994</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="9">
         <v>63.805</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="9">
         <v>855.82899999999995</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I62" s="9">
         <v>7779.0341922000007</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J62" s="9">
         <v>10093.519900000001</v>
       </c>
     </row>
-    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="14">
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D63" s="12">
         <f t="shared" si="3"/>
         <v>23168.212673900001</v>
       </c>
-      <c r="E62" s="17">
-        <v>0</v>
-      </c>
-      <c r="F62" s="17">
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
         <v>6023.6581899999992</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G63" s="13">
         <v>187.08600000000001</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H63" s="13">
         <v>832.03399999999999</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I63" s="13">
         <v>7072.7845839000001</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J63" s="13">
         <v>9052.6499000000003</v>
       </c>
     </row>
-    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="10">
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="6">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="8">
         <f t="shared" si="3"/>
         <v>20427.959275100002</v>
       </c>
-      <c r="E63" s="13">
-        <v>0</v>
-      </c>
-      <c r="F63" s="13">
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="9">
         <v>5209.0807000000004</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="9">
         <v>24.07</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="9">
         <v>739.351</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I64" s="9">
         <v>6596.5606751000005</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J64" s="9">
         <v>7858.8969000000006</v>
       </c>
     </row>
-    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="14">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="12">
         <f t="shared" si="3"/>
         <v>33140.735087100002</v>
       </c>
-      <c r="E64" s="17">
-        <v>0</v>
-      </c>
-      <c r="F64" s="17">
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13">
         <v>8644.8665579999997</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G65" s="13">
         <v>50.677999999999997</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H65" s="13">
         <v>2214.377</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I65" s="13">
         <v>10403.6180291</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J65" s="13">
         <v>11827.1955</v>
       </c>
     </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="10">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="6">
         <v>2020</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D66" s="8">
         <f t="shared" si="3"/>
         <v>31595.295708999998</v>
       </c>
-      <c r="E65" s="13">
-        <v>0</v>
-      </c>
-      <c r="F65" s="13">
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9">
         <v>8503.3772899999985</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="9">
         <v>71.156000000000006</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H66" s="9">
         <v>2496.2399999999998</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I66" s="9">
         <v>9914.0471189999989</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J66" s="9">
         <v>10610.4753</v>
       </c>
     </row>
-    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="18">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="14">
         <v>2020</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C67" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D67" s="16">
         <f t="shared" si="3"/>
         <v>31902.586373000002</v>
       </c>
-      <c r="E66" s="21">
-        <v>0</v>
-      </c>
-      <c r="F66" s="21">
+      <c r="E67" s="17">
+        <v>0</v>
+      </c>
+      <c r="F67" s="17">
         <v>8365.6301700000004</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G67" s="17">
         <v>80.352000000000004</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H67" s="17">
         <v>2759.7359999999999</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I67" s="17">
         <v>11337.052103</v>
       </c>
-      <c r="J66" s="21">
+      <c r="J67" s="17">
         <v>9359.8161</v>
       </c>
     </row>
-    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="22">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="18">
         <v>2019</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C68" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D68" s="20">
         <f t="shared" si="3"/>
         <v>34834.055678999997</v>
       </c>
-      <c r="E67" s="25">
-        <v>0</v>
-      </c>
-      <c r="F67" s="25">
+      <c r="E68" s="21">
+        <v>0</v>
+      </c>
+      <c r="F68" s="21">
         <v>9580.7296500000011</v>
       </c>
-      <c r="G67" s="25">
-        <v>0</v>
-      </c>
-      <c r="H67" s="25">
+      <c r="G68" s="21">
+        <v>0</v>
+      </c>
+      <c r="H68" s="21">
         <v>2707.5740000000001</v>
       </c>
-      <c r="I67" s="25">
+      <c r="I68" s="21">
         <v>11491.813929</v>
       </c>
-      <c r="J67" s="25">
+      <c r="J68" s="21">
         <v>11053.938099999999</v>
       </c>
     </row>
-    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="14">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="12">
         <f t="shared" si="3"/>
         <v>36842.30025</v>
       </c>
-      <c r="E68" s="17">
-        <v>0</v>
-      </c>
-      <c r="F68" s="17">
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
         <v>9295.5269499999995</v>
       </c>
-      <c r="G68" s="17">
-        <v>0</v>
-      </c>
-      <c r="H68" s="17">
+      <c r="G69" s="13">
+        <v>0</v>
+      </c>
+      <c r="H69" s="13">
         <v>2968.0250000000001</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I69" s="13">
         <v>12197.1018</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J69" s="13">
         <v>12381.646500000001</v>
       </c>
     </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="10">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="6">
         <v>2019</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D70" s="8">
         <f t="shared" si="3"/>
         <v>37499.549509000004</v>
       </c>
-      <c r="E69" s="13">
-        <v>0</v>
-      </c>
-      <c r="F69" s="13">
+      <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="F70" s="9">
         <v>8717.2473399999999</v>
       </c>
-      <c r="G69" s="13">
-        <v>0</v>
-      </c>
-      <c r="H69" s="13">
+      <c r="G70" s="9">
+        <v>0</v>
+      </c>
+      <c r="H70" s="9">
         <v>2772.4720000000002</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I70" s="9">
         <v>12460.489269000002</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J70" s="9">
         <v>13549.340900000001</v>
       </c>
     </row>
-    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="14">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D71" s="12">
         <f t="shared" si="3"/>
         <v>34780.897574999995</v>
       </c>
-      <c r="E70" s="17">
-        <v>0</v>
-      </c>
-      <c r="F70" s="17">
+      <c r="E71" s="13">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
         <v>8235.0453999999991</v>
       </c>
-      <c r="G70" s="17">
-        <v>0</v>
-      </c>
-      <c r="H70" s="17">
+      <c r="G71" s="13">
+        <v>0</v>
+      </c>
+      <c r="H71" s="13">
         <v>3011.7339999999999</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I71" s="13">
         <v>11347.632975</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J71" s="13">
         <v>12186.485199999999</v>
       </c>
     </row>
-    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="10">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="6">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="8">
         <f t="shared" si="3"/>
         <v>36123.947636999997</v>
       </c>
-      <c r="E71" s="13">
-        <v>0</v>
-      </c>
-      <c r="F71" s="13">
+      <c r="E72" s="9">
+        <v>0</v>
+      </c>
+      <c r="F72" s="9">
         <v>8047.0139099999997</v>
       </c>
-      <c r="G71" s="13">
-        <v>0</v>
-      </c>
-      <c r="H71" s="13">
+      <c r="G72" s="9">
+        <v>0</v>
+      </c>
+      <c r="H72" s="9">
         <v>2861.5230000000001</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I72" s="9">
         <v>13553.171926999999</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J72" s="9">
         <v>11662.238800000001</v>
       </c>
     </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="14">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="12">
         <f t="shared" si="3"/>
         <v>36989.020386999997</v>
       </c>
-      <c r="E72" s="17">
-        <v>0</v>
-      </c>
-      <c r="F72" s="17">
+      <c r="E73" s="13">
+        <v>0</v>
+      </c>
+      <c r="F73" s="13">
         <v>8253.6834899999994</v>
       </c>
-      <c r="G72" s="17">
-        <v>0</v>
-      </c>
-      <c r="H72" s="17">
+      <c r="G73" s="13">
+        <v>0</v>
+      </c>
+      <c r="H73" s="13">
         <v>2588.3980000000001</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I73" s="13">
         <v>13481.634697000001</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J73" s="13">
         <v>12665.304199999999</v>
       </c>
     </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="10">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="6">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="8">
         <f t="shared" si="3"/>
         <v>36253.700530000002</v>
       </c>
-      <c r="E73" s="13">
-        <v>0</v>
-      </c>
-      <c r="F73" s="13">
+      <c r="E74" s="9">
+        <v>0</v>
+      </c>
+      <c r="F74" s="9">
         <v>7444.2109199999995</v>
       </c>
-      <c r="G73" s="13">
-        <v>0</v>
-      </c>
-      <c r="H73" s="13">
+      <c r="G74" s="9">
+        <v>0</v>
+      </c>
+      <c r="H74" s="9">
         <v>2726.3809999999999</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I74" s="9">
         <v>14226.39911</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J74" s="9">
         <v>11856.709500000001</v>
       </c>
     </row>
-    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="14">
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="12">
         <f t="shared" si="3"/>
         <v>36841.123875999998</v>
       </c>
-      <c r="E74" s="17">
-        <v>0</v>
-      </c>
-      <c r="F74" s="17">
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13">
         <v>8213.8209500000012</v>
       </c>
-      <c r="G74" s="17">
-        <v>0</v>
-      </c>
-      <c r="H74" s="17">
+      <c r="G75" s="13">
+        <v>0</v>
+      </c>
+      <c r="H75" s="13">
         <v>2822.8220000000001</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I75" s="13">
         <v>14573.453925999998</v>
       </c>
-      <c r="J74" s="17">
+      <c r="J75" s="13">
         <v>11231.027</v>
       </c>
     </row>
-    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="10">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="6">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="8">
         <f t="shared" si="3"/>
         <v>34774.654051999998</v>
       </c>
-      <c r="E75" s="13">
-        <v>0</v>
-      </c>
-      <c r="F75" s="13">
+      <c r="E76" s="9">
+        <v>0</v>
+      </c>
+      <c r="F76" s="9">
         <v>7045.8119100000004</v>
       </c>
-      <c r="G75" s="13">
-        <v>0</v>
-      </c>
-      <c r="H75" s="13">
+      <c r="G76" s="9">
+        <v>0</v>
+      </c>
+      <c r="H76" s="9">
         <v>2281.2820000000002</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I76" s="9">
         <v>14819.089841999999</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J76" s="9">
         <v>10628.470300000001</v>
       </c>
     </row>
-    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="14">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D77" s="12">
         <f t="shared" si="3"/>
         <v>41597.635473399998</v>
       </c>
-      <c r="E76" s="17">
-        <v>0</v>
-      </c>
-      <c r="F76" s="17">
+      <c r="E77" s="13">
+        <v>0</v>
+      </c>
+      <c r="F77" s="13">
         <v>8978.2172699999992</v>
       </c>
-      <c r="G76" s="17">
-        <v>0</v>
-      </c>
-      <c r="H76" s="17">
+      <c r="G77" s="13">
+        <v>0</v>
+      </c>
+      <c r="H77" s="13">
         <v>2665.5234</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I77" s="13">
         <v>16057.1642034</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J77" s="13">
         <v>13896.730599999999</v>
       </c>
     </row>
-    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="10">
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="6">
         <v>2019</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D78" s="8">
         <f t="shared" si="3"/>
         <v>34403.574224000004</v>
       </c>
-      <c r="E77" s="13">
-        <v>0</v>
-      </c>
-      <c r="F77" s="13">
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+      <c r="F78" s="9">
         <v>7372.8365000000003</v>
       </c>
-      <c r="G77" s="13">
-        <v>0</v>
-      </c>
-      <c r="H77" s="13">
+      <c r="G78" s="9">
+        <v>0</v>
+      </c>
+      <c r="H78" s="9">
         <v>2041.7819999999999</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I78" s="9">
         <v>14155.565524</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J78" s="9">
         <v>10833.3902</v>
       </c>
     </row>
-    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="18">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="14">
         <v>2019</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C79" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="20">
-        <f t="shared" ref="D78:D90" si="4">SUM(E78:J78)</f>
+      <c r="D79" s="16">
+        <f t="shared" ref="D79:D91" si="4">SUM(E79:J79)</f>
         <v>34340.204129700003</v>
       </c>
-      <c r="E78" s="21">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21">
+      <c r="E79" s="17">
+        <v>0</v>
+      </c>
+      <c r="F79" s="17">
         <v>7805.6810100000012</v>
       </c>
-      <c r="G78" s="21">
-        <v>0</v>
-      </c>
-      <c r="H78" s="21">
+      <c r="G79" s="17">
+        <v>0</v>
+      </c>
+      <c r="H79" s="17">
         <v>2447.4140000000002</v>
       </c>
-      <c r="I78" s="21">
+      <c r="I79" s="17">
         <v>13462.407319700002</v>
       </c>
-      <c r="J78" s="21">
+      <c r="J79" s="17">
         <v>10624.701800000001</v>
       </c>
     </row>
-    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="11">
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="7">
         <v>2018</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="8">
         <f t="shared" si="4"/>
         <v>39107.630482000008</v>
       </c>
-      <c r="E79" s="13">
-        <v>0</v>
-      </c>
-      <c r="F79" s="13">
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="9">
         <v>9016.9082100000014</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="9">
         <v>604.548</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H80" s="9">
         <v>2518.2449999999999</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I80" s="9">
         <v>14153.156971999999</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J80" s="9">
         <v>12814.772300000001</v>
       </c>
     </row>
-    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="15">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="11">
         <v>2018</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D81" s="12">
         <f t="shared" si="4"/>
         <v>40739.449042</v>
       </c>
-      <c r="E80" s="17">
-        <v>0</v>
-      </c>
-      <c r="F80" s="17">
+      <c r="E81" s="13">
+        <v>0</v>
+      </c>
+      <c r="F81" s="13">
         <v>10171.974600000001</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G81" s="13">
         <v>543.64599999999996</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H81" s="13">
         <v>3271.4839999999999</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I81" s="13">
         <v>14774.019941999999</v>
       </c>
-      <c r="J80" s="17">
+      <c r="J81" s="13">
         <v>11978.324500000001</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="11">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="7">
         <v>2018</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="8">
         <f t="shared" si="4"/>
         <v>41232.318012000003</v>
       </c>
-      <c r="E81" s="13">
-        <v>0</v>
-      </c>
-      <c r="F81" s="13">
+      <c r="E82" s="9">
+        <v>0</v>
+      </c>
+      <c r="F82" s="9">
         <v>9028.4674500000001</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="9">
         <v>556.69100000000003</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H82" s="9">
         <v>3183.5309999999999</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="9">
         <v>15699.443762000001</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J82" s="9">
         <v>12764.184800000001</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="15">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D83" s="12">
         <f t="shared" si="4"/>
         <v>39190.964049599999</v>
       </c>
-      <c r="E82" s="17">
-        <v>0</v>
-      </c>
-      <c r="F82" s="17">
+      <c r="E83" s="13">
+        <v>0</v>
+      </c>
+      <c r="F83" s="13">
         <v>9327.9771700000001</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G83" s="13">
         <v>646.58299999999997</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H83" s="13">
         <v>3104.5279999999998</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I83" s="13">
         <v>13338.916489599998</v>
       </c>
-      <c r="J82" s="17">
+      <c r="J83" s="13">
         <v>12772.95939</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="11">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="7">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="8">
         <f t="shared" si="4"/>
         <v>37812.709869799997</v>
       </c>
-      <c r="E83" s="13">
-        <v>0</v>
-      </c>
-      <c r="F83" s="13">
+      <c r="E84" s="9">
+        <v>0</v>
+      </c>
+      <c r="F84" s="9">
         <v>8414.4507599999997</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="9">
         <v>730.47900000000004</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H84" s="9">
         <v>3062.973</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I84" s="9">
         <v>14063.5628698</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J84" s="9">
         <v>11541.24424</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="15">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D85" s="12">
         <f t="shared" si="4"/>
         <v>39965.855546999999</v>
       </c>
-      <c r="E84" s="17">
-        <v>0</v>
-      </c>
-      <c r="F84" s="17">
+      <c r="E85" s="13">
+        <v>0</v>
+      </c>
+      <c r="F85" s="13">
         <v>8683.6723199999997</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G85" s="13">
         <v>687.87199999999996</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H85" s="13">
         <v>2884.9024869999998</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I85" s="13">
         <v>14803.904460000002</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J85" s="13">
         <v>12905.504279999999</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="11">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="8">
         <f t="shared" si="4"/>
         <v>41066.873502000002</v>
       </c>
-      <c r="E85" s="13">
-        <v>0</v>
-      </c>
-      <c r="F85" s="13">
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="9">
         <v>8739.8234700000012</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="9">
         <v>775.90599999999995</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H86" s="9">
         <v>3132.7950000000001</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="9">
         <v>15348.913632</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J86" s="9">
         <v>13069.4354</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="15">
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D87" s="12">
         <f t="shared" si="4"/>
         <v>39330.274949999999</v>
       </c>
-      <c r="E86" s="17">
-        <v>0</v>
-      </c>
-      <c r="F86" s="17">
+      <c r="E87" s="13">
+        <v>0</v>
+      </c>
+      <c r="F87" s="13">
         <v>8459.8314499999997</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G87" s="13">
         <v>741.85500000000002</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H87" s="13">
         <v>3243.9609999999998</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I87" s="13">
         <v>15389.468199999999</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J87" s="13">
         <v>11495.159300000001</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="11">
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="8">
         <f t="shared" si="4"/>
         <v>42190.912314999994</v>
       </c>
-      <c r="E87" s="13">
-        <v>0</v>
-      </c>
-      <c r="F87" s="13">
+      <c r="E88" s="9">
+        <v>0</v>
+      </c>
+      <c r="F88" s="9">
         <v>9138.4659200000006</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="9">
         <v>763.33</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H88" s="9">
         <v>2695.9059999999999</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="9">
         <v>17318.287694999999</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J88" s="9">
         <v>12274.922699999999</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="15">
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D89" s="12">
         <f t="shared" si="4"/>
         <v>42310.135434999997</v>
       </c>
-      <c r="E88" s="17">
-        <v>0</v>
-      </c>
-      <c r="F88" s="17">
+      <c r="E89" s="13">
+        <v>0</v>
+      </c>
+      <c r="F89" s="13">
         <v>9362.9394400000001</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G89" s="13">
         <v>388.47899999999998</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H89" s="13">
         <v>3041.660961</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I89" s="13">
         <v>15644.620234</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J89" s="13">
         <v>13872.435800000001</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="11">
+    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="8">
         <f t="shared" si="4"/>
         <v>34826.467999300003</v>
       </c>
-      <c r="E89" s="13">
-        <v>0</v>
-      </c>
-      <c r="F89" s="13">
+      <c r="E90" s="9">
+        <v>0</v>
+      </c>
+      <c r="F90" s="9">
         <v>7302.8320700000004</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="9">
         <v>356.733</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H90" s="9">
         <v>2616.0599083000002</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="9">
         <v>13679.491221</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J90" s="9">
         <v>10871.3518</v>
       </c>
     </row>
-    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="15">
+    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="11">
         <v>2018</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C91" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D91" s="12">
         <f t="shared" si="4"/>
         <v>34940.797042999999</v>
       </c>
-      <c r="E90" s="17">
-        <v>0</v>
-      </c>
-      <c r="F90" s="17">
+      <c r="E91" s="13">
+        <v>0</v>
+      </c>
+      <c r="F91" s="13">
         <v>7741.241140000001</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G91" s="13">
         <v>295.541</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H91" s="13">
         <v>2365.5157000000004</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I91" s="13">
         <v>14151.311802999999</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J91" s="13">
         <v>10387.187400000001</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J92" s="26"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B93" s="3" t="s">
+      <c r="J93" s="22"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Carga_por_aerolinea_inter.xlsx
+++ b/Carga_por_aerolinea_inter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F0AE14-13E9-4923-827D-8759E198D9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5732F44C-4A3F-440B-9A66-D721EDE10324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
   <si>
     <t>Total</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -353,13 +353,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,6 +364,9 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,8 +592,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J91" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B5:J91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J92" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B5:J92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -841,7 +841,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:J94"/>
+  <dimension ref="B2:J95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -877,2639 +877,2669 @@
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>2025</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12">
+        <f>SUM(E6:J6)</f>
+        <v>38918.408442835935</v>
+      </c>
+      <c r="E6" s="13">
+        <v>803.03599999999994</v>
+      </c>
+      <c r="F6" s="13">
+        <v>10916.531330000002</v>
+      </c>
+      <c r="G6" s="13">
+        <v>104.68</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2525.8702799999996</v>
+      </c>
+      <c r="I6" s="13">
+        <v>9767.0137328359342</v>
+      </c>
+      <c r="J6" s="13">
+        <v>14801.277099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8">
-        <f>SUM(E6:J6)</f>
+      <c r="D7" s="8">
+        <f>SUM(E7:J7)</f>
         <v>32801.154213885173</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>728.84699999999998</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>8878.0039399999987</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>59.85</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H7" s="9">
         <v>2255.4859999999999</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I7" s="9">
         <v>8489.2731738851744</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J7" s="9">
         <v>12389.694099999999</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="14">
         <v>2025</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16">
-        <f>SUM(E7:J7)</f>
+      <c r="D8" s="16">
+        <f>SUM(E8:J8)</f>
         <v>32738.156787040898</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>547.80899999999997</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>9255.4840800000002</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <v>64.498999999999995</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H8" s="17">
         <v>2006.0550999999998</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I8" s="17">
         <v>8929.485507040903</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J8" s="17">
         <v>11934.8241</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
         <v>2024</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8">
-        <f>SUM(E8:J8)</f>
+      <c r="D9" s="8">
+        <f>SUM(E9:J9)</f>
         <v>36553.283453957527</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>567.71299999999997</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>11062.715380000001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>83.263000000000005</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H9" s="9">
         <v>2193.5998599999998</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I9" s="9">
         <v>9052.3878139575227</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J9" s="9">
         <v>13593.6044</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12">
-        <f>SUM(E9:J9)</f>
+      <c r="D10" s="12">
+        <f>SUM(E10:J10)</f>
         <v>38955.349190032139</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>476.91500000000002</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>11865.983349999999</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>118.56699999999999</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="13">
         <v>2287.3870999999999</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I10" s="13">
         <v>9767.1580400321363</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J10" s="13">
         <v>14439.3387</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
         <v>2024</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" ref="D10" si="0">SUM(E10:J10)</f>
+      <c r="D11" s="8">
+        <f t="shared" ref="D11" si="0">SUM(E11:J11)</f>
         <v>40583.470433011738</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>595.11500000000001</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>11875.472707000001</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>108.72</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="9">
         <v>2518.88535</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I11" s="9">
         <v>10723.791076011736</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J11" s="9">
         <v>14761.4863</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="12">
-        <f>SUM(E11:J11)</f>
+      <c r="D12" s="12">
+        <f>SUM(E12:J12)</f>
         <v>36709.209215460316</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>655.125</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>11496.19375</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>77.037000000000006</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="13">
         <v>2604.8681999999999</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I12" s="13">
         <v>9467.4052554603149</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J12" s="13">
         <v>12408.580010000001</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
         <v>2024</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" ref="D12:D46" si="1">SUM(E12:J12)</f>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:D47" si="1">SUM(E13:J13)</f>
         <v>39433.388310719492</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>784.92399999999998</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>12296.267870000001</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>99.649000000000001</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H13" s="9">
         <v>2503.4024399999998</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I13" s="9">
         <v>9761.9496007194903</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J13" s="9">
         <v>13987.195400000001</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" ref="D13:D15" si="2">SUM(E13:J13)</f>
+      <c r="D14" s="12">
+        <f t="shared" ref="D14:D16" si="2">SUM(E14:J14)</f>
         <v>40801.963929445177</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>699.11900000000003</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>12543.787289999998</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>84.063999999999993</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>2098.4537700000001</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>11053.483869445181</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J14" s="13">
         <v>14323.056</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="6">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
         <v>2024</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <f t="shared" si="2"/>
         <v>39620.93221658191</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>519.66999999999996</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>12641.439460000001</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>77.063999999999993</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H15" s="9">
         <v>2216.25135</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I15" s="9">
         <v>9750.3944665819108</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J15" s="9">
         <v>14416.112940000001</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <f t="shared" si="2"/>
         <v>41707.502720706252</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>666.51599999999996</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>12929.211709999998</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>67.73</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>2272.335</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>11736.148020706249</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J16" s="13">
         <v>14035.561990000002</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="6">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
         <v>2024</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <f t="shared" si="1"/>
         <v>41262.668572409835</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>688.25300000000004</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>12315.689579999998</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>41.54</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H17" s="9">
         <v>2009.3571000000002</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I17" s="9">
         <v>11684.158492409841</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J17" s="9">
         <v>14523.670399999999</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <f t="shared" si="1"/>
         <v>42983.103187414818</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>794.28</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>13886.640619999998</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>59.076999999999998</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>2339.2438500000003</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="13">
         <v>10445.91770541482</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J18" s="13">
         <v>15457.944011999998</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="6">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
         <v>2024</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <f t="shared" si="1"/>
         <v>40423.179039296359</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>664.82100000000003</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>12004.929049999999</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="9">
         <v>45.631999999999998</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H19" s="9">
         <v>1860.7841100000001</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I19" s="9">
         <v>11883.265289296362</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J19" s="9">
         <v>13963.747589999999</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="14">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="14">
         <v>2024</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="16">
         <f t="shared" si="1"/>
         <v>41353.686809090235</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>680.31799999999998</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>12601.32713</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G20" s="17">
         <v>44.356000000000002</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H20" s="17">
         <v>1755.9950999999999</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I20" s="17">
         <v>12111.205109090239</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J20" s="17">
         <v>14160.485470000001</v>
       </c>
     </row>
-    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="18">
         <v>2023</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D21" s="20">
         <f t="shared" si="1"/>
         <v>41305.975162030925</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E21" s="21">
         <v>772.82399999999996</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>13837.616139999998</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G21" s="21">
         <v>74.738</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H21" s="21">
         <v>2170.9023299999999</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I21" s="21">
         <v>9069.6951920309275</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J21" s="21">
         <v>15380.199500000001</v>
       </c>
     </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10">
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <f t="shared" si="1"/>
         <v>40392.089828230179</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>779.80799999999999</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>11039.539529999998</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>95.251000000000005</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <v>2158.6788999999999</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="13">
         <v>9817.7052922301791</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J22" s="13">
         <v>16501.107106000003</v>
       </c>
     </row>
-    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
         <v>2023</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <f t="shared" si="1"/>
         <v>44801.968924327317</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>778.178</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>10705.033519999999</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>62.91</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="9">
         <v>2322.5757999999996</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I23" s="9">
         <v>11604.903104327317</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J23" s="9">
         <v>19328.3685</v>
       </c>
     </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10">
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <f t="shared" si="1"/>
         <v>37081.792657201382</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>622.02300000000002</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>9376.2873299999992</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>85.058000000000007</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="13">
         <v>2340.9119999999998</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I24" s="13">
         <v>9719.7349272013871</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J24" s="13">
         <v>14937.777399999999</v>
       </c>
     </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
         <v>2023</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="8">
         <f t="shared" si="1"/>
         <v>40017.679605821257</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>757.96799999999996</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>10215.824409999999</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G25" s="9">
         <v>52.222000000000001</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H25" s="9">
         <v>2329.6565299999997</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I25" s="9">
         <v>10678.306165821259</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J25" s="9">
         <v>15983.702499999999</v>
       </c>
     </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <f t="shared" si="1"/>
         <v>40319.464599793209</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>788.85</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>10358.44569</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>48.895000000000003</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>2259.8667999999998</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I26" s="13">
         <v>10176.83545979321</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J26" s="13">
         <v>16686.571650000002</v>
       </c>
     </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
         <v>2023</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <f t="shared" si="1"/>
         <v>40587.137376239552</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>645.45299999999997</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>10949.239150000001</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>36.125</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H27" s="9">
         <v>2276.2485000000001</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I27" s="9">
         <v>10352.348026239559</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J27" s="9">
         <v>16327.723699999999</v>
       </c>
     </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <f t="shared" si="1"/>
         <v>38973.999386463627</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>640.97299999999996</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>10514.624799999998</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>48.081000000000003</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>2950.8580000000002</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="13">
         <v>10310.05088646363</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J28" s="13">
         <v>14509.411699999999</v>
       </c>
     </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6">
         <v>2023</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <f t="shared" si="1"/>
         <v>36860.751413830367</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>640.28800000000001</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>10179.089970000003</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>36.615000000000002</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H29" s="9">
         <v>2873.6055999999999</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I29" s="9">
         <v>9745.8580438303616</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J29" s="9">
         <v>13385.2948</v>
       </c>
     </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D30" s="12">
         <f t="shared" si="1"/>
         <v>40964.52406578567</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>786.44299999999998</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>10964.678350000002</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>29.545999999999999</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H30" s="13">
         <v>2982.933</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I30" s="13">
         <v>11630.43191578567</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J30" s="13">
         <v>14570.491800000002</v>
       </c>
     </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
         <v>2023</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <f t="shared" si="1"/>
         <v>34787.318148179547</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>578.94399999999996</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>8934.8815099999974</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>75.331999999999994</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H31" s="9">
         <v>2327.9451500000005</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I31" s="9">
         <v>10297.70288817955</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J31" s="9">
         <v>12572.5126</v>
       </c>
     </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="14">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14">
         <v>2023</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="16">
         <f t="shared" si="1"/>
         <v>34339.076626616064</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>536.072</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F32" s="17">
         <v>8186.4879100000007</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G32" s="17">
         <v>36.253</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H32" s="17">
         <v>2646.0401599999996</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I32" s="17">
         <v>10631.460656616069</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J32" s="17">
         <v>12302.762899999998</v>
       </c>
     </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="18">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="18">
         <v>2022</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D33" s="20">
         <f t="shared" si="1"/>
         <v>38746.066609950823</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E33" s="21">
         <v>378.79500000000002</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F33" s="21">
         <v>9252.3727799999997</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G33" s="21">
         <v>106.069</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H33" s="21">
         <v>2824.3177999999998</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I33" s="21">
         <v>11614.168229950819</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J33" s="21">
         <v>14570.343800000001</v>
       </c>
     </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D34" s="12">
         <f t="shared" si="1"/>
         <v>38505.180007486138</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>516.43899999999996</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>9489.5803000000014</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>75.007999999999996</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>2658.9839999999999</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="13">
         <v>11148.715107486139</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J34" s="13">
         <v>14616.453599999999</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="6">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
         <v>2022</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <f t="shared" si="1"/>
         <v>41053.772325471538</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>741.95500000000004</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>9730.2727100000011</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G35" s="9">
         <v>97.396000000000001</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H35" s="9">
         <v>2904.4928999999997</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I35" s="9">
         <v>11820.684915471538</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J35" s="9">
         <v>15758.970800000001</v>
       </c>
     </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <f t="shared" si="1"/>
         <v>37277.511123095581</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>663.58500000000004</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>8746.3328199999996</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>20.056000000000001</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="13">
         <v>3093.5552793645161</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I36" s="13">
         <v>11160.508123731061</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J36" s="13">
         <v>13593.473900000001</v>
       </c>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="6">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="6">
         <v>2022</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D37" s="8">
         <f t="shared" si="1"/>
         <v>39368.723200849388</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>591.01800000000003</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <v>8719.4067500000001</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G37" s="9">
         <v>25.675000000000001</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H37" s="9">
         <v>3267.5057999999999</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I37" s="9">
         <v>12298.365450849389</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J37" s="9">
         <v>14466.752199999999</v>
       </c>
     </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <f t="shared" si="1"/>
         <v>40438.258232407403</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>530.70500000000004</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>9093.8344099999977</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>34.826000000000001</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>3252.6017000000002</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I38" s="13">
         <v>11449.207622407401</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J38" s="13">
         <v>16077.083500000001</v>
       </c>
     </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="6">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="6">
         <v>2022</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <f t="shared" si="1"/>
         <v>40705.379663201522</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>512.66099999999994</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>8969.2943099999993</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G39" s="9">
         <v>26.021000000000001</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H39" s="9">
         <v>3225.5032000000001</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I39" s="9">
         <v>12235.641653201521</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J39" s="9">
         <v>15736.2585</v>
       </c>
     </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="10">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="12">
         <f t="shared" si="1"/>
         <v>38385.635270624982</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>646.77499999999998</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>5887.1319999999996</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>121.18</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>3119.6742000000004</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I40" s="13">
         <v>12724.717070624982</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J40" s="13">
         <v>15886.156999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="6">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="6">
         <v>2022</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <f t="shared" si="1"/>
         <v>37880.648666149609</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>658.78499999999997</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>5153.4015100000006</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G41" s="9">
         <v>198.077</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H41" s="9">
         <v>2884.4317999999998</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I41" s="9">
         <v>13095.55395614961</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J41" s="9">
         <v>15890.3994</v>
       </c>
     </row>
-    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D42" s="12">
         <f t="shared" si="1"/>
-        <v>39804.246607199995</v>
-      </c>
-      <c r="E41" s="13">
+        <v>39804.246607167996</v>
+      </c>
+      <c r="E42" s="13">
         <v>701.476</v>
       </c>
-      <c r="F41" s="13">
-        <v>5848.9565830000001</v>
-      </c>
-      <c r="G41" s="13">
+      <c r="F42" s="13">
+        <v>5848.9565829999992</v>
+      </c>
+      <c r="G42" s="13">
         <v>68.724999999999994</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="13">
         <v>3277.5267000000003</v>
       </c>
-      <c r="I41" s="13">
-        <v>13626.1151242</v>
-      </c>
-      <c r="J41" s="13">
+      <c r="I42" s="13">
+        <v>13626.115124168</v>
+      </c>
+      <c r="J42" s="13">
         <v>16281.447199999999</v>
       </c>
     </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="6">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="6">
         <v>2022</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <f t="shared" si="1"/>
-        <v>35391.386208299999</v>
-      </c>
-      <c r="E42" s="9">
+        <v>35391.386208309319</v>
+      </c>
+      <c r="E43" s="9">
         <v>638.51099999999997</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>5672.3767400000006</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G43" s="9">
         <v>17.033999999999999</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H43" s="9">
         <v>2882.4872999999998</v>
       </c>
-      <c r="I42" s="9">
-        <v>10909.8495683</v>
-      </c>
-      <c r="J42" s="9">
-        <v>15271.1276</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="14">
+      <c r="I43" s="9">
+        <v>10909.849568309321</v>
+      </c>
+      <c r="J43" s="9">
+        <v>15271.127599999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="14">
         <v>2022</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="16">
         <f t="shared" si="1"/>
-        <v>32469.8484493</v>
-      </c>
-      <c r="E43" s="17">
+        <v>32469.848449272838</v>
+      </c>
+      <c r="E44" s="17">
         <v>482.12099999999998</v>
       </c>
-      <c r="F43" s="17">
-        <v>6245.38976</v>
-      </c>
-      <c r="G43" s="17">
+      <c r="F44" s="17">
+        <v>6245.3897599999991</v>
+      </c>
+      <c r="G44" s="17">
         <v>259.46800000000002</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H44" s="17">
         <v>2435.1074600000002</v>
       </c>
-      <c r="I43" s="17">
-        <v>9916.5125293000001</v>
-      </c>
-      <c r="J43" s="17">
-        <v>13131.249699999998</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="18">
+      <c r="I44" s="17">
+        <v>9916.5125292728408</v>
+      </c>
+      <c r="J44" s="17">
+        <v>13131.2497</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="18">
         <v>2021</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D45" s="20">
         <f t="shared" si="1"/>
-        <v>39492.366382700005</v>
-      </c>
-      <c r="E44" s="21">
+        <v>39492.366382685294</v>
+      </c>
+      <c r="E45" s="21">
         <v>458.77499999999998</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F45" s="21">
         <v>10098.12268</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G45" s="21">
         <v>133.10599999999999</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H45" s="21">
         <v>3136.06873</v>
       </c>
-      <c r="I44" s="21">
-        <v>12005.7867427</v>
-      </c>
-      <c r="J44" s="21">
+      <c r="I45" s="21">
+        <v>12005.78674268529</v>
+      </c>
+      <c r="J45" s="21">
         <v>13660.507230000001</v>
       </c>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D46" s="12">
         <f t="shared" si="1"/>
         <v>40331.827408900004</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>490.10599999999999</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>10062.285780000002</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>336.76799999999997</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>3288.1294800000001</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I46" s="13">
         <v>12280.809678899999</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J46" s="13">
         <v>13873.728469999998</v>
       </c>
     </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="6">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="6">
         <v>2021</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <f t="shared" si="1"/>
         <v>41580.666843700004</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>586.94299999999998</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>10735.457050000001</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="9">
         <v>619.62599999999998</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H47" s="9">
         <v>2722.0764900000004</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I47" s="9">
         <v>11237.549403700001</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J47" s="9">
         <v>15679.0149</v>
       </c>
     </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="10">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="12">
-        <f t="shared" ref="D47:D78" si="3">SUM(E47:J47)</f>
+      <c r="D48" s="12">
+        <f t="shared" ref="D48:D79" si="3">SUM(E48:J48)</f>
         <v>38165.8196035</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>696.17100000000005</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>10134.700359999999</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>487.45499999999998</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H48" s="13">
         <v>2548.2033000000001</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I48" s="13">
         <v>11597.826043499999</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J48" s="13">
         <v>12701.463900000001</v>
       </c>
     </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="6">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="6">
         <v>2021</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D49" s="8">
         <f t="shared" si="3"/>
         <v>37424.307471799999</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>396.84</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="9">
         <v>9954.2116800000003</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G49" s="9">
         <v>550.08500000000004</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H49" s="9">
         <v>2444.3667</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I49" s="9">
         <v>11310.234991799998</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J49" s="9">
         <v>12768.569099999999</v>
       </c>
     </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10">
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <f t="shared" si="3"/>
         <v>39029.204718000001</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>501.01900000000001</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>10968.570522</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>546.27499999999998</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <v>2313.2728999999999</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I50" s="13">
         <v>11426.955696000001</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J50" s="13">
         <v>13273.1116</v>
       </c>
     </row>
-    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="6">
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="6">
         <v>2021</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <f t="shared" si="3"/>
         <v>37745.558432400001</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>463.83300000000003</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>10031.152749999999</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G51" s="9">
         <v>463.92500000000001</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H51" s="9">
         <v>1743.7754</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I51" s="9">
         <v>11018.1134824</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J51" s="9">
         <v>14024.758800000001</v>
       </c>
     </row>
-    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="10">
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="12">
         <f t="shared" si="3"/>
         <v>38457.492379999996</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>554.96</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>9638.9807799999999</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>289.39</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>1666.4480000000001</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I52" s="13">
         <v>11157.246999999999</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J52" s="13">
         <v>15150.4666</v>
       </c>
     </row>
-    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="6">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="6">
         <v>2021</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <f t="shared" si="3"/>
         <v>37112.560168100004</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>590.50099999999998</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>9277.434830000002</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G53" s="9">
         <v>331.7</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H53" s="9">
         <v>1472.3352</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I53" s="9">
         <v>11167.4790381</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J53" s="9">
         <v>14273.1101</v>
       </c>
     </row>
-    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="10">
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D54" s="12">
         <f t="shared" si="3"/>
         <v>41269.452216999998</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>386.11599999999999</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>10042.040590000001</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>536.54600000000005</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="13">
         <v>1531.1469999999999</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I54" s="13">
         <v>13111.292127000001</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J54" s="13">
         <v>15662.3105</v>
       </c>
     </row>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="6">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="6">
         <v>2021</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <f t="shared" si="3"/>
         <v>34648.807876000006</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>219.61199999999999</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>8953.9622800000016</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G55" s="9">
         <v>228.47900000000001</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H55" s="9">
         <v>1342.146</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I55" s="9">
         <v>9816.7840960000012</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J55" s="9">
         <v>14087.824500000001</v>
       </c>
     </row>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="14">
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="14">
         <v>2021</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="16">
         <f t="shared" si="3"/>
         <v>36982.816146000005</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="17">
         <v>129.93199999999999</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F56" s="17">
         <v>10106.45505</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G56" s="17">
         <v>156.72999999999999</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H56" s="17">
         <v>1370.9369999999999</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I56" s="17">
         <v>11214.778596</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J56" s="17">
         <v>14003.9835</v>
       </c>
     </row>
-    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="18">
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="18">
         <v>2020</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D57" s="20">
         <f t="shared" si="3"/>
         <v>36967.920087999999</v>
       </c>
-      <c r="E56" s="21">
-        <v>0</v>
-      </c>
-      <c r="F56" s="21">
+      <c r="E57" s="21">
+        <v>0</v>
+      </c>
+      <c r="F57" s="21">
         <v>10567.67765</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G57" s="21">
         <v>247.25800000000001</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H57" s="21">
         <v>1325.12</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I57" s="21">
         <v>11836.856238</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J57" s="21">
         <v>12991.008199999998</v>
       </c>
     </row>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="10">
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D58" s="12">
         <f t="shared" si="3"/>
         <v>36852.864462999998</v>
       </c>
-      <c r="E57" s="13">
-        <v>0</v>
-      </c>
-      <c r="F57" s="13">
+      <c r="E58" s="13">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
         <v>10376.03788</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>137.81200000000001</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="13">
         <v>1566.683</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I58" s="13">
         <v>11120.986982999999</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J58" s="13">
         <v>13651.3446</v>
       </c>
     </row>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="6">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="6">
         <v>2020</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <f t="shared" si="3"/>
         <v>37111.751327400001</v>
       </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="9">
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
+      <c r="F59" s="9">
         <v>10139.1556</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G59" s="9">
         <v>42.646000000000001</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H59" s="9">
         <v>1292.682</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I59" s="9">
         <v>10863.6815274</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J59" s="9">
         <v>14773.5862</v>
       </c>
     </row>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="10">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <f t="shared" si="3"/>
         <v>31289.118952199999</v>
       </c>
-      <c r="E59" s="13">
-        <v>0</v>
-      </c>
-      <c r="F59" s="13">
+      <c r="E60" s="13">
+        <v>0</v>
+      </c>
+      <c r="F60" s="13">
         <v>8729.1361899999993</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>35.866999999999997</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H60" s="13">
         <v>987.66099999999994</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I60" s="13">
         <v>9399.9986922000007</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J60" s="13">
         <v>12136.45607</v>
       </c>
     </row>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="6">
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="6">
         <v>2020</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D61" s="8">
         <f t="shared" si="3"/>
         <v>28794.378688499997</v>
       </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="9">
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="F61" s="9">
         <v>8471.0650299999998</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G61" s="9">
         <v>42.926000000000002</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H61" s="9">
         <v>1074.0519999999999</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I61" s="9">
         <v>8606.7041585000006</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J61" s="9">
         <v>10599.6315</v>
       </c>
     </row>
-    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="10">
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <f t="shared" si="3"/>
         <v>27431.279484500003</v>
       </c>
-      <c r="E61" s="13">
-        <v>0</v>
-      </c>
-      <c r="F61" s="13">
+      <c r="E62" s="13">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
         <v>8226.0579799999996</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>36.588000000000001</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>1040.3589999999999</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I62" s="13">
         <v>8177.4266045000004</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J62" s="13">
         <v>9950.8479000000007</v>
       </c>
     </row>
-    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="6">
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="6">
         <v>2020</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <f t="shared" si="3"/>
         <v>25926.471812200001</v>
       </c>
-      <c r="E62" s="9">
-        <v>0</v>
-      </c>
-      <c r="F62" s="9">
+      <c r="E63" s="9">
+        <v>0</v>
+      </c>
+      <c r="F63" s="9">
         <v>7134.2837199999994</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G63" s="9">
         <v>63.805</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H63" s="9">
         <v>855.82899999999995</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I63" s="9">
         <v>7779.0341922000007</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J63" s="9">
         <v>10093.519900000001</v>
       </c>
     </row>
-    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="10">
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <f t="shared" si="3"/>
         <v>23168.212673900001</v>
       </c>
-      <c r="E63" s="13">
-        <v>0</v>
-      </c>
-      <c r="F63" s="13">
+      <c r="E64" s="13">
+        <v>0</v>
+      </c>
+      <c r="F64" s="13">
         <v>6023.6581899999992</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>187.08600000000001</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>832.03399999999999</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I64" s="13">
         <v>7072.7845839000001</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J64" s="13">
         <v>9052.6499000000003</v>
       </c>
     </row>
-    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="6">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="6">
         <v>2020</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <f t="shared" si="3"/>
         <v>20427.959275100002</v>
       </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="9">
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9">
         <v>5209.0807000000004</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G65" s="9">
         <v>24.07</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H65" s="9">
         <v>739.351</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I65" s="9">
         <v>6596.5606751000005</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J65" s="9">
         <v>7858.8969000000006</v>
       </c>
     </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="10">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D66" s="12">
         <f t="shared" si="3"/>
         <v>33140.735087100002</v>
       </c>
-      <c r="E65" s="13">
-        <v>0</v>
-      </c>
-      <c r="F65" s="13">
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13">
         <v>8644.8665579999997</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>50.677999999999997</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H66" s="13">
         <v>2214.377</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I66" s="13">
         <v>10403.6180291</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J66" s="13">
         <v>11827.1955</v>
       </c>
     </row>
-    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="6">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="6">
         <v>2020</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <f t="shared" si="3"/>
         <v>31595.295708999998</v>
       </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="F66" s="9">
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9">
         <v>8503.3772899999985</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G67" s="9">
         <v>71.156000000000006</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H67" s="9">
         <v>2496.2399999999998</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I67" s="9">
         <v>9914.0471189999989</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J67" s="9">
         <v>10610.4753</v>
       </c>
     </row>
-    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="14">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="14">
         <v>2020</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="16">
         <f t="shared" si="3"/>
         <v>31902.586373000002</v>
       </c>
-      <c r="E67" s="17">
-        <v>0</v>
-      </c>
-      <c r="F67" s="17">
+      <c r="E68" s="17">
+        <v>0</v>
+      </c>
+      <c r="F68" s="17">
         <v>8365.6301700000004</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G68" s="17">
         <v>80.352000000000004</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H68" s="17">
         <v>2759.7359999999999</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I68" s="17">
         <v>11337.052103</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J68" s="17">
         <v>9359.8161</v>
       </c>
     </row>
-    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="18">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="18">
         <v>2019</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D69" s="20">
         <f t="shared" si="3"/>
         <v>34834.055678999997</v>
       </c>
-      <c r="E68" s="21">
-        <v>0</v>
-      </c>
-      <c r="F68" s="21">
+      <c r="E69" s="21">
+        <v>0</v>
+      </c>
+      <c r="F69" s="21">
         <v>9580.7296500000011</v>
       </c>
-      <c r="G68" s="21">
-        <v>0</v>
-      </c>
-      <c r="H68" s="21">
+      <c r="G69" s="21">
+        <v>0</v>
+      </c>
+      <c r="H69" s="21">
         <v>2707.5740000000001</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I69" s="21">
         <v>11491.813929</v>
       </c>
-      <c r="J68" s="21">
+      <c r="J69" s="21">
         <v>11053.938099999999</v>
       </c>
     </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="10">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D70" s="12">
         <f t="shared" si="3"/>
         <v>36842.30025</v>
       </c>
-      <c r="E69" s="13">
-        <v>0</v>
-      </c>
-      <c r="F69" s="13">
+      <c r="E70" s="13">
+        <v>0</v>
+      </c>
+      <c r="F70" s="13">
         <v>9295.5269499999995</v>
       </c>
-      <c r="G69" s="13">
-        <v>0</v>
-      </c>
-      <c r="H69" s="13">
+      <c r="G70" s="13">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
         <v>2968.0250000000001</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I70" s="13">
         <v>12197.1018</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J70" s="13">
         <v>12381.646500000001</v>
       </c>
     </row>
-    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="6">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="6">
         <v>2019</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <f t="shared" si="3"/>
         <v>37499.549509000004</v>
       </c>
-      <c r="E70" s="9">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9">
+      <c r="E71" s="9">
+        <v>0</v>
+      </c>
+      <c r="F71" s="9">
         <v>8717.2473399999999</v>
       </c>
-      <c r="G70" s="9">
-        <v>0</v>
-      </c>
-      <c r="H70" s="9">
+      <c r="G71" s="9">
+        <v>0</v>
+      </c>
+      <c r="H71" s="9">
         <v>2772.4720000000002</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I71" s="9">
         <v>12460.489269000002</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J71" s="9">
         <v>13549.340900000001</v>
       </c>
     </row>
-    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="10">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <f t="shared" si="3"/>
         <v>34780.897574999995</v>
       </c>
-      <c r="E71" s="13">
-        <v>0</v>
-      </c>
-      <c r="F71" s="13">
+      <c r="E72" s="13">
+        <v>0</v>
+      </c>
+      <c r="F72" s="13">
         <v>8235.0453999999991</v>
       </c>
-      <c r="G71" s="13">
-        <v>0</v>
-      </c>
-      <c r="H71" s="13">
+      <c r="G72" s="13">
+        <v>0</v>
+      </c>
+      <c r="H72" s="13">
         <v>3011.7339999999999</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I72" s="13">
         <v>11347.632975</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J72" s="13">
         <v>12186.485199999999</v>
       </c>
     </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="6">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="6">
         <v>2019</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D73" s="8">
         <f t="shared" si="3"/>
         <v>36123.947636999997</v>
       </c>
-      <c r="E72" s="9">
-        <v>0</v>
-      </c>
-      <c r="F72" s="9">
+      <c r="E73" s="9">
+        <v>0</v>
+      </c>
+      <c r="F73" s="9">
         <v>8047.0139099999997</v>
       </c>
-      <c r="G72" s="9">
-        <v>0</v>
-      </c>
-      <c r="H72" s="9">
+      <c r="G73" s="9">
+        <v>0</v>
+      </c>
+      <c r="H73" s="9">
         <v>2861.5230000000001</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I73" s="9">
         <v>13553.171926999999</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J73" s="9">
         <v>11662.238800000001</v>
       </c>
     </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="10">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="12">
         <f t="shared" si="3"/>
         <v>36989.020386999997</v>
       </c>
-      <c r="E73" s="13">
-        <v>0</v>
-      </c>
-      <c r="F73" s="13">
+      <c r="E74" s="13">
+        <v>0</v>
+      </c>
+      <c r="F74" s="13">
         <v>8253.6834899999994</v>
       </c>
-      <c r="G73" s="13">
-        <v>0</v>
-      </c>
-      <c r="H73" s="13">
+      <c r="G74" s="13">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13">
         <v>2588.3980000000001</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I74" s="13">
         <v>13481.634697000001</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J74" s="13">
         <v>12665.304199999999</v>
       </c>
     </row>
-    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="6">
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="6">
         <v>2019</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <f t="shared" si="3"/>
         <v>36253.700530000002</v>
       </c>
-      <c r="E74" s="9">
-        <v>0</v>
-      </c>
-      <c r="F74" s="9">
+      <c r="E75" s="9">
+        <v>0</v>
+      </c>
+      <c r="F75" s="9">
         <v>7444.2109199999995</v>
       </c>
-      <c r="G74" s="9">
-        <v>0</v>
-      </c>
-      <c r="H74" s="9">
+      <c r="G75" s="9">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9">
         <v>2726.3809999999999</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I75" s="9">
         <v>14226.39911</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J75" s="9">
         <v>11856.709500000001</v>
       </c>
     </row>
-    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="10">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="12">
         <f t="shared" si="3"/>
         <v>36841.123875999998</v>
       </c>
-      <c r="E75" s="13">
-        <v>0</v>
-      </c>
-      <c r="F75" s="13">
+      <c r="E76" s="13">
+        <v>0</v>
+      </c>
+      <c r="F76" s="13">
         <v>8213.8209500000012</v>
       </c>
-      <c r="G75" s="13">
-        <v>0</v>
-      </c>
-      <c r="H75" s="13">
+      <c r="G76" s="13">
+        <v>0</v>
+      </c>
+      <c r="H76" s="13">
         <v>2822.8220000000001</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I76" s="13">
         <v>14573.453925999998</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J76" s="13">
         <v>11231.027</v>
       </c>
     </row>
-    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="6">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="6">
         <v>2019</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <f t="shared" si="3"/>
         <v>34774.654051999998</v>
       </c>
-      <c r="E76" s="9">
-        <v>0</v>
-      </c>
-      <c r="F76" s="9">
+      <c r="E77" s="9">
+        <v>0</v>
+      </c>
+      <c r="F77" s="9">
         <v>7045.8119100000004</v>
       </c>
-      <c r="G76" s="9">
-        <v>0</v>
-      </c>
-      <c r="H76" s="9">
+      <c r="G77" s="9">
+        <v>0</v>
+      </c>
+      <c r="H77" s="9">
         <v>2281.2820000000002</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I77" s="9">
         <v>14819.089841999999</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J77" s="9">
         <v>10628.470300000001</v>
       </c>
     </row>
-    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="10">
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D78" s="12">
         <f t="shared" si="3"/>
         <v>41597.635473399998</v>
       </c>
-      <c r="E77" s="13">
-        <v>0</v>
-      </c>
-      <c r="F77" s="13">
+      <c r="E78" s="13">
+        <v>0</v>
+      </c>
+      <c r="F78" s="13">
         <v>8978.2172699999992</v>
       </c>
-      <c r="G77" s="13">
-        <v>0</v>
-      </c>
-      <c r="H77" s="13">
+      <c r="G78" s="13">
+        <v>0</v>
+      </c>
+      <c r="H78" s="13">
         <v>2665.5234</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I78" s="13">
         <v>16057.1642034</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J78" s="13">
         <v>13896.730599999999</v>
       </c>
     </row>
-    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="6">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="6">
         <v>2019</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <f t="shared" si="3"/>
         <v>34403.574224000004</v>
       </c>
-      <c r="E78" s="9">
-        <v>0</v>
-      </c>
-      <c r="F78" s="9">
+      <c r="E79" s="9">
+        <v>0</v>
+      </c>
+      <c r="F79" s="9">
         <v>7372.8365000000003</v>
       </c>
-      <c r="G78" s="9">
-        <v>0</v>
-      </c>
-      <c r="H78" s="9">
+      <c r="G79" s="9">
+        <v>0</v>
+      </c>
+      <c r="H79" s="9">
         <v>2041.7819999999999</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I79" s="9">
         <v>14155.565524</v>
       </c>
-      <c r="J78" s="9">
+      <c r="J79" s="9">
         <v>10833.3902</v>
       </c>
     </row>
-    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="14">
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="14">
         <v>2019</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="16">
-        <f t="shared" ref="D79:D91" si="4">SUM(E79:J79)</f>
+      <c r="D80" s="16">
+        <f t="shared" ref="D80:D92" si="4">SUM(E80:J80)</f>
         <v>34340.204129700003</v>
       </c>
-      <c r="E79" s="17">
-        <v>0</v>
-      </c>
-      <c r="F79" s="17">
+      <c r="E80" s="17">
+        <v>0</v>
+      </c>
+      <c r="F80" s="17">
         <v>7805.6810100000012</v>
       </c>
-      <c r="G79" s="17">
-        <v>0</v>
-      </c>
-      <c r="H79" s="17">
+      <c r="G80" s="17">
+        <v>0</v>
+      </c>
+      <c r="H80" s="17">
         <v>2447.4140000000002</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I80" s="17">
         <v>13462.407319700002</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J80" s="17">
         <v>10624.701800000001</v>
       </c>
     </row>
-    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="7">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="7">
         <v>2018</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D81" s="8">
         <f t="shared" si="4"/>
         <v>39107.630482000008</v>
       </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="9">
+      <c r="E81" s="9">
+        <v>0</v>
+      </c>
+      <c r="F81" s="9">
         <v>9016.9082100000014</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G81" s="9">
         <v>604.548</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H81" s="9">
         <v>2518.2449999999999</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I81" s="9">
         <v>14153.156971999999</v>
       </c>
-      <c r="J80" s="9">
+      <c r="J81" s="9">
         <v>12814.772300000001</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="11">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <f t="shared" si="4"/>
         <v>40739.449042</v>
       </c>
-      <c r="E81" s="13">
-        <v>0</v>
-      </c>
-      <c r="F81" s="13">
+      <c r="E82" s="13">
+        <v>0</v>
+      </c>
+      <c r="F82" s="13">
         <v>10171.974600000001</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>543.64599999999996</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H82" s="13">
         <v>3271.4839999999999</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="13">
         <v>14774.019941999999</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J82" s="13">
         <v>11978.324500000001</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="7">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="7">
         <v>2018</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <f t="shared" si="4"/>
         <v>41232.318012000003</v>
       </c>
-      <c r="E82" s="9">
-        <v>0</v>
-      </c>
-      <c r="F82" s="9">
+      <c r="E83" s="9">
+        <v>0</v>
+      </c>
+      <c r="F83" s="9">
         <v>9028.4674500000001</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G83" s="9">
         <v>556.69100000000003</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H83" s="9">
         <v>3183.5309999999999</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I83" s="9">
         <v>15699.443762000001</v>
       </c>
-      <c r="J82" s="9">
+      <c r="J83" s="9">
         <v>12764.184800000001</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="11">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <f t="shared" si="4"/>
         <v>39190.964049599999</v>
       </c>
-      <c r="E83" s="13">
-        <v>0</v>
-      </c>
-      <c r="F83" s="13">
+      <c r="E84" s="13">
+        <v>0</v>
+      </c>
+      <c r="F84" s="13">
         <v>9327.9771700000001</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>646.58299999999997</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H84" s="13">
         <v>3104.5279999999998</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I84" s="13">
         <v>13338.916489599998</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J84" s="13">
         <v>12772.95939</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="7">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="8">
         <f t="shared" si="4"/>
         <v>37812.709869799997</v>
       </c>
-      <c r="E84" s="9">
-        <v>0</v>
-      </c>
-      <c r="F84" s="9">
+      <c r="E85" s="9">
+        <v>0</v>
+      </c>
+      <c r="F85" s="9">
         <v>8414.4507599999997</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G85" s="9">
         <v>730.47900000000004</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H85" s="9">
         <v>3062.973</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I85" s="9">
         <v>14063.5628698</v>
       </c>
-      <c r="J84" s="9">
+      <c r="J85" s="9">
         <v>11541.24424</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="11">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <f t="shared" si="4"/>
         <v>39965.855546999999</v>
       </c>
-      <c r="E85" s="13">
-        <v>0</v>
-      </c>
-      <c r="F85" s="13">
+      <c r="E86" s="13">
+        <v>0</v>
+      </c>
+      <c r="F86" s="13">
         <v>8683.6723199999997</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>687.87199999999996</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H86" s="13">
         <v>2884.9024869999998</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>14803.904460000002</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J86" s="13">
         <v>12905.504279999999</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="7">
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <f t="shared" si="4"/>
         <v>41066.873502000002</v>
       </c>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="9">
+      <c r="E87" s="9">
+        <v>0</v>
+      </c>
+      <c r="F87" s="9">
         <v>8739.8234700000012</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G87" s="9">
         <v>775.90599999999995</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H87" s="9">
         <v>3132.7950000000001</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I87" s="9">
         <v>15348.913632</v>
       </c>
-      <c r="J86" s="9">
+      <c r="J87" s="9">
         <v>13069.4354</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="11">
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <f t="shared" si="4"/>
         <v>39330.274949999999</v>
       </c>
-      <c r="E87" s="13">
-        <v>0</v>
-      </c>
-      <c r="F87" s="13">
+      <c r="E88" s="13">
+        <v>0</v>
+      </c>
+      <c r="F88" s="13">
         <v>8459.8314499999997</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>741.85500000000002</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H88" s="13">
         <v>3243.9609999999998</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>15389.468199999999</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J88" s="13">
         <v>11495.159300000001</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="7">
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D89" s="8">
         <f t="shared" si="4"/>
         <v>42190.912314999994</v>
       </c>
-      <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88" s="9">
+      <c r="E89" s="9">
+        <v>0</v>
+      </c>
+      <c r="F89" s="9">
         <v>9138.4659200000006</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G89" s="9">
         <v>763.33</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H89" s="9">
         <v>2695.9059999999999</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I89" s="9">
         <v>17318.287694999999</v>
       </c>
-      <c r="J88" s="9">
+      <c r="J89" s="9">
         <v>12274.922699999999</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="11">
+    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <f t="shared" si="4"/>
         <v>42310.135434999997</v>
       </c>
-      <c r="E89" s="13">
-        <v>0</v>
-      </c>
-      <c r="F89" s="13">
+      <c r="E90" s="13">
+        <v>0</v>
+      </c>
+      <c r="F90" s="13">
         <v>9362.9394400000001</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>388.47899999999998</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H90" s="13">
         <v>3041.660961</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>15644.620234</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J90" s="13">
         <v>13872.435800000001</v>
       </c>
     </row>
-    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="7">
+    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D91" s="8">
         <f t="shared" si="4"/>
         <v>34826.467999300003</v>
       </c>
-      <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90" s="9">
+      <c r="E91" s="9">
+        <v>0</v>
+      </c>
+      <c r="F91" s="9">
         <v>7302.8320700000004</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G91" s="9">
         <v>356.733</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H91" s="9">
         <v>2616.0599083000002</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I91" s="9">
         <v>13679.491221</v>
       </c>
-      <c r="J90" s="9">
+      <c r="J91" s="9">
         <v>10871.3518</v>
       </c>
     </row>
-    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="11">
+    <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="11">
         <v>2018</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D92" s="12">
         <f t="shared" si="4"/>
         <v>34940.797042999999</v>
       </c>
-      <c r="E91" s="13">
-        <v>0</v>
-      </c>
-      <c r="F91" s="13">
+      <c r="E92" s="13">
+        <v>0</v>
+      </c>
+      <c r="F92" s="13">
         <v>7741.241140000001</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G92" s="13">
         <v>295.541</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H92" s="13">
         <v>2365.5157000000004</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I92" s="13">
         <v>14151.311802999999</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J92" s="13">
         <v>10387.187400000001</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J93" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="22"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Carga_por_aerolinea_inter.xlsx
+++ b/Carga_por_aerolinea_inter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5732F44C-4A3F-440B-9A66-D721EDE10324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FD6EDF-9664-4135-A5E0-E260451716FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_36" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
   <si>
     <t>Total</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J92" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B5:J92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J93" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B5:J93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -841,7 +841,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:J95"/>
+  <dimension ref="B2:J96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -917,2629 +917,2659 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>2025</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(E6:J6)</f>
+        <v>33018.9152630842</v>
+      </c>
+      <c r="E6" s="9">
+        <v>656.81100000000004</v>
+      </c>
+      <c r="F6" s="9">
+        <v>9601.0071100000005</v>
+      </c>
+      <c r="G6" s="9">
+        <v>140.99299999999999</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2170.9105</v>
+      </c>
+      <c r="I6" s="9">
+        <v>8914.0721530842002</v>
+      </c>
+      <c r="J6" s="9">
+        <v>11535.121499999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12">
-        <f>SUM(E6:J6)</f>
+      <c r="D7" s="12">
+        <f>SUM(E7:J7)</f>
         <v>38918.408442835935</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>803.03599999999994</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>10916.531330000002</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>104.68</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="13">
         <v>2525.8702799999996</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="13">
         <v>9767.0137328359342</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J7" s="13">
         <v>14801.277099999999</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
         <v>2025</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8">
-        <f>SUM(E7:J7)</f>
+      <c r="D8" s="8">
+        <f>SUM(E8:J8)</f>
         <v>32801.154213885173</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>728.84699999999998</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="9">
         <v>8878.0039399999987</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="9">
         <v>59.85</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H8" s="9">
         <v>2255.4859999999999</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I8" s="9">
         <v>8489.2731738851744</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J8" s="9">
         <v>12389.694099999999</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
         <v>2025</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16">
-        <f>SUM(E8:J8)</f>
+      <c r="D9" s="16">
+        <f>SUM(E9:J9)</f>
         <v>32738.156787040898</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>547.80899999999997</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>9255.4840800000002</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>64.498999999999995</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H9" s="17">
         <v>2006.0550999999998</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I9" s="17">
         <v>8929.485507040903</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J9" s="17">
         <v>11934.8241</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
         <v>2024</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8">
-        <f>SUM(E9:J9)</f>
+      <c r="D10" s="8">
+        <f>SUM(E10:J10)</f>
         <v>36553.283453957527</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>567.71299999999997</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>11062.715380000001</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>83.263000000000005</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H10" s="9">
         <v>2193.5998599999998</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I10" s="9">
         <v>9052.3878139575227</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J10" s="9">
         <v>13593.6044</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="12">
-        <f>SUM(E10:J10)</f>
+      <c r="D11" s="12">
+        <f>SUM(E11:J11)</f>
         <v>38955.349190032139</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>476.91500000000002</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>11865.983349999999</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>118.56699999999999</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="13">
         <v>2287.3870999999999</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I11" s="13">
         <v>9767.1580400321363</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J11" s="13">
         <v>14439.3387</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
         <v>2024</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" ref="D11" si="0">SUM(E11:J11)</f>
+      <c r="D12" s="8">
+        <f t="shared" ref="D12" si="0">SUM(E12:J12)</f>
         <v>40583.470433011738</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>595.11500000000001</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>11875.472707000001</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <v>108.72</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H12" s="9">
         <v>2518.88535</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I12" s="9">
         <v>10723.791076011736</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J12" s="9">
         <v>14761.4863</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
-        <f>SUM(E12:J12)</f>
+      <c r="D13" s="12">
+        <f>SUM(E13:J13)</f>
         <v>36709.209215460316</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="13">
         <v>655.125</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="13">
         <v>11496.19375</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>77.037000000000006</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="13">
         <v>2604.8681999999999</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="13">
         <v>9467.4052554603149</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J13" s="13">
         <v>12408.580010000001</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
         <v>2024</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" ref="D13:D47" si="1">SUM(E13:J13)</f>
+      <c r="D14" s="8">
+        <f t="shared" ref="D14:D48" si="1">SUM(E14:J14)</f>
         <v>39433.388310719492</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>784.92399999999998</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>12296.267870000001</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>99.649000000000001</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="9">
         <v>2503.4024399999998</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="9">
         <v>9761.9496007194903</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J14" s="9">
         <v>13987.195400000001</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" ref="D14:D16" si="2">SUM(E14:J14)</f>
+      <c r="D15" s="12">
+        <f t="shared" ref="D15:D17" si="2">SUM(E15:J15)</f>
         <v>40801.963929445177</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>699.11900000000003</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>12543.787289999998</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>84.063999999999993</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>2098.4537700000001</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="13">
         <v>11053.483869445181</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J15" s="13">
         <v>14323.056</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="6">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
         <v>2024</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <f t="shared" si="2"/>
         <v>39620.93221658191</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>519.66999999999996</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>12641.439460000001</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>77.063999999999993</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="9">
         <v>2216.25135</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I16" s="9">
         <v>9750.3944665819108</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J16" s="9">
         <v>14416.112940000001</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <f t="shared" si="2"/>
         <v>41707.502720706252</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>666.51599999999996</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>12929.211709999998</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>67.73</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="13">
         <v>2272.335</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="13">
         <v>11736.148020706249</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J17" s="13">
         <v>14035.561990000002</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="6">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
         <v>2024</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <f t="shared" si="1"/>
         <v>41262.668572409835</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>688.25300000000004</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>12315.689579999998</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>41.54</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H18" s="9">
         <v>2009.3571000000002</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I18" s="9">
         <v>11684.158492409841</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J18" s="9">
         <v>14523.670399999999</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <f t="shared" si="1"/>
         <v>42983.103187414818</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>794.28</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>13886.640619999998</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>59.076999999999998</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="13">
         <v>2339.2438500000003</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I19" s="13">
         <v>10445.91770541482</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J19" s="13">
         <v>15457.944011999998</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="6">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
         <v>2024</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <f t="shared" si="1"/>
         <v>40423.179039296359</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>664.82100000000003</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>12004.929049999999</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>45.631999999999998</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H20" s="9">
         <v>1860.7841100000001</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I20" s="9">
         <v>11883.265289296362</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J20" s="9">
         <v>13963.747589999999</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="14">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="14">
         <v>2024</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="16">
         <f t="shared" si="1"/>
         <v>41353.686809090235</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="17">
         <v>680.31799999999998</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>12601.32713</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G21" s="17">
         <v>44.356000000000002</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H21" s="17">
         <v>1755.9950999999999</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I21" s="17">
         <v>12111.205109090239</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J21" s="17">
         <v>14160.485470000001</v>
       </c>
     </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="18">
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="18">
         <v>2023</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D22" s="20">
         <f t="shared" si="1"/>
         <v>41305.975162030925</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E22" s="21">
         <v>772.82399999999996</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>13837.616139999998</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G22" s="21">
         <v>74.738</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H22" s="21">
         <v>2170.9023299999999</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I22" s="21">
         <v>9069.6951920309275</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J22" s="21">
         <v>15380.199500000001</v>
       </c>
     </row>
-    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <f t="shared" si="1"/>
         <v>40392.089828230179</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>779.80799999999999</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>11039.539529999998</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>95.251000000000005</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>2158.6788999999999</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>9817.7052922301791</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="13">
         <v>16501.107106000003</v>
       </c>
     </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6">
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
         <v>2023</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <f t="shared" si="1"/>
         <v>44801.968924327317</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>778.178</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>10705.033519999999</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G24" s="9">
         <v>62.91</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H24" s="9">
         <v>2322.5757999999996</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I24" s="9">
         <v>11604.903104327317</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J24" s="9">
         <v>19328.3685</v>
       </c>
     </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <f t="shared" si="1"/>
         <v>37081.792657201382</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>622.02300000000002</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>9376.2873299999992</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>85.058000000000007</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="13">
         <v>2340.9119999999998</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I25" s="13">
         <v>9719.7349272013871</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J25" s="13">
         <v>14937.777399999999</v>
       </c>
     </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
         <v>2023</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <f t="shared" si="1"/>
         <v>40017.679605821257</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>757.96799999999996</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>10215.824409999999</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="9">
         <v>52.222000000000001</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H26" s="9">
         <v>2329.6565299999997</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I26" s="9">
         <v>10678.306165821259</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J26" s="9">
         <v>15983.702499999999</v>
       </c>
     </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <f t="shared" si="1"/>
         <v>40319.464599793209</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>788.85</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>10358.44569</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>48.895000000000003</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>2259.8667999999998</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="13">
         <v>10176.83545979321</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J27" s="13">
         <v>16686.571650000002</v>
       </c>
     </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6">
         <v>2023</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <f t="shared" si="1"/>
         <v>40587.137376239552</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>645.45299999999997</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>10949.239150000001</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>36.125</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H28" s="9">
         <v>2276.2485000000001</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I28" s="9">
         <v>10352.348026239559</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J28" s="9">
         <v>16327.723699999999</v>
       </c>
     </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <f t="shared" si="1"/>
         <v>38973.999386463627</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>640.97299999999996</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>10514.624799999998</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>48.081000000000003</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>2950.8580000000002</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="13">
         <v>10310.05088646363</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J29" s="13">
         <v>14509.411699999999</v>
       </c>
     </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6">
         <v>2023</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <f t="shared" si="1"/>
         <v>36860.751413830367</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>640.28800000000001</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>10179.089970000003</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <v>36.615000000000002</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H30" s="9">
         <v>2873.6055999999999</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I30" s="9">
         <v>9745.8580438303616</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J30" s="9">
         <v>13385.2948</v>
       </c>
     </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <f t="shared" si="1"/>
         <v>40964.52406578567</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>786.44299999999998</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>10964.678350000002</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>29.545999999999999</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="13">
         <v>2982.933</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I31" s="13">
         <v>11630.43191578567</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J31" s="13">
         <v>14570.491800000002</v>
       </c>
     </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="6">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
         <v>2023</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <f t="shared" si="1"/>
         <v>34787.318148179547</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>578.94399999999996</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>8934.8815099999974</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="9">
         <v>75.331999999999994</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H32" s="9">
         <v>2327.9451500000005</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I32" s="9">
         <v>10297.70288817955</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J32" s="9">
         <v>12572.5126</v>
       </c>
     </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="14">
         <v>2023</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="16">
         <f t="shared" si="1"/>
         <v>34339.076626616064</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <v>536.072</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <v>8186.4879100000007</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G33" s="17">
         <v>36.253</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H33" s="17">
         <v>2646.0401599999996</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I33" s="17">
         <v>10631.460656616069</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J33" s="17">
         <v>12302.762899999998</v>
       </c>
     </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="18">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="18">
         <v>2022</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D34" s="20">
         <f t="shared" si="1"/>
         <v>38746.066609950823</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E34" s="21">
         <v>378.79500000000002</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F34" s="21">
         <v>9252.3727799999997</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G34" s="21">
         <v>106.069</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H34" s="21">
         <v>2824.3177999999998</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I34" s="21">
         <v>11614.168229950819</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J34" s="21">
         <v>14570.343800000001</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="10">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <f t="shared" si="1"/>
         <v>38505.180007486138</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>516.43899999999996</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>9489.5803000000014</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>75.007999999999996</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>2658.9839999999999</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="13">
         <v>11148.715107486139</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J35" s="13">
         <v>14616.453599999999</v>
       </c>
     </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="6">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6">
         <v>2022</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <f t="shared" si="1"/>
         <v>41053.772325471538</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>741.95500000000004</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>9730.2727100000011</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="9">
         <v>97.396000000000001</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H36" s="9">
         <v>2904.4928999999997</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I36" s="9">
         <v>11820.684915471538</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J36" s="9">
         <v>15758.970800000001</v>
       </c>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="10">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <f t="shared" si="1"/>
         <v>37277.511123095581</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>663.58500000000004</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>8746.3328199999996</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>20.056000000000001</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="13">
         <v>3093.5552793645161</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I37" s="13">
         <v>11160.508123731061</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J37" s="13">
         <v>13593.473900000001</v>
       </c>
     </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="6">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6">
         <v>2022</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <f t="shared" si="1"/>
         <v>39368.723200849388</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>591.01800000000003</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="9">
         <v>8719.4067500000001</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G38" s="9">
         <v>25.675000000000001</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H38" s="9">
         <v>3267.5057999999999</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I38" s="9">
         <v>12298.365450849389</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J38" s="9">
         <v>14466.752199999999</v>
       </c>
     </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <f t="shared" si="1"/>
         <v>40438.258232407403</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>530.70500000000004</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>9093.8344099999977</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>34.826000000000001</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>3252.6017000000002</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="13">
         <v>11449.207622407401</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J39" s="13">
         <v>16077.083500000001</v>
       </c>
     </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="6">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="6">
         <v>2022</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <f t="shared" si="1"/>
         <v>40705.379663201522</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>512.66099999999994</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>8969.2943099999993</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G40" s="9">
         <v>26.021000000000001</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H40" s="9">
         <v>3225.5032000000001</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I40" s="9">
         <v>12235.641653201521</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J40" s="9">
         <v>15736.2585</v>
       </c>
     </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="12">
         <f t="shared" si="1"/>
         <v>38385.635270624982</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>646.77499999999998</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>5887.1319999999996</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>121.18</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>3119.6742000000004</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="13">
         <v>12724.717070624982</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J41" s="13">
         <v>15886.156999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="6">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="6">
         <v>2022</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <f t="shared" si="1"/>
         <v>37880.648666149609</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>658.78499999999997</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>5153.4015100000006</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G42" s="9">
         <v>198.077</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H42" s="9">
         <v>2884.4317999999998</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I42" s="9">
         <v>13095.55395614961</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J42" s="9">
         <v>15890.3994</v>
       </c>
     </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="10">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <f t="shared" si="1"/>
         <v>39804.246607167996</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>701.476</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>5848.9565829999992</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>68.724999999999994</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H43" s="13">
         <v>3277.5267000000003</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I43" s="13">
         <v>13626.115124168</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J43" s="13">
         <v>16281.447199999999</v>
       </c>
     </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="6">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="6">
         <v>2022</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D44" s="8">
         <f t="shared" si="1"/>
         <v>35391.386208309319</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>638.51099999999997</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <v>5672.3767400000006</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G44" s="9">
         <v>17.033999999999999</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H44" s="9">
         <v>2882.4872999999998</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I44" s="9">
         <v>10909.849568309321</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J44" s="9">
         <v>15271.127599999998</v>
       </c>
     </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="14">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="14">
         <v>2022</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="16">
         <f t="shared" si="1"/>
         <v>32469.848449272838</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>482.12099999999998</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>6245.3897599999991</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G45" s="17">
         <v>259.46800000000002</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H45" s="17">
         <v>2435.1074600000002</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I45" s="17">
         <v>9916.5125292728408</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J45" s="17">
         <v>13131.2497</v>
       </c>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="18">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="18">
         <v>2021</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C46" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D46" s="20">
         <f t="shared" si="1"/>
         <v>39492.366382685294</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E46" s="21">
         <v>458.77499999999998</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F46" s="21">
         <v>10098.12268</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G46" s="21">
         <v>133.10599999999999</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H46" s="21">
         <v>3136.06873</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I46" s="21">
         <v>12005.78674268529</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J46" s="21">
         <v>13660.507230000001</v>
       </c>
     </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <f t="shared" si="1"/>
         <v>40331.827408900004</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>490.10599999999999</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>10062.285780000002</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>336.76799999999997</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>3288.1294800000001</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I47" s="13">
         <v>12280.809678899999</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J47" s="13">
         <v>13873.728469999998</v>
       </c>
     </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="6">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="6">
         <v>2021</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="8">
         <f t="shared" si="1"/>
         <v>41580.666843700004</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>586.94299999999998</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F48" s="9">
         <v>10735.457050000001</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G48" s="9">
         <v>619.62599999999998</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H48" s="9">
         <v>2722.0764900000004</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I48" s="9">
         <v>11237.549403700001</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J48" s="9">
         <v>15679.0149</v>
       </c>
     </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="12">
-        <f t="shared" ref="D48:D79" si="3">SUM(E48:J48)</f>
+      <c r="D49" s="12">
+        <f t="shared" ref="D49:D80" si="3">SUM(E49:J49)</f>
         <v>38165.8196035</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>696.17100000000005</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>10134.700359999999</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>487.45499999999998</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="13">
         <v>2548.2033000000001</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I49" s="13">
         <v>11597.826043499999</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J49" s="13">
         <v>12701.463900000001</v>
       </c>
     </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="6">
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="6">
         <v>2021</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <f t="shared" si="3"/>
         <v>37424.307471799999</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>396.84</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <v>9954.2116800000003</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G50" s="9">
         <v>550.08500000000004</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H50" s="9">
         <v>2444.3667</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I50" s="9">
         <v>11310.234991799998</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J50" s="9">
         <v>12768.569099999999</v>
       </c>
     </row>
-    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="10">
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <f t="shared" si="3"/>
         <v>39029.204718000001</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>501.01900000000001</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>10968.570522</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>546.27499999999998</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>2313.2728999999999</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="13">
         <v>11426.955696000001</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J51" s="13">
         <v>13273.1116</v>
       </c>
     </row>
-    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="6">
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="6">
         <v>2021</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <f t="shared" si="3"/>
         <v>37745.558432400001</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>463.83300000000003</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>10031.152749999999</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G52" s="9">
         <v>463.92500000000001</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H52" s="9">
         <v>1743.7754</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I52" s="9">
         <v>11018.1134824</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J52" s="9">
         <v>14024.758800000001</v>
       </c>
     </row>
-    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="10">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="12">
         <f t="shared" si="3"/>
         <v>38457.492379999996</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>554.96</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>9638.9807799999999</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>289.39</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>1666.4480000000001</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I53" s="13">
         <v>11157.246999999999</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J53" s="13">
         <v>15150.4666</v>
       </c>
     </row>
-    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="6">
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="6">
         <v>2021</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <f t="shared" si="3"/>
         <v>37112.560168100004</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>590.50099999999998</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F54" s="9">
         <v>9277.434830000002</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G54" s="9">
         <v>331.7</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H54" s="9">
         <v>1472.3352</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I54" s="9">
         <v>11167.4790381</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J54" s="9">
         <v>14273.1101</v>
       </c>
     </row>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="10">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="12">
         <f t="shared" si="3"/>
         <v>41269.452216999998</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>386.11599999999999</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>10042.040590000001</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>536.54600000000005</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="13">
         <v>1531.1469999999999</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I55" s="13">
         <v>13111.292127000001</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J55" s="13">
         <v>15662.3105</v>
       </c>
     </row>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="6">
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="6">
         <v>2021</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="8">
         <f t="shared" si="3"/>
         <v>34648.807876000006</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>219.61199999999999</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="9">
         <v>8953.9622800000016</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G56" s="9">
         <v>228.47900000000001</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H56" s="9">
         <v>1342.146</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I56" s="9">
         <v>9816.7840960000012</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J56" s="9">
         <v>14087.824500000001</v>
       </c>
     </row>
-    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="14">
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="14">
         <v>2021</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="16">
         <f t="shared" si="3"/>
         <v>36982.816146000005</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>129.93199999999999</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>10106.45505</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G57" s="17">
         <v>156.72999999999999</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H57" s="17">
         <v>1370.9369999999999</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I57" s="17">
         <v>11214.778596</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J57" s="17">
         <v>14003.9835</v>
       </c>
     </row>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="18">
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="18">
         <v>2020</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C58" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D58" s="20">
         <f t="shared" si="3"/>
         <v>36967.920087999999</v>
       </c>
-      <c r="E57" s="21">
-        <v>0</v>
-      </c>
-      <c r="F57" s="21">
+      <c r="E58" s="21">
+        <v>0</v>
+      </c>
+      <c r="F58" s="21">
         <v>10567.67765</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G58" s="21">
         <v>247.25800000000001</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H58" s="21">
         <v>1325.12</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I58" s="21">
         <v>11836.856238</v>
       </c>
-      <c r="J57" s="21">
+      <c r="J58" s="21">
         <v>12991.008199999998</v>
       </c>
     </row>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="10">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <f t="shared" si="3"/>
         <v>36852.864462999998</v>
       </c>
-      <c r="E58" s="13">
-        <v>0</v>
-      </c>
-      <c r="F58" s="13">
+      <c r="E59" s="13">
+        <v>0</v>
+      </c>
+      <c r="F59" s="13">
         <v>10376.03788</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>137.81200000000001</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>1566.683</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="13">
         <v>11120.986982999999</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J59" s="13">
         <v>13651.3446</v>
       </c>
     </row>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="6">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="6">
         <v>2020</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="8">
         <f t="shared" si="3"/>
         <v>37111.751327400001</v>
       </c>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9">
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
+      <c r="F60" s="9">
         <v>10139.1556</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G60" s="9">
         <v>42.646000000000001</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H60" s="9">
         <v>1292.682</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I60" s="9">
         <v>10863.6815274</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J60" s="9">
         <v>14773.5862</v>
       </c>
     </row>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="10">
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <f t="shared" si="3"/>
         <v>31289.118952199999</v>
       </c>
-      <c r="E60" s="13">
-        <v>0</v>
-      </c>
-      <c r="F60" s="13">
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
         <v>8729.1361899999993</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>35.866999999999997</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="13">
         <v>987.66099999999994</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I61" s="13">
         <v>9399.9986922000007</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J61" s="13">
         <v>12136.45607</v>
       </c>
     </row>
-    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="6">
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="6">
         <v>2020</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <f t="shared" si="3"/>
         <v>28794.378688499997</v>
       </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="9">
+      <c r="E62" s="9">
+        <v>0</v>
+      </c>
+      <c r="F62" s="9">
         <v>8471.0650299999998</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G62" s="9">
         <v>42.926000000000002</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H62" s="9">
         <v>1074.0519999999999</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I62" s="9">
         <v>8606.7041585000006</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J62" s="9">
         <v>10599.6315</v>
       </c>
     </row>
-    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="10">
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <f t="shared" si="3"/>
         <v>27431.279484500003</v>
       </c>
-      <c r="E62" s="13">
-        <v>0</v>
-      </c>
-      <c r="F62" s="13">
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
         <v>8226.0579799999996</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>36.588000000000001</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>1040.3589999999999</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="13">
         <v>8177.4266045000004</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J63" s="13">
         <v>9950.8479000000007</v>
       </c>
     </row>
-    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="6">
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="6">
         <v>2020</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <f t="shared" si="3"/>
         <v>25926.471812200001</v>
       </c>
-      <c r="E63" s="9">
-        <v>0</v>
-      </c>
-      <c r="F63" s="9">
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="9">
         <v>7134.2837199999994</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="9">
         <v>63.805</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H64" s="9">
         <v>855.82899999999995</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I64" s="9">
         <v>7779.0341922000007</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J64" s="9">
         <v>10093.519900000001</v>
       </c>
     </row>
-    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="10">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="12">
         <f t="shared" si="3"/>
         <v>23168.212673900001</v>
       </c>
-      <c r="E64" s="13">
-        <v>0</v>
-      </c>
-      <c r="F64" s="13">
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13">
         <v>6023.6581899999992</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>187.08600000000001</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>832.03399999999999</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="13">
         <v>7072.7845839000001</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J65" s="13">
         <v>9052.6499000000003</v>
       </c>
     </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="6">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="6">
         <v>2020</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <f t="shared" si="3"/>
         <v>20427.959275100002</v>
       </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9">
         <v>5209.0807000000004</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G66" s="9">
         <v>24.07</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H66" s="9">
         <v>739.351</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I66" s="9">
         <v>6596.5606751000005</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J66" s="9">
         <v>7858.8969000000006</v>
       </c>
     </row>
-    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="10">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="12">
         <f t="shared" si="3"/>
         <v>33140.735087100002</v>
       </c>
-      <c r="E66" s="13">
-        <v>0</v>
-      </c>
-      <c r="F66" s="13">
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
         <v>8644.8665579999997</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>50.677999999999997</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H67" s="13">
         <v>2214.377</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I67" s="13">
         <v>10403.6180291</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J67" s="13">
         <v>11827.1955</v>
       </c>
     </row>
-    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="6">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="6">
         <v>2020</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="8">
         <f t="shared" si="3"/>
         <v>31595.295708999998</v>
       </c>
-      <c r="E67" s="9">
-        <v>0</v>
-      </c>
-      <c r="F67" s="9">
+      <c r="E68" s="9">
+        <v>0</v>
+      </c>
+      <c r="F68" s="9">
         <v>8503.3772899999985</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G68" s="9">
         <v>71.156000000000006</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H68" s="9">
         <v>2496.2399999999998</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I68" s="9">
         <v>9914.0471189999989</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J68" s="9">
         <v>10610.4753</v>
       </c>
     </row>
-    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="14">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="14">
         <v>2020</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="16">
         <f t="shared" si="3"/>
         <v>31902.586373000002</v>
       </c>
-      <c r="E68" s="17">
-        <v>0</v>
-      </c>
-      <c r="F68" s="17">
+      <c r="E69" s="17">
+        <v>0</v>
+      </c>
+      <c r="F69" s="17">
         <v>8365.6301700000004</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G69" s="17">
         <v>80.352000000000004</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H69" s="17">
         <v>2759.7359999999999</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I69" s="17">
         <v>11337.052103</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J69" s="17">
         <v>9359.8161</v>
       </c>
     </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="18">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="18">
         <v>2019</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C70" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D70" s="20">
         <f t="shared" si="3"/>
         <v>34834.055678999997</v>
       </c>
-      <c r="E69" s="21">
-        <v>0</v>
-      </c>
-      <c r="F69" s="21">
+      <c r="E70" s="21">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21">
         <v>9580.7296500000011</v>
       </c>
-      <c r="G69" s="21">
-        <v>0</v>
-      </c>
-      <c r="H69" s="21">
+      <c r="G70" s="21">
+        <v>0</v>
+      </c>
+      <c r="H70" s="21">
         <v>2707.5740000000001</v>
       </c>
-      <c r="I69" s="21">
+      <c r="I70" s="21">
         <v>11491.813929</v>
       </c>
-      <c r="J69" s="21">
+      <c r="J70" s="21">
         <v>11053.938099999999</v>
       </c>
     </row>
-    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="10">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <f t="shared" si="3"/>
         <v>36842.30025</v>
       </c>
-      <c r="E70" s="13">
-        <v>0</v>
-      </c>
-      <c r="F70" s="13">
+      <c r="E71" s="13">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
         <v>9295.5269499999995</v>
       </c>
-      <c r="G70" s="13">
-        <v>0</v>
-      </c>
-      <c r="H70" s="13">
+      <c r="G71" s="13">
+        <v>0</v>
+      </c>
+      <c r="H71" s="13">
         <v>2968.0250000000001</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I71" s="13">
         <v>12197.1018</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J71" s="13">
         <v>12381.646500000001</v>
       </c>
     </row>
-    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="6">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="6">
         <v>2019</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="8">
         <f t="shared" si="3"/>
         <v>37499.549509000004</v>
       </c>
-      <c r="E71" s="9">
-        <v>0</v>
-      </c>
-      <c r="F71" s="9">
+      <c r="E72" s="9">
+        <v>0</v>
+      </c>
+      <c r="F72" s="9">
         <v>8717.2473399999999</v>
       </c>
-      <c r="G71" s="9">
-        <v>0</v>
-      </c>
-      <c r="H71" s="9">
+      <c r="G72" s="9">
+        <v>0</v>
+      </c>
+      <c r="H72" s="9">
         <v>2772.4720000000002</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I72" s="9">
         <v>12460.489269000002</v>
       </c>
-      <c r="J71" s="9">
+      <c r="J72" s="9">
         <v>13549.340900000001</v>
       </c>
     </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="10">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="12">
         <f t="shared" si="3"/>
         <v>34780.897574999995</v>
       </c>
-      <c r="E72" s="13">
-        <v>0</v>
-      </c>
-      <c r="F72" s="13">
+      <c r="E73" s="13">
+        <v>0</v>
+      </c>
+      <c r="F73" s="13">
         <v>8235.0453999999991</v>
       </c>
-      <c r="G72" s="13">
-        <v>0</v>
-      </c>
-      <c r="H72" s="13">
+      <c r="G73" s="13">
+        <v>0</v>
+      </c>
+      <c r="H73" s="13">
         <v>3011.7339999999999</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I73" s="13">
         <v>11347.632975</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J73" s="13">
         <v>12186.485199999999</v>
       </c>
     </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="6">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="6">
         <v>2019</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <f t="shared" si="3"/>
         <v>36123.947636999997</v>
       </c>
-      <c r="E73" s="9">
-        <v>0</v>
-      </c>
-      <c r="F73" s="9">
+      <c r="E74" s="9">
+        <v>0</v>
+      </c>
+      <c r="F74" s="9">
         <v>8047.0139099999997</v>
       </c>
-      <c r="G73" s="9">
-        <v>0</v>
-      </c>
-      <c r="H73" s="9">
+      <c r="G74" s="9">
+        <v>0</v>
+      </c>
+      <c r="H74" s="9">
         <v>2861.5230000000001</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I74" s="9">
         <v>13553.171926999999</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J74" s="9">
         <v>11662.238800000001</v>
       </c>
     </row>
-    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="10">
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="12">
         <f t="shared" si="3"/>
         <v>36989.020386999997</v>
       </c>
-      <c r="E74" s="13">
-        <v>0</v>
-      </c>
-      <c r="F74" s="13">
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13">
         <v>8253.6834899999994</v>
       </c>
-      <c r="G74" s="13">
-        <v>0</v>
-      </c>
-      <c r="H74" s="13">
+      <c r="G75" s="13">
+        <v>0</v>
+      </c>
+      <c r="H75" s="13">
         <v>2588.3980000000001</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I75" s="13">
         <v>13481.634697000001</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J75" s="13">
         <v>12665.304199999999</v>
       </c>
     </row>
-    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="6">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="6">
         <v>2019</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <f t="shared" si="3"/>
         <v>36253.700530000002</v>
       </c>
-      <c r="E75" s="9">
-        <v>0</v>
-      </c>
-      <c r="F75" s="9">
+      <c r="E76" s="9">
+        <v>0</v>
+      </c>
+      <c r="F76" s="9">
         <v>7444.2109199999995</v>
       </c>
-      <c r="G75" s="9">
-        <v>0</v>
-      </c>
-      <c r="H75" s="9">
+      <c r="G76" s="9">
+        <v>0</v>
+      </c>
+      <c r="H76" s="9">
         <v>2726.3809999999999</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I76" s="9">
         <v>14226.39911</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J76" s="9">
         <v>11856.709500000001</v>
       </c>
     </row>
-    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="10">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="12">
         <f t="shared" si="3"/>
         <v>36841.123875999998</v>
       </c>
-      <c r="E76" s="13">
-        <v>0</v>
-      </c>
-      <c r="F76" s="13">
+      <c r="E77" s="13">
+        <v>0</v>
+      </c>
+      <c r="F77" s="13">
         <v>8213.8209500000012</v>
       </c>
-      <c r="G76" s="13">
-        <v>0</v>
-      </c>
-      <c r="H76" s="13">
+      <c r="G77" s="13">
+        <v>0</v>
+      </c>
+      <c r="H77" s="13">
         <v>2822.8220000000001</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I77" s="13">
         <v>14573.453925999998</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J77" s="13">
         <v>11231.027</v>
       </c>
     </row>
-    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="6">
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="6">
         <v>2019</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <f t="shared" si="3"/>
         <v>34774.654051999998</v>
       </c>
-      <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77" s="9">
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+      <c r="F78" s="9">
         <v>7045.8119100000004</v>
       </c>
-      <c r="G77" s="9">
-        <v>0</v>
-      </c>
-      <c r="H77" s="9">
+      <c r="G78" s="9">
+        <v>0</v>
+      </c>
+      <c r="H78" s="9">
         <v>2281.2820000000002</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I78" s="9">
         <v>14819.089841999999</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J78" s="9">
         <v>10628.470300000001</v>
       </c>
     </row>
-    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="10">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <f t="shared" si="3"/>
         <v>41597.635473399998</v>
       </c>
-      <c r="E78" s="13">
-        <v>0</v>
-      </c>
-      <c r="F78" s="13">
+      <c r="E79" s="13">
+        <v>0</v>
+      </c>
+      <c r="F79" s="13">
         <v>8978.2172699999992</v>
       </c>
-      <c r="G78" s="13">
-        <v>0</v>
-      </c>
-      <c r="H78" s="13">
+      <c r="G79" s="13">
+        <v>0</v>
+      </c>
+      <c r="H79" s="13">
         <v>2665.5234</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I79" s="13">
         <v>16057.1642034</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J79" s="13">
         <v>13896.730599999999</v>
       </c>
     </row>
-    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="6">
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="6">
         <v>2019</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <f t="shared" si="3"/>
         <v>34403.574224000004</v>
       </c>
-      <c r="E79" s="9">
-        <v>0</v>
-      </c>
-      <c r="F79" s="9">
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="9">
         <v>7372.8365000000003</v>
       </c>
-      <c r="G79" s="9">
-        <v>0</v>
-      </c>
-      <c r="H79" s="9">
+      <c r="G80" s="9">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9">
         <v>2041.7819999999999</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I80" s="9">
         <v>14155.565524</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J80" s="9">
         <v>10833.3902</v>
       </c>
     </row>
-    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="14">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="14">
         <v>2019</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="16">
-        <f t="shared" ref="D80:D92" si="4">SUM(E80:J80)</f>
+      <c r="D81" s="16">
+        <f t="shared" ref="D81:D93" si="4">SUM(E81:J81)</f>
         <v>34340.204129700003</v>
       </c>
-      <c r="E80" s="17">
-        <v>0</v>
-      </c>
-      <c r="F80" s="17">
+      <c r="E81" s="17">
+        <v>0</v>
+      </c>
+      <c r="F81" s="17">
         <v>7805.6810100000012</v>
       </c>
-      <c r="G80" s="17">
-        <v>0</v>
-      </c>
-      <c r="H80" s="17">
+      <c r="G81" s="17">
+        <v>0</v>
+      </c>
+      <c r="H81" s="17">
         <v>2447.4140000000002</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I81" s="17">
         <v>13462.407319700002</v>
       </c>
-      <c r="J80" s="17">
+      <c r="J81" s="17">
         <v>10624.701800000001</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="7">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="7">
         <v>2018</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <f t="shared" si="4"/>
         <v>39107.630482000008</v>
       </c>
-      <c r="E81" s="9">
-        <v>0</v>
-      </c>
-      <c r="F81" s="9">
+      <c r="E82" s="9">
+        <v>0</v>
+      </c>
+      <c r="F82" s="9">
         <v>9016.9082100000014</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G82" s="9">
         <v>604.548</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H82" s="9">
         <v>2518.2449999999999</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I82" s="9">
         <v>14153.156971999999</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J82" s="9">
         <v>12814.772300000001</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="11">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <f t="shared" si="4"/>
         <v>40739.449042</v>
       </c>
-      <c r="E82" s="13">
-        <v>0</v>
-      </c>
-      <c r="F82" s="13">
+      <c r="E83" s="13">
+        <v>0</v>
+      </c>
+      <c r="F83" s="13">
         <v>10171.974600000001</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>543.64599999999996</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H83" s="13">
         <v>3271.4839999999999</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>14774.019941999999</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J83" s="13">
         <v>11978.324500000001</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="7">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="7">
         <v>2018</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="8">
         <f t="shared" si="4"/>
         <v>41232.318012000003</v>
       </c>
-      <c r="E83" s="9">
-        <v>0</v>
-      </c>
-      <c r="F83" s="9">
+      <c r="E84" s="9">
+        <v>0</v>
+      </c>
+      <c r="F84" s="9">
         <v>9028.4674500000001</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G84" s="9">
         <v>556.69100000000003</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H84" s="9">
         <v>3183.5309999999999</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I84" s="9">
         <v>15699.443762000001</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J84" s="9">
         <v>12764.184800000001</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="11">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <f t="shared" si="4"/>
         <v>39190.964049599999</v>
       </c>
-      <c r="E84" s="13">
-        <v>0</v>
-      </c>
-      <c r="F84" s="13">
+      <c r="E85" s="13">
+        <v>0</v>
+      </c>
+      <c r="F85" s="13">
         <v>9327.9771700000001</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="13">
         <v>646.58299999999997</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H85" s="13">
         <v>3104.5279999999998</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I85" s="13">
         <v>13338.916489599998</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J85" s="13">
         <v>12772.95939</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="7">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <f t="shared" si="4"/>
         <v>37812.709869799997</v>
       </c>
-      <c r="E85" s="9">
-        <v>0</v>
-      </c>
-      <c r="F85" s="9">
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="9">
         <v>8414.4507599999997</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G86" s="9">
         <v>730.47900000000004</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H86" s="9">
         <v>3062.973</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I86" s="9">
         <v>14063.5628698</v>
       </c>
-      <c r="J85" s="9">
+      <c r="J86" s="9">
         <v>11541.24424</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="11">
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <f t="shared" si="4"/>
         <v>39965.855546999999</v>
       </c>
-      <c r="E86" s="13">
-        <v>0</v>
-      </c>
-      <c r="F86" s="13">
+      <c r="E87" s="13">
+        <v>0</v>
+      </c>
+      <c r="F87" s="13">
         <v>8683.6723199999997</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>687.87199999999996</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H87" s="13">
         <v>2884.9024869999998</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>14803.904460000002</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J87" s="13">
         <v>12905.504279999999</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="7">
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <f t="shared" si="4"/>
         <v>41066.873502000002</v>
       </c>
-      <c r="E87" s="9">
-        <v>0</v>
-      </c>
-      <c r="F87" s="9">
+      <c r="E88" s="9">
+        <v>0</v>
+      </c>
+      <c r="F88" s="9">
         <v>8739.8234700000012</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G88" s="9">
         <v>775.90599999999995</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H88" s="9">
         <v>3132.7950000000001</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I88" s="9">
         <v>15348.913632</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J88" s="9">
         <v>13069.4354</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="11">
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <f t="shared" si="4"/>
         <v>39330.274949999999</v>
       </c>
-      <c r="E88" s="13">
-        <v>0</v>
-      </c>
-      <c r="F88" s="13">
+      <c r="E89" s="13">
+        <v>0</v>
+      </c>
+      <c r="F89" s="13">
         <v>8459.8314499999997</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>741.85500000000002</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H89" s="13">
         <v>3243.9609999999998</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>15389.468199999999</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J89" s="13">
         <v>11495.159300000001</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="7">
+    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D90" s="8">
         <f t="shared" si="4"/>
         <v>42190.912314999994</v>
       </c>
-      <c r="E89" s="9">
-        <v>0</v>
-      </c>
-      <c r="F89" s="9">
+      <c r="E90" s="9">
+        <v>0</v>
+      </c>
+      <c r="F90" s="9">
         <v>9138.4659200000006</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G90" s="9">
         <v>763.33</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H90" s="9">
         <v>2695.9059999999999</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I90" s="9">
         <v>17318.287694999999</v>
       </c>
-      <c r="J89" s="9">
+      <c r="J90" s="9">
         <v>12274.922699999999</v>
       </c>
     </row>
-    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="11">
+    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="11">
         <v>2018</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C91" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D91" s="12">
         <f t="shared" si="4"/>
         <v>42310.135434999997</v>
       </c>
-      <c r="E90" s="13">
-        <v>0</v>
-      </c>
-      <c r="F90" s="13">
+      <c r="E91" s="13">
+        <v>0</v>
+      </c>
+      <c r="F91" s="13">
         <v>9362.9394400000001</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G91" s="13">
         <v>388.47899999999998</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H91" s="13">
         <v>3041.660961</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I91" s="13">
         <v>15644.620234</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J91" s="13">
         <v>13872.435800000001</v>
       </c>
     </row>
-    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="7">
+    <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="7">
         <v>2018</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <f t="shared" si="4"/>
         <v>34826.467999300003</v>
       </c>
-      <c r="E91" s="9">
-        <v>0</v>
-      </c>
-      <c r="F91" s="9">
+      <c r="E92" s="9">
+        <v>0</v>
+      </c>
+      <c r="F92" s="9">
         <v>7302.8320700000004</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G92" s="9">
         <v>356.733</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H92" s="9">
         <v>2616.0599083000002</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I92" s="9">
         <v>13679.491221</v>
       </c>
-      <c r="J91" s="9">
+      <c r="J92" s="9">
         <v>10871.3518</v>
       </c>
     </row>
-    <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="11">
+    <row r="93" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="11">
         <v>2018</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C93" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D93" s="12">
         <f t="shared" si="4"/>
         <v>34940.797042999999</v>
       </c>
-      <c r="E92" s="13">
-        <v>0</v>
-      </c>
-      <c r="F92" s="13">
+      <c r="E93" s="13">
+        <v>0</v>
+      </c>
+      <c r="F93" s="13">
         <v>7741.241140000001</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G93" s="13">
         <v>295.541</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H93" s="13">
         <v>2365.5157000000004</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I93" s="13">
         <v>14151.311802999999</v>
       </c>
-      <c r="J92" s="13">
+      <c r="J93" s="13">
         <v>10387.187400000001</v>
       </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J95" s="22"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Carga_por_aerolinea_inter.xlsx
+++ b/Carga_por_aerolinea_inter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FD6EDF-9664-4135-A5E0-E260451716FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC54A96-9B38-45AA-8EB4-0658A967A91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
   <si>
     <t>Total</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -282,20 +282,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -356,13 +345,13 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +498,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -592,11 +581,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J93" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B5:J93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J95" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B5:J95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -841,9 +831,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:J96"/>
+  <dimension ref="B2:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -921,29 +911,29 @@
         <v>2025</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8">
         <f>SUM(E6:J6)</f>
-        <v>33018.9152630842</v>
+        <v>37313.79596405015</v>
       </c>
       <c r="E6" s="9">
-        <v>656.81100000000004</v>
+        <v>744.50599999999997</v>
       </c>
       <c r="F6" s="9">
-        <v>9601.0071100000005</v>
+        <v>12131.76</v>
       </c>
       <c r="G6" s="9">
-        <v>140.99299999999999</v>
+        <v>44.430999999999997</v>
       </c>
       <c r="H6" s="9">
-        <v>2170.9105</v>
+        <v>1946.3588999999999</v>
       </c>
       <c r="I6" s="9">
-        <v>8914.0721530842002</v>
+        <v>9363.910164050154</v>
       </c>
       <c r="J6" s="9">
-        <v>11535.121499999999</v>
+        <v>13082.829899999999</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -951,29 +941,29 @@
         <v>2025</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="12">
         <f>SUM(E7:J7)</f>
-        <v>38918.408442835935</v>
+        <v>37219.820942089573</v>
       </c>
       <c r="E7" s="13">
-        <v>803.03599999999994</v>
+        <v>806.24699999999996</v>
       </c>
       <c r="F7" s="13">
-        <v>10916.531330000002</v>
+        <v>11720.50963</v>
       </c>
       <c r="G7" s="13">
-        <v>104.68</v>
+        <v>189.77500000000001</v>
       </c>
       <c r="H7" s="13">
-        <v>2525.8702799999996</v>
+        <v>2209.8452000000002</v>
       </c>
       <c r="I7" s="13">
-        <v>9767.0137328359342</v>
+        <v>9169.3250420895747</v>
       </c>
       <c r="J7" s="13">
-        <v>14801.277099999999</v>
+        <v>13124.119070000001</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -981,119 +971,119 @@
         <v>2025</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8">
-        <f>SUM(E8:J8)</f>
-        <v>32801.154213885173</v>
+        <f t="shared" ref="D8:D13" si="0">SUM(E8:J8)</f>
+        <v>33018.9152630842</v>
       </c>
       <c r="E8" s="9">
-        <v>728.84699999999998</v>
+        <v>656.81100000000004</v>
       </c>
       <c r="F8" s="9">
-        <v>8878.0039399999987</v>
+        <v>9601.0071100000005</v>
       </c>
       <c r="G8" s="9">
-        <v>59.85</v>
+        <v>140.99299999999999</v>
       </c>
       <c r="H8" s="9">
-        <v>2255.4859999999999</v>
+        <v>2170.9105</v>
       </c>
       <c r="I8" s="9">
-        <v>8489.2731738851744</v>
+        <v>8914.0721530842002</v>
       </c>
       <c r="J8" s="9">
-        <v>12389.694099999999</v>
+        <v>11535.121499999999</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
+      <c r="B9" s="10">
         <v>2025</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="16">
-        <f>SUM(E9:J9)</f>
-        <v>32738.156787040898</v>
-      </c>
-      <c r="E9" s="17">
-        <v>547.80899999999997</v>
-      </c>
-      <c r="F9" s="17">
-        <v>9255.4840800000002</v>
-      </c>
-      <c r="G9" s="17">
-        <v>64.498999999999995</v>
-      </c>
-      <c r="H9" s="17">
-        <v>2006.0550999999998</v>
-      </c>
-      <c r="I9" s="17">
-        <v>8929.485507040903</v>
-      </c>
-      <c r="J9" s="17">
-        <v>11934.8241</v>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>38918.408442835935</v>
+      </c>
+      <c r="E9" s="13">
+        <v>803.03599999999994</v>
+      </c>
+      <c r="F9" s="13">
+        <v>10916.531330000002</v>
+      </c>
+      <c r="G9" s="13">
+        <v>104.68</v>
+      </c>
+      <c r="H9" s="13">
+        <v>2525.8702799999996</v>
+      </c>
+      <c r="I9" s="13">
+        <v>9767.0137328359342</v>
+      </c>
+      <c r="J9" s="13">
+        <v>14801.277099999999</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8">
-        <f>SUM(E10:J10)</f>
-        <v>36553.283453957527</v>
+        <f t="shared" si="0"/>
+        <v>32801.154213885173</v>
       </c>
       <c r="E10" s="9">
-        <v>567.71299999999997</v>
+        <v>728.84699999999998</v>
       </c>
       <c r="F10" s="9">
-        <v>11062.715380000001</v>
+        <v>8878.0039399999987</v>
       </c>
       <c r="G10" s="9">
-        <v>83.263000000000005</v>
+        <v>59.85</v>
       </c>
       <c r="H10" s="9">
-        <v>2193.5998599999998</v>
+        <v>2255.4859999999999</v>
       </c>
       <c r="I10" s="9">
-        <v>9052.3878139575227</v>
+        <v>8489.2731738851744</v>
       </c>
       <c r="J10" s="9">
-        <v>13593.6044</v>
+        <v>12389.694099999999</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="12">
-        <f>SUM(E11:J11)</f>
-        <v>38955.349190032139</v>
-      </c>
-      <c r="E11" s="13">
-        <v>476.91500000000002</v>
-      </c>
-      <c r="F11" s="13">
-        <v>11865.983349999999</v>
-      </c>
-      <c r="G11" s="13">
-        <v>118.56699999999999</v>
-      </c>
-      <c r="H11" s="13">
-        <v>2287.3870999999999</v>
-      </c>
-      <c r="I11" s="13">
-        <v>9767.1580400321363</v>
-      </c>
-      <c r="J11" s="13">
-        <v>14439.3387</v>
+      <c r="B11" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
+        <v>32738.156787040898</v>
+      </c>
+      <c r="E11" s="17">
+        <v>547.80899999999997</v>
+      </c>
+      <c r="F11" s="17">
+        <v>9255.4840800000002</v>
+      </c>
+      <c r="G11" s="17">
+        <v>64.498999999999995</v>
+      </c>
+      <c r="H11" s="17">
+        <v>2006.0550999999998</v>
+      </c>
+      <c r="I11" s="17">
+        <v>8929.485507040903</v>
+      </c>
+      <c r="J11" s="17">
+        <v>11934.8241</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -1101,29 +1091,29 @@
         <v>2024</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" ref="D12" si="0">SUM(E12:J12)</f>
-        <v>40583.470433011738</v>
+        <f t="shared" si="0"/>
+        <v>36681.74245395753</v>
       </c>
       <c r="E12" s="9">
-        <v>595.11500000000001</v>
+        <v>567.71299999999997</v>
       </c>
       <c r="F12" s="9">
-        <v>11875.472707000001</v>
+        <v>11191.17438</v>
       </c>
       <c r="G12" s="9">
-        <v>108.72</v>
+        <v>83.263000000000005</v>
       </c>
       <c r="H12" s="9">
-        <v>2518.88535</v>
+        <v>2193.5998599999998</v>
       </c>
       <c r="I12" s="9">
-        <v>10723.791076011736</v>
+        <v>9052.3878139575227</v>
       </c>
       <c r="J12" s="9">
-        <v>14761.4863</v>
+        <v>13593.6044</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -1131,29 +1121,29 @@
         <v>2024</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="12">
-        <f>SUM(E13:J13)</f>
-        <v>36709.209215460316</v>
+        <f t="shared" si="0"/>
+        <v>39082.920190032135</v>
       </c>
       <c r="E13" s="13">
-        <v>655.125</v>
+        <v>476.91500000000002</v>
       </c>
       <c r="F13" s="13">
-        <v>11496.19375</v>
+        <v>11993.554349999999</v>
       </c>
       <c r="G13" s="13">
-        <v>77.037000000000006</v>
+        <v>118.56699999999999</v>
       </c>
       <c r="H13" s="13">
-        <v>2604.8681999999999</v>
+        <v>2287.3870999999999</v>
       </c>
       <c r="I13" s="13">
-        <v>9467.4052554603149</v>
+        <v>9767.1580400321363</v>
       </c>
       <c r="J13" s="13">
-        <v>12408.580010000001</v>
+        <v>14439.3387</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -1161,29 +1151,29 @@
         <v>2024</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" ref="D14:D48" si="1">SUM(E14:J14)</f>
-        <v>39433.388310719492</v>
+        <f t="shared" ref="D14" si="1">SUM(E14:J14)</f>
+        <v>40695.70943301174</v>
       </c>
       <c r="E14" s="9">
-        <v>784.92399999999998</v>
+        <v>595.11500000000001</v>
       </c>
       <c r="F14" s="9">
-        <v>12296.267870000001</v>
+        <v>11987.711707</v>
       </c>
       <c r="G14" s="9">
-        <v>99.649000000000001</v>
+        <v>108.72</v>
       </c>
       <c r="H14" s="9">
-        <v>2503.4024399999998</v>
+        <v>2518.88535</v>
       </c>
       <c r="I14" s="9">
-        <v>9761.9496007194903</v>
+        <v>10723.791076011736</v>
       </c>
       <c r="J14" s="9">
-        <v>13987.195400000001</v>
+        <v>14761.4863</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -1191,29 +1181,29 @@
         <v>2024</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" ref="D15:D17" si="2">SUM(E15:J15)</f>
-        <v>40801.963929445177</v>
+        <f>SUM(E15:J15)</f>
+        <v>36776.685215460311</v>
       </c>
       <c r="E15" s="13">
-        <v>699.11900000000003</v>
+        <v>655.125</v>
       </c>
       <c r="F15" s="13">
-        <v>12543.787289999998</v>
+        <v>11563.669749999999</v>
       </c>
       <c r="G15" s="13">
-        <v>84.063999999999993</v>
+        <v>77.037000000000006</v>
       </c>
       <c r="H15" s="13">
-        <v>2098.4537700000001</v>
+        <v>2604.8681999999999</v>
       </c>
       <c r="I15" s="13">
-        <v>11053.483869445181</v>
+        <v>9467.4052554603149</v>
       </c>
       <c r="J15" s="13">
-        <v>14323.056</v>
+        <v>12408.580010000001</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
@@ -1221,29 +1211,29 @@
         <v>2024</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="2"/>
-        <v>39620.93221658191</v>
+        <f t="shared" ref="D16:D50" si="2">SUM(E16:J16)</f>
+        <v>39433.388310719492</v>
       </c>
       <c r="E16" s="9">
-        <v>519.66999999999996</v>
+        <v>784.92399999999998</v>
       </c>
       <c r="F16" s="9">
-        <v>12641.439460000001</v>
+        <v>12296.267870000001</v>
       </c>
       <c r="G16" s="9">
-        <v>77.063999999999993</v>
+        <v>99.649000000000001</v>
       </c>
       <c r="H16" s="9">
-        <v>2216.25135</v>
+        <v>2503.4024399999998</v>
       </c>
       <c r="I16" s="9">
-        <v>9750.3944665819108</v>
+        <v>9761.9496007194903</v>
       </c>
       <c r="J16" s="9">
-        <v>14416.112940000001</v>
+        <v>13987.195400000001</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
@@ -1251,29 +1241,29 @@
         <v>2024</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" si="2"/>
-        <v>41707.502720706252</v>
+        <f t="shared" ref="D17:D19" si="3">SUM(E17:J17)</f>
+        <v>40863.374929445185</v>
       </c>
       <c r="E17" s="13">
-        <v>666.51599999999996</v>
+        <v>699.11900000000003</v>
       </c>
       <c r="F17" s="13">
-        <v>12929.211709999998</v>
+        <v>12605.198289999998</v>
       </c>
       <c r="G17" s="13">
-        <v>67.73</v>
+        <v>84.063999999999993</v>
       </c>
       <c r="H17" s="13">
-        <v>2272.335</v>
+        <v>2098.4537700000001</v>
       </c>
       <c r="I17" s="13">
-        <v>11736.148020706249</v>
+        <v>11053.483869445181</v>
       </c>
       <c r="J17" s="13">
-        <v>14035.561990000002</v>
+        <v>14323.056</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
@@ -1281,29 +1271,29 @@
         <v>2024</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="1"/>
-        <v>41262.668572409835</v>
+        <f t="shared" si="3"/>
+        <v>39717.599216581912</v>
       </c>
       <c r="E18" s="9">
-        <v>688.25300000000004</v>
+        <v>519.66999999999996</v>
       </c>
       <c r="F18" s="9">
-        <v>12315.689579999998</v>
+        <v>12738.106460000001</v>
       </c>
       <c r="G18" s="9">
-        <v>41.54</v>
+        <v>77.063999999999993</v>
       </c>
       <c r="H18" s="9">
-        <v>2009.3571000000002</v>
+        <v>2216.25135</v>
       </c>
       <c r="I18" s="9">
-        <v>11684.158492409841</v>
+        <v>9750.3944665819108</v>
       </c>
       <c r="J18" s="9">
-        <v>14523.670399999999</v>
+        <v>14416.112940000001</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
@@ -1311,29 +1301,29 @@
         <v>2024</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="1"/>
-        <v>42983.103187414818</v>
+        <f t="shared" si="3"/>
+        <v>41707.502720706252</v>
       </c>
       <c r="E19" s="13">
-        <v>794.28</v>
+        <v>666.51599999999996</v>
       </c>
       <c r="F19" s="13">
-        <v>13886.640619999998</v>
+        <v>12929.211709999998</v>
       </c>
       <c r="G19" s="13">
-        <v>59.076999999999998</v>
+        <v>67.73</v>
       </c>
       <c r="H19" s="13">
-        <v>2339.2438500000003</v>
+        <v>2272.335</v>
       </c>
       <c r="I19" s="13">
-        <v>10445.91770541482</v>
+        <v>11736.148020706249</v>
       </c>
       <c r="J19" s="13">
-        <v>15457.944011999998</v>
+        <v>14035.561990000002</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -1341,149 +1331,149 @@
         <v>2024</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="2"/>
+        <v>41262.668572409835</v>
+      </c>
+      <c r="E20" s="9">
+        <v>688.25300000000004</v>
+      </c>
+      <c r="F20" s="9">
+        <v>12315.689579999998</v>
+      </c>
+      <c r="G20" s="9">
+        <v>41.54</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2009.3571000000002</v>
+      </c>
+      <c r="I20" s="9">
+        <v>11684.158492409841</v>
+      </c>
+      <c r="J20" s="9">
+        <v>14523.670399999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="2"/>
+        <v>42983.103187414818</v>
+      </c>
+      <c r="E21" s="13">
+        <v>794.28</v>
+      </c>
+      <c r="F21" s="13">
+        <v>13886.640619999998</v>
+      </c>
+      <c r="G21" s="13">
+        <v>59.076999999999998</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2339.2438500000003</v>
+      </c>
+      <c r="I21" s="13">
+        <v>10445.91770541482</v>
+      </c>
+      <c r="J21" s="13">
+        <v>15457.944011999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="8">
-        <f t="shared" si="1"/>
+      <c r="D22" s="8">
+        <f t="shared" si="2"/>
         <v>40423.179039296359</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E22" s="9">
         <v>664.82100000000003</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F22" s="9">
         <v>12004.929049999999</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G22" s="9">
         <v>45.631999999999998</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H22" s="9">
         <v>1860.7841100000001</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I22" s="9">
         <v>11883.265289296362</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J22" s="9">
         <v>13963.747589999999</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="14">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="14">
         <v>2024</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="16">
-        <f t="shared" si="1"/>
+      <c r="D23" s="16">
+        <f t="shared" si="2"/>
         <v>41353.686809090235</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E23" s="17">
         <v>680.31799999999998</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F23" s="17">
         <v>12601.32713</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G23" s="17">
         <v>44.356000000000002</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H23" s="17">
         <v>1755.9950999999999</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I23" s="17">
         <v>12111.205109090239</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J23" s="17">
         <v>14160.485470000001</v>
       </c>
     </row>
-    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="18">
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="18">
         <v>2023</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="20">
-        <f t="shared" si="1"/>
+      <c r="D24" s="20">
+        <f t="shared" si="2"/>
         <v>41305.975162030925</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E24" s="21">
         <v>772.82399999999996</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F24" s="9">
         <v>13837.616139999998</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G24" s="21">
         <v>74.738</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H24" s="21">
         <v>2170.9023299999999</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I24" s="21">
         <v>9069.6951920309275</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J24" s="21">
         <v>15380.199500000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="12">
-        <f t="shared" si="1"/>
-        <v>40392.089828230179</v>
-      </c>
-      <c r="E23" s="13">
-        <v>779.80799999999999</v>
-      </c>
-      <c r="F23" s="13">
-        <v>11039.539529999998</v>
-      </c>
-      <c r="G23" s="13">
-        <v>95.251000000000005</v>
-      </c>
-      <c r="H23" s="13">
-        <v>2158.6788999999999</v>
-      </c>
-      <c r="I23" s="13">
-        <v>9817.7052922301791</v>
-      </c>
-      <c r="J23" s="13">
-        <v>16501.107106000003</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" si="1"/>
-        <v>44801.968924327317</v>
-      </c>
-      <c r="E24" s="9">
-        <v>778.178</v>
-      </c>
-      <c r="F24" s="9">
-        <v>10705.033519999999</v>
-      </c>
-      <c r="G24" s="9">
-        <v>62.91</v>
-      </c>
-      <c r="H24" s="9">
-        <v>2322.5757999999996</v>
-      </c>
-      <c r="I24" s="9">
-        <v>11604.903104327317</v>
-      </c>
-      <c r="J24" s="9">
-        <v>19328.3685</v>
       </c>
     </row>
     <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1491,29 +1481,29 @@
         <v>2023</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="12">
-        <f t="shared" si="1"/>
-        <v>37081.792657201382</v>
+        <f t="shared" si="2"/>
+        <v>40392.089828230179</v>
       </c>
       <c r="E25" s="13">
-        <v>622.02300000000002</v>
+        <v>779.80799999999999</v>
       </c>
       <c r="F25" s="13">
-        <v>9376.2873299999992</v>
+        <v>11039.539529999998</v>
       </c>
       <c r="G25" s="13">
-        <v>85.058000000000007</v>
+        <v>95.251000000000005</v>
       </c>
       <c r="H25" s="13">
-        <v>2340.9119999999998</v>
+        <v>2158.6788999999999</v>
       </c>
       <c r="I25" s="13">
-        <v>9719.7349272013871</v>
+        <v>9817.7052922301791</v>
       </c>
       <c r="J25" s="13">
-        <v>14937.777399999999</v>
+        <v>16501.107106000003</v>
       </c>
     </row>
     <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1521,29 +1511,29 @@
         <v>2023</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="1"/>
-        <v>40017.679605821257</v>
+        <f t="shared" si="2"/>
+        <v>44801.968924327317</v>
       </c>
       <c r="E26" s="9">
-        <v>757.96799999999996</v>
+        <v>778.178</v>
       </c>
       <c r="F26" s="9">
-        <v>10215.824409999999</v>
+        <v>10705.033519999999</v>
       </c>
       <c r="G26" s="9">
-        <v>52.222000000000001</v>
+        <v>62.91</v>
       </c>
       <c r="H26" s="9">
-        <v>2329.6565299999997</v>
+        <v>2322.5757999999996</v>
       </c>
       <c r="I26" s="9">
-        <v>10678.306165821259</v>
+        <v>11604.903104327317</v>
       </c>
       <c r="J26" s="9">
-        <v>15983.702499999999</v>
+        <v>19328.3685</v>
       </c>
     </row>
     <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1551,29 +1541,29 @@
         <v>2023</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="1"/>
-        <v>40319.464599793209</v>
+        <f t="shared" si="2"/>
+        <v>37081.792657201382</v>
       </c>
       <c r="E27" s="13">
-        <v>788.85</v>
+        <v>622.02300000000002</v>
       </c>
       <c r="F27" s="13">
-        <v>10358.44569</v>
+        <v>9376.2873299999992</v>
       </c>
       <c r="G27" s="13">
-        <v>48.895000000000003</v>
+        <v>85.058000000000007</v>
       </c>
       <c r="H27" s="13">
-        <v>2259.8667999999998</v>
+        <v>2340.9119999999998</v>
       </c>
       <c r="I27" s="13">
-        <v>10176.83545979321</v>
+        <v>9719.7349272013871</v>
       </c>
       <c r="J27" s="13">
-        <v>16686.571650000002</v>
+        <v>14937.777399999999</v>
       </c>
     </row>
     <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1581,29 +1571,29 @@
         <v>2023</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="1"/>
-        <v>40587.137376239552</v>
+        <f t="shared" si="2"/>
+        <v>40017.679605821257</v>
       </c>
       <c r="E28" s="9">
-        <v>645.45299999999997</v>
+        <v>757.96799999999996</v>
       </c>
       <c r="F28" s="9">
-        <v>10949.239150000001</v>
+        <v>10215.824409999999</v>
       </c>
       <c r="G28" s="9">
-        <v>36.125</v>
+        <v>52.222000000000001</v>
       </c>
       <c r="H28" s="9">
-        <v>2276.2485000000001</v>
+        <v>2329.6565299999997</v>
       </c>
       <c r="I28" s="9">
-        <v>10352.348026239559</v>
+        <v>10678.306165821259</v>
       </c>
       <c r="J28" s="9">
-        <v>16327.723699999999</v>
+        <v>15983.702499999999</v>
       </c>
     </row>
     <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1611,29 +1601,29 @@
         <v>2023</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="1"/>
-        <v>38973.999386463627</v>
+        <f t="shared" si="2"/>
+        <v>40319.464599793209</v>
       </c>
       <c r="E29" s="13">
-        <v>640.97299999999996</v>
+        <v>788.85</v>
       </c>
       <c r="F29" s="13">
-        <v>10514.624799999998</v>
+        <v>10358.44569</v>
       </c>
       <c r="G29" s="13">
-        <v>48.081000000000003</v>
+        <v>48.895000000000003</v>
       </c>
       <c r="H29" s="13">
-        <v>2950.8580000000002</v>
+        <v>2259.8667999999998</v>
       </c>
       <c r="I29" s="13">
-        <v>10310.05088646363</v>
+        <v>10176.83545979321</v>
       </c>
       <c r="J29" s="13">
-        <v>14509.411699999999</v>
+        <v>16686.571650000002</v>
       </c>
     </row>
     <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1641,29 +1631,29 @@
         <v>2023</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" si="1"/>
-        <v>36860.751413830367</v>
+        <f t="shared" si="2"/>
+        <v>40587.137376239552</v>
       </c>
       <c r="E30" s="9">
-        <v>640.28800000000001</v>
+        <v>645.45299999999997</v>
       </c>
       <c r="F30" s="9">
-        <v>10179.089970000003</v>
+        <v>10949.239150000001</v>
       </c>
       <c r="G30" s="9">
-        <v>36.615000000000002</v>
+        <v>36.125</v>
       </c>
       <c r="H30" s="9">
-        <v>2873.6055999999999</v>
+        <v>2276.2485000000001</v>
       </c>
       <c r="I30" s="9">
-        <v>9745.8580438303616</v>
+        <v>10352.348026239559</v>
       </c>
       <c r="J30" s="9">
-        <v>13385.2948</v>
+        <v>16327.723699999999</v>
       </c>
     </row>
     <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1671,29 +1661,29 @@
         <v>2023</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="1"/>
-        <v>40964.52406578567</v>
+        <f t="shared" si="2"/>
+        <v>38973.999386463627</v>
       </c>
       <c r="E31" s="13">
-        <v>786.44299999999998</v>
+        <v>640.97299999999996</v>
       </c>
       <c r="F31" s="13">
-        <v>10964.678350000002</v>
+        <v>10514.624799999998</v>
       </c>
       <c r="G31" s="13">
-        <v>29.545999999999999</v>
+        <v>48.081000000000003</v>
       </c>
       <c r="H31" s="13">
-        <v>2982.933</v>
+        <v>2950.8580000000002</v>
       </c>
       <c r="I31" s="13">
-        <v>11630.43191578567</v>
+        <v>10310.05088646363</v>
       </c>
       <c r="J31" s="13">
-        <v>14570.491800000002</v>
+        <v>14509.411699999999</v>
       </c>
     </row>
     <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1701,149 +1691,149 @@
         <v>2023</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="2"/>
+        <v>36860.751413830367</v>
+      </c>
+      <c r="E32" s="9">
+        <v>640.28800000000001</v>
+      </c>
+      <c r="F32" s="9">
+        <v>10179.089970000003</v>
+      </c>
+      <c r="G32" s="9">
+        <v>36.615000000000002</v>
+      </c>
+      <c r="H32" s="9">
+        <v>2873.6055999999999</v>
+      </c>
+      <c r="I32" s="9">
+        <v>9745.8580438303616</v>
+      </c>
+      <c r="J32" s="9">
+        <v>13385.2948</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="2"/>
+        <v>40964.52406578567</v>
+      </c>
+      <c r="E33" s="13">
+        <v>786.44299999999998</v>
+      </c>
+      <c r="F33" s="13">
+        <v>10964.678350000002</v>
+      </c>
+      <c r="G33" s="13">
+        <v>29.545999999999999</v>
+      </c>
+      <c r="H33" s="13">
+        <v>2982.933</v>
+      </c>
+      <c r="I33" s="13">
+        <v>11630.43191578567</v>
+      </c>
+      <c r="J33" s="13">
+        <v>14570.491800000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="8">
-        <f t="shared" si="1"/>
+      <c r="D34" s="8">
+        <f t="shared" si="2"/>
         <v>34787.318148179547</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E34" s="9">
         <v>578.94399999999996</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F34" s="9">
         <v>8934.8815099999974</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G34" s="9">
         <v>75.331999999999994</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H34" s="9">
         <v>2327.9451500000005</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I34" s="9">
         <v>10297.70288817955</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J34" s="9">
         <v>12572.5126</v>
       </c>
     </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="14">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="14">
         <v>2023</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="16">
-        <f t="shared" si="1"/>
+      <c r="D35" s="16">
+        <f t="shared" si="2"/>
         <v>34339.076626616064</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E35" s="17">
         <v>536.072</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F35" s="17">
         <v>8186.4879100000007</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G35" s="17">
         <v>36.253</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H35" s="17">
         <v>2646.0401599999996</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I35" s="17">
         <v>10631.460656616069</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J35" s="17">
         <v>12302.762899999998</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="18">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="18">
         <v>2022</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="20">
-        <f t="shared" si="1"/>
+      <c r="D36" s="20">
+        <f t="shared" si="2"/>
         <v>38746.066609950823</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E36" s="21">
         <v>378.79500000000002</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F36" s="21">
         <v>9252.3727799999997</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G36" s="21">
         <v>106.069</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H36" s="21">
         <v>2824.3177999999998</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I36" s="21">
         <v>11614.168229950819</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J36" s="21">
         <v>14570.343800000001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="12">
-        <f t="shared" si="1"/>
-        <v>38505.180007486138</v>
-      </c>
-      <c r="E35" s="13">
-        <v>516.43899999999996</v>
-      </c>
-      <c r="F35" s="13">
-        <v>9489.5803000000014</v>
-      </c>
-      <c r="G35" s="13">
-        <v>75.007999999999996</v>
-      </c>
-      <c r="H35" s="13">
-        <v>2658.9839999999999</v>
-      </c>
-      <c r="I35" s="13">
-        <v>11148.715107486139</v>
-      </c>
-      <c r="J35" s="13">
-        <v>14616.453599999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="6">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="8">
-        <f t="shared" si="1"/>
-        <v>41053.772325471538</v>
-      </c>
-      <c r="E36" s="9">
-        <v>741.95500000000004</v>
-      </c>
-      <c r="F36" s="9">
-        <v>9730.2727100000011</v>
-      </c>
-      <c r="G36" s="9">
-        <v>97.396000000000001</v>
-      </c>
-      <c r="H36" s="9">
-        <v>2904.4928999999997</v>
-      </c>
-      <c r="I36" s="9">
-        <v>11820.684915471538</v>
-      </c>
-      <c r="J36" s="9">
-        <v>15758.970800000001</v>
       </c>
     </row>
     <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1851,29 +1841,29 @@
         <v>2022</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" s="12">
-        <f t="shared" si="1"/>
-        <v>37277.511123095581</v>
+        <f t="shared" si="2"/>
+        <v>38505.180007486138</v>
       </c>
       <c r="E37" s="13">
-        <v>663.58500000000004</v>
+        <v>516.43899999999996</v>
       </c>
       <c r="F37" s="13">
-        <v>8746.3328199999996</v>
+        <v>9489.5803000000014</v>
       </c>
       <c r="G37" s="13">
-        <v>20.056000000000001</v>
+        <v>75.007999999999996</v>
       </c>
       <c r="H37" s="13">
-        <v>3093.5552793645161</v>
+        <v>2658.9839999999999</v>
       </c>
       <c r="I37" s="13">
-        <v>11160.508123731061</v>
+        <v>11148.715107486139</v>
       </c>
       <c r="J37" s="13">
-        <v>13593.473900000001</v>
+        <v>14616.453599999999</v>
       </c>
     </row>
     <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1881,29 +1871,29 @@
         <v>2022</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="1"/>
-        <v>39368.723200849388</v>
+        <f t="shared" si="2"/>
+        <v>41053.772325471538</v>
       </c>
       <c r="E38" s="9">
-        <v>591.01800000000003</v>
+        <v>741.95500000000004</v>
       </c>
       <c r="F38" s="9">
-        <v>8719.4067500000001</v>
+        <v>9730.2727100000011</v>
       </c>
       <c r="G38" s="9">
-        <v>25.675000000000001</v>
+        <v>97.396000000000001</v>
       </c>
       <c r="H38" s="9">
-        <v>3267.5057999999999</v>
+        <v>2904.4928999999997</v>
       </c>
       <c r="I38" s="9">
-        <v>12298.365450849389</v>
+        <v>11820.684915471538</v>
       </c>
       <c r="J38" s="9">
-        <v>14466.752199999999</v>
+        <v>15758.970800000001</v>
       </c>
     </row>
     <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1911,29 +1901,29 @@
         <v>2022</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D39" s="12">
-        <f t="shared" si="1"/>
-        <v>40438.258232407403</v>
+        <f t="shared" si="2"/>
+        <v>37277.511123095581</v>
       </c>
       <c r="E39" s="13">
-        <v>530.70500000000004</v>
+        <v>663.58500000000004</v>
       </c>
       <c r="F39" s="13">
-        <v>9093.8344099999977</v>
+        <v>8746.3328199999996</v>
       </c>
       <c r="G39" s="13">
-        <v>34.826000000000001</v>
+        <v>20.056000000000001</v>
       </c>
       <c r="H39" s="13">
-        <v>3252.6017000000002</v>
+        <v>3093.5552793645161</v>
       </c>
       <c r="I39" s="13">
-        <v>11449.207622407401</v>
+        <v>11160.508123731061</v>
       </c>
       <c r="J39" s="13">
-        <v>16077.083500000001</v>
+        <v>13593.473900000001</v>
       </c>
     </row>
     <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1941,29 +1931,29 @@
         <v>2022</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" si="1"/>
-        <v>40705.379663201522</v>
+        <f t="shared" si="2"/>
+        <v>39368.723200849388</v>
       </c>
       <c r="E40" s="9">
-        <v>512.66099999999994</v>
+        <v>591.01800000000003</v>
       </c>
       <c r="F40" s="9">
-        <v>8969.2943099999993</v>
+        <v>8719.4067500000001</v>
       </c>
       <c r="G40" s="9">
-        <v>26.021000000000001</v>
+        <v>25.675000000000001</v>
       </c>
       <c r="H40" s="9">
-        <v>3225.5032000000001</v>
+        <v>3267.5057999999999</v>
       </c>
       <c r="I40" s="9">
-        <v>12235.641653201521</v>
+        <v>12298.365450849389</v>
       </c>
       <c r="J40" s="9">
-        <v>15736.2585</v>
+        <v>14466.752199999999</v>
       </c>
     </row>
     <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1971,29 +1961,29 @@
         <v>2022</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" si="1"/>
-        <v>38385.635270624982</v>
+        <f t="shared" si="2"/>
+        <v>40438.258232407403</v>
       </c>
       <c r="E41" s="13">
-        <v>646.77499999999998</v>
+        <v>530.70500000000004</v>
       </c>
       <c r="F41" s="13">
-        <v>5887.1319999999996</v>
+        <v>9093.8344099999977</v>
       </c>
       <c r="G41" s="13">
-        <v>121.18</v>
+        <v>34.826000000000001</v>
       </c>
       <c r="H41" s="13">
-        <v>3119.6742000000004</v>
+        <v>3252.6017000000002</v>
       </c>
       <c r="I41" s="13">
-        <v>12724.717070624982</v>
+        <v>11449.207622407401</v>
       </c>
       <c r="J41" s="13">
-        <v>15886.156999999999</v>
+        <v>16077.083500000001</v>
       </c>
     </row>
     <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2001,29 +1991,29 @@
         <v>2022</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="1"/>
-        <v>37880.648666149609</v>
+        <f t="shared" si="2"/>
+        <v>40705.379663201522</v>
       </c>
       <c r="E42" s="9">
-        <v>658.78499999999997</v>
+        <v>512.66099999999994</v>
       </c>
       <c r="F42" s="9">
-        <v>5153.4015100000006</v>
+        <v>8969.2943099999993</v>
       </c>
       <c r="G42" s="9">
-        <v>198.077</v>
+        <v>26.021000000000001</v>
       </c>
       <c r="H42" s="9">
-        <v>2884.4317999999998</v>
+        <v>3225.5032000000001</v>
       </c>
       <c r="I42" s="9">
-        <v>13095.55395614961</v>
+        <v>12235.641653201521</v>
       </c>
       <c r="J42" s="9">
-        <v>15890.3994</v>
+        <v>15736.2585</v>
       </c>
     </row>
     <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2031,29 +2021,29 @@
         <v>2022</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" s="12">
-        <f t="shared" si="1"/>
-        <v>39804.246607167996</v>
+        <f t="shared" si="2"/>
+        <v>38385.635270624982</v>
       </c>
       <c r="E43" s="13">
-        <v>701.476</v>
+        <v>646.77499999999998</v>
       </c>
       <c r="F43" s="13">
-        <v>5848.9565829999992</v>
+        <v>5887.1319999999996</v>
       </c>
       <c r="G43" s="13">
-        <v>68.724999999999994</v>
+        <v>121.18</v>
       </c>
       <c r="H43" s="13">
-        <v>3277.5267000000003</v>
+        <v>3119.6742000000004</v>
       </c>
       <c r="I43" s="13">
-        <v>13626.115124168</v>
+        <v>12724.717070624982</v>
       </c>
       <c r="J43" s="13">
-        <v>16281.447199999999</v>
+        <v>15886.156999999999</v>
       </c>
     </row>
     <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2061,149 +2051,149 @@
         <v>2022</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="8">
+        <f t="shared" si="2"/>
+        <v>37880.648666149609</v>
+      </c>
+      <c r="E44" s="9">
+        <v>658.78499999999997</v>
+      </c>
+      <c r="F44" s="9">
+        <v>5153.4015100000006</v>
+      </c>
+      <c r="G44" s="9">
+        <v>198.077</v>
+      </c>
+      <c r="H44" s="9">
+        <v>2884.4317999999998</v>
+      </c>
+      <c r="I44" s="9">
+        <v>13095.55395614961</v>
+      </c>
+      <c r="J44" s="9">
+        <v>15890.3994</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="12">
+        <f t="shared" si="2"/>
+        <v>39804.246607167996</v>
+      </c>
+      <c r="E45" s="13">
+        <v>701.476</v>
+      </c>
+      <c r="F45" s="13">
+        <v>5848.9565829999992</v>
+      </c>
+      <c r="G45" s="13">
+        <v>68.724999999999994</v>
+      </c>
+      <c r="H45" s="13">
+        <v>3277.5267000000003</v>
+      </c>
+      <c r="I45" s="13">
+        <v>13626.115124168</v>
+      </c>
+      <c r="J45" s="13">
+        <v>16281.447199999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="8">
-        <f t="shared" si="1"/>
+      <c r="D46" s="8">
+        <f t="shared" si="2"/>
         <v>35391.386208309319</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E46" s="9">
         <v>638.51099999999997</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F46" s="9">
         <v>5672.3767400000006</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G46" s="9">
         <v>17.033999999999999</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H46" s="9">
         <v>2882.4872999999998</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I46" s="9">
         <v>10909.849568309321</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J46" s="9">
         <v>15271.127599999998</v>
       </c>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="14">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="14">
         <v>2022</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="16">
-        <f t="shared" si="1"/>
+      <c r="D47" s="16">
+        <f t="shared" si="2"/>
         <v>32469.848449272838</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E47" s="17">
         <v>482.12099999999998</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F47" s="17">
         <v>6245.3897599999991</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G47" s="17">
         <v>259.46800000000002</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H47" s="17">
         <v>2435.1074600000002</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I47" s="17">
         <v>9916.5125292728408</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J47" s="17">
         <v>13131.2497</v>
       </c>
     </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="18">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="18">
         <v>2021</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="20">
-        <f t="shared" si="1"/>
+      <c r="D48" s="20">
+        <f t="shared" si="2"/>
         <v>39492.366382685294</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E48" s="21">
         <v>458.77499999999998</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F48" s="21">
         <v>10098.12268</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G48" s="21">
         <v>133.10599999999999</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H48" s="21">
         <v>3136.06873</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I48" s="21">
         <v>12005.78674268529</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J48" s="21">
         <v>13660.507230000001</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="12">
-        <f t="shared" si="1"/>
-        <v>40331.827408900004</v>
-      </c>
-      <c r="E47" s="13">
-        <v>490.10599999999999</v>
-      </c>
-      <c r="F47" s="13">
-        <v>10062.285780000002</v>
-      </c>
-      <c r="G47" s="13">
-        <v>336.76799999999997</v>
-      </c>
-      <c r="H47" s="13">
-        <v>3288.1294800000001</v>
-      </c>
-      <c r="I47" s="13">
-        <v>12280.809678899999</v>
-      </c>
-      <c r="J47" s="13">
-        <v>13873.728469999998</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="6">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="8">
-        <f t="shared" si="1"/>
-        <v>41580.666843700004</v>
-      </c>
-      <c r="E48" s="9">
-        <v>586.94299999999998</v>
-      </c>
-      <c r="F48" s="9">
-        <v>10735.457050000001</v>
-      </c>
-      <c r="G48" s="9">
-        <v>619.62599999999998</v>
-      </c>
-      <c r="H48" s="9">
-        <v>2722.0764900000004</v>
-      </c>
-      <c r="I48" s="9">
-        <v>11237.549403700001</v>
-      </c>
-      <c r="J48" s="9">
-        <v>15679.0149</v>
       </c>
     </row>
     <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2211,29 +2201,29 @@
         <v>2021</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49" s="12">
-        <f t="shared" ref="D49:D80" si="3">SUM(E49:J49)</f>
-        <v>38165.8196035</v>
+        <f t="shared" si="2"/>
+        <v>40331.827408900004</v>
       </c>
       <c r="E49" s="13">
-        <v>696.17100000000005</v>
+        <v>490.10599999999999</v>
       </c>
       <c r="F49" s="13">
-        <v>10134.700359999999</v>
+        <v>10062.285780000002</v>
       </c>
       <c r="G49" s="13">
-        <v>487.45499999999998</v>
+        <v>336.76799999999997</v>
       </c>
       <c r="H49" s="13">
-        <v>2548.2033000000001</v>
+        <v>3288.1294800000001</v>
       </c>
       <c r="I49" s="13">
-        <v>11597.826043499999</v>
+        <v>12280.809678899999</v>
       </c>
       <c r="J49" s="13">
-        <v>12701.463900000001</v>
+        <v>13873.728469999998</v>
       </c>
     </row>
     <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2241,29 +2231,29 @@
         <v>2021</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" si="3"/>
-        <v>37424.307471799999</v>
+        <f t="shared" si="2"/>
+        <v>41580.666843700004</v>
       </c>
       <c r="E50" s="9">
-        <v>396.84</v>
+        <v>586.94299999999998</v>
       </c>
       <c r="F50" s="9">
-        <v>9954.2116800000003</v>
+        <v>10735.457050000001</v>
       </c>
       <c r="G50" s="9">
-        <v>550.08500000000004</v>
+        <v>619.62599999999998</v>
       </c>
       <c r="H50" s="9">
-        <v>2444.3667</v>
+        <v>2722.0764900000004</v>
       </c>
       <c r="I50" s="9">
-        <v>11310.234991799998</v>
+        <v>11237.549403700001</v>
       </c>
       <c r="J50" s="9">
-        <v>12768.569099999999</v>
+        <v>15679.0149</v>
       </c>
     </row>
     <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2271,29 +2261,29 @@
         <v>2021</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" si="3"/>
-        <v>39029.204718000001</v>
+        <f t="shared" ref="D51:D82" si="4">SUM(E51:J51)</f>
+        <v>38165.8196035</v>
       </c>
       <c r="E51" s="13">
-        <v>501.01900000000001</v>
+        <v>696.17100000000005</v>
       </c>
       <c r="F51" s="13">
-        <v>10968.570522</v>
+        <v>10134.700359999999</v>
       </c>
       <c r="G51" s="13">
-        <v>546.27499999999998</v>
+        <v>487.45499999999998</v>
       </c>
       <c r="H51" s="13">
-        <v>2313.2728999999999</v>
+        <v>2548.2033000000001</v>
       </c>
       <c r="I51" s="13">
-        <v>11426.955696000001</v>
+        <v>11597.826043499999</v>
       </c>
       <c r="J51" s="13">
-        <v>13273.1116</v>
+        <v>12701.463900000001</v>
       </c>
     </row>
     <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2301,29 +2291,29 @@
         <v>2021</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" si="3"/>
-        <v>37745.558432400001</v>
+        <f t="shared" si="4"/>
+        <v>37424.307471799999</v>
       </c>
       <c r="E52" s="9">
-        <v>463.83300000000003</v>
+        <v>396.84</v>
       </c>
       <c r="F52" s="9">
-        <v>10031.152749999999</v>
+        <v>9954.2116800000003</v>
       </c>
       <c r="G52" s="9">
-        <v>463.92500000000001</v>
+        <v>550.08500000000004</v>
       </c>
       <c r="H52" s="9">
-        <v>1743.7754</v>
+        <v>2444.3667</v>
       </c>
       <c r="I52" s="9">
-        <v>11018.1134824</v>
+        <v>11310.234991799998</v>
       </c>
       <c r="J52" s="9">
-        <v>14024.758800000001</v>
+        <v>12768.569099999999</v>
       </c>
     </row>
     <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2331,29 +2321,29 @@
         <v>2021</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" si="3"/>
-        <v>38457.492379999996</v>
+        <f t="shared" si="4"/>
+        <v>39029.204718000001</v>
       </c>
       <c r="E53" s="13">
-        <v>554.96</v>
+        <v>501.01900000000001</v>
       </c>
       <c r="F53" s="13">
-        <v>9638.9807799999999</v>
+        <v>10968.570522</v>
       </c>
       <c r="G53" s="13">
-        <v>289.39</v>
+        <v>546.27499999999998</v>
       </c>
       <c r="H53" s="13">
-        <v>1666.4480000000001</v>
+        <v>2313.2728999999999</v>
       </c>
       <c r="I53" s="13">
-        <v>11157.246999999999</v>
+        <v>11426.955696000001</v>
       </c>
       <c r="J53" s="13">
-        <v>15150.4666</v>
+        <v>13273.1116</v>
       </c>
     </row>
     <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2361,29 +2351,29 @@
         <v>2021</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D54" s="8">
-        <f t="shared" si="3"/>
-        <v>37112.560168100004</v>
+        <f t="shared" si="4"/>
+        <v>37745.558432400001</v>
       </c>
       <c r="E54" s="9">
-        <v>590.50099999999998</v>
+        <v>463.83300000000003</v>
       </c>
       <c r="F54" s="9">
-        <v>9277.434830000002</v>
+        <v>10031.152749999999</v>
       </c>
       <c r="G54" s="9">
-        <v>331.7</v>
+        <v>463.92500000000001</v>
       </c>
       <c r="H54" s="9">
-        <v>1472.3352</v>
+        <v>1743.7754</v>
       </c>
       <c r="I54" s="9">
-        <v>11167.4790381</v>
+        <v>11018.1134824</v>
       </c>
       <c r="J54" s="9">
-        <v>14273.1101</v>
+        <v>14024.758800000001</v>
       </c>
     </row>
     <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2391,29 +2381,29 @@
         <v>2021</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" s="12">
-        <f t="shared" si="3"/>
-        <v>41269.452216999998</v>
+        <f t="shared" si="4"/>
+        <v>38457.492379999996</v>
       </c>
       <c r="E55" s="13">
-        <v>386.11599999999999</v>
+        <v>554.96</v>
       </c>
       <c r="F55" s="13">
-        <v>10042.040590000001</v>
+        <v>9638.9807799999999</v>
       </c>
       <c r="G55" s="13">
-        <v>536.54600000000005</v>
+        <v>289.39</v>
       </c>
       <c r="H55" s="13">
-        <v>1531.1469999999999</v>
+        <v>1666.4480000000001</v>
       </c>
       <c r="I55" s="13">
-        <v>13111.292127000001</v>
+        <v>11157.246999999999</v>
       </c>
       <c r="J55" s="13">
-        <v>15662.3105</v>
+        <v>15150.4666</v>
       </c>
     </row>
     <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2421,149 +2411,149 @@
         <v>2021</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="8">
+        <f t="shared" si="4"/>
+        <v>37112.560168100004</v>
+      </c>
+      <c r="E56" s="9">
+        <v>590.50099999999998</v>
+      </c>
+      <c r="F56" s="9">
+        <v>9277.434830000002</v>
+      </c>
+      <c r="G56" s="9">
+        <v>331.7</v>
+      </c>
+      <c r="H56" s="9">
+        <v>1472.3352</v>
+      </c>
+      <c r="I56" s="9">
+        <v>11167.4790381</v>
+      </c>
+      <c r="J56" s="9">
+        <v>14273.1101</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="12">
+        <f t="shared" si="4"/>
+        <v>41269.452216999998</v>
+      </c>
+      <c r="E57" s="13">
+        <v>386.11599999999999</v>
+      </c>
+      <c r="F57" s="13">
+        <v>10042.040590000001</v>
+      </c>
+      <c r="G57" s="13">
+        <v>536.54600000000005</v>
+      </c>
+      <c r="H57" s="13">
+        <v>1531.1469999999999</v>
+      </c>
+      <c r="I57" s="13">
+        <v>13111.292127000001</v>
+      </c>
+      <c r="J57" s="13">
+        <v>15662.3105</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="8">
-        <f t="shared" si="3"/>
+      <c r="D58" s="8">
+        <f t="shared" si="4"/>
         <v>34648.807876000006</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E58" s="9">
         <v>219.61199999999999</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F58" s="9">
         <v>8953.9622800000016</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G58" s="9">
         <v>228.47900000000001</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H58" s="9">
         <v>1342.146</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I58" s="9">
         <v>9816.7840960000012</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J58" s="9">
         <v>14087.824500000001</v>
       </c>
     </row>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="14">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="14">
         <v>2021</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="16">
-        <f t="shared" si="3"/>
+      <c r="D59" s="16">
+        <f t="shared" si="4"/>
         <v>36982.816146000005</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E59" s="17">
         <v>129.93199999999999</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F59" s="17">
         <v>10106.45505</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G59" s="17">
         <v>156.72999999999999</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H59" s="17">
         <v>1370.9369999999999</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I59" s="17">
         <v>11214.778596</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J59" s="17">
         <v>14003.9835</v>
       </c>
     </row>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="18">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="18">
         <v>2020</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="20">
-        <f t="shared" si="3"/>
+      <c r="D60" s="20">
+        <f t="shared" si="4"/>
         <v>36967.920087999999</v>
       </c>
-      <c r="E58" s="21">
-        <v>0</v>
-      </c>
-      <c r="F58" s="21">
+      <c r="E60" s="21">
+        <v>0</v>
+      </c>
+      <c r="F60" s="21">
         <v>10567.67765</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G60" s="21">
         <v>247.25800000000001</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H60" s="21">
         <v>1325.12</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I60" s="21">
         <v>11836.856238</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J60" s="21">
         <v>12991.008199999998</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="10">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="12">
-        <f t="shared" si="3"/>
-        <v>36852.864462999998</v>
-      </c>
-      <c r="E59" s="13">
-        <v>0</v>
-      </c>
-      <c r="F59" s="13">
-        <v>10376.03788</v>
-      </c>
-      <c r="G59" s="13">
-        <v>137.81200000000001</v>
-      </c>
-      <c r="H59" s="13">
-        <v>1566.683</v>
-      </c>
-      <c r="I59" s="13">
-        <v>11120.986982999999</v>
-      </c>
-      <c r="J59" s="13">
-        <v>13651.3446</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="6">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="8">
-        <f t="shared" si="3"/>
-        <v>37111.751327400001</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="9">
-        <v>10139.1556</v>
-      </c>
-      <c r="G60" s="9">
-        <v>42.646000000000001</v>
-      </c>
-      <c r="H60" s="9">
-        <v>1292.682</v>
-      </c>
-      <c r="I60" s="9">
-        <v>10863.6815274</v>
-      </c>
-      <c r="J60" s="9">
-        <v>14773.5862</v>
       </c>
     </row>
     <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2571,29 +2561,29 @@
         <v>2020</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D61" s="12">
-        <f t="shared" si="3"/>
-        <v>31289.118952199999</v>
+        <f t="shared" si="4"/>
+        <v>36852.864462999998</v>
       </c>
       <c r="E61" s="13">
         <v>0</v>
       </c>
       <c r="F61" s="13">
-        <v>8729.1361899999993</v>
+        <v>10376.03788</v>
       </c>
       <c r="G61" s="13">
-        <v>35.866999999999997</v>
+        <v>137.81200000000001</v>
       </c>
       <c r="H61" s="13">
-        <v>987.66099999999994</v>
+        <v>1566.683</v>
       </c>
       <c r="I61" s="13">
-        <v>9399.9986922000007</v>
+        <v>11120.986982999999</v>
       </c>
       <c r="J61" s="13">
-        <v>12136.45607</v>
+        <v>13651.3446</v>
       </c>
     </row>
     <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2601,29 +2591,29 @@
         <v>2020</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D62" s="8">
-        <f t="shared" si="3"/>
-        <v>28794.378688499997</v>
+        <f t="shared" si="4"/>
+        <v>37111.751327400001</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>8471.0650299999998</v>
+        <v>10139.1556</v>
       </c>
       <c r="G62" s="9">
-        <v>42.926000000000002</v>
+        <v>42.646000000000001</v>
       </c>
       <c r="H62" s="9">
-        <v>1074.0519999999999</v>
+        <v>1292.682</v>
       </c>
       <c r="I62" s="9">
-        <v>8606.7041585000006</v>
+        <v>10863.6815274</v>
       </c>
       <c r="J62" s="9">
-        <v>10599.6315</v>
+        <v>14773.5862</v>
       </c>
     </row>
     <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2631,29 +2621,29 @@
         <v>2020</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D63" s="12">
-        <f t="shared" si="3"/>
-        <v>27431.279484500003</v>
+        <f t="shared" si="4"/>
+        <v>31289.118952199999</v>
       </c>
       <c r="E63" s="13">
         <v>0</v>
       </c>
       <c r="F63" s="13">
-        <v>8226.0579799999996</v>
+        <v>8729.1361899999993</v>
       </c>
       <c r="G63" s="13">
-        <v>36.588000000000001</v>
+        <v>35.866999999999997</v>
       </c>
       <c r="H63" s="13">
-        <v>1040.3589999999999</v>
+        <v>987.66099999999994</v>
       </c>
       <c r="I63" s="13">
-        <v>8177.4266045000004</v>
+        <v>9399.9986922000007</v>
       </c>
       <c r="J63" s="13">
-        <v>9950.8479000000007</v>
+        <v>12136.45607</v>
       </c>
     </row>
     <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2661,29 +2651,29 @@
         <v>2020</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="8">
-        <f t="shared" si="3"/>
-        <v>25926.471812200001</v>
+        <f t="shared" si="4"/>
+        <v>28794.378688499997</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="9">
-        <v>7134.2837199999994</v>
+        <v>8471.0650299999998</v>
       </c>
       <c r="G64" s="9">
-        <v>63.805</v>
+        <v>42.926000000000002</v>
       </c>
       <c r="H64" s="9">
-        <v>855.82899999999995</v>
+        <v>1074.0519999999999</v>
       </c>
       <c r="I64" s="9">
-        <v>7779.0341922000007</v>
+        <v>8606.7041585000006</v>
       </c>
       <c r="J64" s="9">
-        <v>10093.519900000001</v>
+        <v>10599.6315</v>
       </c>
     </row>
     <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2691,29 +2681,29 @@
         <v>2020</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65" s="12">
-        <f t="shared" si="3"/>
-        <v>23168.212673900001</v>
+        <f t="shared" si="4"/>
+        <v>27431.279484500003</v>
       </c>
       <c r="E65" s="13">
         <v>0</v>
       </c>
       <c r="F65" s="13">
-        <v>6023.6581899999992</v>
+        <v>8226.0579799999996</v>
       </c>
       <c r="G65" s="13">
-        <v>187.08600000000001</v>
+        <v>36.588000000000001</v>
       </c>
       <c r="H65" s="13">
-        <v>832.03399999999999</v>
+        <v>1040.3589999999999</v>
       </c>
       <c r="I65" s="13">
-        <v>7072.7845839000001</v>
+        <v>8177.4266045000004</v>
       </c>
       <c r="J65" s="13">
-        <v>9052.6499000000003</v>
+        <v>9950.8479000000007</v>
       </c>
     </row>
     <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2721,29 +2711,29 @@
         <v>2020</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D66" s="8">
-        <f t="shared" si="3"/>
-        <v>20427.959275100002</v>
+        <f t="shared" si="4"/>
+        <v>25926.471812200001</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="9">
-        <v>5209.0807000000004</v>
+        <v>7134.2837199999994</v>
       </c>
       <c r="G66" s="9">
-        <v>24.07</v>
+        <v>63.805</v>
       </c>
       <c r="H66" s="9">
-        <v>739.351</v>
+        <v>855.82899999999995</v>
       </c>
       <c r="I66" s="9">
-        <v>6596.5606751000005</v>
+        <v>7779.0341922000007</v>
       </c>
       <c r="J66" s="9">
-        <v>7858.8969000000006</v>
+        <v>10093.519900000001</v>
       </c>
     </row>
     <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2751,29 +2741,29 @@
         <v>2020</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D67" s="12">
-        <f t="shared" si="3"/>
-        <v>33140.735087100002</v>
+        <f t="shared" si="4"/>
+        <v>23168.212673900001</v>
       </c>
       <c r="E67" s="13">
         <v>0</v>
       </c>
       <c r="F67" s="13">
-        <v>8644.8665579999997</v>
+        <v>6023.6581899999992</v>
       </c>
       <c r="G67" s="13">
-        <v>50.677999999999997</v>
+        <v>187.08600000000001</v>
       </c>
       <c r="H67" s="13">
-        <v>2214.377</v>
+        <v>832.03399999999999</v>
       </c>
       <c r="I67" s="13">
-        <v>10403.6180291</v>
+        <v>7072.7845839000001</v>
       </c>
       <c r="J67" s="13">
-        <v>11827.1955</v>
+        <v>9052.6499000000003</v>
       </c>
     </row>
     <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2781,149 +2771,149 @@
         <v>2020</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="8">
+        <f t="shared" si="4"/>
+        <v>20427.959275100002</v>
+      </c>
+      <c r="E68" s="9">
+        <v>0</v>
+      </c>
+      <c r="F68" s="9">
+        <v>5209.0807000000004</v>
+      </c>
+      <c r="G68" s="9">
+        <v>24.07</v>
+      </c>
+      <c r="H68" s="9">
+        <v>739.351</v>
+      </c>
+      <c r="I68" s="9">
+        <v>6596.5606751000005</v>
+      </c>
+      <c r="J68" s="9">
+        <v>7858.8969000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="12">
+        <f t="shared" si="4"/>
+        <v>33140.735087100002</v>
+      </c>
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
+        <v>8644.8665579999997</v>
+      </c>
+      <c r="G69" s="13">
+        <v>50.677999999999997</v>
+      </c>
+      <c r="H69" s="13">
+        <v>2214.377</v>
+      </c>
+      <c r="I69" s="13">
+        <v>10403.6180291</v>
+      </c>
+      <c r="J69" s="13">
+        <v>11827.1955</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="8">
-        <f t="shared" si="3"/>
+      <c r="D70" s="8">
+        <f t="shared" si="4"/>
         <v>31595.295708999998</v>
       </c>
-      <c r="E68" s="9">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9">
+      <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="F70" s="9">
         <v>8503.3772899999985</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G70" s="9">
         <v>71.156000000000006</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H70" s="9">
         <v>2496.2399999999998</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I70" s="9">
         <v>9914.0471189999989</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J70" s="9">
         <v>10610.4753</v>
       </c>
     </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="14">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="14">
         <v>2020</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="16">
-        <f t="shared" si="3"/>
+      <c r="D71" s="16">
+        <f t="shared" si="4"/>
         <v>31902.586373000002</v>
       </c>
-      <c r="E69" s="17">
-        <v>0</v>
-      </c>
-      <c r="F69" s="17">
+      <c r="E71" s="17">
+        <v>0</v>
+      </c>
+      <c r="F71" s="17">
         <v>8365.6301700000004</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G71" s="17">
         <v>80.352000000000004</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H71" s="17">
         <v>2759.7359999999999</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I71" s="17">
         <v>11337.052103</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J71" s="17">
         <v>9359.8161</v>
       </c>
     </row>
-    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="18">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="18">
         <v>2019</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="20">
-        <f t="shared" si="3"/>
+      <c r="D72" s="20">
+        <f t="shared" si="4"/>
         <v>34834.055678999997</v>
       </c>
-      <c r="E70" s="21">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21">
+      <c r="E72" s="21">
+        <v>0</v>
+      </c>
+      <c r="F72" s="21">
         <v>9580.7296500000011</v>
       </c>
-      <c r="G70" s="21">
-        <v>0</v>
-      </c>
-      <c r="H70" s="21">
+      <c r="G72" s="21">
+        <v>0</v>
+      </c>
+      <c r="H72" s="21">
         <v>2707.5740000000001</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I72" s="21">
         <v>11491.813929</v>
       </c>
-      <c r="J70" s="21">
+      <c r="J72" s="21">
         <v>11053.938099999999</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="10">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="12">
-        <f t="shared" si="3"/>
-        <v>36842.30025</v>
-      </c>
-      <c r="E71" s="13">
-        <v>0</v>
-      </c>
-      <c r="F71" s="13">
-        <v>9295.5269499999995</v>
-      </c>
-      <c r="G71" s="13">
-        <v>0</v>
-      </c>
-      <c r="H71" s="13">
-        <v>2968.0250000000001</v>
-      </c>
-      <c r="I71" s="13">
-        <v>12197.1018</v>
-      </c>
-      <c r="J71" s="13">
-        <v>12381.646500000001</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="6">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="8">
-        <f t="shared" si="3"/>
-        <v>37499.549509000004</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0</v>
-      </c>
-      <c r="F72" s="9">
-        <v>8717.2473399999999</v>
-      </c>
-      <c r="G72" s="9">
-        <v>0</v>
-      </c>
-      <c r="H72" s="9">
-        <v>2772.4720000000002</v>
-      </c>
-      <c r="I72" s="9">
-        <v>12460.489269000002</v>
-      </c>
-      <c r="J72" s="9">
-        <v>13549.340900000001</v>
       </c>
     </row>
     <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2931,29 +2921,29 @@
         <v>2019</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D73" s="12">
-        <f t="shared" si="3"/>
-        <v>34780.897574999995</v>
+        <f t="shared" si="4"/>
+        <v>36842.30025</v>
       </c>
       <c r="E73" s="13">
         <v>0</v>
       </c>
       <c r="F73" s="13">
-        <v>8235.0453999999991</v>
+        <v>9295.5269499999995</v>
       </c>
       <c r="G73" s="13">
         <v>0</v>
       </c>
       <c r="H73" s="13">
-        <v>3011.7339999999999</v>
+        <v>2968.0250000000001</v>
       </c>
       <c r="I73" s="13">
-        <v>11347.632975</v>
+        <v>12197.1018</v>
       </c>
       <c r="J73" s="13">
-        <v>12186.485199999999</v>
+        <v>12381.646500000001</v>
       </c>
     </row>
     <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2961,29 +2951,29 @@
         <v>2019</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="3"/>
-        <v>36123.947636999997</v>
+        <f t="shared" si="4"/>
+        <v>37499.549509000004</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="9">
-        <v>8047.0139099999997</v>
+        <v>8717.2473399999999</v>
       </c>
       <c r="G74" s="9">
         <v>0</v>
       </c>
       <c r="H74" s="9">
-        <v>2861.5230000000001</v>
+        <v>2772.4720000000002</v>
       </c>
       <c r="I74" s="9">
-        <v>13553.171926999999</v>
+        <v>12460.489269000002</v>
       </c>
       <c r="J74" s="9">
-        <v>11662.238800000001</v>
+        <v>13549.340900000001</v>
       </c>
     </row>
     <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2991,29 +2981,29 @@
         <v>2019</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D75" s="12">
-        <f t="shared" si="3"/>
-        <v>36989.020386999997</v>
+        <f t="shared" si="4"/>
+        <v>34780.897574999995</v>
       </c>
       <c r="E75" s="13">
         <v>0</v>
       </c>
       <c r="F75" s="13">
-        <v>8253.6834899999994</v>
+        <v>8235.0453999999991</v>
       </c>
       <c r="G75" s="13">
         <v>0</v>
       </c>
       <c r="H75" s="13">
-        <v>2588.3980000000001</v>
+        <v>3011.7339999999999</v>
       </c>
       <c r="I75" s="13">
-        <v>13481.634697000001</v>
+        <v>11347.632975</v>
       </c>
       <c r="J75" s="13">
-        <v>12665.304199999999</v>
+        <v>12186.485199999999</v>
       </c>
     </row>
     <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3021,29 +3011,29 @@
         <v>2019</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="3"/>
-        <v>36253.700530000002</v>
+        <f t="shared" si="4"/>
+        <v>36123.947636999997</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="9">
-        <v>7444.2109199999995</v>
+        <v>8047.0139099999997</v>
       </c>
       <c r="G76" s="9">
         <v>0</v>
       </c>
       <c r="H76" s="9">
-        <v>2726.3809999999999</v>
+        <v>2861.5230000000001</v>
       </c>
       <c r="I76" s="9">
-        <v>14226.39911</v>
+        <v>13553.171926999999</v>
       </c>
       <c r="J76" s="9">
-        <v>11856.709500000001</v>
+        <v>11662.238800000001</v>
       </c>
     </row>
     <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3051,29 +3041,29 @@
         <v>2019</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D77" s="12">
-        <f t="shared" si="3"/>
-        <v>36841.123875999998</v>
+        <f t="shared" si="4"/>
+        <v>36989.020386999997</v>
       </c>
       <c r="E77" s="13">
         <v>0</v>
       </c>
       <c r="F77" s="13">
-        <v>8213.8209500000012</v>
+        <v>8253.6834899999994</v>
       </c>
       <c r="G77" s="13">
         <v>0</v>
       </c>
       <c r="H77" s="13">
-        <v>2822.8220000000001</v>
+        <v>2588.3980000000001</v>
       </c>
       <c r="I77" s="13">
-        <v>14573.453925999998</v>
+        <v>13481.634697000001</v>
       </c>
       <c r="J77" s="13">
-        <v>11231.027</v>
+        <v>12665.304199999999</v>
       </c>
     </row>
     <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3081,29 +3071,29 @@
         <v>2019</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" si="3"/>
-        <v>34774.654051999998</v>
+        <f t="shared" si="4"/>
+        <v>36253.700530000002</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="9">
-        <v>7045.8119100000004</v>
+        <v>7444.2109199999995</v>
       </c>
       <c r="G78" s="9">
         <v>0</v>
       </c>
       <c r="H78" s="9">
-        <v>2281.2820000000002</v>
+        <v>2726.3809999999999</v>
       </c>
       <c r="I78" s="9">
-        <v>14819.089841999999</v>
+        <v>14226.39911</v>
       </c>
       <c r="J78" s="9">
-        <v>10628.470300000001</v>
+        <v>11856.709500000001</v>
       </c>
     </row>
     <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3111,29 +3101,29 @@
         <v>2019</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D79" s="12">
-        <f t="shared" si="3"/>
-        <v>41597.635473399998</v>
+        <f t="shared" si="4"/>
+        <v>36841.123875999998</v>
       </c>
       <c r="E79" s="13">
         <v>0</v>
       </c>
       <c r="F79" s="13">
-        <v>8978.2172699999992</v>
+        <v>8213.8209500000012</v>
       </c>
       <c r="G79" s="13">
         <v>0</v>
       </c>
       <c r="H79" s="13">
-        <v>2665.5234</v>
+        <v>2822.8220000000001</v>
       </c>
       <c r="I79" s="13">
-        <v>16057.1642034</v>
+        <v>14573.453925999998</v>
       </c>
       <c r="J79" s="13">
-        <v>13896.730599999999</v>
+        <v>11231.027</v>
       </c>
     </row>
     <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3141,119 +3131,119 @@
         <v>2019</v>
       </c>
       <c r="C80" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="8">
+        <f t="shared" si="4"/>
+        <v>34774.654051999998</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="9">
+        <v>7045.8119100000004</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9">
+        <v>2281.2820000000002</v>
+      </c>
+      <c r="I80" s="9">
+        <v>14819.089841999999</v>
+      </c>
+      <c r="J80" s="9">
+        <v>10628.470300000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="12">
+        <f t="shared" si="4"/>
+        <v>41597.635473399998</v>
+      </c>
+      <c r="E81" s="13">
+        <v>0</v>
+      </c>
+      <c r="F81" s="13">
+        <v>8978.2172699999992</v>
+      </c>
+      <c r="G81" s="13">
+        <v>0</v>
+      </c>
+      <c r="H81" s="13">
+        <v>2665.5234</v>
+      </c>
+      <c r="I81" s="13">
+        <v>16057.1642034</v>
+      </c>
+      <c r="J81" s="13">
+        <v>13896.730599999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="D80" s="8">
-        <f t="shared" si="3"/>
-        <v>34403.574224000004</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="9">
-        <v>7372.8365000000003</v>
-      </c>
-      <c r="G80" s="9">
-        <v>0</v>
-      </c>
-      <c r="H80" s="9">
-        <v>2041.7819999999999</v>
-      </c>
-      <c r="I80" s="9">
-        <v>14155.565524</v>
-      </c>
-      <c r="J80" s="9">
-        <v>10833.3902</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="14">
-        <v>2019</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="16">
-        <f t="shared" ref="D81:D93" si="4">SUM(E81:J81)</f>
-        <v>34340.204129700003</v>
-      </c>
-      <c r="E81" s="17">
-        <v>0</v>
-      </c>
-      <c r="F81" s="17">
-        <v>7805.6810100000012</v>
-      </c>
-      <c r="G81" s="17">
-        <v>0</v>
-      </c>
-      <c r="H81" s="17">
-        <v>2447.4140000000002</v>
-      </c>
-      <c r="I81" s="17">
-        <v>13462.407319700002</v>
-      </c>
-      <c r="J81" s="17">
-        <v>10624.701800000001</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D82" s="8">
         <f t="shared" si="4"/>
-        <v>39107.630482000008</v>
+        <v>34403.574224000004</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="9">
-        <v>9016.9082100000014</v>
+        <v>7372.8365000000003</v>
       </c>
       <c r="G82" s="9">
-        <v>604.548</v>
+        <v>0</v>
       </c>
       <c r="H82" s="9">
-        <v>2518.2449999999999</v>
+        <v>2041.7819999999999</v>
       </c>
       <c r="I82" s="9">
-        <v>14153.156971999999</v>
+        <v>14155.565524</v>
       </c>
       <c r="J82" s="9">
-        <v>12814.772300000001</v>
+        <v>10833.3902</v>
       </c>
     </row>
     <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="12">
-        <f t="shared" si="4"/>
-        <v>40739.449042</v>
-      </c>
-      <c r="E83" s="13">
-        <v>0</v>
-      </c>
-      <c r="F83" s="13">
-        <v>10171.974600000001</v>
-      </c>
-      <c r="G83" s="13">
-        <v>543.64599999999996</v>
-      </c>
-      <c r="H83" s="13">
-        <v>3271.4839999999999</v>
-      </c>
-      <c r="I83" s="13">
-        <v>14774.019941999999</v>
-      </c>
-      <c r="J83" s="13">
-        <v>11978.324500000001</v>
+      <c r="B83" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="16">
+        <f t="shared" ref="D83:D95" si="5">SUM(E83:J83)</f>
+        <v>34340.204129700003</v>
+      </c>
+      <c r="E83" s="17">
+        <v>0</v>
+      </c>
+      <c r="F83" s="17">
+        <v>7805.6810100000012</v>
+      </c>
+      <c r="G83" s="17">
+        <v>0</v>
+      </c>
+      <c r="H83" s="17">
+        <v>2447.4140000000002</v>
+      </c>
+      <c r="I83" s="17">
+        <v>13462.407319700002</v>
+      </c>
+      <c r="J83" s="17">
+        <v>10624.701800000001</v>
       </c>
     </row>
     <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3261,29 +3251,29 @@
         <v>2018</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D84" s="8">
-        <f t="shared" si="4"/>
-        <v>41232.318012000003</v>
+        <f t="shared" si="5"/>
+        <v>39107.630482000008</v>
       </c>
       <c r="E84" s="9">
         <v>0</v>
       </c>
       <c r="F84" s="9">
-        <v>9028.4674500000001</v>
+        <v>9016.9082100000014</v>
       </c>
       <c r="G84" s="9">
-        <v>556.69100000000003</v>
+        <v>604.548</v>
       </c>
       <c r="H84" s="9">
-        <v>3183.5309999999999</v>
+        <v>2518.2449999999999</v>
       </c>
       <c r="I84" s="9">
-        <v>15699.443762000001</v>
+        <v>14153.156971999999</v>
       </c>
       <c r="J84" s="9">
-        <v>12764.184800000001</v>
+        <v>12814.772300000001</v>
       </c>
     </row>
     <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3291,29 +3281,29 @@
         <v>2018</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D85" s="12">
-        <f t="shared" si="4"/>
-        <v>39190.964049599999</v>
+        <f t="shared" si="5"/>
+        <v>40739.449042</v>
       </c>
       <c r="E85" s="13">
         <v>0</v>
       </c>
       <c r="F85" s="13">
-        <v>9327.9771700000001</v>
+        <v>10171.974600000001</v>
       </c>
       <c r="G85" s="13">
-        <v>646.58299999999997</v>
+        <v>543.64599999999996</v>
       </c>
       <c r="H85" s="13">
-        <v>3104.5279999999998</v>
+        <v>3271.4839999999999</v>
       </c>
       <c r="I85" s="13">
-        <v>13338.916489599998</v>
+        <v>14774.019941999999</v>
       </c>
       <c r="J85" s="13">
-        <v>12772.95939</v>
+        <v>11978.324500000001</v>
       </c>
     </row>
     <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3321,29 +3311,29 @@
         <v>2018</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D86" s="8">
-        <f t="shared" si="4"/>
-        <v>37812.709869799997</v>
+        <f t="shared" si="5"/>
+        <v>41232.318012000003</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="9">
-        <v>8414.4507599999997</v>
+        <v>9028.4674500000001</v>
       </c>
       <c r="G86" s="9">
-        <v>730.47900000000004</v>
+        <v>556.69100000000003</v>
       </c>
       <c r="H86" s="9">
-        <v>3062.973</v>
+        <v>3183.5309999999999</v>
       </c>
       <c r="I86" s="9">
-        <v>14063.5628698</v>
+        <v>15699.443762000001</v>
       </c>
       <c r="J86" s="9">
-        <v>11541.24424</v>
+        <v>12764.184800000001</v>
       </c>
     </row>
     <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3351,29 +3341,29 @@
         <v>2018</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D87" s="12">
-        <f t="shared" si="4"/>
-        <v>39965.855546999999</v>
+        <f t="shared" si="5"/>
+        <v>39190.964049599999</v>
       </c>
       <c r="E87" s="13">
         <v>0</v>
       </c>
       <c r="F87" s="13">
-        <v>8683.6723199999997</v>
+        <v>9327.9771700000001</v>
       </c>
       <c r="G87" s="13">
-        <v>687.87199999999996</v>
+        <v>646.58299999999997</v>
       </c>
       <c r="H87" s="13">
-        <v>2884.9024869999998</v>
+        <v>3104.5279999999998</v>
       </c>
       <c r="I87" s="13">
-        <v>14803.904460000002</v>
+        <v>13338.916489599998</v>
       </c>
       <c r="J87" s="13">
-        <v>12905.504279999999</v>
+        <v>12772.95939</v>
       </c>
     </row>
     <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3381,29 +3371,29 @@
         <v>2018</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" s="8">
-        <f t="shared" si="4"/>
-        <v>41066.873502000002</v>
+        <f t="shared" si="5"/>
+        <v>37812.709869799997</v>
       </c>
       <c r="E88" s="9">
         <v>0</v>
       </c>
       <c r="F88" s="9">
-        <v>8739.8234700000012</v>
+        <v>8414.4507599999997</v>
       </c>
       <c r="G88" s="9">
-        <v>775.90599999999995</v>
+        <v>730.47900000000004</v>
       </c>
       <c r="H88" s="9">
-        <v>3132.7950000000001</v>
+        <v>3062.973</v>
       </c>
       <c r="I88" s="9">
-        <v>15348.913632</v>
+        <v>14063.5628698</v>
       </c>
       <c r="J88" s="9">
-        <v>13069.4354</v>
+        <v>11541.24424</v>
       </c>
     </row>
     <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3411,29 +3401,29 @@
         <v>2018</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D89" s="12">
-        <f t="shared" si="4"/>
-        <v>39330.274949999999</v>
+        <f t="shared" si="5"/>
+        <v>39965.855546999999</v>
       </c>
       <c r="E89" s="13">
         <v>0</v>
       </c>
       <c r="F89" s="13">
-        <v>8459.8314499999997</v>
+        <v>8683.6723199999997</v>
       </c>
       <c r="G89" s="13">
-        <v>741.85500000000002</v>
+        <v>687.87199999999996</v>
       </c>
       <c r="H89" s="13">
-        <v>3243.9609999999998</v>
+        <v>2884.9024869999998</v>
       </c>
       <c r="I89" s="13">
-        <v>15389.468199999999</v>
+        <v>14803.904460000002</v>
       </c>
       <c r="J89" s="13">
-        <v>11495.159300000001</v>
+        <v>12905.504279999999</v>
       </c>
     </row>
     <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3441,29 +3431,29 @@
         <v>2018</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D90" s="8">
-        <f t="shared" si="4"/>
-        <v>42190.912314999994</v>
+        <f t="shared" si="5"/>
+        <v>41066.873502000002</v>
       </c>
       <c r="E90" s="9">
         <v>0</v>
       </c>
       <c r="F90" s="9">
-        <v>9138.4659200000006</v>
+        <v>8739.8234700000012</v>
       </c>
       <c r="G90" s="9">
-        <v>763.33</v>
+        <v>775.90599999999995</v>
       </c>
       <c r="H90" s="9">
-        <v>2695.9059999999999</v>
+        <v>3132.7950000000001</v>
       </c>
       <c r="I90" s="9">
-        <v>17318.287694999999</v>
+        <v>15348.913632</v>
       </c>
       <c r="J90" s="9">
-        <v>12274.922699999999</v>
+        <v>13069.4354</v>
       </c>
     </row>
     <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3471,29 +3461,29 @@
         <v>2018</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D91" s="12">
-        <f t="shared" si="4"/>
-        <v>42310.135434999997</v>
+        <f t="shared" si="5"/>
+        <v>39330.274949999999</v>
       </c>
       <c r="E91" s="13">
         <v>0</v>
       </c>
       <c r="F91" s="13">
-        <v>9362.9394400000001</v>
+        <v>8459.8314499999997</v>
       </c>
       <c r="G91" s="13">
-        <v>388.47899999999998</v>
+        <v>741.85500000000002</v>
       </c>
       <c r="H91" s="13">
-        <v>3041.660961</v>
+        <v>3243.9609999999998</v>
       </c>
       <c r="I91" s="13">
-        <v>15644.620234</v>
+        <v>15389.468199999999</v>
       </c>
       <c r="J91" s="13">
-        <v>13872.435800000001</v>
+        <v>11495.159300000001</v>
       </c>
     </row>
     <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3501,29 +3491,29 @@
         <v>2018</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D92" s="8">
-        <f t="shared" si="4"/>
-        <v>34826.467999300003</v>
+        <f t="shared" si="5"/>
+        <v>42190.912314999994</v>
       </c>
       <c r="E92" s="9">
         <v>0</v>
       </c>
       <c r="F92" s="9">
-        <v>7302.8320700000004</v>
+        <v>9138.4659200000006</v>
       </c>
       <c r="G92" s="9">
-        <v>356.733</v>
+        <v>763.33</v>
       </c>
       <c r="H92" s="9">
-        <v>2616.0599083000002</v>
+        <v>2695.9059999999999</v>
       </c>
       <c r="I92" s="9">
-        <v>13679.491221</v>
+        <v>17318.287694999999</v>
       </c>
       <c r="J92" s="9">
-        <v>10871.3518</v>
+        <v>12274.922699999999</v>
       </c>
     </row>
     <row r="93" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
@@ -3531,45 +3521,105 @@
         <v>2018</v>
       </c>
       <c r="C93" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="12">
+        <f t="shared" si="5"/>
+        <v>42310.135434999997</v>
+      </c>
+      <c r="E93" s="13">
+        <v>0</v>
+      </c>
+      <c r="F93" s="13">
+        <v>9362.9394400000001</v>
+      </c>
+      <c r="G93" s="13">
+        <v>388.47899999999998</v>
+      </c>
+      <c r="H93" s="13">
+        <v>3041.660961</v>
+      </c>
+      <c r="I93" s="13">
+        <v>15644.620234</v>
+      </c>
+      <c r="J93" s="13">
+        <v>13872.435800000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="8">
+        <f t="shared" si="5"/>
+        <v>34826.467999300003</v>
+      </c>
+      <c r="E94" s="9">
+        <v>0</v>
+      </c>
+      <c r="F94" s="9">
+        <v>7302.8320700000004</v>
+      </c>
+      <c r="G94" s="9">
+        <v>356.733</v>
+      </c>
+      <c r="H94" s="9">
+        <v>2616.0599083000002</v>
+      </c>
+      <c r="I94" s="9">
+        <v>13679.491221</v>
+      </c>
+      <c r="J94" s="9">
+        <v>10871.3518</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D93" s="12">
-        <f t="shared" si="4"/>
+      <c r="D95" s="12">
+        <f t="shared" si="5"/>
         <v>34940.797042999999</v>
       </c>
-      <c r="E93" s="13">
-        <v>0</v>
-      </c>
-      <c r="F93" s="13">
+      <c r="E95" s="13">
+        <v>0</v>
+      </c>
+      <c r="F95" s="13">
         <v>7741.241140000001</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G95" s="13">
         <v>295.541</v>
       </c>
-      <c r="H93" s="13">
+      <c r="H95" s="13">
         <v>2365.5157000000004</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I95" s="13">
         <v>14151.311802999999</v>
       </c>
-      <c r="J93" s="13">
+      <c r="J95" s="13">
         <v>10387.187400000001</v>
       </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B94" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J95" s="22"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J97" s="22"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Carga_por_aerolinea_inter.xlsx
+++ b/Carga_por_aerolinea_inter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC54A96-9B38-45AA-8EB4-0658A967A91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA485B34-BC82-42B7-8DFB-12E8BC9CF9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_36" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
   <si>
     <t>Total</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J95" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B5:J95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J96" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B5:J96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -831,7 +831,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:J98"/>
+  <dimension ref="B2:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -907,2719 +907,2749 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>2025</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12">
+        <f>SUM(E6:J6)</f>
+        <v>38575.284604941698</v>
+      </c>
+      <c r="E6" s="13">
+        <v>772.83</v>
+      </c>
+      <c r="F6" s="13">
+        <v>11817.078710000003</v>
+      </c>
+      <c r="G6" s="13">
+        <v>65.179000000000002</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1942.2641000000001</v>
+      </c>
+      <c r="I6" s="13">
+        <v>10662.333194941692</v>
+      </c>
+      <c r="J6" s="13">
+        <v>13315.5996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
-        <f>SUM(E6:J6)</f>
+      <c r="D7" s="8">
+        <f>SUM(E7:J7)</f>
         <v>37313.79596405015</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>744.50599999999997</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>12131.76</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>44.430999999999997</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H7" s="9">
         <v>1946.3588999999999</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I7" s="9">
         <v>9363.910164050154</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J7" s="9">
         <v>13082.829899999999</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
         <v>2025</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12">
-        <f>SUM(E7:J7)</f>
+      <c r="D8" s="12">
+        <f>SUM(E8:J8)</f>
         <v>37219.820942089573</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>806.24699999999996</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>11720.50963</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>189.77500000000001</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H8" s="13">
         <v>2209.8452000000002</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I8" s="13">
         <v>9169.3250420895747</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J8" s="13">
         <v>13124.119070000001</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
         <v>2025</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8">
-        <f t="shared" ref="D8:D13" si="0">SUM(E8:J8)</f>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9:D14" si="0">SUM(E9:J9)</f>
         <v>33018.9152630842</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>656.81100000000004</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>9601.0071100000005</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>140.99299999999999</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H9" s="9">
         <v>2170.9105</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I9" s="9">
         <v>8914.0721530842002</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J9" s="9">
         <v>11535.121499999999</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
         <v>2025</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>38918.408442835935</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>803.03599999999994</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>10916.531330000002</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>104.68</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="13">
         <v>2525.8702799999996</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I10" s="13">
         <v>9767.0137328359342</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J10" s="13">
         <v>14801.277099999999</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
         <v>2025</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>32801.154213885173</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>728.84699999999998</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>8878.0039399999987</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>59.85</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="9">
         <v>2255.4859999999999</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I11" s="9">
         <v>8489.2731738851744</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J11" s="9">
         <v>12389.694099999999</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="14">
         <v>2025</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>32738.156787040898</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>547.80899999999997</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>9255.4840800000002</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <v>64.498999999999995</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H12" s="17">
         <v>2006.0550999999998</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I12" s="17">
         <v>8929.485507040903</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J12" s="17">
         <v>11934.8241</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
         <v>2024</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>36681.74245395753</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>567.71299999999997</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>11191.17438</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>83.263000000000005</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H13" s="9">
         <v>2193.5998599999998</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I13" s="9">
         <v>9052.3878139575227</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J13" s="9">
         <v>13593.6044</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>39082.920190032135</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>476.91500000000002</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>11993.554349999999</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>118.56699999999999</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>2287.3870999999999</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>9767.1580400321363</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J14" s="13">
         <v>14439.3387</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="6">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
         <v>2024</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="8">
-        <f t="shared" ref="D14" si="1">SUM(E14:J14)</f>
+      <c r="D15" s="8">
+        <f t="shared" ref="D15" si="1">SUM(E15:J15)</f>
         <v>40695.70943301174</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>595.11500000000001</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>11987.711707</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>108.72</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H15" s="9">
         <v>2518.88535</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I15" s="9">
         <v>10723.791076011736</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J15" s="9">
         <v>14761.4863</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="12">
-        <f>SUM(E15:J15)</f>
+      <c r="D16" s="12">
+        <f>SUM(E16:J16)</f>
         <v>36776.685215460311</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>655.125</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>11563.669749999999</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>77.037000000000006</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>2604.8681999999999</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>9467.4052554603149</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J16" s="13">
         <v>12408.580010000001</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="6">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
         <v>2024</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="8">
-        <f t="shared" ref="D16:D50" si="2">SUM(E16:J16)</f>
+      <c r="D17" s="8">
+        <f t="shared" ref="D17:D51" si="2">SUM(E17:J17)</f>
         <v>39433.388310719492</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>784.92399999999998</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>12296.267870000001</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>99.649000000000001</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H17" s="9">
         <v>2503.4024399999998</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I17" s="9">
         <v>9761.9496007194903</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J17" s="9">
         <v>13987.195400000001</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="12">
-        <f t="shared" ref="D17:D19" si="3">SUM(E17:J17)</f>
+      <c r="D18" s="12">
+        <f t="shared" ref="D18:D20" si="3">SUM(E18:J18)</f>
         <v>40863.374929445185</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>699.11900000000003</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>12605.198289999998</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>84.063999999999993</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>2098.4537700000001</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="13">
         <v>11053.483869445181</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J18" s="13">
         <v>14323.056</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="6">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
         <v>2024</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <f t="shared" si="3"/>
         <v>39717.599216581912</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>519.66999999999996</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>12738.106460000001</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="9">
         <v>77.063999999999993</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H19" s="9">
         <v>2216.25135</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I19" s="9">
         <v>9750.3944665819108</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J19" s="9">
         <v>14416.112940000001</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="10">
         <v>2024</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <f t="shared" si="3"/>
         <v>41707.502720706252</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>666.51599999999996</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>12929.211709999998</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>67.73</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H20" s="13">
         <v>2272.335</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I20" s="13">
         <v>11736.148020706249</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J20" s="13">
         <v>14035.561990000002</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="6">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
         <v>2024</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <f t="shared" si="2"/>
         <v>41262.668572409835</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>688.25300000000004</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>12315.689579999998</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>41.54</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H21" s="9">
         <v>2009.3571000000002</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I21" s="9">
         <v>11684.158492409841</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J21" s="9">
         <v>14523.670399999999</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="10">
         <v>2024</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <f t="shared" si="2"/>
         <v>42983.103187414818</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>794.28</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>13886.640619999998</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>59.076999999999998</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <v>2339.2438500000003</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="13">
         <v>10445.91770541482</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J22" s="13">
         <v>15457.944011999998</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="6">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
         <v>2024</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <f t="shared" si="2"/>
         <v>40423.179039296359</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>664.82100000000003</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>12004.929049999999</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>45.631999999999998</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="9">
         <v>1860.7841100000001</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I23" s="9">
         <v>11883.265289296362</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J23" s="9">
         <v>13963.747589999999</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="14">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="14">
         <v>2024</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="16">
         <f t="shared" si="2"/>
         <v>41353.686809090235</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>680.31799999999998</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>12601.32713</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>44.356000000000002</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="17">
         <v>1755.9950999999999</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I24" s="17">
         <v>12111.205109090239</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J24" s="17">
         <v>14160.485470000001</v>
       </c>
     </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18">
         <v>2023</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D25" s="20">
         <f t="shared" si="2"/>
         <v>41305.975162030925</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E25" s="21">
         <v>772.82399999999996</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>13837.616139999998</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G25" s="21">
         <v>74.738</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H25" s="21">
         <v>2170.9023299999999</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I25" s="21">
         <v>9069.6951920309275</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J25" s="21">
         <v>15380.199500000001</v>
       </c>
     </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <f t="shared" si="2"/>
         <v>40392.089828230179</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>779.80799999999999</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>11039.539529999998</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>95.251000000000005</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>2158.6788999999999</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I26" s="13">
         <v>9817.7052922301791</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J26" s="13">
         <v>16501.107106000003</v>
       </c>
     </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
         <v>2023</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <f t="shared" si="2"/>
         <v>44801.968924327317</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>778.178</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>10705.033519999999</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>62.91</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H27" s="9">
         <v>2322.5757999999996</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I27" s="9">
         <v>11604.903104327317</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J27" s="9">
         <v>19328.3685</v>
       </c>
     </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <f t="shared" si="2"/>
         <v>37081.792657201382</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>622.02300000000002</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>9376.2873299999992</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>85.058000000000007</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>2340.9119999999998</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="13">
         <v>9719.7349272013871</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J28" s="13">
         <v>14937.777399999999</v>
       </c>
     </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6">
         <v>2023</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <f t="shared" si="2"/>
         <v>40017.679605821257</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>757.96799999999996</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>10215.824409999999</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>52.222000000000001</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H29" s="9">
         <v>2329.6565299999997</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I29" s="9">
         <v>10678.306165821259</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J29" s="9">
         <v>15983.702499999999</v>
       </c>
     </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D30" s="12">
         <f t="shared" si="2"/>
         <v>40319.464599793209</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>788.85</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>10358.44569</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>48.895000000000003</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H30" s="13">
         <v>2259.8667999999998</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I30" s="13">
         <v>10176.83545979321</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J30" s="13">
         <v>16686.571650000002</v>
       </c>
     </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
         <v>2023</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <f t="shared" si="2"/>
         <v>40587.137376239552</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>645.45299999999997</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>10949.239150000001</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>36.125</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H31" s="9">
         <v>2276.2485000000001</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I31" s="9">
         <v>10352.348026239559</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J31" s="9">
         <v>16327.723699999999</v>
       </c>
     </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10">
         <v>2023</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <f t="shared" si="2"/>
         <v>38973.999386463627</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>640.97299999999996</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>10514.624799999998</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>48.081000000000003</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="13">
         <v>2950.8580000000002</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I32" s="13">
         <v>10310.05088646363</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J32" s="13">
         <v>14509.411699999999</v>
       </c>
     </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6">
         <v>2023</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <f t="shared" si="2"/>
         <v>36860.751413830367</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>640.28800000000001</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>10179.089970000003</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G33" s="9">
         <v>36.615000000000002</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H33" s="9">
         <v>2873.6055999999999</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I33" s="9">
         <v>9745.8580438303616</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J33" s="9">
         <v>13385.2948</v>
       </c>
     </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="10">
         <v>2023</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D34" s="12">
         <f t="shared" si="2"/>
         <v>40964.52406578567</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>786.44299999999998</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>10964.678350000002</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>29.545999999999999</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>2982.933</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="13">
         <v>11630.43191578567</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J34" s="13">
         <v>14570.491800000002</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="6">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
         <v>2023</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <f t="shared" si="2"/>
         <v>34787.318148179547</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>578.94399999999996</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>8934.8815099999974</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G35" s="9">
         <v>75.331999999999994</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H35" s="9">
         <v>2327.9451500000005</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I35" s="9">
         <v>10297.70288817955</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J35" s="9">
         <v>12572.5126</v>
       </c>
     </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="14">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="14">
         <v>2023</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="16">
         <f t="shared" si="2"/>
         <v>34339.076626616064</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>536.072</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>8186.4879100000007</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G36" s="17">
         <v>36.253</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="17">
         <v>2646.0401599999996</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I36" s="17">
         <v>10631.460656616069</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J36" s="17">
         <v>12302.762899999998</v>
       </c>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="18">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="18">
         <v>2022</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D37" s="20">
         <f t="shared" si="2"/>
         <v>38746.066609950823</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E37" s="21">
         <v>378.79500000000002</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F37" s="21">
         <v>9252.3727799999997</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G37" s="21">
         <v>106.069</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H37" s="21">
         <v>2824.3177999999998</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I37" s="21">
         <v>11614.168229950819</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J37" s="21">
         <v>14570.343800000001</v>
       </c>
     </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <f t="shared" si="2"/>
         <v>38505.180007486138</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>516.43899999999996</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>9489.5803000000014</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>75.007999999999996</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>2658.9839999999999</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I38" s="13">
         <v>11148.715107486139</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J38" s="13">
         <v>14616.453599999999</v>
       </c>
     </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="6">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="6">
         <v>2022</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <f t="shared" si="2"/>
         <v>41053.772325471538</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>741.95500000000004</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>9730.2727100000011</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G39" s="9">
         <v>97.396000000000001</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H39" s="9">
         <v>2904.4928999999997</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I39" s="9">
         <v>11820.684915471538</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J39" s="9">
         <v>15758.970800000001</v>
       </c>
     </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="10">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="12">
         <f t="shared" si="2"/>
         <v>37277.511123095581</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>663.58500000000004</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>8746.3328199999996</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>20.056000000000001</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>3093.5552793645161</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I40" s="13">
         <v>11160.508123731061</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J40" s="13">
         <v>13593.473900000001</v>
       </c>
     </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="6">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="6">
         <v>2022</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <f t="shared" si="2"/>
         <v>39368.723200849388</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>591.01800000000003</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>8719.4067500000001</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G41" s="9">
         <v>25.675000000000001</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H41" s="9">
         <v>3267.5057999999999</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I41" s="9">
         <v>12298.365450849389</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J41" s="9">
         <v>14466.752199999999</v>
       </c>
     </row>
-    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D42" s="12">
         <f t="shared" si="2"/>
         <v>40438.258232407403</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>530.70500000000004</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>9093.8344099999977</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>34.826000000000001</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="13">
         <v>3252.6017000000002</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I42" s="13">
         <v>11449.207622407401</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J42" s="13">
         <v>16077.083500000001</v>
       </c>
     </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="6">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="6">
         <v>2022</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <f t="shared" si="2"/>
         <v>40705.379663201522</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>512.66099999999994</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>8969.2943099999993</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G43" s="9">
         <v>26.021000000000001</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H43" s="9">
         <v>3225.5032000000001</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I43" s="9">
         <v>12235.641653201521</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J43" s="9">
         <v>15736.2585</v>
       </c>
     </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="10">
         <v>2022</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <f t="shared" si="2"/>
         <v>38385.635270624982</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>646.77499999999998</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>5887.1319999999996</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>121.18</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H44" s="13">
         <v>3119.6742000000004</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I44" s="13">
         <v>12724.717070624982</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J44" s="13">
         <v>15886.156999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="6">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="6">
         <v>2022</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="8">
         <f t="shared" si="2"/>
         <v>37880.648666149609</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>658.78499999999997</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="9">
         <v>5153.4015100000006</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G45" s="9">
         <v>198.077</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H45" s="9">
         <v>2884.4317999999998</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I45" s="9">
         <v>13095.55395614961</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J45" s="9">
         <v>15890.3994</v>
       </c>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="10">
         <v>2022</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D46" s="12">
         <f t="shared" si="2"/>
         <v>39804.246607167996</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>701.476</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>5848.9565829999992</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>68.724999999999994</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>3277.5267000000003</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I46" s="13">
         <v>13626.115124168</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J46" s="13">
         <v>16281.447199999999</v>
       </c>
     </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="6">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="6">
         <v>2022</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <f t="shared" si="2"/>
         <v>35391.386208309319</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>638.51099999999997</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>5672.3767400000006</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="9">
         <v>17.033999999999999</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H47" s="9">
         <v>2882.4872999999998</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I47" s="9">
         <v>10909.849568309321</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J47" s="9">
         <v>15271.127599999998</v>
       </c>
     </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="14">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="14">
         <v>2022</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <f t="shared" si="2"/>
         <v>32469.848449272838</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>482.12099999999998</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>6245.3897599999991</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G48" s="17">
         <v>259.46800000000002</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H48" s="17">
         <v>2435.1074600000002</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I48" s="17">
         <v>9916.5125292728408</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J48" s="17">
         <v>13131.2497</v>
       </c>
     </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="18">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="18">
         <v>2021</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D49" s="20">
         <f t="shared" si="2"/>
         <v>39492.366382685294</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E49" s="21">
         <v>458.77499999999998</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F49" s="21">
         <v>10098.12268</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G49" s="21">
         <v>133.10599999999999</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H49" s="21">
         <v>3136.06873</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I49" s="21">
         <v>12005.78674268529</v>
       </c>
-      <c r="J48" s="21">
+      <c r="J49" s="21">
         <v>13660.507230000001</v>
       </c>
     </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10">
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <f t="shared" si="2"/>
         <v>40331.827408900004</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>490.10599999999999</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>10062.285780000002</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>336.76799999999997</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <v>3288.1294800000001</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I50" s="13">
         <v>12280.809678899999</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J50" s="13">
         <v>13873.728469999998</v>
       </c>
     </row>
-    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="6">
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="6">
         <v>2021</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <f t="shared" si="2"/>
         <v>41580.666843700004</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>586.94299999999998</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>10735.457050000001</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G51" s="9">
         <v>619.62599999999998</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H51" s="9">
         <v>2722.0764900000004</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I51" s="9">
         <v>11237.549403700001</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J51" s="9">
         <v>15679.0149</v>
       </c>
     </row>
-    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="10">
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="12">
-        <f t="shared" ref="D51:D82" si="4">SUM(E51:J51)</f>
+      <c r="D52" s="12">
+        <f t="shared" ref="D52:D83" si="4">SUM(E52:J52)</f>
         <v>38165.8196035</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>696.17100000000005</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>10134.700359999999</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>487.45499999999998</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>2548.2033000000001</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I52" s="13">
         <v>11597.826043499999</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J52" s="13">
         <v>12701.463900000001</v>
       </c>
     </row>
-    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="6">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="6">
         <v>2021</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <f t="shared" si="4"/>
         <v>37424.307471799999</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>396.84</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>9954.2116800000003</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G53" s="9">
         <v>550.08500000000004</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H53" s="9">
         <v>2444.3667</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I53" s="9">
         <v>11310.234991799998</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J53" s="9">
         <v>12768.569099999999</v>
       </c>
     </row>
-    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="10">
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D54" s="12">
         <f t="shared" si="4"/>
         <v>39029.204718000001</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>501.01900000000001</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>10968.570522</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>546.27499999999998</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="13">
         <v>2313.2728999999999</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I54" s="13">
         <v>11426.955696000001</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J54" s="13">
         <v>13273.1116</v>
       </c>
     </row>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="6">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="6">
         <v>2021</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <f t="shared" si="4"/>
         <v>37745.558432400001</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>463.83300000000003</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>10031.152749999999</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G55" s="9">
         <v>463.92500000000001</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H55" s="9">
         <v>1743.7754</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I55" s="9">
         <v>11018.1134824</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J55" s="9">
         <v>14024.758800000001</v>
       </c>
     </row>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="10">
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="10">
         <v>2021</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <f t="shared" si="4"/>
         <v>38457.492379999996</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>554.96</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>9638.9807799999999</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>289.39</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H56" s="13">
         <v>1666.4480000000001</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I56" s="13">
         <v>11157.246999999999</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J56" s="13">
         <v>15150.4666</v>
       </c>
     </row>
-    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="6">
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="6">
         <v>2021</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D57" s="8">
         <f t="shared" si="4"/>
         <v>37112.560168100004</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>590.50099999999998</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F57" s="9">
         <v>9277.434830000002</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G57" s="9">
         <v>331.7</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H57" s="9">
         <v>1472.3352</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I57" s="9">
         <v>11167.4790381</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J57" s="9">
         <v>14273.1101</v>
       </c>
     </row>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="10">
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="10">
         <v>2021</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D58" s="12">
         <f t="shared" si="4"/>
         <v>41269.452216999998</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>386.11599999999999</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>10042.040590000001</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>536.54600000000005</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="13">
         <v>1531.1469999999999</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I58" s="13">
         <v>13111.292127000001</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J58" s="13">
         <v>15662.3105</v>
       </c>
     </row>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="6">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="6">
         <v>2021</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <f t="shared" si="4"/>
         <v>34648.807876000006</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>219.61199999999999</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>8953.9622800000016</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G59" s="9">
         <v>228.47900000000001</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H59" s="9">
         <v>1342.146</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I59" s="9">
         <v>9816.7840960000012</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J59" s="9">
         <v>14087.824500000001</v>
       </c>
     </row>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="14">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="14">
         <v>2021</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <f t="shared" si="4"/>
         <v>36982.816146000005</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>129.93199999999999</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>10106.45505</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G60" s="17">
         <v>156.72999999999999</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H60" s="17">
         <v>1370.9369999999999</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I60" s="17">
         <v>11214.778596</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J60" s="17">
         <v>14003.9835</v>
       </c>
     </row>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="18">
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="18">
         <v>2020</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D61" s="20">
         <f t="shared" si="4"/>
         <v>36967.920087999999</v>
       </c>
-      <c r="E60" s="21">
-        <v>0</v>
-      </c>
-      <c r="F60" s="21">
+      <c r="E61" s="21">
+        <v>0</v>
+      </c>
+      <c r="F61" s="21">
         <v>10567.67765</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G61" s="21">
         <v>247.25800000000001</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H61" s="21">
         <v>1325.12</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I61" s="21">
         <v>11836.856238</v>
       </c>
-      <c r="J60" s="21">
+      <c r="J61" s="21">
         <v>12991.008199999998</v>
       </c>
     </row>
-    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="10">
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <f t="shared" si="4"/>
         <v>36852.864462999998</v>
       </c>
-      <c r="E61" s="13">
-        <v>0</v>
-      </c>
-      <c r="F61" s="13">
+      <c r="E62" s="13">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
         <v>10376.03788</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>137.81200000000001</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>1566.683</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I62" s="13">
         <v>11120.986982999999</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J62" s="13">
         <v>13651.3446</v>
       </c>
     </row>
-    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="6">
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="6">
         <v>2020</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <f t="shared" si="4"/>
         <v>37111.751327400001</v>
       </c>
-      <c r="E62" s="9">
-        <v>0</v>
-      </c>
-      <c r="F62" s="9">
+      <c r="E63" s="9">
+        <v>0</v>
+      </c>
+      <c r="F63" s="9">
         <v>10139.1556</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G63" s="9">
         <v>42.646000000000001</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H63" s="9">
         <v>1292.682</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I63" s="9">
         <v>10863.6815274</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J63" s="9">
         <v>14773.5862</v>
       </c>
     </row>
-    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="10">
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <f t="shared" si="4"/>
         <v>31289.118952199999</v>
       </c>
-      <c r="E63" s="13">
-        <v>0</v>
-      </c>
-      <c r="F63" s="13">
+      <c r="E64" s="13">
+        <v>0</v>
+      </c>
+      <c r="F64" s="13">
         <v>8729.1361899999993</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>35.866999999999997</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>987.66099999999994</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I64" s="13">
         <v>9399.9986922000007</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J64" s="13">
         <v>12136.45607</v>
       </c>
     </row>
-    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="6">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="6">
         <v>2020</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <f t="shared" si="4"/>
         <v>28794.378688499997</v>
       </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="9">
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9">
         <v>8471.0650299999998</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G65" s="9">
         <v>42.926000000000002</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H65" s="9">
         <v>1074.0519999999999</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I65" s="9">
         <v>8606.7041585000006</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J65" s="9">
         <v>10599.6315</v>
       </c>
     </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="10">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D66" s="12">
         <f t="shared" si="4"/>
         <v>27431.279484500003</v>
       </c>
-      <c r="E65" s="13">
-        <v>0</v>
-      </c>
-      <c r="F65" s="13">
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13">
         <v>8226.0579799999996</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>36.588000000000001</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H66" s="13">
         <v>1040.3589999999999</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I66" s="13">
         <v>8177.4266045000004</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J66" s="13">
         <v>9950.8479000000007</v>
       </c>
     </row>
-    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="6">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="6">
         <v>2020</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <f t="shared" si="4"/>
         <v>25926.471812200001</v>
       </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="F66" s="9">
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9">
         <v>7134.2837199999994</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G67" s="9">
         <v>63.805</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H67" s="9">
         <v>855.82899999999995</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I67" s="9">
         <v>7779.0341922000007</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J67" s="9">
         <v>10093.519900000001</v>
       </c>
     </row>
-    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="10">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="10">
         <v>2020</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <f t="shared" si="4"/>
         <v>23168.212673900001</v>
       </c>
-      <c r="E67" s="13">
-        <v>0</v>
-      </c>
-      <c r="F67" s="13">
+      <c r="E68" s="13">
+        <v>0</v>
+      </c>
+      <c r="F68" s="13">
         <v>6023.6581899999992</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>187.08600000000001</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H68" s="13">
         <v>832.03399999999999</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I68" s="13">
         <v>7072.7845839000001</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J68" s="13">
         <v>9052.6499000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="6">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="6">
         <v>2020</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D69" s="8">
         <f t="shared" si="4"/>
         <v>20427.959275100002</v>
       </c>
-      <c r="E68" s="9">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9">
+      <c r="E69" s="9">
+        <v>0</v>
+      </c>
+      <c r="F69" s="9">
         <v>5209.0807000000004</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G69" s="9">
         <v>24.07</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H69" s="9">
         <v>739.351</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I69" s="9">
         <v>6596.5606751000005</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J69" s="9">
         <v>7858.8969000000006</v>
       </c>
     </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="10">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="10">
         <v>2020</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D70" s="12">
         <f t="shared" si="4"/>
         <v>33140.735087100002</v>
       </c>
-      <c r="E69" s="13">
-        <v>0</v>
-      </c>
-      <c r="F69" s="13">
+      <c r="E70" s="13">
+        <v>0</v>
+      </c>
+      <c r="F70" s="13">
         <v>8644.8665579999997</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>50.677999999999997</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H70" s="13">
         <v>2214.377</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I70" s="13">
         <v>10403.6180291</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J70" s="13">
         <v>11827.1955</v>
       </c>
     </row>
-    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="6">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="6">
         <v>2020</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <f t="shared" si="4"/>
         <v>31595.295708999998</v>
       </c>
-      <c r="E70" s="9">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9">
+      <c r="E71" s="9">
+        <v>0</v>
+      </c>
+      <c r="F71" s="9">
         <v>8503.3772899999985</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G71" s="9">
         <v>71.156000000000006</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H71" s="9">
         <v>2496.2399999999998</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I71" s="9">
         <v>9914.0471189999989</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J71" s="9">
         <v>10610.4753</v>
       </c>
     </row>
-    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="14">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="14">
         <v>2020</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="16">
         <f t="shared" si="4"/>
         <v>31902.586373000002</v>
       </c>
-      <c r="E71" s="17">
-        <v>0</v>
-      </c>
-      <c r="F71" s="17">
+      <c r="E72" s="17">
+        <v>0</v>
+      </c>
+      <c r="F72" s="17">
         <v>8365.6301700000004</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G72" s="17">
         <v>80.352000000000004</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H72" s="17">
         <v>2759.7359999999999</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I72" s="17">
         <v>11337.052103</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J72" s="17">
         <v>9359.8161</v>
       </c>
     </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="18">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="18">
         <v>2019</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D73" s="20">
         <f t="shared" si="4"/>
         <v>34834.055678999997</v>
       </c>
-      <c r="E72" s="21">
-        <v>0</v>
-      </c>
-      <c r="F72" s="21">
+      <c r="E73" s="21">
+        <v>0</v>
+      </c>
+      <c r="F73" s="21">
         <v>9580.7296500000011</v>
       </c>
-      <c r="G72" s="21">
-        <v>0</v>
-      </c>
-      <c r="H72" s="21">
+      <c r="G73" s="21">
+        <v>0</v>
+      </c>
+      <c r="H73" s="21">
         <v>2707.5740000000001</v>
       </c>
-      <c r="I72" s="21">
+      <c r="I73" s="21">
         <v>11491.813929</v>
       </c>
-      <c r="J72" s="21">
+      <c r="J73" s="21">
         <v>11053.938099999999</v>
       </c>
     </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="10">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="12">
         <f t="shared" si="4"/>
         <v>36842.30025</v>
       </c>
-      <c r="E73" s="13">
-        <v>0</v>
-      </c>
-      <c r="F73" s="13">
+      <c r="E74" s="13">
+        <v>0</v>
+      </c>
+      <c r="F74" s="13">
         <v>9295.5269499999995</v>
       </c>
-      <c r="G73" s="13">
-        <v>0</v>
-      </c>
-      <c r="H73" s="13">
+      <c r="G74" s="13">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13">
         <v>2968.0250000000001</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I74" s="13">
         <v>12197.1018</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J74" s="13">
         <v>12381.646500000001</v>
       </c>
     </row>
-    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="6">
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="6">
         <v>2019</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <f t="shared" si="4"/>
         <v>37499.549509000004</v>
       </c>
-      <c r="E74" s="9">
-        <v>0</v>
-      </c>
-      <c r="F74" s="9">
+      <c r="E75" s="9">
+        <v>0</v>
+      </c>
+      <c r="F75" s="9">
         <v>8717.2473399999999</v>
       </c>
-      <c r="G74" s="9">
-        <v>0</v>
-      </c>
-      <c r="H74" s="9">
+      <c r="G75" s="9">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9">
         <v>2772.4720000000002</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I75" s="9">
         <v>12460.489269000002</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J75" s="9">
         <v>13549.340900000001</v>
       </c>
     </row>
-    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="10">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="12">
         <f t="shared" si="4"/>
         <v>34780.897574999995</v>
       </c>
-      <c r="E75" s="13">
-        <v>0</v>
-      </c>
-      <c r="F75" s="13">
+      <c r="E76" s="13">
+        <v>0</v>
+      </c>
+      <c r="F76" s="13">
         <v>8235.0453999999991</v>
       </c>
-      <c r="G75" s="13">
-        <v>0</v>
-      </c>
-      <c r="H75" s="13">
+      <c r="G76" s="13">
+        <v>0</v>
+      </c>
+      <c r="H76" s="13">
         <v>3011.7339999999999</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I76" s="13">
         <v>11347.632975</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J76" s="13">
         <v>12186.485199999999</v>
       </c>
     </row>
-    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="6">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="6">
         <v>2019</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <f t="shared" si="4"/>
         <v>36123.947636999997</v>
       </c>
-      <c r="E76" s="9">
-        <v>0</v>
-      </c>
-      <c r="F76" s="9">
+      <c r="E77" s="9">
+        <v>0</v>
+      </c>
+      <c r="F77" s="9">
         <v>8047.0139099999997</v>
       </c>
-      <c r="G76" s="9">
-        <v>0</v>
-      </c>
-      <c r="H76" s="9">
+      <c r="G77" s="9">
+        <v>0</v>
+      </c>
+      <c r="H77" s="9">
         <v>2861.5230000000001</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I77" s="9">
         <v>13553.171926999999</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J77" s="9">
         <v>11662.238800000001</v>
       </c>
     </row>
-    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="10">
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D78" s="12">
         <f t="shared" si="4"/>
         <v>36989.020386999997</v>
       </c>
-      <c r="E77" s="13">
-        <v>0</v>
-      </c>
-      <c r="F77" s="13">
+      <c r="E78" s="13">
+        <v>0</v>
+      </c>
+      <c r="F78" s="13">
         <v>8253.6834899999994</v>
       </c>
-      <c r="G77" s="13">
-        <v>0</v>
-      </c>
-      <c r="H77" s="13">
+      <c r="G78" s="13">
+        <v>0</v>
+      </c>
+      <c r="H78" s="13">
         <v>2588.3980000000001</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I78" s="13">
         <v>13481.634697000001</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J78" s="13">
         <v>12665.304199999999</v>
       </c>
     </row>
-    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="6">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="6">
         <v>2019</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <f t="shared" si="4"/>
         <v>36253.700530000002</v>
       </c>
-      <c r="E78" s="9">
-        <v>0</v>
-      </c>
-      <c r="F78" s="9">
+      <c r="E79" s="9">
+        <v>0</v>
+      </c>
+      <c r="F79" s="9">
         <v>7444.2109199999995</v>
       </c>
-      <c r="G78" s="9">
-        <v>0</v>
-      </c>
-      <c r="H78" s="9">
+      <c r="G79" s="9">
+        <v>0</v>
+      </c>
+      <c r="H79" s="9">
         <v>2726.3809999999999</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I79" s="9">
         <v>14226.39911</v>
       </c>
-      <c r="J78" s="9">
+      <c r="J79" s="9">
         <v>11856.709500000001</v>
       </c>
     </row>
-    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="10">
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="10">
         <v>2019</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="12">
         <f t="shared" si="4"/>
         <v>36841.123875999998</v>
       </c>
-      <c r="E79" s="13">
-        <v>0</v>
-      </c>
-      <c r="F79" s="13">
+      <c r="E80" s="13">
+        <v>0</v>
+      </c>
+      <c r="F80" s="13">
         <v>8213.8209500000012</v>
       </c>
-      <c r="G79" s="13">
-        <v>0</v>
-      </c>
-      <c r="H79" s="13">
+      <c r="G80" s="13">
+        <v>0</v>
+      </c>
+      <c r="H80" s="13">
         <v>2822.8220000000001</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I80" s="13">
         <v>14573.453925999998</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J80" s="13">
         <v>11231.027</v>
       </c>
     </row>
-    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="6">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="6">
         <v>2019</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D81" s="8">
         <f t="shared" si="4"/>
         <v>34774.654051999998</v>
       </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="9">
+      <c r="E81" s="9">
+        <v>0</v>
+      </c>
+      <c r="F81" s="9">
         <v>7045.8119100000004</v>
       </c>
-      <c r="G80" s="9">
-        <v>0</v>
-      </c>
-      <c r="H80" s="9">
+      <c r="G81" s="9">
+        <v>0</v>
+      </c>
+      <c r="H81" s="9">
         <v>2281.2820000000002</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I81" s="9">
         <v>14819.089841999999</v>
       </c>
-      <c r="J80" s="9">
+      <c r="J81" s="9">
         <v>10628.470300000001</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="10">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="10">
         <v>2019</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <f t="shared" si="4"/>
         <v>41597.635473399998</v>
       </c>
-      <c r="E81" s="13">
-        <v>0</v>
-      </c>
-      <c r="F81" s="13">
+      <c r="E82" s="13">
+        <v>0</v>
+      </c>
+      <c r="F82" s="13">
         <v>8978.2172699999992</v>
       </c>
-      <c r="G81" s="13">
-        <v>0</v>
-      </c>
-      <c r="H81" s="13">
+      <c r="G82" s="13">
+        <v>0</v>
+      </c>
+      <c r="H82" s="13">
         <v>2665.5234</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="13">
         <v>16057.1642034</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J82" s="13">
         <v>13896.730599999999</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="6">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="6">
         <v>2019</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <f t="shared" si="4"/>
         <v>34403.574224000004</v>
       </c>
-      <c r="E82" s="9">
-        <v>0</v>
-      </c>
-      <c r="F82" s="9">
+      <c r="E83" s="9">
+        <v>0</v>
+      </c>
+      <c r="F83" s="9">
         <v>7372.8365000000003</v>
       </c>
-      <c r="G82" s="9">
-        <v>0</v>
-      </c>
-      <c r="H82" s="9">
+      <c r="G83" s="9">
+        <v>0</v>
+      </c>
+      <c r="H83" s="9">
         <v>2041.7819999999999</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I83" s="9">
         <v>14155.565524</v>
       </c>
-      <c r="J82" s="9">
+      <c r="J83" s="9">
         <v>10833.3902</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="14">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="14">
         <v>2019</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="16">
-        <f t="shared" ref="D83:D95" si="5">SUM(E83:J83)</f>
+      <c r="D84" s="16">
+        <f t="shared" ref="D84:D96" si="5">SUM(E84:J84)</f>
         <v>34340.204129700003</v>
       </c>
-      <c r="E83" s="17">
-        <v>0</v>
-      </c>
-      <c r="F83" s="17">
+      <c r="E84" s="17">
+        <v>0</v>
+      </c>
+      <c r="F84" s="17">
         <v>7805.6810100000012</v>
       </c>
-      <c r="G83" s="17">
-        <v>0</v>
-      </c>
-      <c r="H83" s="17">
+      <c r="G84" s="17">
+        <v>0</v>
+      </c>
+      <c r="H84" s="17">
         <v>2447.4140000000002</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I84" s="17">
         <v>13462.407319700002</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J84" s="17">
         <v>10624.701800000001</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="7">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="8">
         <f t="shared" si="5"/>
         <v>39107.630482000008</v>
       </c>
-      <c r="E84" s="9">
-        <v>0</v>
-      </c>
-      <c r="F84" s="9">
+      <c r="E85" s="9">
+        <v>0</v>
+      </c>
+      <c r="F85" s="9">
         <v>9016.9082100000014</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G85" s="9">
         <v>604.548</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H85" s="9">
         <v>2518.2449999999999</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I85" s="9">
         <v>14153.156971999999</v>
       </c>
-      <c r="J84" s="9">
+      <c r="J85" s="9">
         <v>12814.772300000001</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="11">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <f t="shared" si="5"/>
         <v>40739.449042</v>
       </c>
-      <c r="E85" s="13">
-        <v>0</v>
-      </c>
-      <c r="F85" s="13">
+      <c r="E86" s="13">
+        <v>0</v>
+      </c>
+      <c r="F86" s="13">
         <v>10171.974600000001</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>543.64599999999996</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H86" s="13">
         <v>3271.4839999999999</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>14774.019941999999</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J86" s="13">
         <v>11978.324500000001</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="7">
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <f t="shared" si="5"/>
         <v>41232.318012000003</v>
       </c>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="9">
+      <c r="E87" s="9">
+        <v>0</v>
+      </c>
+      <c r="F87" s="9">
         <v>9028.4674500000001</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G87" s="9">
         <v>556.69100000000003</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H87" s="9">
         <v>3183.5309999999999</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I87" s="9">
         <v>15699.443762000001</v>
       </c>
-      <c r="J86" s="9">
+      <c r="J87" s="9">
         <v>12764.184800000001</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="11">
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <f t="shared" si="5"/>
         <v>39190.964049599999</v>
       </c>
-      <c r="E87" s="13">
-        <v>0</v>
-      </c>
-      <c r="F87" s="13">
+      <c r="E88" s="13">
+        <v>0</v>
+      </c>
+      <c r="F88" s="13">
         <v>9327.9771700000001</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>646.58299999999997</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H88" s="13">
         <v>3104.5279999999998</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>13338.916489599998</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J88" s="13">
         <v>12772.95939</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="7">
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D89" s="8">
         <f t="shared" si="5"/>
         <v>37812.709869799997</v>
       </c>
-      <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88" s="9">
+      <c r="E89" s="9">
+        <v>0</v>
+      </c>
+      <c r="F89" s="9">
         <v>8414.4507599999997</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G89" s="9">
         <v>730.47900000000004</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H89" s="9">
         <v>3062.973</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I89" s="9">
         <v>14063.5628698</v>
       </c>
-      <c r="J88" s="9">
+      <c r="J89" s="9">
         <v>11541.24424</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="11">
+    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <f t="shared" si="5"/>
         <v>39965.855546999999</v>
       </c>
-      <c r="E89" s="13">
-        <v>0</v>
-      </c>
-      <c r="F89" s="13">
+      <c r="E90" s="13">
+        <v>0</v>
+      </c>
+      <c r="F90" s="13">
         <v>8683.6723199999997</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>687.87199999999996</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H90" s="13">
         <v>2884.9024869999998</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>14803.904460000002</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J90" s="13">
         <v>12905.504279999999</v>
       </c>
     </row>
-    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="7">
+    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D91" s="8">
         <f t="shared" si="5"/>
         <v>41066.873502000002</v>
       </c>
-      <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90" s="9">
+      <c r="E91" s="9">
+        <v>0</v>
+      </c>
+      <c r="F91" s="9">
         <v>8739.8234700000012</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G91" s="9">
         <v>775.90599999999995</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H91" s="9">
         <v>3132.7950000000001</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I91" s="9">
         <v>15348.913632</v>
       </c>
-      <c r="J90" s="9">
+      <c r="J91" s="9">
         <v>13069.4354</v>
       </c>
     </row>
-    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="11">
+    <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="11">
         <v>2018</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D92" s="12">
         <f t="shared" si="5"/>
         <v>39330.274949999999</v>
       </c>
-      <c r="E91" s="13">
-        <v>0</v>
-      </c>
-      <c r="F91" s="13">
+      <c r="E92" s="13">
+        <v>0</v>
+      </c>
+      <c r="F92" s="13">
         <v>8459.8314499999997</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G92" s="13">
         <v>741.85500000000002</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H92" s="13">
         <v>3243.9609999999998</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I92" s="13">
         <v>15389.468199999999</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J92" s="13">
         <v>11495.159300000001</v>
       </c>
     </row>
-    <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="7">
+    <row r="93" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="7">
         <v>2018</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D93" s="8">
         <f t="shared" si="5"/>
         <v>42190.912314999994</v>
       </c>
-      <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92" s="9">
+      <c r="E93" s="9">
+        <v>0</v>
+      </c>
+      <c r="F93" s="9">
         <v>9138.4659200000006</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G93" s="9">
         <v>763.33</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H93" s="9">
         <v>2695.9059999999999</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I93" s="9">
         <v>17318.287694999999</v>
       </c>
-      <c r="J92" s="9">
+      <c r="J93" s="9">
         <v>12274.922699999999</v>
       </c>
     </row>
-    <row r="93" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="11">
+    <row r="94" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="11">
         <v>2018</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D94" s="12">
         <f t="shared" si="5"/>
         <v>42310.135434999997</v>
       </c>
-      <c r="E93" s="13">
-        <v>0</v>
-      </c>
-      <c r="F93" s="13">
+      <c r="E94" s="13">
+        <v>0</v>
+      </c>
+      <c r="F94" s="13">
         <v>9362.9394400000001</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G94" s="13">
         <v>388.47899999999998</v>
       </c>
-      <c r="H93" s="13">
+      <c r="H94" s="13">
         <v>3041.660961</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I94" s="13">
         <v>15644.620234</v>
       </c>
-      <c r="J93" s="13">
+      <c r="J94" s="13">
         <v>13872.435800000001</v>
       </c>
     </row>
-    <row r="94" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="7">
+    <row r="95" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="7">
         <v>2018</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D95" s="8">
         <f t="shared" si="5"/>
         <v>34826.467999300003</v>
       </c>
-      <c r="E94" s="9">
-        <v>0</v>
-      </c>
-      <c r="F94" s="9">
+      <c r="E95" s="9">
+        <v>0</v>
+      </c>
+      <c r="F95" s="9">
         <v>7302.8320700000004</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G95" s="9">
         <v>356.733</v>
       </c>
-      <c r="H94" s="9">
+      <c r="H95" s="9">
         <v>2616.0599083000002</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I95" s="9">
         <v>13679.491221</v>
       </c>
-      <c r="J94" s="9">
+      <c r="J95" s="9">
         <v>10871.3518</v>
       </c>
     </row>
-    <row r="95" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="11">
+    <row r="96" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="11">
         <v>2018</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C96" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D96" s="12">
         <f t="shared" si="5"/>
         <v>34940.797042999999</v>
       </c>
-      <c r="E95" s="13">
-        <v>0</v>
-      </c>
-      <c r="F95" s="13">
+      <c r="E96" s="13">
+        <v>0</v>
+      </c>
+      <c r="F96" s="13">
         <v>7741.241140000001</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G96" s="13">
         <v>295.541</v>
       </c>
-      <c r="H95" s="13">
+      <c r="H96" s="13">
         <v>2365.5157000000004</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I96" s="13">
         <v>14151.311802999999</v>
       </c>
-      <c r="J95" s="13">
+      <c r="J96" s="13">
         <v>10387.187400000001</v>
       </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B96" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96" s="3"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J97" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J98" s="22"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Carga_por_aerolinea_inter.xlsx
+++ b/Carga_por_aerolinea_inter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA485B34-BC82-42B7-8DFB-12E8BC9CF9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5337D19F-C625-43C7-8EA6-1CB20A204003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_36" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="27">
   <si>
     <t>Total</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J96" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B5:J96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J97" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B5:J97" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -831,7 +831,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:J99"/>
+  <dimension ref="B2:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -907,2749 +907,2779 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>2025</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(E6:J6)</f>
+        <v>37549.66607461543</v>
+      </c>
+      <c r="E6" s="9">
+        <v>578.76599999999996</v>
+      </c>
+      <c r="F6" s="9">
+        <v>12034.239129999998</v>
+      </c>
+      <c r="G6" s="9">
+        <v>43.042000000000002</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2377.77</v>
+      </c>
+      <c r="I6" s="9">
+        <v>9840.4190446154334</v>
+      </c>
+      <c r="J6" s="9">
+        <v>12675.429899999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12">
-        <f>SUM(E6:J6)</f>
+      <c r="D7" s="12">
+        <f>SUM(E7:J7)</f>
         <v>38575.284604941698</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>772.83</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>11817.078710000003</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>65.179000000000002</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="13">
         <v>1942.2641000000001</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="13">
         <v>10662.333194941692</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J7" s="13">
         <v>13315.5996</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
         <v>2025</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
-        <f>SUM(E7:J7)</f>
+      <c r="D8" s="8">
+        <f>SUM(E8:J8)</f>
         <v>37313.79596405015</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>744.50599999999997</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="9">
         <v>12131.76</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="9">
         <v>44.430999999999997</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H8" s="9">
         <v>1946.3588999999999</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I8" s="9">
         <v>9363.910164050154</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J8" s="9">
         <v>13082.829899999999</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
         <v>2025</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12">
-        <f>SUM(E8:J8)</f>
+      <c r="D9" s="12">
+        <f>SUM(E9:J9)</f>
         <v>37219.820942089573</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>806.24699999999996</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>11720.50963</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>189.77500000000001</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="13">
         <v>2209.8452000000002</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="13">
         <v>9169.3250420895747</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J9" s="13">
         <v>13124.119070000001</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
         <v>2025</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:D14" si="0">SUM(E9:J9)</f>
+      <c r="D10" s="8">
+        <f t="shared" ref="D10:D15" si="0">SUM(E10:J10)</f>
         <v>33018.9152630842</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>656.81100000000004</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>9601.0071100000005</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>140.99299999999999</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H10" s="9">
         <v>2170.9105</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I10" s="9">
         <v>8914.0721530842002</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J10" s="9">
         <v>11535.121499999999</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
         <v>2025</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>38918.408442835935</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>803.03599999999994</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>10916.531330000002</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>104.68</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="13">
         <v>2525.8702799999996</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I11" s="13">
         <v>9767.0137328359342</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J11" s="13">
         <v>14801.277099999999</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
         <v>2025</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>32801.154213885173</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>728.84699999999998</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>8878.0039399999987</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <v>59.85</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H12" s="9">
         <v>2255.4859999999999</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I12" s="9">
         <v>8489.2731738851744</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J12" s="9">
         <v>12389.694099999999</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="14">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
         <v>2025</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>32738.156787040898</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>547.80899999999997</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>9255.4840800000002</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>64.498999999999995</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="17">
         <v>2006.0550999999998</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I13" s="17">
         <v>8929.485507040903</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="17">
         <v>11934.8241</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
         <v>2024</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>36681.74245395753</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>567.71299999999997</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>11191.17438</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>83.263000000000005</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="9">
         <v>2193.5998599999998</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="9">
         <v>9052.3878139575227</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J14" s="9">
         <v>13593.6044</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>39082.920190032135</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>476.91500000000002</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>11993.554349999999</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>118.56699999999999</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>2287.3870999999999</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="13">
         <v>9767.1580400321363</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J15" s="13">
         <v>14439.3387</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="6">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
         <v>2024</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="8">
-        <f t="shared" ref="D15" si="1">SUM(E15:J15)</f>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16" si="1">SUM(E16:J16)</f>
         <v>40695.70943301174</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>595.11500000000001</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>11987.711707</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>108.72</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="9">
         <v>2518.88535</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I16" s="9">
         <v>10723.791076011736</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J16" s="9">
         <v>14761.4863</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="12">
-        <f>SUM(E16:J16)</f>
+      <c r="D17" s="12">
+        <f>SUM(E17:J17)</f>
         <v>36776.685215460311</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>655.125</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>11563.669749999999</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>77.037000000000006</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="13">
         <v>2604.8681999999999</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="13">
         <v>9467.4052554603149</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J17" s="13">
         <v>12408.580010000001</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="6">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
         <v>2024</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8">
-        <f t="shared" ref="D17:D51" si="2">SUM(E17:J17)</f>
+      <c r="D18" s="8">
+        <f t="shared" ref="D18:D52" si="2">SUM(E18:J18)</f>
         <v>39433.388310719492</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>784.92399999999998</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>12296.267870000001</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>99.649000000000001</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H18" s="9">
         <v>2503.4024399999998</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I18" s="9">
         <v>9761.9496007194903</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J18" s="9">
         <v>13987.195400000001</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="12">
-        <f t="shared" ref="D18:D20" si="3">SUM(E18:J18)</f>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19:D21" si="3">SUM(E19:J19)</f>
         <v>40863.374929445185</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>699.11900000000003</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>12605.198289999998</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>84.063999999999993</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="13">
         <v>2098.4537700000001</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I19" s="13">
         <v>11053.483869445181</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J19" s="13">
         <v>14323.056</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="6">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
         <v>2024</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <f t="shared" si="3"/>
         <v>39717.599216581912</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>519.66999999999996</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>12738.106460000001</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>77.063999999999993</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H20" s="9">
         <v>2216.25135</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I20" s="9">
         <v>9750.3944665819108</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J20" s="9">
         <v>14416.112940000001</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="10">
         <v>2024</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <f t="shared" si="3"/>
         <v>41707.502720706252</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>666.51599999999996</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>12929.211709999998</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>67.73</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="13">
         <v>2272.335</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I21" s="13">
         <v>11736.148020706249</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J21" s="13">
         <v>14035.561990000002</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="6">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
         <v>2024</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <f t="shared" si="2"/>
         <v>41262.668572409835</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>688.25300000000004</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>12315.689579999998</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="9">
         <v>41.54</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H22" s="9">
         <v>2009.3571000000002</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I22" s="9">
         <v>11684.158492409841</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J22" s="9">
         <v>14523.670399999999</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="10">
         <v>2024</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <f t="shared" si="2"/>
         <v>42983.103187414818</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>794.28</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>13886.640619999998</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>59.076999999999998</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>2339.2438500000003</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>10445.91770541482</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="13">
         <v>15457.944011999998</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="6">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
         <v>2024</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <f t="shared" si="2"/>
         <v>40423.179039296359</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>664.82100000000003</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>12004.929049999999</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G24" s="9">
         <v>45.631999999999998</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H24" s="9">
         <v>1860.7841100000001</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I24" s="9">
         <v>11883.265289296362</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J24" s="9">
         <v>13963.747589999999</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="14">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="14">
         <v>2024</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="16">
         <f t="shared" si="2"/>
         <v>41353.686809090235</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>680.31799999999998</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>12601.32713</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G25" s="17">
         <v>44.356000000000002</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H25" s="17">
         <v>1755.9950999999999</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I25" s="17">
         <v>12111.205109090239</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J25" s="17">
         <v>14160.485470000001</v>
       </c>
     </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="18">
         <v>2023</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D26" s="20">
         <f t="shared" si="2"/>
         <v>41305.975162030925</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E26" s="21">
         <v>772.82399999999996</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>13837.616139999998</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G26" s="21">
         <v>74.738</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H26" s="21">
         <v>2170.9023299999999</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I26" s="21">
         <v>9069.6951920309275</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J26" s="21">
         <v>15380.199500000001</v>
       </c>
     </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <f t="shared" si="2"/>
         <v>40392.089828230179</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>779.80799999999999</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>11039.539529999998</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>95.251000000000005</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>2158.6788999999999</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="13">
         <v>9817.7052922301791</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J27" s="13">
         <v>16501.107106000003</v>
       </c>
     </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6">
         <v>2023</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <f t="shared" si="2"/>
         <v>44801.968924327317</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>778.178</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>10705.033519999999</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>62.91</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H28" s="9">
         <v>2322.5757999999996</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I28" s="9">
         <v>11604.903104327317</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J28" s="9">
         <v>19328.3685</v>
       </c>
     </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <f t="shared" si="2"/>
         <v>37081.792657201382</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>622.02300000000002</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>9376.2873299999992</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>85.058000000000007</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>2340.9119999999998</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="13">
         <v>9719.7349272013871</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J29" s="13">
         <v>14937.777399999999</v>
       </c>
     </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6">
         <v>2023</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <f t="shared" si="2"/>
         <v>40017.679605821257</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>757.96799999999996</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>10215.824409999999</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <v>52.222000000000001</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H30" s="9">
         <v>2329.6565299999997</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I30" s="9">
         <v>10678.306165821259</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J30" s="9">
         <v>15983.702499999999</v>
       </c>
     </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <f t="shared" si="2"/>
         <v>40319.464599793209</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>788.85</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>10358.44569</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>48.895000000000003</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="13">
         <v>2259.8667999999998</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I31" s="13">
         <v>10176.83545979321</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J31" s="13">
         <v>16686.571650000002</v>
       </c>
     </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="6">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
         <v>2023</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <f t="shared" si="2"/>
         <v>40587.137376239552</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>645.45299999999997</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>10949.239150000001</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="9">
         <v>36.125</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H32" s="9">
         <v>2276.2485000000001</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I32" s="9">
         <v>10352.348026239559</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J32" s="9">
         <v>16327.723699999999</v>
       </c>
     </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="10">
         <v>2023</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="12">
         <f t="shared" si="2"/>
         <v>38973.999386463627</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>640.97299999999996</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>10514.624799999998</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>48.081000000000003</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="13">
         <v>2950.8580000000002</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I33" s="13">
         <v>10310.05088646363</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J33" s="13">
         <v>14509.411699999999</v>
       </c>
     </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="6">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
         <v>2023</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <f t="shared" si="2"/>
         <v>36860.751413830367</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>640.28800000000001</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>10179.089970000003</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G34" s="9">
         <v>36.615000000000002</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H34" s="9">
         <v>2873.6055999999999</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I34" s="9">
         <v>9745.8580438303616</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J34" s="9">
         <v>13385.2948</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="10">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10">
         <v>2023</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <f t="shared" si="2"/>
         <v>40964.52406578567</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>786.44299999999998</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>10964.678350000002</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>29.545999999999999</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>2982.933</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="13">
         <v>11630.43191578567</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J35" s="13">
         <v>14570.491800000002</v>
       </c>
     </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="6">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6">
         <v>2023</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <f t="shared" si="2"/>
         <v>34787.318148179547</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>578.94399999999996</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>8934.8815099999974</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="9">
         <v>75.331999999999994</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H36" s="9">
         <v>2327.9451500000005</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I36" s="9">
         <v>10297.70288817955</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J36" s="9">
         <v>12572.5126</v>
       </c>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="14">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14">
         <v>2023</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D37" s="16">
         <f t="shared" si="2"/>
         <v>34339.076626616064</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>536.072</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>8186.4879100000007</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G37" s="17">
         <v>36.253</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H37" s="17">
         <v>2646.0401599999996</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I37" s="17">
         <v>10631.460656616069</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J37" s="17">
         <v>12302.762899999998</v>
       </c>
     </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="18">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="18">
         <v>2022</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D38" s="20">
         <f t="shared" si="2"/>
         <v>38746.066609950823</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E38" s="21">
         <v>378.79500000000002</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F38" s="21">
         <v>9252.3727799999997</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G38" s="21">
         <v>106.069</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H38" s="21">
         <v>2824.3177999999998</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I38" s="21">
         <v>11614.168229950819</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J38" s="21">
         <v>14570.343800000001</v>
       </c>
     </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <f t="shared" si="2"/>
         <v>38505.180007486138</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>516.43899999999996</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>9489.5803000000014</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>75.007999999999996</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>2658.9839999999999</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="13">
         <v>11148.715107486139</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J39" s="13">
         <v>14616.453599999999</v>
       </c>
     </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="6">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="6">
         <v>2022</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <f t="shared" si="2"/>
         <v>41053.772325471538</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>741.95500000000004</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>9730.2727100000011</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G40" s="9">
         <v>97.396000000000001</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H40" s="9">
         <v>2904.4928999999997</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I40" s="9">
         <v>11820.684915471538</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J40" s="9">
         <v>15758.970800000001</v>
       </c>
     </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="12">
         <f t="shared" si="2"/>
         <v>37277.511123095581</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>663.58500000000004</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>8746.3328199999996</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>20.056000000000001</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>3093.5552793645161</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="13">
         <v>11160.508123731061</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J41" s="13">
         <v>13593.473900000001</v>
       </c>
     </row>
-    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="6">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="6">
         <v>2022</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <f t="shared" si="2"/>
         <v>39368.723200849388</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>591.01800000000003</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>8719.4067500000001</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G42" s="9">
         <v>25.675000000000001</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H42" s="9">
         <v>3267.5057999999999</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I42" s="9">
         <v>12298.365450849389</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J42" s="9">
         <v>14466.752199999999</v>
       </c>
     </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="10">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <f t="shared" si="2"/>
         <v>40438.258232407403</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>530.70500000000004</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>9093.8344099999977</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>34.826000000000001</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H43" s="13">
         <v>3252.6017000000002</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I43" s="13">
         <v>11449.207622407401</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J43" s="13">
         <v>16077.083500000001</v>
       </c>
     </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="6">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="6">
         <v>2022</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D44" s="8">
         <f t="shared" si="2"/>
         <v>40705.379663201522</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>512.66099999999994</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <v>8969.2943099999993</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G44" s="9">
         <v>26.021000000000001</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H44" s="9">
         <v>3225.5032000000001</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I44" s="9">
         <v>12235.641653201521</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J44" s="9">
         <v>15736.2585</v>
       </c>
     </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10">
         <v>2022</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="12">
         <f t="shared" si="2"/>
         <v>38385.635270624982</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>646.77499999999998</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>5887.1319999999996</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>121.18</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="13">
         <v>3119.6742000000004</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I45" s="13">
         <v>12724.717070624982</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J45" s="13">
         <v>15886.156999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="6">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="6">
         <v>2022</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <f t="shared" si="2"/>
         <v>37880.648666149609</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>658.78499999999997</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>5153.4015100000006</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="9">
         <v>198.077</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H46" s="9">
         <v>2884.4317999999998</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I46" s="9">
         <v>13095.55395614961</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J46" s="9">
         <v>15890.3994</v>
       </c>
     </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="10">
         <v>2022</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <f t="shared" si="2"/>
         <v>39804.246607167996</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>701.476</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>5848.9565829999992</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>68.724999999999994</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>3277.5267000000003</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I47" s="13">
         <v>13626.115124168</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J47" s="13">
         <v>16281.447199999999</v>
       </c>
     </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="6">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="6">
         <v>2022</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="8">
         <f t="shared" si="2"/>
         <v>35391.386208309319</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>638.51099999999997</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F48" s="9">
         <v>5672.3767400000006</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G48" s="9">
         <v>17.033999999999999</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H48" s="9">
         <v>2882.4872999999998</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I48" s="9">
         <v>10909.849568309321</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J48" s="9">
         <v>15271.127599999998</v>
       </c>
     </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="14">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="14">
         <v>2022</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="16">
         <f t="shared" si="2"/>
         <v>32469.848449272838</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>482.12099999999998</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>6245.3897599999991</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G49" s="17">
         <v>259.46800000000002</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H49" s="17">
         <v>2435.1074600000002</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I49" s="17">
         <v>9916.5125292728408</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J49" s="17">
         <v>13131.2497</v>
       </c>
     </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="18">
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="18">
         <v>2021</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D50" s="20">
         <f t="shared" si="2"/>
         <v>39492.366382685294</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E50" s="21">
         <v>458.77499999999998</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F50" s="21">
         <v>10098.12268</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G50" s="21">
         <v>133.10599999999999</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H50" s="21">
         <v>3136.06873</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I50" s="21">
         <v>12005.78674268529</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J50" s="21">
         <v>13660.507230000001</v>
       </c>
     </row>
-    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="10">
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <f t="shared" si="2"/>
         <v>40331.827408900004</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>490.10599999999999</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>10062.285780000002</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>336.76799999999997</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>3288.1294800000001</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="13">
         <v>12280.809678899999</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J51" s="13">
         <v>13873.728469999998</v>
       </c>
     </row>
-    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="6">
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="6">
         <v>2021</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <f t="shared" si="2"/>
         <v>41580.666843700004</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>586.94299999999998</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>10735.457050000001</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G52" s="9">
         <v>619.62599999999998</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H52" s="9">
         <v>2722.0764900000004</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I52" s="9">
         <v>11237.549403700001</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J52" s="9">
         <v>15679.0149</v>
       </c>
     </row>
-    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="10">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="12">
-        <f t="shared" ref="D52:D83" si="4">SUM(E52:J52)</f>
+      <c r="D53" s="12">
+        <f t="shared" ref="D53:D84" si="4">SUM(E53:J53)</f>
         <v>38165.8196035</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>696.17100000000005</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>10134.700359999999</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>487.45499999999998</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>2548.2033000000001</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I53" s="13">
         <v>11597.826043499999</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J53" s="13">
         <v>12701.463900000001</v>
       </c>
     </row>
-    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="6">
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="6">
         <v>2021</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <f t="shared" si="4"/>
         <v>37424.307471799999</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>396.84</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F54" s="9">
         <v>9954.2116800000003</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G54" s="9">
         <v>550.08500000000004</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H54" s="9">
         <v>2444.3667</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I54" s="9">
         <v>11310.234991799998</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J54" s="9">
         <v>12768.569099999999</v>
       </c>
     </row>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="10">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="12">
         <f t="shared" si="4"/>
         <v>39029.204718000001</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>501.01900000000001</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>10968.570522</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>546.27499999999998</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="13">
         <v>2313.2728999999999</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I55" s="13">
         <v>11426.955696000001</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J55" s="13">
         <v>13273.1116</v>
       </c>
     </row>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="6">
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="6">
         <v>2021</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="8">
         <f t="shared" si="4"/>
         <v>37745.558432400001</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>463.83300000000003</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="9">
         <v>10031.152749999999</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G56" s="9">
         <v>463.92500000000001</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H56" s="9">
         <v>1743.7754</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I56" s="9">
         <v>11018.1134824</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J56" s="9">
         <v>14024.758800000001</v>
       </c>
     </row>
-    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="10">
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="10">
         <v>2021</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="12">
         <f t="shared" si="4"/>
         <v>38457.492379999996</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>554.96</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>9638.9807799999999</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>289.39</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H57" s="13">
         <v>1666.4480000000001</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I57" s="13">
         <v>11157.246999999999</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J57" s="13">
         <v>15150.4666</v>
       </c>
     </row>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="6">
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="6">
         <v>2021</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <f t="shared" si="4"/>
         <v>37112.560168100004</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>590.50099999999998</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>9277.434830000002</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G58" s="9">
         <v>331.7</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H58" s="9">
         <v>1472.3352</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I58" s="9">
         <v>11167.4790381</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J58" s="9">
         <v>14273.1101</v>
       </c>
     </row>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="10">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="10">
         <v>2021</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <f t="shared" si="4"/>
         <v>41269.452216999998</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>386.11599999999999</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>10042.040590000001</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>536.54600000000005</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>1531.1469999999999</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="13">
         <v>13111.292127000001</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J59" s="13">
         <v>15662.3105</v>
       </c>
     </row>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="6">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="6">
         <v>2021</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="8">
         <f t="shared" si="4"/>
         <v>34648.807876000006</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>219.61199999999999</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="9">
         <v>8953.9622800000016</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G60" s="9">
         <v>228.47900000000001</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H60" s="9">
         <v>1342.146</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I60" s="9">
         <v>9816.7840960000012</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J60" s="9">
         <v>14087.824500000001</v>
       </c>
     </row>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="14">
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="14">
         <v>2021</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="16">
         <f t="shared" si="4"/>
         <v>36982.816146000005</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>129.93199999999999</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>10106.45505</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G61" s="17">
         <v>156.72999999999999</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H61" s="17">
         <v>1370.9369999999999</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I61" s="17">
         <v>11214.778596</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J61" s="17">
         <v>14003.9835</v>
       </c>
     </row>
-    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="18">
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="18">
         <v>2020</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D62" s="20">
         <f t="shared" si="4"/>
         <v>36967.920087999999</v>
       </c>
-      <c r="E61" s="21">
-        <v>0</v>
-      </c>
-      <c r="F61" s="21">
+      <c r="E62" s="21">
+        <v>0</v>
+      </c>
+      <c r="F62" s="21">
         <v>10567.67765</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G62" s="21">
         <v>247.25800000000001</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H62" s="21">
         <v>1325.12</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I62" s="21">
         <v>11836.856238</v>
       </c>
-      <c r="J61" s="21">
+      <c r="J62" s="21">
         <v>12991.008199999998</v>
       </c>
     </row>
-    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="10">
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <f t="shared" si="4"/>
         <v>36852.864462999998</v>
       </c>
-      <c r="E62" s="13">
-        <v>0</v>
-      </c>
-      <c r="F62" s="13">
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
         <v>10376.03788</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>137.81200000000001</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>1566.683</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="13">
         <v>11120.986982999999</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J63" s="13">
         <v>13651.3446</v>
       </c>
     </row>
-    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="6">
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="6">
         <v>2020</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <f t="shared" si="4"/>
         <v>37111.751327400001</v>
       </c>
-      <c r="E63" s="9">
-        <v>0</v>
-      </c>
-      <c r="F63" s="9">
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="9">
         <v>10139.1556</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="9">
         <v>42.646000000000001</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H64" s="9">
         <v>1292.682</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I64" s="9">
         <v>10863.6815274</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J64" s="9">
         <v>14773.5862</v>
       </c>
     </row>
-    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="10">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="12">
         <f t="shared" si="4"/>
         <v>31289.118952199999</v>
       </c>
-      <c r="E64" s="13">
-        <v>0</v>
-      </c>
-      <c r="F64" s="13">
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13">
         <v>8729.1361899999993</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>35.866999999999997</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>987.66099999999994</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="13">
         <v>9399.9986922000007</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J65" s="13">
         <v>12136.45607</v>
       </c>
     </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="6">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="6">
         <v>2020</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <f t="shared" si="4"/>
         <v>28794.378688499997</v>
       </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9">
         <v>8471.0650299999998</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G66" s="9">
         <v>42.926000000000002</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H66" s="9">
         <v>1074.0519999999999</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I66" s="9">
         <v>8606.7041585000006</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J66" s="9">
         <v>10599.6315</v>
       </c>
     </row>
-    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="10">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="12">
         <f t="shared" si="4"/>
         <v>27431.279484500003</v>
       </c>
-      <c r="E66" s="13">
-        <v>0</v>
-      </c>
-      <c r="F66" s="13">
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
         <v>8226.0579799999996</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>36.588000000000001</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H67" s="13">
         <v>1040.3589999999999</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I67" s="13">
         <v>8177.4266045000004</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J67" s="13">
         <v>9950.8479000000007</v>
       </c>
     </row>
-    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="6">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="6">
         <v>2020</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="8">
         <f t="shared" si="4"/>
         <v>25926.471812200001</v>
       </c>
-      <c r="E67" s="9">
-        <v>0</v>
-      </c>
-      <c r="F67" s="9">
+      <c r="E68" s="9">
+        <v>0</v>
+      </c>
+      <c r="F68" s="9">
         <v>7134.2837199999994</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G68" s="9">
         <v>63.805</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H68" s="9">
         <v>855.82899999999995</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I68" s="9">
         <v>7779.0341922000007</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J68" s="9">
         <v>10093.519900000001</v>
       </c>
     </row>
-    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="10">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="10">
         <v>2020</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="12">
         <f t="shared" si="4"/>
         <v>23168.212673900001</v>
       </c>
-      <c r="E68" s="13">
-        <v>0</v>
-      </c>
-      <c r="F68" s="13">
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
         <v>6023.6581899999992</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>187.08600000000001</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H69" s="13">
         <v>832.03399999999999</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I69" s="13">
         <v>7072.7845839000001</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J69" s="13">
         <v>9052.6499000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="6">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="6">
         <v>2020</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="8">
         <f t="shared" si="4"/>
         <v>20427.959275100002</v>
       </c>
-      <c r="E69" s="9">
-        <v>0</v>
-      </c>
-      <c r="F69" s="9">
+      <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="F70" s="9">
         <v>5209.0807000000004</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G70" s="9">
         <v>24.07</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H70" s="9">
         <v>739.351</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I70" s="9">
         <v>6596.5606751000005</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J70" s="9">
         <v>7858.8969000000006</v>
       </c>
     </row>
-    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="10">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="10">
         <v>2020</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <f t="shared" si="4"/>
         <v>33140.735087100002</v>
       </c>
-      <c r="E70" s="13">
-        <v>0</v>
-      </c>
-      <c r="F70" s="13">
+      <c r="E71" s="13">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
         <v>8644.8665579999997</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>50.677999999999997</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="13">
         <v>2214.377</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I71" s="13">
         <v>10403.6180291</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J71" s="13">
         <v>11827.1955</v>
       </c>
     </row>
-    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="6">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="6">
         <v>2020</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="8">
         <f t="shared" si="4"/>
         <v>31595.295708999998</v>
       </c>
-      <c r="E71" s="9">
-        <v>0</v>
-      </c>
-      <c r="F71" s="9">
+      <c r="E72" s="9">
+        <v>0</v>
+      </c>
+      <c r="F72" s="9">
         <v>8503.3772899999985</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G72" s="9">
         <v>71.156000000000006</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H72" s="9">
         <v>2496.2399999999998</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I72" s="9">
         <v>9914.0471189999989</v>
       </c>
-      <c r="J71" s="9">
+      <c r="J72" s="9">
         <v>10610.4753</v>
       </c>
     </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="14">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="14">
         <v>2020</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="16">
         <f t="shared" si="4"/>
         <v>31902.586373000002</v>
       </c>
-      <c r="E72" s="17">
-        <v>0</v>
-      </c>
-      <c r="F72" s="17">
+      <c r="E73" s="17">
+        <v>0</v>
+      </c>
+      <c r="F73" s="17">
         <v>8365.6301700000004</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G73" s="17">
         <v>80.352000000000004</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H73" s="17">
         <v>2759.7359999999999</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I73" s="17">
         <v>11337.052103</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J73" s="17">
         <v>9359.8161</v>
       </c>
     </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="18">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="18">
         <v>2019</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C74" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D74" s="20">
         <f t="shared" si="4"/>
         <v>34834.055678999997</v>
       </c>
-      <c r="E73" s="21">
-        <v>0</v>
-      </c>
-      <c r="F73" s="21">
+      <c r="E74" s="21">
+        <v>0</v>
+      </c>
+      <c r="F74" s="21">
         <v>9580.7296500000011</v>
       </c>
-      <c r="G73" s="21">
-        <v>0</v>
-      </c>
-      <c r="H73" s="21">
+      <c r="G74" s="21">
+        <v>0</v>
+      </c>
+      <c r="H74" s="21">
         <v>2707.5740000000001</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I74" s="21">
         <v>11491.813929</v>
       </c>
-      <c r="J73" s="21">
+      <c r="J74" s="21">
         <v>11053.938099999999</v>
       </c>
     </row>
-    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="10">
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="12">
         <f t="shared" si="4"/>
         <v>36842.30025</v>
       </c>
-      <c r="E74" s="13">
-        <v>0</v>
-      </c>
-      <c r="F74" s="13">
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13">
         <v>9295.5269499999995</v>
       </c>
-      <c r="G74" s="13">
-        <v>0</v>
-      </c>
-      <c r="H74" s="13">
+      <c r="G75" s="13">
+        <v>0</v>
+      </c>
+      <c r="H75" s="13">
         <v>2968.0250000000001</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I75" s="13">
         <v>12197.1018</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J75" s="13">
         <v>12381.646500000001</v>
       </c>
     </row>
-    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="6">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="6">
         <v>2019</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <f t="shared" si="4"/>
         <v>37499.549509000004</v>
       </c>
-      <c r="E75" s="9">
-        <v>0</v>
-      </c>
-      <c r="F75" s="9">
+      <c r="E76" s="9">
+        <v>0</v>
+      </c>
+      <c r="F76" s="9">
         <v>8717.2473399999999</v>
       </c>
-      <c r="G75" s="9">
-        <v>0</v>
-      </c>
-      <c r="H75" s="9">
+      <c r="G76" s="9">
+        <v>0</v>
+      </c>
+      <c r="H76" s="9">
         <v>2772.4720000000002</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I76" s="9">
         <v>12460.489269000002</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J76" s="9">
         <v>13549.340900000001</v>
       </c>
     </row>
-    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="10">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="12">
         <f t="shared" si="4"/>
         <v>34780.897574999995</v>
       </c>
-      <c r="E76" s="13">
-        <v>0</v>
-      </c>
-      <c r="F76" s="13">
+      <c r="E77" s="13">
+        <v>0</v>
+      </c>
+      <c r="F77" s="13">
         <v>8235.0453999999991</v>
       </c>
-      <c r="G76" s="13">
-        <v>0</v>
-      </c>
-      <c r="H76" s="13">
+      <c r="G77" s="13">
+        <v>0</v>
+      </c>
+      <c r="H77" s="13">
         <v>3011.7339999999999</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I77" s="13">
         <v>11347.632975</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J77" s="13">
         <v>12186.485199999999</v>
       </c>
     </row>
-    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="6">
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="6">
         <v>2019</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <f t="shared" si="4"/>
         <v>36123.947636999997</v>
       </c>
-      <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77" s="9">
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+      <c r="F78" s="9">
         <v>8047.0139099999997</v>
       </c>
-      <c r="G77" s="9">
-        <v>0</v>
-      </c>
-      <c r="H77" s="9">
+      <c r="G78" s="9">
+        <v>0</v>
+      </c>
+      <c r="H78" s="9">
         <v>2861.5230000000001</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I78" s="9">
         <v>13553.171926999999</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J78" s="9">
         <v>11662.238800000001</v>
       </c>
     </row>
-    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="10">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <f t="shared" si="4"/>
         <v>36989.020386999997</v>
       </c>
-      <c r="E78" s="13">
-        <v>0</v>
-      </c>
-      <c r="F78" s="13">
+      <c r="E79" s="13">
+        <v>0</v>
+      </c>
+      <c r="F79" s="13">
         <v>8253.6834899999994</v>
       </c>
-      <c r="G78" s="13">
-        <v>0</v>
-      </c>
-      <c r="H78" s="13">
+      <c r="G79" s="13">
+        <v>0</v>
+      </c>
+      <c r="H79" s="13">
         <v>2588.3980000000001</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I79" s="13">
         <v>13481.634697000001</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J79" s="13">
         <v>12665.304199999999</v>
       </c>
     </row>
-    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="6">
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="6">
         <v>2019</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <f t="shared" si="4"/>
         <v>36253.700530000002</v>
       </c>
-      <c r="E79" s="9">
-        <v>0</v>
-      </c>
-      <c r="F79" s="9">
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="9">
         <v>7444.2109199999995</v>
       </c>
-      <c r="G79" s="9">
-        <v>0</v>
-      </c>
-      <c r="H79" s="9">
+      <c r="G80" s="9">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9">
         <v>2726.3809999999999</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I80" s="9">
         <v>14226.39911</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J80" s="9">
         <v>11856.709500000001</v>
       </c>
     </row>
-    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="10">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="10">
         <v>2019</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="12">
         <f t="shared" si="4"/>
         <v>36841.123875999998</v>
       </c>
-      <c r="E80" s="13">
-        <v>0</v>
-      </c>
-      <c r="F80" s="13">
+      <c r="E81" s="13">
+        <v>0</v>
+      </c>
+      <c r="F81" s="13">
         <v>8213.8209500000012</v>
       </c>
-      <c r="G80" s="13">
-        <v>0</v>
-      </c>
-      <c r="H80" s="13">
+      <c r="G81" s="13">
+        <v>0</v>
+      </c>
+      <c r="H81" s="13">
         <v>2822.8220000000001</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I81" s="13">
         <v>14573.453925999998</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J81" s="13">
         <v>11231.027</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="6">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="6">
         <v>2019</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <f t="shared" si="4"/>
         <v>34774.654051999998</v>
       </c>
-      <c r="E81" s="9">
-        <v>0</v>
-      </c>
-      <c r="F81" s="9">
+      <c r="E82" s="9">
+        <v>0</v>
+      </c>
+      <c r="F82" s="9">
         <v>7045.8119100000004</v>
       </c>
-      <c r="G81" s="9">
-        <v>0</v>
-      </c>
-      <c r="H81" s="9">
+      <c r="G82" s="9">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9">
         <v>2281.2820000000002</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I82" s="9">
         <v>14819.089841999999</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J82" s="9">
         <v>10628.470300000001</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="10">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="10">
         <v>2019</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <f t="shared" si="4"/>
         <v>41597.635473399998</v>
       </c>
-      <c r="E82" s="13">
-        <v>0</v>
-      </c>
-      <c r="F82" s="13">
+      <c r="E83" s="13">
+        <v>0</v>
+      </c>
+      <c r="F83" s="13">
         <v>8978.2172699999992</v>
       </c>
-      <c r="G82" s="13">
-        <v>0</v>
-      </c>
-      <c r="H82" s="13">
+      <c r="G83" s="13">
+        <v>0</v>
+      </c>
+      <c r="H83" s="13">
         <v>2665.5234</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>16057.1642034</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J83" s="13">
         <v>13896.730599999999</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="6">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="6">
         <v>2019</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="8">
         <f t="shared" si="4"/>
         <v>34403.574224000004</v>
       </c>
-      <c r="E83" s="9">
-        <v>0</v>
-      </c>
-      <c r="F83" s="9">
+      <c r="E84" s="9">
+        <v>0</v>
+      </c>
+      <c r="F84" s="9">
         <v>7372.8365000000003</v>
       </c>
-      <c r="G83" s="9">
-        <v>0</v>
-      </c>
-      <c r="H83" s="9">
+      <c r="G84" s="9">
+        <v>0</v>
+      </c>
+      <c r="H84" s="9">
         <v>2041.7819999999999</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I84" s="9">
         <v>14155.565524</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J84" s="9">
         <v>10833.3902</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="14">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="14">
         <v>2019</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="16">
-        <f t="shared" ref="D84:D96" si="5">SUM(E84:J84)</f>
+      <c r="D85" s="16">
+        <f t="shared" ref="D85:D97" si="5">SUM(E85:J85)</f>
         <v>34340.204129700003</v>
       </c>
-      <c r="E84" s="17">
-        <v>0</v>
-      </c>
-      <c r="F84" s="17">
+      <c r="E85" s="17">
+        <v>0</v>
+      </c>
+      <c r="F85" s="17">
         <v>7805.6810100000012</v>
       </c>
-      <c r="G84" s="17">
-        <v>0</v>
-      </c>
-      <c r="H84" s="17">
+      <c r="G85" s="17">
+        <v>0</v>
+      </c>
+      <c r="H85" s="17">
         <v>2447.4140000000002</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I85" s="17">
         <v>13462.407319700002</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J85" s="17">
         <v>10624.701800000001</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="7">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <f t="shared" si="5"/>
         <v>39107.630482000008</v>
       </c>
-      <c r="E85" s="9">
-        <v>0</v>
-      </c>
-      <c r="F85" s="9">
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="9">
         <v>9016.9082100000014</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G86" s="9">
         <v>604.548</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H86" s="9">
         <v>2518.2449999999999</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I86" s="9">
         <v>14153.156971999999</v>
       </c>
-      <c r="J85" s="9">
+      <c r="J86" s="9">
         <v>12814.772300000001</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="11">
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <f t="shared" si="5"/>
         <v>40739.449042</v>
       </c>
-      <c r="E86" s="13">
-        <v>0</v>
-      </c>
-      <c r="F86" s="13">
+      <c r="E87" s="13">
+        <v>0</v>
+      </c>
+      <c r="F87" s="13">
         <v>10171.974600000001</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>543.64599999999996</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H87" s="13">
         <v>3271.4839999999999</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>14774.019941999999</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J87" s="13">
         <v>11978.324500000001</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="7">
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <f t="shared" si="5"/>
         <v>41232.318012000003</v>
       </c>
-      <c r="E87" s="9">
-        <v>0</v>
-      </c>
-      <c r="F87" s="9">
+      <c r="E88" s="9">
+        <v>0</v>
+      </c>
+      <c r="F88" s="9">
         <v>9028.4674500000001</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G88" s="9">
         <v>556.69100000000003</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H88" s="9">
         <v>3183.5309999999999</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I88" s="9">
         <v>15699.443762000001</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J88" s="9">
         <v>12764.184800000001</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="11">
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <f t="shared" si="5"/>
         <v>39190.964049599999</v>
       </c>
-      <c r="E88" s="13">
-        <v>0</v>
-      </c>
-      <c r="F88" s="13">
+      <c r="E89" s="13">
+        <v>0</v>
+      </c>
+      <c r="F89" s="13">
         <v>9327.9771700000001</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>646.58299999999997</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H89" s="13">
         <v>3104.5279999999998</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>13338.916489599998</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J89" s="13">
         <v>12772.95939</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="7">
+    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D90" s="8">
         <f t="shared" si="5"/>
         <v>37812.709869799997</v>
       </c>
-      <c r="E89" s="9">
-        <v>0</v>
-      </c>
-      <c r="F89" s="9">
+      <c r="E90" s="9">
+        <v>0</v>
+      </c>
+      <c r="F90" s="9">
         <v>8414.4507599999997</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G90" s="9">
         <v>730.47900000000004</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H90" s="9">
         <v>3062.973</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I90" s="9">
         <v>14063.5628698</v>
       </c>
-      <c r="J89" s="9">
+      <c r="J90" s="9">
         <v>11541.24424</v>
       </c>
     </row>
-    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="11">
+    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="11">
         <v>2018</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C91" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D91" s="12">
         <f t="shared" si="5"/>
         <v>39965.855546999999</v>
       </c>
-      <c r="E90" s="13">
-        <v>0</v>
-      </c>
-      <c r="F90" s="13">
+      <c r="E91" s="13">
+        <v>0</v>
+      </c>
+      <c r="F91" s="13">
         <v>8683.6723199999997</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G91" s="13">
         <v>687.87199999999996</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H91" s="13">
         <v>2884.9024869999998</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I91" s="13">
         <v>14803.904460000002</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J91" s="13">
         <v>12905.504279999999</v>
       </c>
     </row>
-    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="7">
+    <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="7">
         <v>2018</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <f t="shared" si="5"/>
         <v>41066.873502000002</v>
       </c>
-      <c r="E91" s="9">
-        <v>0</v>
-      </c>
-      <c r="F91" s="9">
+      <c r="E92" s="9">
+        <v>0</v>
+      </c>
+      <c r="F92" s="9">
         <v>8739.8234700000012</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G92" s="9">
         <v>775.90599999999995</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H92" s="9">
         <v>3132.7950000000001</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I92" s="9">
         <v>15348.913632</v>
       </c>
-      <c r="J91" s="9">
+      <c r="J92" s="9">
         <v>13069.4354</v>
       </c>
     </row>
-    <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="11">
+    <row r="93" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="11">
         <v>2018</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C93" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D93" s="12">
         <f t="shared" si="5"/>
         <v>39330.274949999999</v>
       </c>
-      <c r="E92" s="13">
-        <v>0</v>
-      </c>
-      <c r="F92" s="13">
+      <c r="E93" s="13">
+        <v>0</v>
+      </c>
+      <c r="F93" s="13">
         <v>8459.8314499999997</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G93" s="13">
         <v>741.85500000000002</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H93" s="13">
         <v>3243.9609999999998</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I93" s="13">
         <v>15389.468199999999</v>
       </c>
-      <c r="J92" s="13">
+      <c r="J93" s="13">
         <v>11495.159300000001</v>
       </c>
     </row>
-    <row r="93" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="7">
+    <row r="94" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="7">
         <v>2018</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D94" s="8">
         <f t="shared" si="5"/>
         <v>42190.912314999994</v>
       </c>
-      <c r="E93" s="9">
-        <v>0</v>
-      </c>
-      <c r="F93" s="9">
+      <c r="E94" s="9">
+        <v>0</v>
+      </c>
+      <c r="F94" s="9">
         <v>9138.4659200000006</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G94" s="9">
         <v>763.33</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H94" s="9">
         <v>2695.9059999999999</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I94" s="9">
         <v>17318.287694999999</v>
       </c>
-      <c r="J93" s="9">
+      <c r="J94" s="9">
         <v>12274.922699999999</v>
       </c>
     </row>
-    <row r="94" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="11">
+    <row r="95" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="11">
         <v>2018</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C95" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D95" s="12">
         <f t="shared" si="5"/>
         <v>42310.135434999997</v>
       </c>
-      <c r="E94" s="13">
-        <v>0</v>
-      </c>
-      <c r="F94" s="13">
+      <c r="E95" s="13">
+        <v>0</v>
+      </c>
+      <c r="F95" s="13">
         <v>9362.9394400000001</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G95" s="13">
         <v>388.47899999999998</v>
       </c>
-      <c r="H94" s="13">
+      <c r="H95" s="13">
         <v>3041.660961</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I95" s="13">
         <v>15644.620234</v>
       </c>
-      <c r="J94" s="13">
+      <c r="J95" s="13">
         <v>13872.435800000001</v>
       </c>
     </row>
-    <row r="95" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="7">
+    <row r="96" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="7">
         <v>2018</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D96" s="8">
         <f t="shared" si="5"/>
         <v>34826.467999300003</v>
       </c>
-      <c r="E95" s="9">
-        <v>0</v>
-      </c>
-      <c r="F95" s="9">
+      <c r="E96" s="9">
+        <v>0</v>
+      </c>
+      <c r="F96" s="9">
         <v>7302.8320700000004</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G96" s="9">
         <v>356.733</v>
       </c>
-      <c r="H95" s="9">
+      <c r="H96" s="9">
         <v>2616.0599083000002</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I96" s="9">
         <v>13679.491221</v>
       </c>
-      <c r="J95" s="9">
+      <c r="J96" s="9">
         <v>10871.3518</v>
       </c>
     </row>
-    <row r="96" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="11">
+    <row r="97" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="11">
         <v>2018</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C97" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D97" s="12">
         <f t="shared" si="5"/>
         <v>34940.797042999999</v>
       </c>
-      <c r="E96" s="13">
-        <v>0</v>
-      </c>
-      <c r="F96" s="13">
+      <c r="E97" s="13">
+        <v>0</v>
+      </c>
+      <c r="F97" s="13">
         <v>7741.241140000001</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G97" s="13">
         <v>295.541</v>
       </c>
-      <c r="H96" s="13">
+      <c r="H97" s="13">
         <v>2365.5157000000004</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I97" s="13">
         <v>14151.311802999999</v>
       </c>
-      <c r="J96" s="13">
+      <c r="J97" s="13">
         <v>10387.187400000001</v>
       </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B97" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J98" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="D98" s="3"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J99" s="22"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" s="3" t="s">
         <v>2</v>
       </c>
     </row>
